--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R357"/>
+  <dimension ref="A1:R359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44176</v>
+        <v>44413</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11229,7 +11229,7 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>8700</v>
+        <v>19500</v>
       </c>
       <c r="K151" t="n">
         <v>500</v>
@@ -11238,7 +11238,7 @@
         <v>600</v>
       </c>
       <c r="M151" t="n">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44176</v>
+        <v>44413</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11301,7 +11301,7 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>3800</v>
+        <v>4800</v>
       </c>
       <c r="K152" t="n">
         <v>400</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44222</v>
+        <v>44176</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>10000</v>
+        <v>8700</v>
       </c>
       <c r="K153" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L153" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M153" t="n">
-        <v>946</v>
+        <v>562</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>946</v>
+        <v>562</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44222</v>
+        <v>44176</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>5800</v>
+        <v>3800</v>
       </c>
       <c r="K154" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L154" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M154" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44237</v>
+        <v>44222</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11517,7 +11517,7 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="K155" t="n">
         <v>900</v>
@@ -11526,7 +11526,7 @@
         <v>1000</v>
       </c>
       <c r="M155" t="n">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44237</v>
+        <v>44222</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11589,7 +11589,7 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>2500</v>
+        <v>5800</v>
       </c>
       <c r="K156" t="n">
         <v>700</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>10700</v>
+        <v>9900</v>
       </c>
       <c r="K157" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L157" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M157" t="n">
-        <v>738</v>
+        <v>943</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>738</v>
+        <v>943</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="K158" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L158" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M158" t="n">
-        <v>480</v>
+        <v>700</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>480</v>
+        <v>700</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>19100</v>
+        <v>10700</v>
       </c>
       <c r="K159" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L159" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M159" t="n">
-        <v>443</v>
+        <v>738</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>443</v>
+        <v>738</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>5300</v>
+        <v>4000</v>
       </c>
       <c r="K160" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L160" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M160" t="n">
-        <v>326</v>
+        <v>480</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>326</v>
+        <v>480</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44257</v>
+        <v>44377</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>12000</v>
+        <v>19100</v>
       </c>
       <c r="K161" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L161" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M161" t="n">
-        <v>842</v>
+        <v>443</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>842</v>
+        <v>443</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44257</v>
+        <v>44377</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>8500</v>
+        <v>5300</v>
       </c>
       <c r="K162" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L162" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="M162" t="n">
-        <v>647</v>
+        <v>326</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>647</v>
+        <v>326</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44400</v>
+        <v>44257</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12093,16 +12093,16 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>18100</v>
+        <v>12000</v>
       </c>
       <c r="K163" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L163" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M163" t="n">
-        <v>647</v>
+        <v>842</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>647</v>
+        <v>842</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44400</v>
+        <v>44257</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>3800</v>
+        <v>8500</v>
       </c>
       <c r="K164" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L164" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M164" t="n">
-        <v>500</v>
+        <v>647</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>500</v>
+        <v>647</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44225</v>
+        <v>44400</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>6500</v>
+        <v>18100</v>
       </c>
       <c r="K165" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L165" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M165" t="n">
-        <v>1000</v>
+        <v>647</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>1000</v>
+        <v>647</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44225</v>
+        <v>44400</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>12000</v>
+        <v>3800</v>
       </c>
       <c r="K166" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L166" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M166" t="n">
-        <v>838</v>
+        <v>500</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>838</v>
+        <v>500</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44295</v>
+        <v>44225</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>26600</v>
+        <v>6500</v>
       </c>
       <c r="K167" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L167" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M167" t="n">
-        <v>473</v>
+        <v>1000</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>473</v>
+        <v>1000</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44295</v>
+        <v>44225</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12453,16 +12453,16 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="K168" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="L168" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="M168" t="n">
-        <v>277</v>
+        <v>838</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>277</v>
+        <v>838</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44194</v>
+        <v>44295</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>21000</v>
+        <v>26600</v>
       </c>
       <c r="K169" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L169" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M169" t="n">
-        <v>743</v>
+        <v>473</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>743</v>
+        <v>473</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44194</v>
+        <v>44295</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12600,13 +12600,13 @@
         <v>6000</v>
       </c>
       <c r="K170" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L170" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M170" t="n">
-        <v>600</v>
+        <v>277</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>600</v>
+        <v>277</v>
       </c>
       <c r="Q170" t="n">
         <v>1</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12669,16 +12669,16 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>10200</v>
+        <v>21000</v>
       </c>
       <c r="K171" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L171" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M171" t="n">
-        <v>566</v>
+        <v>743</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>566</v>
+        <v>743</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>2900</v>
+        <v>6000</v>
       </c>
       <c r="K172" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L172" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M172" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>8000</v>
+        <v>10200</v>
       </c>
       <c r="K173" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L173" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M173" t="n">
-        <v>472</v>
+        <v>566</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>472</v>
+        <v>566</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12885,16 +12885,16 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>6500</v>
+        <v>2900</v>
       </c>
       <c r="K174" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L174" t="n">
         <v>400</v>
       </c>
       <c r="M174" t="n">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="Q174" t="n">
         <v>1</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>25200</v>
+        <v>8000</v>
       </c>
       <c r="K175" t="n">
+        <v>450</v>
+      </c>
+      <c r="L175" t="n">
         <v>500</v>
       </c>
-      <c r="L175" t="n">
-        <v>600</v>
-      </c>
       <c r="M175" t="n">
-        <v>549</v>
+        <v>472</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>549</v>
+        <v>472</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13029,7 +13029,7 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>8400</v>
+        <v>6500</v>
       </c>
       <c r="K176" t="n">
         <v>350</v>
@@ -13038,7 +13038,7 @@
         <v>400</v>
       </c>
       <c r="M176" t="n">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="Q176" t="n">
         <v>1</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>16600</v>
+        <v>25200</v>
       </c>
       <c r="K177" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L177" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M177" t="n">
-        <v>460</v>
+        <v>549</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>460</v>
+        <v>549</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13173,7 +13173,7 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>7300</v>
+        <v>8400</v>
       </c>
       <c r="K178" t="n">
         <v>350</v>
@@ -13182,7 +13182,7 @@
         <v>400</v>
       </c>
       <c r="M178" t="n">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="Q178" t="n">
         <v>1</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>16800</v>
+        <v>16600</v>
       </c>
       <c r="K179" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L179" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M179" t="n">
-        <v>355</v>
+        <v>460</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>355</v>
+        <v>460</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>4700</v>
+        <v>7300</v>
       </c>
       <c r="K180" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L180" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M180" t="n">
-        <v>279</v>
+        <v>381</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>279</v>
+        <v>381</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44169</v>
+        <v>44354</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>17100</v>
+        <v>16800</v>
       </c>
       <c r="K181" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L181" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M181" t="n">
-        <v>704</v>
+        <v>355</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>704</v>
+        <v>355</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44169</v>
+        <v>44354</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>8800</v>
+        <v>4700</v>
       </c>
       <c r="K182" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L182" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M182" t="n">
-        <v>539</v>
+        <v>279</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>539</v>
+        <v>279</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>13100</v>
+        <v>17100</v>
       </c>
       <c r="K183" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L183" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M183" t="n">
-        <v>537</v>
+        <v>704</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>537</v>
+        <v>704</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>5600</v>
+        <v>8800</v>
       </c>
       <c r="K184" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L184" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M184" t="n">
-        <v>443</v>
+        <v>539</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>443</v>
+        <v>539</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>13300</v>
+        <v>13100</v>
       </c>
       <c r="K185" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L185" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M185" t="n">
-        <v>451</v>
+        <v>537</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>451</v>
+        <v>537</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13752,13 +13752,13 @@
         <v>5600</v>
       </c>
       <c r="K186" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L186" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M186" t="n">
-        <v>380</v>
+        <v>443</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>380</v>
+        <v>443</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>17600</v>
+        <v>13300</v>
       </c>
       <c r="K187" t="n">
         <v>400</v>
       </c>
       <c r="L187" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M187" t="n">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="K188" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="L188" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M188" t="n">
-        <v>600</v>
+        <v>380</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13911,11 +13911,11 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>600</v>
+        <v>380</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13961,20 +13961,20 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>5900</v>
+        <v>17600</v>
       </c>
       <c r="K189" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L189" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M189" t="n">
-        <v>346</v>
+        <v>473</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>346</v>
+        <v>473</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>2300</v>
+        <v>5400</v>
       </c>
       <c r="K190" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L190" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M190" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14105,20 +14105,20 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>21300</v>
+        <v>5900</v>
       </c>
       <c r="K191" t="n">
+        <v>300</v>
+      </c>
+      <c r="L191" t="n">
         <v>400</v>
       </c>
-      <c r="L191" t="n">
-        <v>600</v>
-      </c>
       <c r="M191" t="n">
-        <v>495</v>
+        <v>346</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>495</v>
+        <v>346</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14181,16 +14181,16 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>7000</v>
+        <v>2300</v>
       </c>
       <c r="K192" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L192" t="n">
         <v>400</v>
       </c>
       <c r="M192" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14199,11 +14199,11 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44172</v>
+        <v>44300</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>16000</v>
+        <v>21300</v>
       </c>
       <c r="K193" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L193" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M193" t="n">
-        <v>741</v>
+        <v>495</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>741</v>
+        <v>495</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44172</v>
+        <v>44300</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="K194" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L194" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M194" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44214</v>
+        <v>44172</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14397,7 +14397,7 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>6100</v>
+        <v>16000</v>
       </c>
       <c r="K195" t="n">
         <v>700</v>
@@ -14406,7 +14406,7 @@
         <v>800</v>
       </c>
       <c r="M195" t="n">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44214</v>
+        <v>44172</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>3400</v>
+        <v>4500</v>
       </c>
       <c r="K196" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L196" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M196" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14541,16 +14541,16 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>15700</v>
+        <v>6100</v>
       </c>
       <c r="K197" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L197" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M197" t="n">
-        <v>437</v>
+        <v>750</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>437</v>
+        <v>750</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>5700</v>
+        <v>3400</v>
       </c>
       <c r="K198" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L198" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M198" t="n">
-        <v>324</v>
+        <v>600</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>324</v>
+        <v>600</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14685,16 +14685,16 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>17000</v>
+        <v>15700</v>
       </c>
       <c r="K199" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="L199" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M199" t="n">
-        <v>856</v>
+        <v>437</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>856</v>
+        <v>437</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>6500</v>
+        <v>5700</v>
       </c>
       <c r="K200" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L200" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="M200" t="n">
-        <v>700</v>
+        <v>324</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>700</v>
+        <v>324</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44274</v>
+        <v>44238</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14829,16 +14829,16 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>12300</v>
+        <v>17000</v>
       </c>
       <c r="K201" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L201" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M201" t="n">
-        <v>653</v>
+        <v>856</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>653</v>
+        <v>856</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44274</v>
+        <v>44238</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14897,7 +14897,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J202" t="n">
@@ -14907,10 +14907,10 @@
         <v>700</v>
       </c>
       <c r="L202" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M202" t="n">
-        <v>749</v>
+        <v>700</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14919,11 +14919,11 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>749</v>
+        <v>700</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14969,20 +14969,20 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>2800</v>
+        <v>12300</v>
       </c>
       <c r="K203" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L203" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M203" t="n">
-        <v>400</v>
+        <v>653</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>400</v>
+        <v>653</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15041,20 +15041,20 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>1800</v>
+        <v>6500</v>
       </c>
       <c r="K204" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L204" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M204" t="n">
-        <v>500</v>
+        <v>749</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>500</v>
+        <v>749</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44320</v>
+        <v>44274</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15113,20 +15113,20 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>16300</v>
+        <v>2800</v>
       </c>
       <c r="K205" t="n">
         <v>400</v>
       </c>
       <c r="L205" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M205" t="n">
-        <v>471</v>
+        <v>400</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>471</v>
+        <v>400</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44320</v>
+        <v>44274</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>5800</v>
+        <v>1800</v>
       </c>
       <c r="K206" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L206" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M206" t="n">
-        <v>348</v>
+        <v>500</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15207,11 +15207,11 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>348</v>
+        <v>500</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15257,20 +15257,20 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>2000</v>
+        <v>16300</v>
       </c>
       <c r="K207" t="n">
         <v>400</v>
       </c>
       <c r="L207" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M207" t="n">
-        <v>400</v>
+        <v>471</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15279,11 +15279,11 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>400</v>
+        <v>471</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15329,20 +15329,20 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>1500</v>
+        <v>5800</v>
       </c>
       <c r="K208" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L208" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M208" t="n">
-        <v>500</v>
+        <v>348</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15351,11 +15351,11 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>500</v>
+        <v>348</v>
       </c>
       <c r="Q208" t="n">
         <v>1</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15401,20 +15401,20 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>11300</v>
+        <v>2000</v>
       </c>
       <c r="K209" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L209" t="n">
         <v>400</v>
       </c>
       <c r="M209" t="n">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15423,11 +15423,11 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="Q209" t="n">
         <v>1</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15473,20 +15473,20 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>3800</v>
+        <v>1500</v>
       </c>
       <c r="K210" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L210" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M210" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15495,11 +15495,11 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="Q210" t="n">
         <v>1</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>18300</v>
+        <v>11300</v>
       </c>
       <c r="K211" t="n">
+        <v>350</v>
+      </c>
+      <c r="L211" t="n">
         <v>400</v>
       </c>
-      <c r="L211" t="n">
-        <v>500</v>
-      </c>
       <c r="M211" t="n">
-        <v>454</v>
+        <v>379</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>454</v>
+        <v>379</v>
       </c>
       <c r="Q211" t="n">
         <v>1</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15617,20 +15617,20 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>4200</v>
+        <v>3800</v>
       </c>
       <c r="K212" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L212" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M212" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15639,11 +15639,11 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="Q212" t="n">
         <v>1</v>
@@ -15689,20 +15689,20 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>3800</v>
+        <v>18300</v>
       </c>
       <c r="K213" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L213" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M213" t="n">
-        <v>300</v>
+        <v>454</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>300</v>
+        <v>454</v>
       </c>
       <c r="Q213" t="n">
         <v>1</v>
@@ -15761,20 +15761,20 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>1600</v>
+        <v>4200</v>
       </c>
       <c r="K214" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L214" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M214" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q214" t="n">
         <v>1</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15833,20 +15833,20 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>23700</v>
+        <v>3800</v>
       </c>
       <c r="K215" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L215" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M215" t="n">
-        <v>544</v>
+        <v>300</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>544</v>
+        <v>300</v>
       </c>
       <c r="Q215" t="n">
         <v>1</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>7400</v>
+        <v>1600</v>
       </c>
       <c r="K216" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L216" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M216" t="n">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15927,11 +15927,11 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="Q216" t="n">
         <v>1</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>16000</v>
+        <v>23700</v>
       </c>
       <c r="K217" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L217" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M217" t="n">
-        <v>947</v>
+        <v>544</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>947</v>
+        <v>544</v>
       </c>
       <c r="Q217" t="n">
         <v>1</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16053,16 +16053,16 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>9000</v>
+        <v>7400</v>
       </c>
       <c r="K218" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L218" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M218" t="n">
-        <v>661</v>
+        <v>362</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>661</v>
+        <v>362</v>
       </c>
       <c r="Q218" t="n">
         <v>1</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44260</v>
+        <v>44224</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16125,16 +16125,16 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>6500</v>
+        <v>16000</v>
       </c>
       <c r="K219" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L219" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M219" t="n">
-        <v>851</v>
+        <v>947</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>851</v>
+        <v>947</v>
       </c>
       <c r="Q219" t="n">
         <v>1</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44260</v>
+        <v>44224</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>2800</v>
+        <v>9000</v>
       </c>
       <c r="K220" t="n">
         <v>600</v>
       </c>
       <c r="L220" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M220" t="n">
-        <v>600</v>
+        <v>661</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>600</v>
+        <v>661</v>
       </c>
       <c r="Q220" t="n">
         <v>1</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>9700</v>
+        <v>6500</v>
       </c>
       <c r="K221" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L221" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M221" t="n">
-        <v>467</v>
+        <v>851</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>467</v>
+        <v>851</v>
       </c>
       <c r="Q221" t="n">
         <v>1</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16337,20 +16337,20 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>5600</v>
+        <v>2800</v>
       </c>
       <c r="K222" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L222" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M222" t="n">
-        <v>423</v>
+        <v>600</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16359,11 +16359,11 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>423</v>
+        <v>600</v>
       </c>
       <c r="Q222" t="n">
         <v>1</v>
@@ -16409,20 +16409,20 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>3200</v>
+        <v>9700</v>
       </c>
       <c r="K223" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L223" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M223" t="n">
-        <v>300</v>
+        <v>467</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>300</v>
+        <v>467</v>
       </c>
       <c r="Q223" t="n">
         <v>1</v>
@@ -16481,20 +16481,20 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>800</v>
+        <v>5600</v>
       </c>
       <c r="K224" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L224" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="M224" t="n">
-        <v>250</v>
+        <v>423</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>250</v>
+        <v>423</v>
       </c>
       <c r="Q224" t="n">
         <v>1</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44209</v>
+        <v>44327</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16553,20 +16553,20 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>7900</v>
+        <v>3200</v>
       </c>
       <c r="K225" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L225" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M225" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="Q225" t="n">
         <v>1</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44209</v>
+        <v>44327</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>3400</v>
+        <v>800</v>
       </c>
       <c r="K226" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L226" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="M226" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16647,11 +16647,11 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="Q226" t="n">
         <v>1</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44231</v>
+        <v>44209</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>7000</v>
+        <v>7900</v>
       </c>
       <c r="K227" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L227" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M227" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="Q227" t="n">
         <v>1</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44231</v>
+        <v>44209</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K228" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L228" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M228" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q228" t="n">
         <v>1</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>19300</v>
+        <v>7000</v>
       </c>
       <c r="K229" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="L229" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M229" t="n">
-        <v>425</v>
+        <v>950</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>425</v>
+        <v>950</v>
       </c>
       <c r="Q229" t="n">
         <v>1</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="K230" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="L230" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M230" t="n">
-        <v>249</v>
+        <v>700</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>249</v>
+        <v>700</v>
       </c>
       <c r="Q230" t="n">
         <v>1</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>13100</v>
+        <v>19300</v>
       </c>
       <c r="K231" t="n">
+        <v>350</v>
+      </c>
+      <c r="L231" t="n">
         <v>500</v>
       </c>
-      <c r="L231" t="n">
-        <v>600</v>
-      </c>
       <c r="M231" t="n">
-        <v>549</v>
+        <v>425</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>549</v>
+        <v>425</v>
       </c>
       <c r="Q231" t="n">
         <v>1</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>4300</v>
+        <v>6500</v>
       </c>
       <c r="K232" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L232" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M232" t="n">
-        <v>400</v>
+        <v>249</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>400</v>
+        <v>249</v>
       </c>
       <c r="Q232" t="n">
         <v>1</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,7 +17133,7 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>18700</v>
+        <v>13100</v>
       </c>
       <c r="K233" t="n">
         <v>500</v>
@@ -17142,7 +17142,7 @@
         <v>600</v>
       </c>
       <c r="M233" t="n">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="Q233" t="n">
         <v>1</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>5000</v>
+        <v>4300</v>
       </c>
       <c r="K234" t="n">
         <v>400</v>
       </c>
       <c r="L234" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="M234" t="n">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="Q234" t="n">
         <v>1</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>6100</v>
+        <v>18700</v>
       </c>
       <c r="K235" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L235" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M235" t="n">
-        <v>750</v>
+        <v>557</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>750</v>
+        <v>557</v>
       </c>
       <c r="Q235" t="n">
         <v>1</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="K236" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L236" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="M236" t="n">
-        <v>600</v>
+        <v>422</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>600</v>
+        <v>422</v>
       </c>
       <c r="Q236" t="n">
         <v>1</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>19000</v>
+        <v>6100</v>
       </c>
       <c r="K237" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L237" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M237" t="n">
-        <v>442</v>
+        <v>750</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>442</v>
+        <v>750</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="K238" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L238" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M238" t="n">
-        <v>324</v>
+        <v>600</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>324</v>
+        <v>600</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44196</v>
+        <v>44351</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="K239" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L239" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M239" t="n">
-        <v>700</v>
+        <v>442</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>700</v>
+        <v>442</v>
       </c>
       <c r="Q239" t="n">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44196</v>
+        <v>44351</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="K240" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L240" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M240" t="n">
-        <v>500</v>
+        <v>324</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>500</v>
+        <v>324</v>
       </c>
       <c r="Q240" t="n">
         <v>1</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>13200</v>
+        <v>13000</v>
       </c>
       <c r="K241" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L241" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="M241" t="n">
-        <v>421</v>
+        <v>700</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>421</v>
+        <v>700</v>
       </c>
       <c r="Q241" t="n">
         <v>1</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="K242" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L242" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M242" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>8600</v>
+        <v>13200</v>
       </c>
       <c r="K243" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L243" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="M243" t="n">
-        <v>763</v>
+        <v>421</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>763</v>
+        <v>421</v>
       </c>
       <c r="Q243" t="n">
         <v>1</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>2700</v>
+        <v>4800</v>
       </c>
       <c r="K244" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L244" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M244" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q244" t="n">
         <v>1</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>17400</v>
+        <v>8600</v>
       </c>
       <c r="K245" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L245" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M245" t="n">
-        <v>378</v>
+        <v>763</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>378</v>
+        <v>763</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18065,20 +18065,20 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>6500</v>
+        <v>2700</v>
       </c>
       <c r="K246" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L246" t="n">
         <v>500</v>
       </c>
       <c r="M246" t="n">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18087,11 +18087,11 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="Q246" t="n">
         <v>1</v>
@@ -18137,20 +18137,20 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>4200</v>
+        <v>17400</v>
       </c>
       <c r="K247" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L247" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M247" t="n">
-        <v>300</v>
+        <v>378</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>300</v>
+        <v>378</v>
       </c>
       <c r="Q247" t="n">
         <v>1</v>
@@ -18209,20 +18209,20 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>1600</v>
+        <v>6500</v>
       </c>
       <c r="K248" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L248" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M248" t="n">
-        <v>250</v>
+        <v>442</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>250</v>
+        <v>442</v>
       </c>
       <c r="Q248" t="n">
         <v>1</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18281,20 +18281,20 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>3500</v>
+        <v>4200</v>
       </c>
       <c r="K249" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L249" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M249" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="Q249" t="n">
         <v>1</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="K250" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L250" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="M250" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18375,11 +18375,11 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="Q250" t="n">
         <v>1</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>14700</v>
+        <v>3500</v>
       </c>
       <c r="K251" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L251" t="n">
         <v>700</v>
       </c>
       <c r="M251" t="n">
-        <v>649</v>
+        <v>700</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>649</v>
+        <v>700</v>
       </c>
       <c r="Q251" t="n">
         <v>1</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>6100</v>
+        <v>2800</v>
       </c>
       <c r="K252" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L252" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M252" t="n">
-        <v>478</v>
+        <v>600</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>478</v>
+        <v>600</v>
       </c>
       <c r="Q252" t="n">
         <v>1</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>5400</v>
+        <v>14700</v>
       </c>
       <c r="K253" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L253" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M253" t="n">
-        <v>944</v>
+        <v>649</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>944</v>
+        <v>649</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>2700</v>
+        <v>6100</v>
       </c>
       <c r="K254" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L254" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M254" t="n">
-        <v>700</v>
+        <v>478</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>700</v>
+        <v>478</v>
       </c>
       <c r="Q254" t="n">
         <v>1</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>6500</v>
+        <v>5400</v>
       </c>
       <c r="K255" t="n">
+        <v>900</v>
+      </c>
+      <c r="L255" t="n">
         <v>1000</v>
       </c>
-      <c r="L255" t="n">
-        <v>1100</v>
-      </c>
       <c r="M255" t="n">
-        <v>1049</v>
+        <v>944</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>1049</v>
+        <v>944</v>
       </c>
       <c r="Q255" t="n">
         <v>1</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="K256" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L256" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M256" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q256" t="n">
         <v>1</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44292</v>
+        <v>44250</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>16600</v>
+        <v>6500</v>
       </c>
       <c r="K257" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="L257" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="M257" t="n">
-        <v>497</v>
+        <v>1049</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>497</v>
+        <v>1049</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44292</v>
+        <v>44250</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>7000</v>
+        <v>2800</v>
       </c>
       <c r="K258" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L258" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="M258" t="n">
-        <v>427</v>
+        <v>800</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>427</v>
+        <v>800</v>
       </c>
       <c r="Q258" t="n">
         <v>1</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>13200</v>
+        <v>16600</v>
       </c>
       <c r="K259" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L259" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M259" t="n">
-        <v>467</v>
+        <v>497</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>467</v>
+        <v>497</v>
       </c>
       <c r="Q259" t="n">
         <v>1</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>3700</v>
+        <v>7000</v>
       </c>
       <c r="K260" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L260" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="M260" t="n">
-        <v>350</v>
+        <v>427</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>350</v>
+        <v>427</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19149,16 +19149,16 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>26900</v>
+        <v>13200</v>
       </c>
       <c r="K261" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L261" t="n">
         <v>500</v>
       </c>
       <c r="M261" t="n">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="Q261" t="n">
         <v>1</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19217,20 +19217,20 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>3400</v>
+        <v>3700</v>
       </c>
       <c r="K262" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L262" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M262" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19239,11 +19239,11 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="Q262" t="n">
         <v>1</v>
@@ -19289,20 +19289,20 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>8300</v>
+        <v>26900</v>
       </c>
       <c r="K263" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L263" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M263" t="n">
-        <v>316</v>
+        <v>458</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>316</v>
+        <v>458</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19361,20 +19361,20 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>2700</v>
+        <v>3400</v>
       </c>
       <c r="K264" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L264" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M264" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19433,20 +19433,20 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>14000</v>
+        <v>8300</v>
       </c>
       <c r="K265" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L265" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M265" t="n">
-        <v>754</v>
+        <v>316</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>754</v>
+        <v>316</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>9000</v>
+        <v>2700</v>
       </c>
       <c r="K266" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L266" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="M266" t="n">
-        <v>561</v>
+        <v>350</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19527,11 +19527,11 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>561</v>
+        <v>350</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19581,7 +19581,7 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="K267" t="n">
         <v>700</v>
@@ -19590,7 +19590,7 @@
         <v>800</v>
       </c>
       <c r="M267" t="n">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>3400</v>
+        <v>9000</v>
       </c>
       <c r="K268" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L268" t="n">
         <v>600</v>
       </c>
       <c r="M268" t="n">
-        <v>600</v>
+        <v>561</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>600</v>
+        <v>561</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44181</v>
+        <v>44202</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19728,13 +19728,13 @@
         <v>7000</v>
       </c>
       <c r="K269" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L269" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M269" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44181</v>
+        <v>44202</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19800,13 +19800,13 @@
         <v>3400</v>
       </c>
       <c r="K270" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L270" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M270" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q270" t="n">
         <v>1</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>28300</v>
+        <v>7000</v>
       </c>
       <c r="K271" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L271" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M271" t="n">
-        <v>423</v>
+        <v>650</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>423</v>
+        <v>650</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>5500</v>
+        <v>3400</v>
       </c>
       <c r="K272" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L272" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M272" t="n">
-        <v>275</v>
+        <v>500</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>275</v>
+        <v>500</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20013,7 +20013,7 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>20100</v>
+        <v>28300</v>
       </c>
       <c r="K273" t="n">
         <v>350</v>
@@ -20022,7 +20022,7 @@
         <v>500</v>
       </c>
       <c r="M273" t="n">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20081,20 +20081,20 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>2300</v>
+        <v>5500</v>
       </c>
       <c r="K274" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L274" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M274" t="n">
-        <v>400</v>
+        <v>275</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20103,11 +20103,11 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>400</v>
+        <v>275</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20153,20 +20153,20 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>6300</v>
+        <v>20100</v>
       </c>
       <c r="K275" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="L275" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M275" t="n">
-        <v>251</v>
+        <v>430</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>251</v>
+        <v>430</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20225,20 +20225,20 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="K276" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L276" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M276" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20297,20 +20297,20 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>24800</v>
+        <v>6300</v>
       </c>
       <c r="K277" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L277" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M277" t="n">
-        <v>617</v>
+        <v>251</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>617</v>
+        <v>251</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>7900</v>
+        <v>1200</v>
       </c>
       <c r="K278" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L278" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M278" t="n">
-        <v>457</v>
+        <v>300</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20391,11 +20391,11 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>457</v>
+        <v>300</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>18000</v>
+        <v>24800</v>
       </c>
       <c r="K279" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L279" t="n">
         <v>700</v>
       </c>
       <c r="M279" t="n">
-        <v>656</v>
+        <v>617</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>656</v>
+        <v>617</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>6000</v>
+        <v>7900</v>
       </c>
       <c r="K280" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L280" t="n">
         <v>500</v>
       </c>
       <c r="M280" t="n">
-        <v>500</v>
+        <v>457</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>500</v>
+        <v>457</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>8800</v>
+        <v>18000</v>
       </c>
       <c r="K281" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L281" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M281" t="n">
-        <v>580</v>
+        <v>656</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>580</v>
+        <v>656</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="K282" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L282" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M282" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>17100</v>
+        <v>8800</v>
       </c>
       <c r="K283" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L283" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M283" t="n">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>7400</v>
+        <v>6500</v>
       </c>
       <c r="K284" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L284" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M284" t="n">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>9000</v>
+        <v>17100</v>
       </c>
       <c r="K285" t="n">
         <v>500</v>
       </c>
       <c r="L285" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M285" t="n">
-        <v>536</v>
+        <v>597</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>536</v>
+        <v>597</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20945,20 +20945,20 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J286" t="n">
-        <v>2800</v>
+        <v>7400</v>
       </c>
       <c r="K286" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L286" t="n">
         <v>500</v>
       </c>
       <c r="M286" t="n">
-        <v>500</v>
+        <v>454</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20967,11 +20967,11 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>500</v>
+        <v>454</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -21017,20 +21017,20 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>3400</v>
+        <v>9000</v>
       </c>
       <c r="K287" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L287" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M287" t="n">
-        <v>400</v>
+        <v>536</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>400</v>
+        <v>536</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>5200</v>
+        <v>2800</v>
       </c>
       <c r="K288" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L288" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M288" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21111,11 +21111,11 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P288" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21165,16 +21165,16 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K289" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L289" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M289" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21237,16 +21237,16 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>12000</v>
+        <v>5200</v>
       </c>
       <c r="K290" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L290" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M290" t="n">
-        <v>662</v>
+        <v>750</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>662</v>
+        <v>750</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="K291" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L291" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M291" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21381,16 +21381,16 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>18300</v>
+        <v>12000</v>
       </c>
       <c r="K292" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L292" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M292" t="n">
-        <v>416</v>
+        <v>662</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>416</v>
+        <v>662</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>5200</v>
+        <v>4500</v>
       </c>
       <c r="K293" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L293" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M293" t="n">
-        <v>276</v>
+        <v>500</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>276</v>
+        <v>500</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44188</v>
+        <v>44309</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>8000</v>
+        <v>18300</v>
       </c>
       <c r="K294" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="L294" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M294" t="n">
-        <v>650</v>
+        <v>416</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>650</v>
+        <v>416</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44188</v>
+        <v>44309</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>2500</v>
+        <v>5200</v>
       </c>
       <c r="K295" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L295" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M295" t="n">
-        <v>500</v>
+        <v>276</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>500</v>
+        <v>276</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>16800</v>
+        <v>8000</v>
       </c>
       <c r="K296" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L296" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M296" t="n">
-        <v>430</v>
+        <v>650</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>430</v>
+        <v>650</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>5600</v>
+        <v>2500</v>
       </c>
       <c r="K297" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L297" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M297" t="n">
-        <v>279</v>
+        <v>500</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>279</v>
+        <v>500</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>9700</v>
+        <v>16800</v>
       </c>
       <c r="K298" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L298" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M298" t="n">
-        <v>527</v>
+        <v>430</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>527</v>
+        <v>430</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>5300</v>
+        <v>5600</v>
       </c>
       <c r="K299" t="n">
+        <v>250</v>
+      </c>
+      <c r="L299" t="n">
         <v>300</v>
       </c>
-      <c r="L299" t="n">
-        <v>400</v>
-      </c>
       <c r="M299" t="n">
-        <v>353</v>
+        <v>279</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>353</v>
+        <v>279</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>14300</v>
+        <v>9700</v>
       </c>
       <c r="K300" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L300" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M300" t="n">
-        <v>423</v>
+        <v>527</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>423</v>
+        <v>527</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>4400</v>
+        <v>5300</v>
       </c>
       <c r="K301" t="n">
         <v>300</v>
       </c>
       <c r="L301" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M301" t="n">
-        <v>300</v>
+        <v>353</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>300</v>
+        <v>353</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>8500</v>
+        <v>14300</v>
       </c>
       <c r="K302" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L302" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="M302" t="n">
-        <v>845</v>
+        <v>423</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>845</v>
+        <v>423</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>2900</v>
+        <v>4400</v>
       </c>
       <c r="K303" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L303" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M303" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>19400</v>
+        <v>8500</v>
       </c>
       <c r="K304" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L304" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M304" t="n">
-        <v>509</v>
+        <v>845</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>509</v>
+        <v>845</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>4200</v>
+        <v>2900</v>
       </c>
       <c r="K305" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L305" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M305" t="n">
-        <v>329</v>
+        <v>600</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>329</v>
+        <v>600</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>22800</v>
+        <v>19400</v>
       </c>
       <c r="K306" t="n">
+        <v>400</v>
+      </c>
+      <c r="L306" t="n">
         <v>600</v>
       </c>
-      <c r="L306" t="n">
-        <v>700</v>
-      </c>
       <c r="M306" t="n">
-        <v>648</v>
+        <v>509</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>648</v>
+        <v>509</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>7900</v>
+        <v>4200</v>
       </c>
       <c r="K307" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L307" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M307" t="n">
-        <v>500</v>
+        <v>329</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>500</v>
+        <v>329</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22533,7 +22533,7 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>6100</v>
+        <v>22800</v>
       </c>
       <c r="K308" t="n">
         <v>600</v>
@@ -22542,7 +22542,7 @@
         <v>700</v>
       </c>
       <c r="M308" t="n">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22605,7 +22605,7 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>3400</v>
+        <v>7900</v>
       </c>
       <c r="K309" t="n">
         <v>500</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>7200</v>
+        <v>6100</v>
       </c>
       <c r="K310" t="n">
+        <v>600</v>
+      </c>
+      <c r="L310" t="n">
         <v>700</v>
       </c>
-      <c r="L310" t="n">
-        <v>800</v>
-      </c>
       <c r="M310" t="n">
-        <v>739</v>
+        <v>650</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22695,11 +22695,11 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P310" t="n">
-        <v>739</v>
+        <v>650</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22749,7 +22749,7 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>2300</v>
+        <v>3400</v>
       </c>
       <c r="K311" t="n">
         <v>500</v>
@@ -22767,7 +22767,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P311" t="n">
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>33300</v>
+        <v>7200</v>
       </c>
       <c r="K312" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L312" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M312" t="n">
-        <v>518</v>
+        <v>739</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22839,11 +22839,11 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P312" t="n">
-        <v>518</v>
+        <v>739</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>9500</v>
+        <v>2300</v>
       </c>
       <c r="K313" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L313" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M313" t="n">
-        <v>374</v>
+        <v>500</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22911,11 +22911,11 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P313" t="n">
-        <v>374</v>
+        <v>500</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>10400</v>
+        <v>33300</v>
       </c>
       <c r="K314" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L314" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M314" t="n">
-        <v>856</v>
+        <v>518</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>856</v>
+        <v>518</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>3400</v>
+        <v>9500</v>
       </c>
       <c r="K315" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L315" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M315" t="n">
-        <v>600</v>
+        <v>374</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>600</v>
+        <v>374</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>18500</v>
+        <v>10400</v>
       </c>
       <c r="K316" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L316" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="M316" t="n">
-        <v>391</v>
+        <v>856</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>391</v>
+        <v>856</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23181,16 +23181,16 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>5300</v>
+        <v>3400</v>
       </c>
       <c r="K317" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="L317" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M317" t="n">
-        <v>275</v>
+        <v>600</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>275</v>
+        <v>600</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>8700</v>
+        <v>18500</v>
       </c>
       <c r="K318" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L318" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="M318" t="n">
-        <v>511</v>
+        <v>391</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>511</v>
+        <v>391</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>4000</v>
+        <v>5300</v>
       </c>
       <c r="K319" t="n">
         <v>250</v>
       </c>
       <c r="L319" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M319" t="n">
-        <v>355</v>
+        <v>275</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>355</v>
+        <v>275</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44230</v>
+        <v>44326</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23397,16 +23397,16 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="K320" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L320" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M320" t="n">
-        <v>950</v>
+        <v>511</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>950</v>
+        <v>511</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44230</v>
+        <v>44326</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23469,16 +23469,16 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="K321" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="L321" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M321" t="n">
-        <v>700</v>
+        <v>355</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>700</v>
+        <v>355</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23541,16 +23541,16 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>2500</v>
+        <v>8800</v>
       </c>
       <c r="K322" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L322" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M322" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="Q322" t="n">
         <v>1</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>1100</v>
+        <v>2500</v>
       </c>
       <c r="K323" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L323" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M323" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23685,16 +23685,16 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="K324" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L324" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M324" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="Q324" t="n">
         <v>1</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>2500</v>
+        <v>1100</v>
       </c>
       <c r="K325" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L325" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M325" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>13400</v>
+        <v>7000</v>
       </c>
       <c r="K326" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L326" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M326" t="n">
-        <v>651</v>
+        <v>950</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>651</v>
+        <v>950</v>
       </c>
       <c r="Q326" t="n">
         <v>1</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="K327" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L327" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M327" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q327" t="n">
         <v>1</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23973,16 +23973,16 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>12000</v>
+        <v>13400</v>
       </c>
       <c r="K328" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L328" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M328" t="n">
-        <v>759</v>
+        <v>651</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>759</v>
+        <v>651</v>
       </c>
       <c r="Q328" t="n">
         <v>1</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>4700</v>
+        <v>2800</v>
       </c>
       <c r="K329" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L329" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M329" t="n">
-        <v>583</v>
+        <v>500</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>583</v>
+        <v>500</v>
       </c>
       <c r="Q329" t="n">
         <v>1</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24117,16 +24117,16 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>12600</v>
+        <v>12000</v>
       </c>
       <c r="K330" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="L330" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M330" t="n">
-        <v>361</v>
+        <v>759</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>361</v>
+        <v>759</v>
       </c>
       <c r="Q330" t="n">
         <v>1</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24185,20 +24185,20 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J331" t="n">
-        <v>4400</v>
+        <v>4700</v>
       </c>
       <c r="K331" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L331" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M331" t="n">
-        <v>400</v>
+        <v>583</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24207,11 +24207,11 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P331" t="n">
-        <v>400</v>
+        <v>583</v>
       </c>
       <c r="Q331" t="n">
         <v>1</v>
@@ -24257,20 +24257,20 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J332" t="n">
-        <v>6600</v>
+        <v>12600</v>
       </c>
       <c r="K332" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L332" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M332" t="n">
-        <v>276</v>
+        <v>361</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>276</v>
+        <v>361</v>
       </c>
       <c r="Q332" t="n">
         <v>1</v>
@@ -24329,20 +24329,20 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J333" t="n">
-        <v>2800</v>
+        <v>4400</v>
       </c>
       <c r="K333" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L333" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M333" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q333" t="n">
         <v>1</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24401,20 +24401,20 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J334" t="n">
-        <v>7900</v>
+        <v>6600</v>
       </c>
       <c r="K334" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="L334" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M334" t="n">
-        <v>757</v>
+        <v>276</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>757</v>
+        <v>276</v>
       </c>
       <c r="Q334" t="n">
         <v>1</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24473,20 +24473,20 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J335" t="n">
-        <v>6800</v>
+        <v>2800</v>
       </c>
       <c r="K335" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L335" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M335" t="n">
-        <v>747</v>
+        <v>300</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>747</v>
+        <v>300</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24545,20 +24545,20 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J336" t="n">
-        <v>2500</v>
+        <v>7900</v>
       </c>
       <c r="K336" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L336" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M336" t="n">
-        <v>500</v>
+        <v>757</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>500</v>
+        <v>757</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24617,20 +24617,20 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J337" t="n">
-        <v>2300</v>
+        <v>6800</v>
       </c>
       <c r="K337" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L337" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M337" t="n">
-        <v>600</v>
+        <v>747</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>600</v>
+        <v>747</v>
       </c>
       <c r="Q337" t="n">
         <v>1</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44244</v>
+        <v>44286</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -24689,20 +24689,20 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J338" t="n">
-        <v>13000</v>
+        <v>2500</v>
       </c>
       <c r="K338" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L338" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M338" t="n">
-        <v>843</v>
+        <v>500</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>843</v>
+        <v>500</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44244</v>
+        <v>44286</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -24765,7 +24765,7 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>5600</v>
+        <v>2300</v>
       </c>
       <c r="K339" t="n">
         <v>600</v>
@@ -24783,7 +24783,7 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P339" t="n">
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="K340" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="L340" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M340" t="n">
-        <v>412</v>
+        <v>843</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>412</v>
+        <v>843</v>
       </c>
       <c r="Q340" t="n">
         <v>1</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -24909,16 +24909,16 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="K341" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="L341" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M341" t="n">
-        <v>277</v>
+        <v>600</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>277</v>
+        <v>600</v>
       </c>
       <c r="Q341" t="n">
         <v>1</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -24981,16 +24981,16 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>10300</v>
+        <v>16500</v>
       </c>
       <c r="K342" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="L342" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="M342" t="n">
-        <v>1091</v>
+        <v>412</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>1091</v>
+        <v>412</v>
       </c>
       <c r="Q342" t="n">
         <v>1</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -25053,16 +25053,16 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>11000</v>
+        <v>5900</v>
       </c>
       <c r="K343" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="L343" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M343" t="n">
-        <v>741</v>
+        <v>277</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>741</v>
+        <v>277</v>
       </c>
       <c r="Q343" t="n">
         <v>1</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -25125,16 +25125,16 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>26200</v>
+        <v>10300</v>
       </c>
       <c r="K344" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="L344" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="M344" t="n">
-        <v>427</v>
+        <v>1091</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>427</v>
+        <v>1091</v>
       </c>
       <c r="Q344" t="n">
         <v>1</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -25197,16 +25197,16 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>7800</v>
+        <v>11000</v>
       </c>
       <c r="K345" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L345" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="M345" t="n">
-        <v>329</v>
+        <v>741</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>329</v>
+        <v>741</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -25269,16 +25269,16 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>9700</v>
+        <v>26200</v>
       </c>
       <c r="K346" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L346" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M346" t="n">
-        <v>750</v>
+        <v>427</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>750</v>
+        <v>427</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>3400</v>
+        <v>7800</v>
       </c>
       <c r="K347" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L347" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="M347" t="n">
-        <v>600</v>
+        <v>329</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>600</v>
+        <v>329</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -25413,7 +25413,7 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>16000</v>
+        <v>9700</v>
       </c>
       <c r="K348" t="n">
         <v>700</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -25485,7 +25485,7 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K349" t="n">
         <v>600</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -25557,16 +25557,16 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>8500</v>
+        <v>16000</v>
       </c>
       <c r="K350" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L350" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M350" t="n">
-        <v>662</v>
+        <v>750</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>662</v>
+        <v>750</v>
       </c>
       <c r="Q350" t="n">
         <v>1</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>2600</v>
+        <v>4300</v>
       </c>
       <c r="K351" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L351" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M351" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -25701,16 +25701,16 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>15300</v>
+        <v>8500</v>
       </c>
       <c r="K352" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L352" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M352" t="n">
-        <v>527</v>
+        <v>662</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>527</v>
+        <v>662</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -25769,20 +25769,20 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J353" t="n">
-        <v>4400</v>
+        <v>2600</v>
       </c>
       <c r="K353" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L353" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M353" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25791,11 +25791,11 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P353" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
@@ -25841,20 +25841,20 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J354" t="n">
-        <v>5900</v>
+        <v>15300</v>
       </c>
       <c r="K354" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L354" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M354" t="n">
-        <v>354</v>
+        <v>527</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>354</v>
+        <v>527</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25913,20 +25913,20 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J355" t="n">
-        <v>2800</v>
+        <v>4400</v>
       </c>
       <c r="K355" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L355" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M355" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q355" t="n">
         <v>1</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -25985,20 +25985,20 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J356" t="n">
-        <v>24300</v>
+        <v>5900</v>
       </c>
       <c r="K356" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L356" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M356" t="n">
-        <v>713</v>
+        <v>354</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>713</v>
+        <v>354</v>
       </c>
       <c r="Q356" t="n">
         <v>1</v>
@@ -26037,58 +26037,202 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E357" t="n">
+        <v>13</v>
+      </c>
+      <c r="F357" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J357" t="n">
+        <v>2800</v>
+      </c>
+      <c r="K357" t="n">
+        <v>400</v>
+      </c>
+      <c r="L357" t="n">
+        <v>400</v>
+      </c>
+      <c r="M357" t="n">
+        <v>400</v>
+      </c>
+      <c r="N357" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O357" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P357" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q357" t="n">
+        <v>1</v>
+      </c>
+      <c r="R357" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>6</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D358" s="2" t="n">
         <v>44168</v>
       </c>
-      <c r="E357" t="n">
-        <v>13</v>
-      </c>
-      <c r="F357" t="n">
-        <v>100112023</v>
-      </c>
-      <c r="G357" t="inlineStr">
-        <is>
-          <t>Brócoli</t>
-        </is>
-      </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I357" t="inlineStr">
+      <c r="E358" t="n">
+        <v>13</v>
+      </c>
+      <c r="F358" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J358" t="n">
+        <v>24300</v>
+      </c>
+      <c r="K358" t="n">
+        <v>600</v>
+      </c>
+      <c r="L358" t="n">
+        <v>800</v>
+      </c>
+      <c r="M358" t="n">
+        <v>713</v>
+      </c>
+      <c r="N358" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O358" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P358" t="n">
+        <v>713</v>
+      </c>
+      <c r="Q358" t="n">
+        <v>1</v>
+      </c>
+      <c r="R358" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>6</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D359" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E359" t="n">
+        <v>13</v>
+      </c>
+      <c r="F359" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J357" t="n">
+      <c r="J359" t="n">
         <v>9900</v>
       </c>
-      <c r="K357" t="n">
+      <c r="K359" t="n">
         <v>500</v>
       </c>
-      <c r="L357" t="n">
+      <c r="L359" t="n">
         <v>600</v>
       </c>
-      <c r="M357" t="n">
+      <c r="M359" t="n">
         <v>566</v>
       </c>
-      <c r="N357" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O357" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P357" t="n">
+      <c r="N359" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O359" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P359" t="n">
         <v>566</v>
       </c>
-      <c r="Q357" t="n">
-        <v>1</v>
-      </c>
-      <c r="R357" t="inlineStr">
+      <c r="Q359" t="n">
+        <v>1</v>
+      </c>
+      <c r="R359" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R386"/>
+  <dimension ref="A1:R389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44260</v>
+        <v>44438</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>6500</v>
+        <v>2700</v>
       </c>
       <c r="K236" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L236" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M236" t="n">
-        <v>851</v>
+        <v>600</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17367,11 +17367,11 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>851</v>
+        <v>600</v>
       </c>
       <c r="Q236" t="n">
         <v>1</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44260</v>
+        <v>44438</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="K237" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L237" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M237" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17439,11 +17439,11 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44327</v>
+        <v>44438</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17489,20 +17489,20 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>9700</v>
+        <v>3300</v>
       </c>
       <c r="K238" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L238" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M238" t="n">
-        <v>467</v>
+        <v>550</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17511,11 +17511,11 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>467</v>
+        <v>550</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>5600</v>
+        <v>6500</v>
       </c>
       <c r="K239" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L239" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="M239" t="n">
-        <v>423</v>
+        <v>851</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17583,11 +17583,11 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>423</v>
+        <v>851</v>
       </c>
       <c r="Q239" t="n">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="K240" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L240" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M240" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="Q240" t="n">
         <v>1</v>
@@ -17705,20 +17705,20 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>800</v>
+        <v>9700</v>
       </c>
       <c r="K241" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L241" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M241" t="n">
-        <v>250</v>
+        <v>467</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17727,11 +17727,11 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>250</v>
+        <v>467</v>
       </c>
       <c r="Q241" t="n">
         <v>1</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44209</v>
+        <v>44327</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>7900</v>
+        <v>5600</v>
       </c>
       <c r="K242" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L242" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="M242" t="n">
-        <v>750</v>
+        <v>423</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17799,11 +17799,11 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>750</v>
+        <v>423</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44209</v>
+        <v>44327</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K243" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L243" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M243" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="Q243" t="n">
         <v>1</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44231</v>
+        <v>44327</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17921,20 +17921,20 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="K244" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="L244" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="M244" t="n">
-        <v>950</v>
+        <v>250</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17943,11 +17943,11 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>950</v>
+        <v>250</v>
       </c>
       <c r="Q244" t="n">
         <v>1</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44231</v>
+        <v>44209</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17993,20 +17993,20 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>2500</v>
+        <v>7900</v>
       </c>
       <c r="K245" t="n">
         <v>700</v>
       </c>
       <c r="L245" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M245" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44313</v>
+        <v>44209</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18065,20 +18065,20 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>19300</v>
+        <v>3400</v>
       </c>
       <c r="K246" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L246" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M246" t="n">
-        <v>425</v>
+        <v>600</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>425</v>
+        <v>600</v>
       </c>
       <c r="Q246" t="n">
         <v>1</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18137,20 +18137,20 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="K247" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="L247" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="M247" t="n">
-        <v>249</v>
+        <v>950</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>249</v>
+        <v>950</v>
       </c>
       <c r="Q247" t="n">
         <v>1</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44330</v>
+        <v>44231</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18209,20 +18209,20 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>13100</v>
+        <v>2500</v>
       </c>
       <c r="K248" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L248" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M248" t="n">
-        <v>549</v>
+        <v>700</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>549</v>
+        <v>700</v>
       </c>
       <c r="Q248" t="n">
         <v>1</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18281,20 +18281,20 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>4300</v>
+        <v>19300</v>
       </c>
       <c r="K249" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L249" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M249" t="n">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="Q249" t="n">
         <v>1</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44391</v>
+        <v>44313</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18353,20 +18353,20 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>18700</v>
+        <v>6500</v>
       </c>
       <c r="K250" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L250" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M250" t="n">
-        <v>557</v>
+        <v>249</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>557</v>
+        <v>249</v>
       </c>
       <c r="Q250" t="n">
         <v>1</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18425,20 +18425,20 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>5000</v>
+        <v>13100</v>
       </c>
       <c r="K251" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L251" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M251" t="n">
-        <v>422</v>
+        <v>549</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>422</v>
+        <v>549</v>
       </c>
       <c r="Q251" t="n">
         <v>1</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44193</v>
+        <v>44330</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18497,20 +18497,20 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>6100</v>
+        <v>4300</v>
       </c>
       <c r="K252" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L252" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M252" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="Q252" t="n">
         <v>1</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18569,20 +18569,20 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>2500</v>
+        <v>18700</v>
       </c>
       <c r="K253" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L253" t="n">
         <v>600</v>
       </c>
       <c r="M253" t="n">
-        <v>600</v>
+        <v>557</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>600</v>
+        <v>557</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18641,20 +18641,20 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>19000</v>
+        <v>5000</v>
       </c>
       <c r="K254" t="n">
         <v>400</v>
       </c>
       <c r="L254" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M254" t="n">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="Q254" t="n">
         <v>1</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18713,20 +18713,20 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>5000</v>
+        <v>6100</v>
       </c>
       <c r="K255" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L255" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="M255" t="n">
-        <v>324</v>
+        <v>750</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>324</v>
+        <v>750</v>
       </c>
       <c r="Q255" t="n">
         <v>1</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44196</v>
+        <v>44193</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18785,20 +18785,20 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>13000</v>
+        <v>2500</v>
       </c>
       <c r="K256" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L256" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M256" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q256" t="n">
         <v>1</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44196</v>
+        <v>44351</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18857,20 +18857,20 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>4500</v>
+        <v>19000</v>
       </c>
       <c r="K257" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L257" t="n">
         <v>500</v>
       </c>
       <c r="M257" t="n">
-        <v>500</v>
+        <v>442</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>500</v>
+        <v>442</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44315</v>
+        <v>44351</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18929,20 +18929,20 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>13200</v>
+        <v>5000</v>
       </c>
       <c r="K258" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L258" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="M258" t="n">
-        <v>421</v>
+        <v>324</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>421</v>
+        <v>324</v>
       </c>
       <c r="Q258" t="n">
         <v>1</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19001,20 +19001,20 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>4800</v>
+        <v>13000</v>
       </c>
       <c r="K259" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L259" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M259" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="Q259" t="n">
         <v>1</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44278</v>
+        <v>44196</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19073,20 +19073,20 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>8600</v>
+        <v>4500</v>
       </c>
       <c r="K260" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L260" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M260" t="n">
-        <v>763</v>
+        <v>500</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>763</v>
+        <v>500</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19145,20 +19145,20 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>2700</v>
+        <v>13200</v>
       </c>
       <c r="K261" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L261" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M261" t="n">
-        <v>500</v>
+        <v>421</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>500</v>
+        <v>421</v>
       </c>
       <c r="Q261" t="n">
         <v>1</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19217,20 +19217,20 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>17400</v>
+        <v>4800</v>
       </c>
       <c r="K262" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L262" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M262" t="n">
-        <v>378</v>
+        <v>300</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>378</v>
+        <v>300</v>
       </c>
       <c r="Q262" t="n">
         <v>1</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>6500</v>
+        <v>8600</v>
       </c>
       <c r="K263" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L263" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M263" t="n">
-        <v>442</v>
+        <v>763</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19311,11 +19311,11 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>442</v>
+        <v>763</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>4200</v>
+        <v>2700</v>
       </c>
       <c r="K264" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L264" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M264" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19433,20 +19433,20 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>1600</v>
+        <v>17400</v>
       </c>
       <c r="K265" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L265" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M265" t="n">
-        <v>250</v>
+        <v>378</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19455,11 +19455,11 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>250</v>
+        <v>378</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="K266" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L266" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M266" t="n">
-        <v>700</v>
+        <v>442</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19527,11 +19527,11 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>700</v>
+        <v>442</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>2800</v>
+        <v>4200</v>
       </c>
       <c r="K267" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L267" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M267" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19649,20 +19649,20 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>14700</v>
+        <v>1600</v>
       </c>
       <c r="K268" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L268" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="M268" t="n">
-        <v>649</v>
+        <v>250</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19671,11 +19671,11 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>649</v>
+        <v>250</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19721,20 +19721,20 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>6100</v>
+        <v>3500</v>
       </c>
       <c r="K269" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L269" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M269" t="n">
-        <v>478</v>
+        <v>700</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>478</v>
+        <v>700</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19793,20 +19793,20 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>5400</v>
+        <v>2800</v>
       </c>
       <c r="K270" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L270" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M270" t="n">
-        <v>944</v>
+        <v>600</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>944</v>
+        <v>600</v>
       </c>
       <c r="Q270" t="n">
         <v>1</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19865,20 +19865,20 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>2700</v>
+        <v>14700</v>
       </c>
       <c r="K271" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L271" t="n">
         <v>700</v>
       </c>
       <c r="M271" t="n">
-        <v>700</v>
+        <v>649</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>700</v>
+        <v>649</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44250</v>
+        <v>44399</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19937,20 +19937,20 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="K272" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="L272" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="M272" t="n">
-        <v>1049</v>
+        <v>478</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>1049</v>
+        <v>478</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20009,20 +20009,20 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>2800</v>
+        <v>5400</v>
       </c>
       <c r="K273" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L273" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M273" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44292</v>
+        <v>44251</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20081,20 +20081,20 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>16600</v>
+        <v>2700</v>
       </c>
       <c r="K274" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L274" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M274" t="n">
-        <v>497</v>
+        <v>700</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>497</v>
+        <v>700</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44292</v>
+        <v>44250</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20153,20 +20153,20 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="K275" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L275" t="n">
-        <v>450</v>
+        <v>1100</v>
       </c>
       <c r="M275" t="n">
-        <v>427</v>
+        <v>1049</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>427</v>
+        <v>1049</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44305</v>
+        <v>44250</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20225,20 +20225,20 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>13200</v>
+        <v>2800</v>
       </c>
       <c r="K276" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L276" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M276" t="n">
-        <v>467</v>
+        <v>800</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>467</v>
+        <v>800</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20297,20 +20297,20 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>3700</v>
+        <v>16600</v>
       </c>
       <c r="K277" t="n">
         <v>350</v>
       </c>
       <c r="L277" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M277" t="n">
-        <v>350</v>
+        <v>497</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>350</v>
+        <v>497</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44294</v>
+        <v>44292</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20369,20 +20369,20 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>26900</v>
+        <v>7000</v>
       </c>
       <c r="K278" t="n">
         <v>400</v>
       </c>
       <c r="L278" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M278" t="n">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>3400</v>
+        <v>13200</v>
       </c>
       <c r="K279" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L279" t="n">
         <v>500</v>
       </c>
       <c r="M279" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20463,11 +20463,11 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>8300</v>
+        <v>3700</v>
       </c>
       <c r="K280" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L280" t="n">
         <v>350</v>
       </c>
       <c r="M280" t="n">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20585,20 +20585,20 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>2700</v>
+        <v>26900</v>
       </c>
       <c r="K281" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L281" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M281" t="n">
-        <v>350</v>
+        <v>458</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20607,11 +20607,11 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P281" t="n">
-        <v>350</v>
+        <v>458</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44417</v>
+        <v>44294</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>6300</v>
+        <v>3400</v>
       </c>
       <c r="K282" t="n">
         <v>500</v>
       </c>
       <c r="L282" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M282" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20679,11 +20679,11 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44417</v>
+        <v>44294</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>1900</v>
+        <v>8300</v>
       </c>
       <c r="K283" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L283" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M283" t="n">
-        <v>400</v>
+        <v>316</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>400</v>
+        <v>316</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44419</v>
+        <v>44294</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20801,20 +20801,20 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>16300</v>
+        <v>2700</v>
       </c>
       <c r="K284" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L284" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M284" t="n">
-        <v>442</v>
+        <v>350</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20823,11 +20823,11 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>442</v>
+        <v>350</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20873,20 +20873,20 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J285" t="n">
-        <v>4600</v>
+        <v>6300</v>
       </c>
       <c r="K285" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L285" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M285" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44420</v>
+        <v>44417</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20945,20 +20945,20 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J286" t="n">
-        <v>23200</v>
+        <v>1900</v>
       </c>
       <c r="K286" t="n">
         <v>400</v>
       </c>
       <c r="L286" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M286" t="n">
-        <v>458</v>
+        <v>400</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>458</v>
+        <v>400</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21017,20 +21017,20 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>5400</v>
+        <v>16300</v>
       </c>
       <c r="K287" t="n">
         <v>400</v>
       </c>
       <c r="L287" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M287" t="n">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44245</v>
+        <v>44419</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21089,20 +21089,20 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>14000</v>
+        <v>4600</v>
       </c>
       <c r="K288" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L288" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M288" t="n">
-        <v>754</v>
+        <v>300</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>754</v>
+        <v>300</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44245</v>
+        <v>44420</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21161,20 +21161,20 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>9000</v>
+        <v>23200</v>
       </c>
       <c r="K289" t="n">
+        <v>400</v>
+      </c>
+      <c r="L289" t="n">
         <v>500</v>
       </c>
-      <c r="L289" t="n">
-        <v>600</v>
-      </c>
       <c r="M289" t="n">
-        <v>561</v>
+        <v>458</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>561</v>
+        <v>458</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44202</v>
+        <v>44420</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21233,20 +21233,20 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>7000</v>
+        <v>5400</v>
       </c>
       <c r="K290" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L290" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M290" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21305,20 +21305,20 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>3400</v>
+        <v>14000</v>
       </c>
       <c r="K291" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L291" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M291" t="n">
-        <v>600</v>
+        <v>754</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>600</v>
+        <v>754</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44181</v>
+        <v>44245</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21377,20 +21377,20 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="K292" t="n">
+        <v>500</v>
+      </c>
+      <c r="L292" t="n">
         <v>600</v>
       </c>
-      <c r="L292" t="n">
-        <v>700</v>
-      </c>
       <c r="M292" t="n">
-        <v>650</v>
+        <v>561</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>650</v>
+        <v>561</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44181</v>
+        <v>44202</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21449,20 +21449,20 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>3400</v>
+        <v>7000</v>
       </c>
       <c r="K293" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L293" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M293" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44369</v>
+        <v>44202</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21521,20 +21521,20 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>28300</v>
+        <v>3400</v>
       </c>
       <c r="K294" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L294" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M294" t="n">
-        <v>423</v>
+        <v>600</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>423</v>
+        <v>600</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21593,20 +21593,20 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="K295" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="L295" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M295" t="n">
-        <v>275</v>
+        <v>650</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>275</v>
+        <v>650</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44307</v>
+        <v>44181</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21665,20 +21665,20 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>20100</v>
+        <v>3400</v>
       </c>
       <c r="K296" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L296" t="n">
         <v>500</v>
       </c>
       <c r="M296" t="n">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>2300</v>
+        <v>28300</v>
       </c>
       <c r="K297" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L297" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M297" t="n">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21759,11 +21759,11 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P297" t="n">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>6300</v>
+        <v>5500</v>
       </c>
       <c r="K298" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L298" t="n">
         <v>300</v>
       </c>
       <c r="M298" t="n">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21881,20 +21881,20 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>1200</v>
+        <v>20100</v>
       </c>
       <c r="K299" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L299" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M299" t="n">
-        <v>300</v>
+        <v>430</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21903,11 +21903,11 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P299" t="n">
-        <v>300</v>
+        <v>430</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>24800</v>
+        <v>2300</v>
       </c>
       <c r="K300" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L300" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M300" t="n">
-        <v>617</v>
+        <v>400</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21975,11 +21975,11 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P300" t="n">
-        <v>617</v>
+        <v>400</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>7900</v>
+        <v>6300</v>
       </c>
       <c r="K301" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L301" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M301" t="n">
-        <v>457</v>
+        <v>251</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>457</v>
+        <v>251</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44195</v>
+        <v>44307</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22097,20 +22097,20 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>18000</v>
+        <v>1200</v>
       </c>
       <c r="K302" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L302" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M302" t="n">
-        <v>656</v>
+        <v>300</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22119,11 +22119,11 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P302" t="n">
-        <v>656</v>
+        <v>300</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22169,20 +22169,20 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>6000</v>
+        <v>24800</v>
       </c>
       <c r="K303" t="n">
         <v>500</v>
       </c>
       <c r="L303" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M303" t="n">
-        <v>500</v>
+        <v>617</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>500</v>
+        <v>617</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44265</v>
+        <v>44161</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22241,20 +22241,20 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>8800</v>
+        <v>7900</v>
       </c>
       <c r="K304" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="L304" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M304" t="n">
-        <v>580</v>
+        <v>457</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>580</v>
+        <v>457</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22313,20 +22313,20 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="K305" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L305" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="M305" t="n">
-        <v>450</v>
+        <v>656</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>450</v>
+        <v>656</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44159</v>
+        <v>44195</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22385,20 +22385,20 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>17100</v>
+        <v>6000</v>
       </c>
       <c r="K306" t="n">
         <v>500</v>
       </c>
       <c r="L306" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M306" t="n">
-        <v>597</v>
+        <v>500</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>597</v>
+        <v>500</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22457,20 +22457,20 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>7400</v>
+        <v>8800</v>
       </c>
       <c r="K307" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L307" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M307" t="n">
-        <v>454</v>
+        <v>580</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>454</v>
+        <v>580</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44333</v>
+        <v>44265</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22529,20 +22529,20 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="K308" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L308" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="M308" t="n">
-        <v>536</v>
+        <v>450</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>536</v>
+        <v>450</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>2800</v>
+        <v>17100</v>
       </c>
       <c r="K309" t="n">
         <v>500</v>
       </c>
       <c r="L309" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M309" t="n">
-        <v>500</v>
+        <v>597</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22623,11 +22623,11 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P309" t="n">
-        <v>500</v>
+        <v>597</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>3400</v>
+        <v>7400</v>
       </c>
       <c r="K310" t="n">
         <v>400</v>
       </c>
       <c r="L310" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M310" t="n">
-        <v>400</v>
+        <v>454</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>400</v>
+        <v>454</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>5200</v>
+        <v>9000</v>
       </c>
       <c r="K311" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L311" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M311" t="n">
-        <v>750</v>
+        <v>536</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>750</v>
+        <v>536</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22817,20 +22817,20 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="K312" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L312" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M312" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22839,11 +22839,11 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P312" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22889,20 +22889,20 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>12000</v>
+        <v>3400</v>
       </c>
       <c r="K313" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L313" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M313" t="n">
-        <v>662</v>
+        <v>400</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>662</v>
+        <v>400</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22961,20 +22961,20 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>4500</v>
+        <v>5200</v>
       </c>
       <c r="K314" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L314" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M314" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44433</v>
+        <v>44201</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23033,20 +23033,20 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>22000</v>
+        <v>2500</v>
       </c>
       <c r="K315" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L315" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M315" t="n">
-        <v>444</v>
+        <v>600</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>444</v>
+        <v>600</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44433</v>
+        <v>44277</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23105,20 +23105,20 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>6600</v>
+        <v>12000</v>
       </c>
       <c r="K316" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L316" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M316" t="n">
-        <v>352</v>
+        <v>662</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>352</v>
+        <v>662</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23177,20 +23177,20 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>18300</v>
+        <v>4500</v>
       </c>
       <c r="K317" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L317" t="n">
         <v>500</v>
       </c>
       <c r="M317" t="n">
-        <v>416</v>
+        <v>500</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>416</v>
+        <v>500</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44309</v>
+        <v>44433</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23249,20 +23249,20 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>5200</v>
+        <v>22000</v>
       </c>
       <c r="K318" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L318" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M318" t="n">
-        <v>276</v>
+        <v>444</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>276</v>
+        <v>444</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44188</v>
+        <v>44433</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23321,20 +23321,20 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>8000</v>
+        <v>6600</v>
       </c>
       <c r="K319" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L319" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M319" t="n">
-        <v>650</v>
+        <v>352</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>650</v>
+        <v>352</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44188</v>
+        <v>44309</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23393,20 +23393,20 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>2500</v>
+        <v>18300</v>
       </c>
       <c r="K320" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L320" t="n">
         <v>500</v>
       </c>
       <c r="M320" t="n">
-        <v>500</v>
+        <v>416</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>500</v>
+        <v>416</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23465,20 +23465,20 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>16800</v>
+        <v>5200</v>
       </c>
       <c r="K321" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="L321" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M321" t="n">
-        <v>430</v>
+        <v>276</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>430</v>
+        <v>276</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23537,20 +23537,20 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>5600</v>
+        <v>8000</v>
       </c>
       <c r="K322" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="L322" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M322" t="n">
-        <v>279</v>
+        <v>650</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>279</v>
+        <v>650</v>
       </c>
       <c r="Q322" t="n">
         <v>1</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44319</v>
+        <v>44188</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23609,20 +23609,20 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>9700</v>
+        <v>2500</v>
       </c>
       <c r="K323" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L323" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M323" t="n">
-        <v>527</v>
+        <v>500</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>527</v>
+        <v>500</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23681,20 +23681,20 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J324" t="n">
-        <v>5300</v>
+        <v>16800</v>
       </c>
       <c r="K324" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L324" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M324" t="n">
-        <v>353</v>
+        <v>430</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>353</v>
+        <v>430</v>
       </c>
       <c r="Q324" t="n">
         <v>1</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23753,20 +23753,20 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J325" t="n">
-        <v>14300</v>
+        <v>5600</v>
       </c>
       <c r="K325" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L325" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="M325" t="n">
-        <v>423</v>
+        <v>279</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>423</v>
+        <v>279</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23825,20 +23825,20 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J326" t="n">
-        <v>4400</v>
+        <v>9700</v>
       </c>
       <c r="K326" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L326" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M326" t="n">
-        <v>300</v>
+        <v>527</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>300</v>
+        <v>527</v>
       </c>
       <c r="Q326" t="n">
         <v>1</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44253</v>
+        <v>44319</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23897,20 +23897,20 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J327" t="n">
-        <v>8500</v>
+        <v>5300</v>
       </c>
       <c r="K327" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L327" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M327" t="n">
-        <v>845</v>
+        <v>353</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>845</v>
+        <v>353</v>
       </c>
       <c r="Q327" t="n">
         <v>1</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23969,20 +23969,20 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>2900</v>
+        <v>14300</v>
       </c>
       <c r="K328" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L328" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="M328" t="n">
-        <v>600</v>
+        <v>423</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>600</v>
+        <v>423</v>
       </c>
       <c r="Q328" t="n">
         <v>1</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44281</v>
+        <v>44316</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24041,20 +24041,20 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J329" t="n">
-        <v>19400</v>
+        <v>4400</v>
       </c>
       <c r="K329" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L329" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M329" t="n">
-        <v>509</v>
+        <v>300</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>509</v>
+        <v>300</v>
       </c>
       <c r="Q329" t="n">
         <v>1</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24113,20 +24113,20 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J330" t="n">
-        <v>4200</v>
+        <v>8500</v>
       </c>
       <c r="K330" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L330" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="M330" t="n">
-        <v>329</v>
+        <v>845</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>329</v>
+        <v>845</v>
       </c>
       <c r="Q330" t="n">
         <v>1</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44160</v>
+        <v>44253</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24185,20 +24185,20 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J331" t="n">
-        <v>22800</v>
+        <v>2900</v>
       </c>
       <c r="K331" t="n">
         <v>600</v>
       </c>
       <c r="L331" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M331" t="n">
-        <v>648</v>
+        <v>600</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>648</v>
+        <v>600</v>
       </c>
       <c r="Q331" t="n">
         <v>1</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24257,20 +24257,20 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J332" t="n">
-        <v>7900</v>
+        <v>19400</v>
       </c>
       <c r="K332" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L332" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M332" t="n">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="Q332" t="n">
         <v>1</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44186</v>
+        <v>44281</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24329,20 +24329,20 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J333" t="n">
-        <v>6100</v>
+        <v>4200</v>
       </c>
       <c r="K333" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L333" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="M333" t="n">
-        <v>650</v>
+        <v>329</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>650</v>
+        <v>329</v>
       </c>
       <c r="Q333" t="n">
         <v>1</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24401,20 +24401,20 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J334" t="n">
-        <v>3400</v>
+        <v>22800</v>
       </c>
       <c r="K334" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L334" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M334" t="n">
-        <v>500</v>
+        <v>648</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>500</v>
+        <v>648</v>
       </c>
       <c r="Q334" t="n">
         <v>1</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44211</v>
+        <v>44160</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24473,20 +24473,20 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J335" t="n">
-        <v>7200</v>
+        <v>7900</v>
       </c>
       <c r="K335" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L335" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M335" t="n">
-        <v>739</v>
+        <v>500</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24495,11 +24495,11 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P335" t="n">
-        <v>739</v>
+        <v>500</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24545,20 +24545,20 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J336" t="n">
-        <v>2300</v>
+        <v>6100</v>
       </c>
       <c r="K336" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L336" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M336" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24567,11 +24567,11 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P336" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44301</v>
+        <v>44186</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -24617,20 +24617,20 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J337" t="n">
-        <v>33300</v>
+        <v>3400</v>
       </c>
       <c r="K337" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L337" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M337" t="n">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="Q337" t="n">
         <v>1</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -24689,20 +24689,20 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J338" t="n">
-        <v>9500</v>
+        <v>7200</v>
       </c>
       <c r="K338" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L338" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M338" t="n">
-        <v>374</v>
+        <v>739</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24711,11 +24711,11 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P338" t="n">
-        <v>374</v>
+        <v>739</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44272</v>
+        <v>44211</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -24761,20 +24761,20 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J339" t="n">
-        <v>10400</v>
+        <v>2300</v>
       </c>
       <c r="K339" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L339" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M339" t="n">
-        <v>856</v>
+        <v>500</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24783,11 +24783,11 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P339" t="n">
-        <v>856</v>
+        <v>500</v>
       </c>
       <c r="Q339" t="n">
         <v>1</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -24833,20 +24833,20 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J340" t="n">
-        <v>3400</v>
+        <v>33300</v>
       </c>
       <c r="K340" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L340" t="n">
         <v>600</v>
       </c>
       <c r="M340" t="n">
-        <v>600</v>
+        <v>518</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>600</v>
+        <v>518</v>
       </c>
       <c r="Q340" t="n">
         <v>1</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -24905,20 +24905,20 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J341" t="n">
-        <v>18500</v>
+        <v>9500</v>
       </c>
       <c r="K341" t="n">
         <v>300</v>
       </c>
       <c r="L341" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="M341" t="n">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="Q341" t="n">
         <v>1</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -24977,20 +24977,20 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>5300</v>
+        <v>10400</v>
       </c>
       <c r="K342" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="L342" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="M342" t="n">
-        <v>275</v>
+        <v>856</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>275</v>
+        <v>856</v>
       </c>
       <c r="Q342" t="n">
         <v>1</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44326</v>
+        <v>44272</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -25049,20 +25049,20 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J343" t="n">
-        <v>8700</v>
+        <v>3400</v>
       </c>
       <c r="K343" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L343" t="n">
         <v>600</v>
       </c>
       <c r="M343" t="n">
-        <v>511</v>
+        <v>600</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>511</v>
+        <v>600</v>
       </c>
       <c r="Q343" t="n">
         <v>1</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -25121,20 +25121,20 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J344" t="n">
-        <v>4000</v>
+        <v>18500</v>
       </c>
       <c r="K344" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L344" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M344" t="n">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="Q344" t="n">
         <v>1</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44230</v>
+        <v>44370</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -25193,20 +25193,20 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J345" t="n">
-        <v>8800</v>
+        <v>5300</v>
       </c>
       <c r="K345" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="L345" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="M345" t="n">
-        <v>950</v>
+        <v>275</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>950</v>
+        <v>275</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44230</v>
+        <v>44326</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -25265,20 +25265,20 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J346" t="n">
-        <v>2500</v>
+        <v>8700</v>
       </c>
       <c r="K346" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L346" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M346" t="n">
-        <v>700</v>
+        <v>511</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>700</v>
+        <v>511</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -25337,20 +25337,20 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J347" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="K347" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="L347" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M347" t="n">
-        <v>700</v>
+        <v>355</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>700</v>
+        <v>355</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -25409,20 +25409,20 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J348" t="n">
-        <v>1100</v>
+        <v>8800</v>
       </c>
       <c r="K348" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L348" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M348" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="Q348" t="n">
         <v>1</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44232</v>
+        <v>44230</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -25481,20 +25481,20 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J349" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="K349" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L349" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M349" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -25553,7 +25553,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J350" t="n">
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -25625,20 +25625,20 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J351" t="n">
-        <v>13400</v>
+        <v>1100</v>
       </c>
       <c r="K351" t="n">
         <v>600</v>
       </c>
       <c r="L351" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M351" t="n">
-        <v>651</v>
+        <v>600</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>651</v>
+        <v>600</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -25697,20 +25697,20 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J352" t="n">
-        <v>2800</v>
+        <v>7000</v>
       </c>
       <c r="K352" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L352" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M352" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44270</v>
+        <v>44232</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -25769,20 +25769,20 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J353" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="K353" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L353" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M353" t="n">
-        <v>759</v>
+        <v>700</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>759</v>
+        <v>700</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -25841,20 +25841,20 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J354" t="n">
-        <v>4700</v>
+        <v>13400</v>
       </c>
       <c r="K354" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L354" t="n">
         <v>700</v>
       </c>
       <c r="M354" t="n">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -25913,20 +25913,20 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J355" t="n">
-        <v>12600</v>
+        <v>2800</v>
       </c>
       <c r="K355" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L355" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M355" t="n">
-        <v>361</v>
+        <v>500</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>361</v>
+        <v>500</v>
       </c>
       <c r="Q355" t="n">
         <v>1</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -25989,16 +25989,16 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>4400</v>
+        <v>12000</v>
       </c>
       <c r="K356" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="L356" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M356" t="n">
-        <v>400</v>
+        <v>759</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26007,11 +26007,11 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P356" t="n">
-        <v>400</v>
+        <v>759</v>
       </c>
       <c r="Q356" t="n">
         <v>1</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -26061,16 +26061,16 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>6600</v>
+        <v>4700</v>
       </c>
       <c r="K357" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="L357" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M357" t="n">
-        <v>276</v>
+        <v>583</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>276</v>
+        <v>583</v>
       </c>
       <c r="Q357" t="n">
         <v>1</v>
@@ -26129,20 +26129,20 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J358" t="n">
-        <v>2800</v>
+        <v>12600</v>
       </c>
       <c r="K358" t="n">
         <v>300</v>
       </c>
       <c r="L358" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M358" t="n">
-        <v>300</v>
+        <v>361</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26151,11 +26151,11 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P358" t="n">
-        <v>300</v>
+        <v>361</v>
       </c>
       <c r="Q358" t="n">
         <v>1</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -26205,16 +26205,16 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>7900</v>
+        <v>4400</v>
       </c>
       <c r="K359" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L359" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M359" t="n">
-        <v>757</v>
+        <v>400</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26223,11 +26223,11 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P359" t="n">
-        <v>757</v>
+        <v>400</v>
       </c>
       <c r="Q359" t="n">
         <v>1</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -26273,20 +26273,20 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J360" t="n">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="K360" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="L360" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M360" t="n">
-        <v>747</v>
+        <v>276</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26295,11 +26295,11 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P360" t="n">
-        <v>747</v>
+        <v>276</v>
       </c>
       <c r="Q360" t="n">
         <v>1</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -26349,16 +26349,16 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="K361" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L361" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M361" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26367,11 +26367,11 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P361" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q361" t="n">
         <v>1</v>
@@ -26417,20 +26417,20 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J362" t="n">
-        <v>2300</v>
+        <v>7900</v>
       </c>
       <c r="K362" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L362" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M362" t="n">
-        <v>600</v>
+        <v>757</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26439,11 +26439,11 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P362" t="n">
-        <v>600</v>
+        <v>757</v>
       </c>
       <c r="Q362" t="n">
         <v>1</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44244</v>
+        <v>44286</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -26493,16 +26493,16 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>13000</v>
+        <v>6800</v>
       </c>
       <c r="K363" t="n">
+        <v>700</v>
+      </c>
+      <c r="L363" t="n">
         <v>800</v>
       </c>
-      <c r="L363" t="n">
-        <v>900</v>
-      </c>
       <c r="M363" t="n">
-        <v>843</v>
+        <v>747</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26511,11 +26511,11 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P363" t="n">
-        <v>843</v>
+        <v>747</v>
       </c>
       <c r="Q363" t="n">
         <v>1</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44244</v>
+        <v>44286</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -26565,16 +26565,16 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>5600</v>
+        <v>2500</v>
       </c>
       <c r="K364" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L364" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M364" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q364" t="n">
         <v>1</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44343</v>
+        <v>44286</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -26633,20 +26633,20 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J365" t="n">
-        <v>16500</v>
+        <v>2300</v>
       </c>
       <c r="K365" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L365" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M365" t="n">
-        <v>412</v>
+        <v>600</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26655,11 +26655,11 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P365" t="n">
-        <v>412</v>
+        <v>600</v>
       </c>
       <c r="Q365" t="n">
         <v>1</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -26705,20 +26705,20 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J366" t="n">
-        <v>5900</v>
+        <v>13000</v>
       </c>
       <c r="K366" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="L366" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="M366" t="n">
-        <v>277</v>
+        <v>843</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>277</v>
+        <v>843</v>
       </c>
       <c r="Q366" t="n">
         <v>1</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44223</v>
+        <v>44244</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -26777,20 +26777,20 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J367" t="n">
-        <v>10300</v>
+        <v>5600</v>
       </c>
       <c r="K367" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L367" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="M367" t="n">
-        <v>1091</v>
+        <v>600</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>1091</v>
+        <v>600</v>
       </c>
       <c r="Q367" t="n">
         <v>1</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -26849,20 +26849,20 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J368" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="K368" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L368" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M368" t="n">
-        <v>741</v>
+        <v>412</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>741</v>
+        <v>412</v>
       </c>
       <c r="Q368" t="n">
         <v>1</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -26921,20 +26921,20 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J369" t="n">
-        <v>26200</v>
+        <v>5900</v>
       </c>
       <c r="K369" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="L369" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M369" t="n">
-        <v>427</v>
+        <v>277</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>427</v>
+        <v>277</v>
       </c>
       <c r="Q369" t="n">
         <v>1</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -26993,20 +26993,20 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J370" t="n">
-        <v>7800</v>
+        <v>10300</v>
       </c>
       <c r="K370" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="L370" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="M370" t="n">
-        <v>329</v>
+        <v>1091</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>329</v>
+        <v>1091</v>
       </c>
       <c r="Q370" t="n">
         <v>1</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44208</v>
+        <v>44223</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -27065,11 +27065,11 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J371" t="n">
-        <v>9700</v>
+        <v>11000</v>
       </c>
       <c r="K371" t="n">
         <v>700</v>
@@ -27078,7 +27078,7 @@
         <v>800</v>
       </c>
       <c r="M371" t="n">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="Q371" t="n">
         <v>1</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -27137,20 +27137,20 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J372" t="n">
-        <v>3400</v>
+        <v>26200</v>
       </c>
       <c r="K372" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="L372" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M372" t="n">
-        <v>600</v>
+        <v>427</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>600</v>
+        <v>427</v>
       </c>
       <c r="Q372" t="n">
         <v>1</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44179</v>
+        <v>44376</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -27209,20 +27209,20 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J373" t="n">
-        <v>16000</v>
+        <v>7800</v>
       </c>
       <c r="K373" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L373" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M373" t="n">
-        <v>750</v>
+        <v>329</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>750</v>
+        <v>329</v>
       </c>
       <c r="Q373" t="n">
         <v>1</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -27281,20 +27281,20 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J374" t="n">
-        <v>4300</v>
+        <v>9700</v>
       </c>
       <c r="K374" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L374" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M374" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="Q374" t="n">
         <v>1</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44284</v>
+        <v>44208</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -27353,20 +27353,20 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J375" t="n">
-        <v>8500</v>
+        <v>3400</v>
       </c>
       <c r="K375" t="n">
         <v>600</v>
       </c>
       <c r="L375" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M375" t="n">
-        <v>662</v>
+        <v>600</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>662</v>
+        <v>600</v>
       </c>
       <c r="Q375" t="n">
         <v>1</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -27425,20 +27425,20 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J376" t="n">
-        <v>2600</v>
+        <v>16000</v>
       </c>
       <c r="K376" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L376" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M376" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="Q376" t="n">
         <v>1</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44334</v>
+        <v>44179</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27497,20 +27497,20 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J377" t="n">
-        <v>15300</v>
+        <v>4300</v>
       </c>
       <c r="K377" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L377" t="n">
         <v>600</v>
       </c>
       <c r="M377" t="n">
-        <v>527</v>
+        <v>600</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>527</v>
+        <v>600</v>
       </c>
       <c r="Q377" t="n">
         <v>1</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -27573,16 +27573,16 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>4400</v>
+        <v>8500</v>
       </c>
       <c r="K378" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L378" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M378" t="n">
-        <v>500</v>
+        <v>662</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27591,11 +27591,11 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P378" t="n">
-        <v>500</v>
+        <v>662</v>
       </c>
       <c r="Q378" t="n">
         <v>1</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -27645,16 +27645,16 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>5900</v>
+        <v>2600</v>
       </c>
       <c r="K379" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L379" t="n">
         <v>400</v>
       </c>
       <c r="M379" t="n">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="Q379" t="n">
         <v>1</v>
@@ -27713,20 +27713,20 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J380" t="n">
-        <v>2800</v>
+        <v>15300</v>
       </c>
       <c r="K380" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L380" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M380" t="n">
-        <v>400</v>
+        <v>527</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27735,11 +27735,11 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P380" t="n">
-        <v>400</v>
+        <v>527</v>
       </c>
       <c r="Q380" t="n">
         <v>1</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -27789,16 +27789,16 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>24300</v>
+        <v>4400</v>
       </c>
       <c r="K381" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L381" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M381" t="n">
-        <v>713</v>
+        <v>500</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27807,11 +27807,11 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P381" t="n">
-        <v>713</v>
+        <v>500</v>
       </c>
       <c r="Q381" t="n">
         <v>1</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -27861,16 +27861,16 @@
         </is>
       </c>
       <c r="J382" t="n">
-        <v>9900</v>
+        <v>5900</v>
       </c>
       <c r="K382" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L382" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M382" t="n">
-        <v>566</v>
+        <v>354</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>566</v>
+        <v>354</v>
       </c>
       <c r="Q382" t="n">
         <v>1</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44418</v>
+        <v>44334</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -27929,20 +27929,20 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J383" t="n">
-        <v>17100</v>
+        <v>2800</v>
       </c>
       <c r="K383" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L383" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M383" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27951,11 +27951,11 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P383" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="Q383" t="n">
         <v>1</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44418</v>
+        <v>44168</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -28001,20 +28001,20 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J384" t="n">
-        <v>5700</v>
+        <v>24300</v>
       </c>
       <c r="K384" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L384" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M384" t="n">
-        <v>380</v>
+        <v>713</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>380</v>
+        <v>713</v>
       </c>
       <c r="Q384" t="n">
         <v>1</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44432</v>
+        <v>44168</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -28073,20 +28073,20 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J385" t="n">
-        <v>16300</v>
+        <v>9900</v>
       </c>
       <c r="K385" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L385" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M385" t="n">
-        <v>442</v>
+        <v>566</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>442</v>
+        <v>566</v>
       </c>
       <c r="Q385" t="n">
         <v>1</v>
@@ -28125,58 +28125,274 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E386" t="n">
+        <v>13</v>
+      </c>
+      <c r="F386" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J386" t="n">
+        <v>17100</v>
+      </c>
+      <c r="K386" t="n">
+        <v>500</v>
+      </c>
+      <c r="L386" t="n">
+        <v>600</v>
+      </c>
+      <c r="M386" t="n">
+        <v>540</v>
+      </c>
+      <c r="N386" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O386" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P386" t="n">
+        <v>540</v>
+      </c>
+      <c r="Q386" t="n">
+        <v>1</v>
+      </c>
+      <c r="R386" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>6</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D387" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E387" t="n">
+        <v>13</v>
+      </c>
+      <c r="F387" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J387" t="n">
+        <v>5700</v>
+      </c>
+      <c r="K387" t="n">
+        <v>350</v>
+      </c>
+      <c r="L387" t="n">
+        <v>400</v>
+      </c>
+      <c r="M387" t="n">
+        <v>380</v>
+      </c>
+      <c r="N387" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O387" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P387" t="n">
+        <v>380</v>
+      </c>
+      <c r="Q387" t="n">
+        <v>1</v>
+      </c>
+      <c r="R387" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>6</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D388" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E386" t="n">
-        <v>13</v>
-      </c>
-      <c r="F386" t="n">
-        <v>100112023</v>
-      </c>
-      <c r="G386" t="inlineStr">
-        <is>
-          <t>Brócoli</t>
-        </is>
-      </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I386" t="inlineStr">
+      <c r="E388" t="n">
+        <v>13</v>
+      </c>
+      <c r="F388" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J388" t="n">
+        <v>16300</v>
+      </c>
+      <c r="K388" t="n">
+        <v>400</v>
+      </c>
+      <c r="L388" t="n">
+        <v>500</v>
+      </c>
+      <c r="M388" t="n">
+        <v>442</v>
+      </c>
+      <c r="N388" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O388" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P388" t="n">
+        <v>442</v>
+      </c>
+      <c r="Q388" t="n">
+        <v>1</v>
+      </c>
+      <c r="R388" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>6</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D389" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E389" t="n">
+        <v>13</v>
+      </c>
+      <c r="F389" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I389" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J386" t="n">
+      <c r="J389" t="n">
         <v>6100</v>
       </c>
-      <c r="K386" t="n">
+      <c r="K389" t="n">
         <v>350</v>
       </c>
-      <c r="L386" t="n">
+      <c r="L389" t="n">
         <v>400</v>
       </c>
-      <c r="M386" t="n">
+      <c r="M389" t="n">
         <v>378</v>
       </c>
-      <c r="N386" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O386" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P386" t="n">
+      <c r="N389" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O389" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P389" t="n">
         <v>378</v>
       </c>
-      <c r="Q386" t="n">
-        <v>1</v>
-      </c>
-      <c r="R386" t="inlineStr">
+      <c r="Q389" t="n">
+        <v>1</v>
+      </c>
+      <c r="R389" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R397"/>
+  <dimension ref="A1:R399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>11200</v>
+        <v>16900</v>
       </c>
       <c r="K217" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="L217" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M217" t="n">
-        <v>670</v>
+        <v>400</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>670</v>
+        <v>400</v>
       </c>
       <c r="Q217" t="n">
         <v>1</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16053,16 +16053,16 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>3900</v>
+        <v>5200</v>
       </c>
       <c r="K218" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L218" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M218" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q218" t="n">
         <v>1</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44292</v>
+        <v>44267</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16125,16 +16125,16 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>16600</v>
+        <v>11200</v>
       </c>
       <c r="K219" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="L219" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M219" t="n">
-        <v>497</v>
+        <v>670</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>497</v>
+        <v>670</v>
       </c>
       <c r="Q219" t="n">
         <v>1</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44292</v>
+        <v>44267</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>7000</v>
+        <v>3900</v>
       </c>
       <c r="K220" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L220" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M220" t="n">
-        <v>427</v>
+        <v>500</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>427</v>
+        <v>500</v>
       </c>
       <c r="Q220" t="n">
         <v>1</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44259</v>
+        <v>44292</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>10200</v>
+        <v>16600</v>
       </c>
       <c r="K221" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="L221" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M221" t="n">
-        <v>853</v>
+        <v>497</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>853</v>
+        <v>497</v>
       </c>
       <c r="Q221" t="n">
         <v>1</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44259</v>
+        <v>44292</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>3300</v>
+        <v>7000</v>
       </c>
       <c r="K222" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L222" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="M222" t="n">
-        <v>600</v>
+        <v>427</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>600</v>
+        <v>427</v>
       </c>
       <c r="Q222" t="n">
         <v>1</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44300</v>
+        <v>44259</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>21300</v>
+        <v>10200</v>
       </c>
       <c r="K223" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L223" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M223" t="n">
-        <v>495</v>
+        <v>853</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>495</v>
+        <v>853</v>
       </c>
       <c r="Q223" t="n">
         <v>1</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44300</v>
+        <v>44259</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>7000</v>
+        <v>3300</v>
       </c>
       <c r="K224" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L224" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M224" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="Q224" t="n">
         <v>1</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44277</v>
+        <v>44300</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>12000</v>
+        <v>21300</v>
       </c>
       <c r="K225" t="n">
+        <v>400</v>
+      </c>
+      <c r="L225" t="n">
         <v>600</v>
       </c>
-      <c r="L225" t="n">
-        <v>700</v>
-      </c>
       <c r="M225" t="n">
-        <v>662</v>
+        <v>495</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>662</v>
+        <v>495</v>
       </c>
       <c r="Q225" t="n">
         <v>1</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44277</v>
+        <v>44300</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="K226" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L226" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M226" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="Q226" t="n">
         <v>1</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44392</v>
+        <v>44277</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>19400</v>
+        <v>12000</v>
       </c>
       <c r="K227" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L227" t="n">
         <v>700</v>
       </c>
       <c r="M227" t="n">
-        <v>609</v>
+        <v>662</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>609</v>
+        <v>662</v>
       </c>
       <c r="Q227" t="n">
         <v>1</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44392</v>
+        <v>44277</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>5700</v>
+        <v>4500</v>
       </c>
       <c r="K228" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L228" t="n">
         <v>500</v>
       </c>
       <c r="M228" t="n">
-        <v>473</v>
+        <v>500</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>473</v>
+        <v>500</v>
       </c>
       <c r="Q228" t="n">
         <v>1</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>16000</v>
+        <v>19400</v>
       </c>
       <c r="K229" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="L229" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M229" t="n">
-        <v>947</v>
+        <v>609</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>947</v>
+        <v>609</v>
       </c>
       <c r="Q229" t="n">
         <v>1</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>9000</v>
+        <v>5700</v>
       </c>
       <c r="K230" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L230" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M230" t="n">
-        <v>661</v>
+        <v>473</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>661</v>
+        <v>473</v>
       </c>
       <c r="Q230" t="n">
         <v>1</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44295</v>
+        <v>44224</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>26600</v>
+        <v>16000</v>
       </c>
       <c r="K231" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L231" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M231" t="n">
-        <v>473</v>
+        <v>947</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>473</v>
+        <v>947</v>
       </c>
       <c r="Q231" t="n">
         <v>1</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44295</v>
+        <v>44224</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="K232" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="L232" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M232" t="n">
-        <v>277</v>
+        <v>661</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>277</v>
+        <v>661</v>
       </c>
       <c r="Q232" t="n">
         <v>1</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44179</v>
+        <v>44295</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>16000</v>
+        <v>26600</v>
       </c>
       <c r="K233" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L233" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M233" t="n">
-        <v>750</v>
+        <v>473</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>750</v>
+        <v>473</v>
       </c>
       <c r="Q233" t="n">
         <v>1</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44179</v>
+        <v>44295</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>4300</v>
+        <v>6000</v>
       </c>
       <c r="K234" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L234" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M234" t="n">
-        <v>600</v>
+        <v>277</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>600</v>
+        <v>277</v>
       </c>
       <c r="Q234" t="n">
         <v>1</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44362</v>
+        <v>44179</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>16200</v>
+        <v>16000</v>
       </c>
       <c r="K235" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L235" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M235" t="n">
-        <v>442</v>
+        <v>750</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>442</v>
+        <v>750</v>
       </c>
       <c r="Q235" t="n">
         <v>1</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44362</v>
+        <v>44179</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17345,20 +17345,20 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>3500</v>
+        <v>4300</v>
       </c>
       <c r="K236" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L236" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M236" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17367,11 +17367,11 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q236" t="n">
         <v>1</v>
@@ -17417,20 +17417,20 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>3200</v>
+        <v>16200</v>
       </c>
       <c r="K237" t="n">
         <v>400</v>
       </c>
       <c r="L237" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M237" t="n">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17489,20 +17489,20 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="K238" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L238" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M238" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44249</v>
+        <v>44362</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17561,20 +17561,20 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>8000</v>
+        <v>3200</v>
       </c>
       <c r="K239" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L239" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M239" t="n">
-        <v>944</v>
+        <v>400</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>944</v>
+        <v>400</v>
       </c>
       <c r="Q239" t="n">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44249</v>
+        <v>44362</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="K240" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L240" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M240" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17655,11 +17655,11 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="Q240" t="n">
         <v>1</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44309</v>
+        <v>44249</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>18300</v>
+        <v>8000</v>
       </c>
       <c r="K241" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="L241" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M241" t="n">
-        <v>416</v>
+        <v>944</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>416</v>
+        <v>944</v>
       </c>
       <c r="Q241" t="n">
         <v>1</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44309</v>
+        <v>44249</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>5200</v>
+        <v>3500</v>
       </c>
       <c r="K242" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="L242" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M242" t="n">
-        <v>276</v>
+        <v>700</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>276</v>
+        <v>700</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>27300</v>
+        <v>18300</v>
       </c>
       <c r="K243" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L243" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M243" t="n">
-        <v>508</v>
+        <v>416</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>508</v>
+        <v>416</v>
       </c>
       <c r="Q243" t="n">
         <v>1</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>9700</v>
+        <v>5200</v>
       </c>
       <c r="K244" t="n">
+        <v>250</v>
+      </c>
+      <c r="L244" t="n">
         <v>300</v>
       </c>
-      <c r="L244" t="n">
-        <v>400</v>
-      </c>
       <c r="M244" t="n">
-        <v>354</v>
+        <v>276</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>354</v>
+        <v>276</v>
       </c>
       <c r="Q244" t="n">
         <v>1</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>24300</v>
+        <v>27300</v>
       </c>
       <c r="K245" t="n">
+        <v>450</v>
+      </c>
+      <c r="L245" t="n">
         <v>600</v>
       </c>
-      <c r="L245" t="n">
-        <v>800</v>
-      </c>
       <c r="M245" t="n">
-        <v>713</v>
+        <v>508</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>713</v>
+        <v>508</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>9900</v>
+        <v>9700</v>
       </c>
       <c r="K246" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L246" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M246" t="n">
-        <v>566</v>
+        <v>354</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>566</v>
+        <v>354</v>
       </c>
       <c r="Q246" t="n">
         <v>1</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>10400</v>
+        <v>24300</v>
       </c>
       <c r="K247" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L247" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M247" t="n">
-        <v>454</v>
+        <v>713</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>454</v>
+        <v>713</v>
       </c>
       <c r="Q247" t="n">
         <v>1</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>6100</v>
+        <v>9900</v>
       </c>
       <c r="K248" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L248" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M248" t="n">
-        <v>259</v>
+        <v>566</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>259</v>
+        <v>566</v>
       </c>
       <c r="Q248" t="n">
         <v>1</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18288,13 +18288,13 @@
         <v>10400</v>
       </c>
       <c r="K249" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L249" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M249" t="n">
-        <v>856</v>
+        <v>454</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>856</v>
+        <v>454</v>
       </c>
       <c r="Q249" t="n">
         <v>1</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>3400</v>
+        <v>6100</v>
       </c>
       <c r="K250" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="L250" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M250" t="n">
-        <v>600</v>
+        <v>259</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>600</v>
+        <v>259</v>
       </c>
       <c r="Q250" t="n">
         <v>1</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44196</v>
+        <v>44272</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>13000</v>
+        <v>10400</v>
       </c>
       <c r="K251" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L251" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M251" t="n">
-        <v>700</v>
+        <v>856</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>700</v>
+        <v>856</v>
       </c>
       <c r="Q251" t="n">
         <v>1</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44196</v>
+        <v>44272</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>4500</v>
+        <v>3400</v>
       </c>
       <c r="K252" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L252" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M252" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q252" t="n">
         <v>1</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44365</v>
+        <v>44196</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>20700</v>
+        <v>13000</v>
       </c>
       <c r="K253" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L253" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M253" t="n">
-        <v>441</v>
+        <v>700</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>441</v>
+        <v>700</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44365</v>
+        <v>44196</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18641,20 +18641,20 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>3400</v>
+        <v>4500</v>
       </c>
       <c r="K254" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L254" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M254" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18663,11 +18663,11 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q254" t="n">
         <v>1</v>
@@ -18713,20 +18713,20 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>5300</v>
+        <v>20700</v>
       </c>
       <c r="K255" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L255" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M255" t="n">
-        <v>376</v>
+        <v>441</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>376</v>
+        <v>441</v>
       </c>
       <c r="Q255" t="n">
         <v>1</v>
@@ -18785,20 +18785,20 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>2700</v>
+        <v>3400</v>
       </c>
       <c r="K256" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L256" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M256" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q256" t="n">
         <v>1</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44235</v>
+        <v>44365</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18857,20 +18857,20 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>7900</v>
+        <v>5300</v>
       </c>
       <c r="K257" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="L257" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M257" t="n">
-        <v>850</v>
+        <v>376</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>850</v>
+        <v>376</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44235</v>
+        <v>44365</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="K258" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L258" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M258" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18951,11 +18951,11 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="Q258" t="n">
         <v>1</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44358</v>
+        <v>44235</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>17400</v>
+        <v>7900</v>
       </c>
       <c r="K259" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="L259" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M259" t="n">
-        <v>378</v>
+        <v>850</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>378</v>
+        <v>850</v>
       </c>
       <c r="Q259" t="n">
         <v>1</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44358</v>
+        <v>44235</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19073,20 +19073,20 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="K260" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L260" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M260" t="n">
-        <v>442</v>
+        <v>700</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19095,11 +19095,11 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>442</v>
+        <v>700</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19145,20 +19145,20 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>4200</v>
+        <v>17400</v>
       </c>
       <c r="K261" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L261" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M261" t="n">
-        <v>300</v>
+        <v>378</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>300</v>
+        <v>378</v>
       </c>
       <c r="Q261" t="n">
         <v>1</v>
@@ -19217,20 +19217,20 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>1600</v>
+        <v>6500</v>
       </c>
       <c r="K262" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L262" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M262" t="n">
-        <v>250</v>
+        <v>442</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>250</v>
+        <v>442</v>
       </c>
       <c r="Q262" t="n">
         <v>1</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>5500</v>
+        <v>4200</v>
       </c>
       <c r="K263" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L263" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M263" t="n">
-        <v>655</v>
+        <v>300</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>655</v>
+        <v>300</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19361,20 +19361,20 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>22000</v>
+        <v>1600</v>
       </c>
       <c r="K264" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L264" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M264" t="n">
-        <v>444</v>
+        <v>250</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19383,11 +19383,11 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>444</v>
+        <v>250</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>6600</v>
+        <v>5500</v>
       </c>
       <c r="K265" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L265" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M265" t="n">
-        <v>352</v>
+        <v>655</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>352</v>
+        <v>655</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>13800</v>
+        <v>22000</v>
       </c>
       <c r="K266" t="n">
+        <v>400</v>
+      </c>
+      <c r="L266" t="n">
         <v>500</v>
       </c>
-      <c r="L266" t="n">
-        <v>600</v>
-      </c>
       <c r="M266" t="n">
-        <v>549</v>
+        <v>444</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>549</v>
+        <v>444</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19577,20 +19577,20 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>2300</v>
+        <v>6600</v>
       </c>
       <c r="K267" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L267" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M267" t="n">
-        <v>700</v>
+        <v>352</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19599,11 +19599,11 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>700</v>
+        <v>352</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19649,20 +19649,20 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>3600</v>
+        <v>13800</v>
       </c>
       <c r="K268" t="n">
         <v>500</v>
       </c>
       <c r="L268" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M268" t="n">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19721,20 +19721,20 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="K269" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L269" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M269" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19793,20 +19793,20 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>12300</v>
+        <v>3600</v>
       </c>
       <c r="K270" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L270" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M270" t="n">
-        <v>653</v>
+        <v>500</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>653</v>
+        <v>500</v>
       </c>
       <c r="Q270" t="n">
         <v>1</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19865,20 +19865,20 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>6500</v>
+        <v>1200</v>
       </c>
       <c r="K271" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L271" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M271" t="n">
-        <v>749</v>
+        <v>500</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>749</v>
+        <v>500</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19937,20 +19937,20 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>2800</v>
+        <v>12300</v>
       </c>
       <c r="K272" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L272" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M272" t="n">
-        <v>400</v>
+        <v>653</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>400</v>
+        <v>653</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -20009,20 +20009,20 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>1800</v>
+        <v>6500</v>
       </c>
       <c r="K273" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L273" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M273" t="n">
-        <v>500</v>
+        <v>749</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>500</v>
+        <v>749</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20081,20 +20081,20 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>8000</v>
+        <v>2800</v>
       </c>
       <c r="K274" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L274" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M274" t="n">
-        <v>472</v>
+        <v>400</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>472</v>
+        <v>400</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>6500</v>
+        <v>1800</v>
       </c>
       <c r="K275" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L275" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M275" t="n">
-        <v>373</v>
+        <v>500</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20175,11 +20175,11 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>373</v>
+        <v>500</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>12100</v>
+        <v>8000</v>
       </c>
       <c r="K276" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L276" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M276" t="n">
-        <v>644</v>
+        <v>472</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>644</v>
+        <v>472</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>3600</v>
+        <v>6500</v>
       </c>
       <c r="K277" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L277" t="n">
         <v>400</v>
       </c>
       <c r="M277" t="n">
-        <v>400</v>
+        <v>373</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>400</v>
+        <v>373</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>15300</v>
+        <v>12100</v>
       </c>
       <c r="K278" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L278" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M278" t="n">
-        <v>489</v>
+        <v>644</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>489</v>
+        <v>644</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20441,20 +20441,20 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>6400</v>
+        <v>3600</v>
       </c>
       <c r="K279" t="n">
         <v>400</v>
       </c>
       <c r="L279" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M279" t="n">
-        <v>447</v>
+        <v>400</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20463,11 +20463,11 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>447</v>
+        <v>400</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20513,20 +20513,20 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>5500</v>
+        <v>15300</v>
       </c>
       <c r="K280" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L280" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M280" t="n">
-        <v>325</v>
+        <v>489</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>325</v>
+        <v>489</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20585,20 +20585,20 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>2800</v>
+        <v>6400</v>
       </c>
       <c r="K281" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L281" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M281" t="n">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20657,20 +20657,20 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>10100</v>
+        <v>5500</v>
       </c>
       <c r="K282" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L282" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="M282" t="n">
-        <v>536</v>
+        <v>325</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>536</v>
+        <v>325</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>5200</v>
+        <v>2800</v>
       </c>
       <c r="K283" t="n">
         <v>300</v>
       </c>
       <c r="L283" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M283" t="n">
-        <v>356</v>
+        <v>300</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20751,11 +20751,11 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P283" t="n">
-        <v>356</v>
+        <v>300</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20805,7 +20805,7 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>16500</v>
+        <v>10100</v>
       </c>
       <c r="K284" t="n">
         <v>500</v>
@@ -20814,7 +20814,7 @@
         <v>600</v>
       </c>
       <c r="M284" t="n">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44434</v>
+        <v>44426</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20873,20 +20873,20 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J285" t="n">
-        <v>19300</v>
+        <v>5200</v>
       </c>
       <c r="K285" t="n">
+        <v>300</v>
+      </c>
+      <c r="L285" t="n">
         <v>400</v>
       </c>
-      <c r="L285" t="n">
-        <v>500</v>
-      </c>
       <c r="M285" t="n">
-        <v>430</v>
+        <v>356</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>430</v>
+        <v>356</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20945,20 +20945,20 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J286" t="n">
-        <v>6600</v>
+        <v>16500</v>
       </c>
       <c r="K286" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L286" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M286" t="n">
-        <v>352</v>
+        <v>541</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>352</v>
+        <v>541</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>7900</v>
+        <v>19300</v>
       </c>
       <c r="K287" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L287" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M287" t="n">
-        <v>750</v>
+        <v>430</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>750</v>
+        <v>430</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>3400</v>
+        <v>6600</v>
       </c>
       <c r="K288" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L288" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M288" t="n">
-        <v>600</v>
+        <v>352</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>600</v>
+        <v>352</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21165,7 +21165,7 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>21000</v>
+        <v>7900</v>
       </c>
       <c r="K289" t="n">
         <v>700</v>
@@ -21174,7 +21174,7 @@
         <v>800</v>
       </c>
       <c r="M289" t="n">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21237,7 +21237,7 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>6000</v>
+        <v>3400</v>
       </c>
       <c r="K290" t="n">
         <v>600</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="K291" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L291" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M291" t="n">
-        <v>946</v>
+        <v>743</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>946</v>
+        <v>743</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21381,16 +21381,16 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="K292" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L292" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M292" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>13400</v>
+        <v>10000</v>
       </c>
       <c r="K293" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L293" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M293" t="n">
-        <v>651</v>
+        <v>946</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>651</v>
+        <v>946</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>2800</v>
+        <v>5800</v>
       </c>
       <c r="K294" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L294" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M294" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>23200</v>
+        <v>13400</v>
       </c>
       <c r="K295" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L295" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M295" t="n">
-        <v>458</v>
+        <v>651</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>458</v>
+        <v>651</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>5400</v>
+        <v>2800</v>
       </c>
       <c r="K296" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L296" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M296" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>8500</v>
+        <v>23200</v>
       </c>
       <c r="K297" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L297" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M297" t="n">
-        <v>700</v>
+        <v>458</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>700</v>
+        <v>458</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>3800</v>
+        <v>5400</v>
       </c>
       <c r="K298" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L298" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M298" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>19000</v>
+        <v>8500</v>
       </c>
       <c r="K299" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L299" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M299" t="n">
-        <v>421</v>
+        <v>700</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>421</v>
+        <v>700</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>6100</v>
+        <v>3800</v>
       </c>
       <c r="K300" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L300" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M300" t="n">
-        <v>273</v>
+        <v>500</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>273</v>
+        <v>500</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>5500</v>
+        <v>19000</v>
       </c>
       <c r="K301" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="L301" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M301" t="n">
-        <v>800</v>
+        <v>421</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>800</v>
+        <v>421</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>2200</v>
+        <v>6100</v>
       </c>
       <c r="K302" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L302" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M302" t="n">
-        <v>600</v>
+        <v>273</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>600</v>
+        <v>273</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>14300</v>
+        <v>5500</v>
       </c>
       <c r="K303" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L303" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="M303" t="n">
-        <v>423</v>
+        <v>800</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>423</v>
+        <v>800</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>4400</v>
+        <v>2200</v>
       </c>
       <c r="K304" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L304" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M304" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>12400</v>
+        <v>14300</v>
       </c>
       <c r="K305" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L305" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="M305" t="n">
-        <v>750</v>
+        <v>423</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>750</v>
+        <v>423</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>3400</v>
+        <v>4400</v>
       </c>
       <c r="K306" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L306" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M306" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>8500</v>
+        <v>12400</v>
       </c>
       <c r="K307" t="n">
+        <v>700</v>
+      </c>
+      <c r="L307" t="n">
         <v>800</v>
       </c>
-      <c r="L307" t="n">
-        <v>900</v>
-      </c>
       <c r="M307" t="n">
-        <v>845</v>
+        <v>750</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>845</v>
+        <v>750</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22533,7 +22533,7 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>2900</v>
+        <v>3400</v>
       </c>
       <c r="K308" t="n">
         <v>600</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>12400</v>
+        <v>8500</v>
       </c>
       <c r="K309" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L309" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M309" t="n">
-        <v>555</v>
+        <v>845</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>555</v>
+        <v>845</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>5500</v>
+        <v>2900</v>
       </c>
       <c r="K310" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L310" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M310" t="n">
-        <v>451</v>
+        <v>600</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>451</v>
+        <v>600</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>12600</v>
+        <v>12400</v>
       </c>
       <c r="K311" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L311" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M311" t="n">
-        <v>451</v>
+        <v>555</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>451</v>
+        <v>555</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22817,11 +22817,11 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="K312" t="n">
         <v>400</v>
@@ -22830,7 +22830,7 @@
         <v>500</v>
       </c>
       <c r="M312" t="n">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22839,11 +22839,11 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P312" t="n">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22889,20 +22889,20 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>2800</v>
+        <v>12600</v>
       </c>
       <c r="K313" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L313" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M313" t="n">
-        <v>300</v>
+        <v>451</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>300</v>
+        <v>451</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22961,20 +22961,20 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>3600</v>
+        <v>6500</v>
       </c>
       <c r="K314" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L314" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M314" t="n">
-        <v>286</v>
+        <v>449</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>286</v>
+        <v>449</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44301</v>
+        <v>44341</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23033,20 +23033,20 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>33300</v>
+        <v>2800</v>
       </c>
       <c r="K315" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L315" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M315" t="n">
-        <v>518</v>
+        <v>300</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>518</v>
+        <v>300</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44301</v>
+        <v>44341</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>9500</v>
+        <v>3600</v>
       </c>
       <c r="K316" t="n">
+        <v>250</v>
+      </c>
+      <c r="L316" t="n">
         <v>300</v>
       </c>
-      <c r="L316" t="n">
-        <v>400</v>
-      </c>
       <c r="M316" t="n">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23127,11 +23127,11 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P316" t="n">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23181,16 +23181,16 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>13000</v>
+        <v>33300</v>
       </c>
       <c r="K317" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L317" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M317" t="n">
-        <v>843</v>
+        <v>518</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>843</v>
+        <v>518</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>5600</v>
+        <v>9500</v>
       </c>
       <c r="K318" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L318" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M318" t="n">
-        <v>600</v>
+        <v>374</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>600</v>
+        <v>374</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>8700</v>
+        <v>13000</v>
       </c>
       <c r="K319" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L319" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M319" t="n">
-        <v>562</v>
+        <v>843</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>562</v>
+        <v>843</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23397,16 +23397,16 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>3800</v>
+        <v>5600</v>
       </c>
       <c r="K320" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L320" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M320" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23469,7 +23469,7 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>6300</v>
+        <v>8700</v>
       </c>
       <c r="K321" t="n">
         <v>500</v>
@@ -23478,7 +23478,7 @@
         <v>600</v>
       </c>
       <c r="M321" t="n">
-        <v>540</v>
+        <v>562</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>540</v>
+        <v>562</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23541,7 +23541,7 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>1900</v>
+        <v>3800</v>
       </c>
       <c r="K322" t="n">
         <v>400</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>19000</v>
+        <v>6300</v>
       </c>
       <c r="K323" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L323" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M323" t="n">
-        <v>437</v>
+        <v>540</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>437</v>
+        <v>540</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23685,16 +23685,16 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>6100</v>
+        <v>1900</v>
       </c>
       <c r="K324" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L324" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M324" t="n">
-        <v>296</v>
+        <v>400</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>296</v>
+        <v>400</v>
       </c>
       <c r="Q324" t="n">
         <v>1</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>9900</v>
+        <v>19000</v>
       </c>
       <c r="K325" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="L325" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M325" t="n">
-        <v>943</v>
+        <v>437</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>943</v>
+        <v>437</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>2500</v>
+        <v>6100</v>
       </c>
       <c r="K326" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="L326" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="M326" t="n">
-        <v>700</v>
+        <v>296</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>700</v>
+        <v>296</v>
       </c>
       <c r="Q326" t="n">
         <v>1</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>16300</v>
+        <v>9900</v>
       </c>
       <c r="K327" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L327" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M327" t="n">
-        <v>442</v>
+        <v>943</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>442</v>
+        <v>943</v>
       </c>
       <c r="Q327" t="n">
         <v>1</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23973,16 +23973,16 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>6100</v>
+        <v>2500</v>
       </c>
       <c r="K328" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L328" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M328" t="n">
-        <v>378</v>
+        <v>700</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>378</v>
+        <v>700</v>
       </c>
       <c r="Q328" t="n">
         <v>1</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>19000</v>
+        <v>16300</v>
       </c>
       <c r="K329" t="n">
         <v>400</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24117,16 +24117,16 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>5000</v>
+        <v>6100</v>
       </c>
       <c r="K330" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L330" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M330" t="n">
-        <v>324</v>
+        <v>378</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>324</v>
+        <v>378</v>
       </c>
       <c r="Q330" t="n">
         <v>1</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>28300</v>
+        <v>19000</v>
       </c>
       <c r="K331" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L331" t="n">
         <v>500</v>
       </c>
       <c r="M331" t="n">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="Q331" t="n">
         <v>1</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24261,16 +24261,16 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="K332" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L332" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M332" t="n">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="Q332" t="n">
         <v>1</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24333,16 +24333,16 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>12000</v>
+        <v>28300</v>
       </c>
       <c r="K333" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="L333" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M333" t="n">
-        <v>842</v>
+        <v>423</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>842</v>
+        <v>423</v>
       </c>
       <c r="Q333" t="n">
         <v>1</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24405,16 +24405,16 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="K334" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L334" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M334" t="n">
-        <v>647</v>
+        <v>275</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>647</v>
+        <v>275</v>
       </c>
       <c r="Q334" t="n">
         <v>1</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>10700</v>
+        <v>12000</v>
       </c>
       <c r="K335" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L335" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M335" t="n">
-        <v>738</v>
+        <v>842</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>738</v>
+        <v>842</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24549,16 +24549,16 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="K336" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L336" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M336" t="n">
-        <v>480</v>
+        <v>647</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>480</v>
+        <v>647</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>14900</v>
+        <v>10700</v>
       </c>
       <c r="K337" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L337" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M337" t="n">
-        <v>450</v>
+        <v>738</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>450</v>
+        <v>738</v>
       </c>
       <c r="Q337" t="n">
         <v>1</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -24693,16 +24693,16 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="K338" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="L338" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M338" t="n">
-        <v>286</v>
+        <v>480</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>286</v>
+        <v>480</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -24765,7 +24765,7 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>26900</v>
+        <v>14900</v>
       </c>
       <c r="K339" t="n">
         <v>400</v>
@@ -24774,7 +24774,7 @@
         <v>500</v>
       </c>
       <c r="M339" t="n">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Q339" t="n">
         <v>1</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -24833,20 +24833,20 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J340" t="n">
-        <v>3400</v>
+        <v>4500</v>
       </c>
       <c r="K340" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L340" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M340" t="n">
-        <v>500</v>
+        <v>286</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24855,11 +24855,11 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P340" t="n">
-        <v>500</v>
+        <v>286</v>
       </c>
       <c r="Q340" t="n">
         <v>1</v>
@@ -24905,20 +24905,20 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J341" t="n">
-        <v>8300</v>
+        <v>26900</v>
       </c>
       <c r="K341" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L341" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M341" t="n">
-        <v>316</v>
+        <v>458</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>316</v>
+        <v>458</v>
       </c>
       <c r="Q341" t="n">
         <v>1</v>
@@ -24977,20 +24977,20 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>2700</v>
+        <v>3400</v>
       </c>
       <c r="K342" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L342" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M342" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q342" t="n">
         <v>1</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -25049,20 +25049,20 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J343" t="n">
-        <v>10300</v>
+        <v>8300</v>
       </c>
       <c r="K343" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L343" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M343" t="n">
-        <v>473</v>
+        <v>316</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>473</v>
+        <v>316</v>
       </c>
       <c r="Q343" t="n">
         <v>1</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -25121,20 +25121,20 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J344" t="n">
-        <v>10500</v>
+        <v>2700</v>
       </c>
       <c r="K344" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L344" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M344" t="n">
-        <v>476</v>
+        <v>350</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>476</v>
+        <v>350</v>
       </c>
       <c r="Q344" t="n">
         <v>1</v>
@@ -25193,20 +25193,20 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J345" t="n">
-        <v>3500</v>
+        <v>10300</v>
       </c>
       <c r="K345" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L345" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M345" t="n">
-        <v>350</v>
+        <v>473</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>350</v>
+        <v>473</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -25265,20 +25265,20 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J346" t="n">
-        <v>4500</v>
+        <v>10500</v>
       </c>
       <c r="K346" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L346" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M346" t="n">
-        <v>350</v>
+        <v>476</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>350</v>
+        <v>476</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -25337,20 +25337,20 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J347" t="n">
-        <v>21600</v>
+        <v>3500</v>
       </c>
       <c r="K347" t="n">
         <v>350</v>
       </c>
       <c r="L347" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="M347" t="n">
-        <v>452</v>
+        <v>350</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>452</v>
+        <v>350</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -25413,16 +25413,16 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>10500</v>
+        <v>4500</v>
       </c>
       <c r="K348" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L348" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M348" t="n">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25431,11 +25431,11 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P348" t="n">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="Q348" t="n">
         <v>1</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -25485,16 +25485,16 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>13200</v>
+        <v>21600</v>
       </c>
       <c r="K349" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L349" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M349" t="n">
-        <v>421</v>
+        <v>452</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>421</v>
+        <v>452</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -25557,16 +25557,16 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>4800</v>
+        <v>10500</v>
       </c>
       <c r="K350" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="L350" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M350" t="n">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="Q350" t="n">
         <v>1</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>18700</v>
+        <v>13200</v>
       </c>
       <c r="K351" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L351" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="M351" t="n">
-        <v>557</v>
+        <v>421</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>557</v>
+        <v>421</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -25701,16 +25701,16 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="K352" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L352" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="M352" t="n">
-        <v>422</v>
+        <v>300</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>422</v>
+        <v>300</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -25773,16 +25773,16 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>13300</v>
+        <v>18700</v>
       </c>
       <c r="K353" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L353" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M353" t="n">
-        <v>451</v>
+        <v>557</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>451</v>
+        <v>557</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -25845,16 +25845,16 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>5600</v>
+        <v>5000</v>
       </c>
       <c r="K354" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L354" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M354" t="n">
-        <v>279</v>
+        <v>422</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>279</v>
+        <v>422</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -25917,16 +25917,16 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>16300</v>
+        <v>13300</v>
       </c>
       <c r="K355" t="n">
+        <v>400</v>
+      </c>
+      <c r="L355" t="n">
         <v>500</v>
       </c>
-      <c r="L355" t="n">
-        <v>600</v>
-      </c>
       <c r="M355" t="n">
-        <v>542</v>
+        <v>451</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>542</v>
+        <v>451</v>
       </c>
       <c r="Q355" t="n">
         <v>1</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -25989,16 +25989,16 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>3200</v>
+        <v>5600</v>
       </c>
       <c r="K356" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L356" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M356" t="n">
-        <v>400</v>
+        <v>279</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>400</v>
+        <v>279</v>
       </c>
       <c r="Q356" t="n">
         <v>1</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -26061,16 +26061,16 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>19300</v>
+        <v>16300</v>
       </c>
       <c r="K357" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L357" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M357" t="n">
-        <v>425</v>
+        <v>542</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>425</v>
+        <v>542</v>
       </c>
       <c r="Q357" t="n">
         <v>1</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -26133,16 +26133,16 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>6500</v>
+        <v>3200</v>
       </c>
       <c r="K358" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L358" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M358" t="n">
-        <v>249</v>
+        <v>400</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>249</v>
+        <v>400</v>
       </c>
       <c r="Q358" t="n">
         <v>1</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -26205,16 +26205,16 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>14300</v>
+        <v>19300</v>
       </c>
       <c r="K359" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L359" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M359" t="n">
-        <v>499</v>
+        <v>425</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>499</v>
+        <v>425</v>
       </c>
       <c r="Q359" t="n">
         <v>1</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -26273,20 +26273,20 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J360" t="n">
-        <v>3200</v>
+        <v>6500</v>
       </c>
       <c r="K360" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L360" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M360" t="n">
-        <v>500</v>
+        <v>249</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26295,11 +26295,11 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P360" t="n">
-        <v>500</v>
+        <v>249</v>
       </c>
       <c r="Q360" t="n">
         <v>1</v>
@@ -26345,20 +26345,20 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J361" t="n">
-        <v>5500</v>
+        <v>14300</v>
       </c>
       <c r="K361" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L361" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M361" t="n">
-        <v>358</v>
+        <v>499</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>358</v>
+        <v>499</v>
       </c>
       <c r="Q361" t="n">
         <v>1</v>
@@ -26417,20 +26417,20 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J362" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="K362" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L362" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M362" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q362" t="n">
         <v>1</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -26489,20 +26489,20 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J363" t="n">
-        <v>24800</v>
+        <v>5500</v>
       </c>
       <c r="K363" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L363" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M363" t="n">
-        <v>617</v>
+        <v>358</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>617</v>
+        <v>358</v>
       </c>
       <c r="Q363" t="n">
         <v>1</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -26565,16 +26565,16 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>7900</v>
+        <v>2000</v>
       </c>
       <c r="K364" t="n">
         <v>400</v>
       </c>
       <c r="L364" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M364" t="n">
-        <v>457</v>
+        <v>400</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26583,11 +26583,11 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P364" t="n">
-        <v>457</v>
+        <v>400</v>
       </c>
       <c r="Q364" t="n">
         <v>1</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -26637,16 +26637,16 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>2700</v>
+        <v>24800</v>
       </c>
       <c r="K365" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L365" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M365" t="n">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26655,11 +26655,11 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P365" t="n">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="Q365" t="n">
         <v>1</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -26709,16 +26709,16 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>2100</v>
+        <v>7900</v>
       </c>
       <c r="K366" t="n">
         <v>400</v>
       </c>
       <c r="L366" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M366" t="n">
-        <v>400</v>
+        <v>457</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26727,11 +26727,11 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P366" t="n">
-        <v>400</v>
+        <v>457</v>
       </c>
       <c r="Q366" t="n">
         <v>1</v>
@@ -26777,20 +26777,20 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J367" t="n">
-        <v>3300</v>
+        <v>2700</v>
       </c>
       <c r="K367" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L367" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M367" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="Q367" t="n">
         <v>1</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -26849,20 +26849,20 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J368" t="n">
-        <v>5400</v>
+        <v>2100</v>
       </c>
       <c r="K368" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L368" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M368" t="n">
-        <v>944</v>
+        <v>400</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26871,11 +26871,11 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P368" t="n">
-        <v>944</v>
+        <v>400</v>
       </c>
       <c r="Q368" t="n">
         <v>1</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -26921,20 +26921,20 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J369" t="n">
-        <v>2700</v>
+        <v>3300</v>
       </c>
       <c r="K369" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L369" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M369" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26943,11 +26943,11 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P369" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="Q369" t="n">
         <v>1</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -26997,16 +26997,16 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>10200</v>
+        <v>5400</v>
       </c>
       <c r="K370" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L370" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M370" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="Q370" t="n">
         <v>1</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -27069,16 +27069,16 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="K371" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L371" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M371" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q371" t="n">
         <v>1</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -27141,16 +27141,16 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>28500</v>
+        <v>10200</v>
       </c>
       <c r="K372" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L372" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M372" t="n">
-        <v>333</v>
+        <v>667</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>333</v>
+        <v>667</v>
       </c>
       <c r="Q372" t="n">
         <v>1</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -27213,16 +27213,16 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>7900</v>
+        <v>2800</v>
       </c>
       <c r="K373" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L373" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M373" t="n">
-        <v>221</v>
+        <v>500</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>221</v>
+        <v>500</v>
       </c>
       <c r="Q373" t="n">
         <v>1</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -27285,16 +27285,16 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>76300</v>
+        <v>28500</v>
       </c>
       <c r="K374" t="n">
+        <v>300</v>
+      </c>
+      <c r="L374" t="n">
         <v>400</v>
       </c>
-      <c r="L374" t="n">
-        <v>500</v>
-      </c>
       <c r="M374" t="n">
-        <v>441</v>
+        <v>333</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>441</v>
+        <v>333</v>
       </c>
       <c r="Q374" t="n">
         <v>1</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -27357,16 +27357,16 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>25400</v>
+        <v>7900</v>
       </c>
       <c r="K375" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L375" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="M375" t="n">
-        <v>357</v>
+        <v>221</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>357</v>
+        <v>221</v>
       </c>
       <c r="Q375" t="n">
         <v>1</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -27429,16 +27429,16 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>9700</v>
+        <v>76300</v>
       </c>
       <c r="K376" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L376" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M376" t="n">
-        <v>527</v>
+        <v>441</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>527</v>
+        <v>441</v>
       </c>
       <c r="Q376" t="n">
         <v>1</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27501,7 +27501,7 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>5300</v>
+        <v>25400</v>
       </c>
       <c r="K377" t="n">
         <v>300</v>
@@ -27510,7 +27510,7 @@
         <v>400</v>
       </c>
       <c r="M377" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q377" t="n">
         <v>1</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -27573,16 +27573,16 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>13100</v>
+        <v>9700</v>
       </c>
       <c r="K378" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L378" t="n">
         <v>600</v>
       </c>
       <c r="M378" t="n">
-        <v>563</v>
+        <v>527</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>563</v>
+        <v>527</v>
       </c>
       <c r="Q378" t="n">
         <v>1</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -27645,16 +27645,16 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="K379" t="n">
+        <v>300</v>
+      </c>
+      <c r="L379" t="n">
         <v>400</v>
       </c>
-      <c r="L379" t="n">
-        <v>450</v>
-      </c>
       <c r="M379" t="n">
-        <v>425</v>
+        <v>353</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>425</v>
+        <v>353</v>
       </c>
       <c r="Q379" t="n">
         <v>1</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -27717,16 +27717,16 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>26200</v>
+        <v>13100</v>
       </c>
       <c r="K380" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L380" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M380" t="n">
-        <v>427</v>
+        <v>563</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>427</v>
+        <v>563</v>
       </c>
       <c r="Q380" t="n">
         <v>1</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -27789,16 +27789,16 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>7800</v>
+        <v>5500</v>
       </c>
       <c r="K381" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L381" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="M381" t="n">
-        <v>329</v>
+        <v>425</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>329</v>
+        <v>425</v>
       </c>
       <c r="Q381" t="n">
         <v>1</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -27861,16 +27861,16 @@
         </is>
       </c>
       <c r="J382" t="n">
-        <v>9200</v>
+        <v>26200</v>
       </c>
       <c r="K382" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L382" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M382" t="n">
-        <v>740</v>
+        <v>427</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>740</v>
+        <v>427</v>
       </c>
       <c r="Q382" t="n">
         <v>1</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -27933,16 +27933,16 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>4500</v>
+        <v>7800</v>
       </c>
       <c r="K383" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L383" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="M383" t="n">
-        <v>497</v>
+        <v>329</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>497</v>
+        <v>329</v>
       </c>
       <c r="Q383" t="n">
         <v>1</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -28005,16 +28005,16 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>13300</v>
+        <v>9200</v>
       </c>
       <c r="K384" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L384" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M384" t="n">
-        <v>451</v>
+        <v>740</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>451</v>
+        <v>740</v>
       </c>
       <c r="Q384" t="n">
         <v>1</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -28077,16 +28077,16 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>5600</v>
+        <v>4500</v>
       </c>
       <c r="K385" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L385" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M385" t="n">
-        <v>380</v>
+        <v>497</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>380</v>
+        <v>497</v>
       </c>
       <c r="Q385" t="n">
         <v>1</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -28149,16 +28149,16 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>10300</v>
+        <v>13300</v>
       </c>
       <c r="K386" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L386" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="M386" t="n">
-        <v>1091</v>
+        <v>451</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>1091</v>
+        <v>451</v>
       </c>
       <c r="Q386" t="n">
         <v>1</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -28221,16 +28221,16 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>11000</v>
+        <v>5600</v>
       </c>
       <c r="K387" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L387" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M387" t="n">
-        <v>741</v>
+        <v>380</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>741</v>
+        <v>380</v>
       </c>
       <c r="Q387" t="n">
         <v>1</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -28293,16 +28293,16 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>11300</v>
+        <v>10300</v>
       </c>
       <c r="K388" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="L388" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="M388" t="n">
-        <v>379</v>
+        <v>1091</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>379</v>
+        <v>1091</v>
       </c>
       <c r="Q388" t="n">
         <v>1</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -28365,16 +28365,16 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>3800</v>
+        <v>11000</v>
       </c>
       <c r="K389" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="L389" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="M389" t="n">
-        <v>250</v>
+        <v>741</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>250</v>
+        <v>741</v>
       </c>
       <c r="Q389" t="n">
         <v>1</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -28437,16 +28437,16 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>22800</v>
+        <v>11300</v>
       </c>
       <c r="K390" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="L390" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M390" t="n">
-        <v>648</v>
+        <v>379</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>648</v>
+        <v>379</v>
       </c>
       <c r="Q390" t="n">
         <v>1</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -28509,16 +28509,16 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>7900</v>
+        <v>3800</v>
       </c>
       <c r="K391" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L391" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M391" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="Q391" t="n">
         <v>1</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28581,16 +28581,16 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>17000</v>
+        <v>22800</v>
       </c>
       <c r="K392" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L392" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M392" t="n">
-        <v>856</v>
+        <v>648</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>856</v>
+        <v>648</v>
       </c>
       <c r="Q392" t="n">
         <v>1</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -28653,16 +28653,16 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>6500</v>
+        <v>7900</v>
       </c>
       <c r="K393" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L393" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M393" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q393" t="n">
         <v>1</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -28725,16 +28725,16 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>14700</v>
+        <v>17000</v>
       </c>
       <c r="K394" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L394" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M394" t="n">
-        <v>649</v>
+        <v>856</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>649</v>
+        <v>856</v>
       </c>
       <c r="Q394" t="n">
         <v>1</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -28797,16 +28797,16 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>6100</v>
+        <v>6500</v>
       </c>
       <c r="K395" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L395" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M395" t="n">
-        <v>478</v>
+        <v>700</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>478</v>
+        <v>700</v>
       </c>
       <c r="Q395" t="n">
         <v>1</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28869,7 +28869,7 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>18100</v>
+        <v>14700</v>
       </c>
       <c r="K396" t="n">
         <v>600</v>
@@ -28878,7 +28878,7 @@
         <v>700</v>
       </c>
       <c r="M396" t="n">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="Q396" t="n">
         <v>1</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28941,34 +28941,178 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>3800</v>
+        <v>6100</v>
       </c>
       <c r="K397" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L397" t="n">
         <v>500</v>
       </c>
       <c r="M397" t="n">
+        <v>478</v>
+      </c>
+      <c r="N397" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O397" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P397" t="n">
+        <v>478</v>
+      </c>
+      <c r="Q397" t="n">
+        <v>1</v>
+      </c>
+      <c r="R397" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>6</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D398" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E398" t="n">
+        <v>13</v>
+      </c>
+      <c r="F398" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J398" t="n">
+        <v>18100</v>
+      </c>
+      <c r="K398" t="n">
+        <v>600</v>
+      </c>
+      <c r="L398" t="n">
+        <v>700</v>
+      </c>
+      <c r="M398" t="n">
+        <v>647</v>
+      </c>
+      <c r="N398" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O398" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P398" t="n">
+        <v>647</v>
+      </c>
+      <c r="Q398" t="n">
+        <v>1</v>
+      </c>
+      <c r="R398" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>6</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D399" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E399" t="n">
+        <v>13</v>
+      </c>
+      <c r="F399" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J399" t="n">
+        <v>3800</v>
+      </c>
+      <c r="K399" t="n">
         <v>500</v>
       </c>
-      <c r="N397" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O397" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P397" t="n">
+      <c r="L399" t="n">
         <v>500</v>
       </c>
-      <c r="Q397" t="n">
-        <v>1</v>
-      </c>
-      <c r="R397" t="inlineStr">
+      <c r="M399" t="n">
+        <v>500</v>
+      </c>
+      <c r="N399" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O399" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P399" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q399" t="n">
+        <v>1</v>
+      </c>
+      <c r="R399" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R399"/>
+  <dimension ref="A1:R401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28581,16 +28581,16 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>22800</v>
+        <v>16400</v>
       </c>
       <c r="K392" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="L392" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M392" t="n">
-        <v>648</v>
+        <v>422</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>648</v>
+        <v>422</v>
       </c>
       <c r="Q392" t="n">
         <v>1</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -28653,16 +28653,16 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>7900</v>
+        <v>6700</v>
       </c>
       <c r="K393" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L393" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M393" t="n">
-        <v>500</v>
+        <v>275</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>500</v>
+        <v>275</v>
       </c>
       <c r="Q393" t="n">
         <v>1</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -28725,16 +28725,16 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>17000</v>
+        <v>22800</v>
       </c>
       <c r="K394" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L394" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M394" t="n">
-        <v>856</v>
+        <v>648</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>856</v>
+        <v>648</v>
       </c>
       <c r="Q394" t="n">
         <v>1</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -28797,16 +28797,16 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>6500</v>
+        <v>7900</v>
       </c>
       <c r="K395" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L395" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M395" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q395" t="n">
         <v>1</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28869,16 +28869,16 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>14700</v>
+        <v>17000</v>
       </c>
       <c r="K396" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L396" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M396" t="n">
-        <v>649</v>
+        <v>856</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>649</v>
+        <v>856</v>
       </c>
       <c r="Q396" t="n">
         <v>1</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28941,16 +28941,16 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>6100</v>
+        <v>6500</v>
       </c>
       <c r="K397" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L397" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M397" t="n">
-        <v>478</v>
+        <v>700</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>478</v>
+        <v>700</v>
       </c>
       <c r="Q397" t="n">
         <v>1</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -29013,7 +29013,7 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>18100</v>
+        <v>14700</v>
       </c>
       <c r="K398" t="n">
         <v>600</v>
@@ -29022,7 +29022,7 @@
         <v>700</v>
       </c>
       <c r="M398" t="n">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="Q398" t="n">
         <v>1</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -29085,34 +29085,178 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>3800</v>
+        <v>6100</v>
       </c>
       <c r="K399" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L399" t="n">
         <v>500</v>
       </c>
       <c r="M399" t="n">
+        <v>478</v>
+      </c>
+      <c r="N399" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O399" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P399" t="n">
+        <v>478</v>
+      </c>
+      <c r="Q399" t="n">
+        <v>1</v>
+      </c>
+      <c r="R399" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>6</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D400" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E400" t="n">
+        <v>13</v>
+      </c>
+      <c r="F400" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J400" t="n">
+        <v>18100</v>
+      </c>
+      <c r="K400" t="n">
+        <v>600</v>
+      </c>
+      <c r="L400" t="n">
+        <v>700</v>
+      </c>
+      <c r="M400" t="n">
+        <v>647</v>
+      </c>
+      <c r="N400" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O400" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P400" t="n">
+        <v>647</v>
+      </c>
+      <c r="Q400" t="n">
+        <v>1</v>
+      </c>
+      <c r="R400" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>6</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D401" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E401" t="n">
+        <v>13</v>
+      </c>
+      <c r="F401" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J401" t="n">
+        <v>3800</v>
+      </c>
+      <c r="K401" t="n">
         <v>500</v>
       </c>
-      <c r="N399" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O399" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P399" t="n">
+      <c r="L401" t="n">
         <v>500</v>
       </c>
-      <c r="Q399" t="n">
-        <v>1</v>
-      </c>
-      <c r="R399" t="inlineStr">
+      <c r="M401" t="n">
+        <v>500</v>
+      </c>
+      <c r="N401" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O401" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P401" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q401" t="n">
+        <v>1</v>
+      </c>
+      <c r="R401" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R401"/>
+  <dimension ref="A1:R403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -26637,16 +26637,16 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>24800</v>
+        <v>16900</v>
       </c>
       <c r="K365" t="n">
+        <v>350</v>
+      </c>
+      <c r="L365" t="n">
         <v>500</v>
       </c>
-      <c r="L365" t="n">
-        <v>700</v>
-      </c>
       <c r="M365" t="n">
-        <v>617</v>
+        <v>430</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>617</v>
+        <v>430</v>
       </c>
       <c r="Q365" t="n">
         <v>1</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -26709,16 +26709,16 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>7900</v>
+        <v>6000</v>
       </c>
       <c r="K366" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L366" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M366" t="n">
-        <v>457</v>
+        <v>273</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>457</v>
+        <v>273</v>
       </c>
       <c r="Q366" t="n">
         <v>1</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -26781,16 +26781,16 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>2700</v>
+        <v>24800</v>
       </c>
       <c r="K367" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L367" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M367" t="n">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26799,11 +26799,11 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P367" t="n">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="Q367" t="n">
         <v>1</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>2100</v>
+        <v>7900</v>
       </c>
       <c r="K368" t="n">
         <v>400</v>
       </c>
       <c r="L368" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M368" t="n">
-        <v>400</v>
+        <v>457</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26871,11 +26871,11 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P368" t="n">
-        <v>400</v>
+        <v>457</v>
       </c>
       <c r="Q368" t="n">
         <v>1</v>
@@ -26921,20 +26921,20 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J369" t="n">
-        <v>3300</v>
+        <v>2700</v>
       </c>
       <c r="K369" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L369" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M369" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="Q369" t="n">
         <v>1</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -26993,20 +26993,20 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J370" t="n">
-        <v>5400</v>
+        <v>2100</v>
       </c>
       <c r="K370" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L370" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M370" t="n">
-        <v>944</v>
+        <v>400</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27015,11 +27015,11 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P370" t="n">
-        <v>944</v>
+        <v>400</v>
       </c>
       <c r="Q370" t="n">
         <v>1</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -27065,20 +27065,20 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J371" t="n">
-        <v>2700</v>
+        <v>3300</v>
       </c>
       <c r="K371" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L371" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M371" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27087,11 +27087,11 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P371" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="Q371" t="n">
         <v>1</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -27141,16 +27141,16 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>10200</v>
+        <v>5400</v>
       </c>
       <c r="K372" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L372" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M372" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="Q372" t="n">
         <v>1</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -27213,16 +27213,16 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="K373" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L373" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M373" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q373" t="n">
         <v>1</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -27285,16 +27285,16 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>28500</v>
+        <v>10200</v>
       </c>
       <c r="K374" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L374" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M374" t="n">
-        <v>333</v>
+        <v>667</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>333</v>
+        <v>667</v>
       </c>
       <c r="Q374" t="n">
         <v>1</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -27357,16 +27357,16 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>7900</v>
+        <v>2800</v>
       </c>
       <c r="K375" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L375" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M375" t="n">
-        <v>221</v>
+        <v>500</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>221</v>
+        <v>500</v>
       </c>
       <c r="Q375" t="n">
         <v>1</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -27429,16 +27429,16 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>76300</v>
+        <v>28500</v>
       </c>
       <c r="K376" t="n">
+        <v>300</v>
+      </c>
+      <c r="L376" t="n">
         <v>400</v>
       </c>
-      <c r="L376" t="n">
-        <v>500</v>
-      </c>
       <c r="M376" t="n">
-        <v>441</v>
+        <v>333</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>441</v>
+        <v>333</v>
       </c>
       <c r="Q376" t="n">
         <v>1</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27501,16 +27501,16 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>25400</v>
+        <v>7900</v>
       </c>
       <c r="K377" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L377" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="M377" t="n">
-        <v>357</v>
+        <v>221</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>357</v>
+        <v>221</v>
       </c>
       <c r="Q377" t="n">
         <v>1</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -27573,16 +27573,16 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>9700</v>
+        <v>76300</v>
       </c>
       <c r="K378" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L378" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M378" t="n">
-        <v>527</v>
+        <v>441</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>527</v>
+        <v>441</v>
       </c>
       <c r="Q378" t="n">
         <v>1</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -27645,7 +27645,7 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>5300</v>
+        <v>25400</v>
       </c>
       <c r="K379" t="n">
         <v>300</v>
@@ -27654,7 +27654,7 @@
         <v>400</v>
       </c>
       <c r="M379" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q379" t="n">
         <v>1</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -27717,16 +27717,16 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>13100</v>
+        <v>9700</v>
       </c>
       <c r="K380" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L380" t="n">
         <v>600</v>
       </c>
       <c r="M380" t="n">
-        <v>563</v>
+        <v>527</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>563</v>
+        <v>527</v>
       </c>
       <c r="Q380" t="n">
         <v>1</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -27789,16 +27789,16 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="K381" t="n">
+        <v>300</v>
+      </c>
+      <c r="L381" t="n">
         <v>400</v>
       </c>
-      <c r="L381" t="n">
-        <v>450</v>
-      </c>
       <c r="M381" t="n">
-        <v>425</v>
+        <v>353</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>425</v>
+        <v>353</v>
       </c>
       <c r="Q381" t="n">
         <v>1</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -27861,16 +27861,16 @@
         </is>
       </c>
       <c r="J382" t="n">
-        <v>26200</v>
+        <v>13100</v>
       </c>
       <c r="K382" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L382" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M382" t="n">
-        <v>427</v>
+        <v>563</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>427</v>
+        <v>563</v>
       </c>
       <c r="Q382" t="n">
         <v>1</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -27933,16 +27933,16 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>7800</v>
+        <v>5500</v>
       </c>
       <c r="K383" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L383" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="M383" t="n">
-        <v>329</v>
+        <v>425</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>329</v>
+        <v>425</v>
       </c>
       <c r="Q383" t="n">
         <v>1</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -28005,16 +28005,16 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>9200</v>
+        <v>26200</v>
       </c>
       <c r="K384" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L384" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M384" t="n">
-        <v>740</v>
+        <v>427</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>740</v>
+        <v>427</v>
       </c>
       <c r="Q384" t="n">
         <v>1</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -28077,16 +28077,16 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>4500</v>
+        <v>7800</v>
       </c>
       <c r="K385" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L385" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="M385" t="n">
-        <v>497</v>
+        <v>329</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>497</v>
+        <v>329</v>
       </c>
       <c r="Q385" t="n">
         <v>1</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -28149,16 +28149,16 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>13300</v>
+        <v>9200</v>
       </c>
       <c r="K386" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L386" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M386" t="n">
-        <v>451</v>
+        <v>740</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>451</v>
+        <v>740</v>
       </c>
       <c r="Q386" t="n">
         <v>1</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -28221,16 +28221,16 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>5600</v>
+        <v>4500</v>
       </c>
       <c r="K387" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L387" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M387" t="n">
-        <v>380</v>
+        <v>497</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>380</v>
+        <v>497</v>
       </c>
       <c r="Q387" t="n">
         <v>1</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -28293,16 +28293,16 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>10300</v>
+        <v>13300</v>
       </c>
       <c r="K388" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L388" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="M388" t="n">
-        <v>1091</v>
+        <v>451</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>1091</v>
+        <v>451</v>
       </c>
       <c r="Q388" t="n">
         <v>1</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -28365,16 +28365,16 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>11000</v>
+        <v>5600</v>
       </c>
       <c r="K389" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L389" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M389" t="n">
-        <v>741</v>
+        <v>380</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>741</v>
+        <v>380</v>
       </c>
       <c r="Q389" t="n">
         <v>1</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -28437,16 +28437,16 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>11300</v>
+        <v>10300</v>
       </c>
       <c r="K390" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="L390" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="M390" t="n">
-        <v>379</v>
+        <v>1091</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>379</v>
+        <v>1091</v>
       </c>
       <c r="Q390" t="n">
         <v>1</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -28509,16 +28509,16 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>3800</v>
+        <v>11000</v>
       </c>
       <c r="K391" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="L391" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="M391" t="n">
-        <v>250</v>
+        <v>741</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>250</v>
+        <v>741</v>
       </c>
       <c r="Q391" t="n">
         <v>1</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28581,16 +28581,16 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>16400</v>
+        <v>11300</v>
       </c>
       <c r="K392" t="n">
         <v>350</v>
       </c>
       <c r="L392" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M392" t="n">
-        <v>422</v>
+        <v>379</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>422</v>
+        <v>379</v>
       </c>
       <c r="Q392" t="n">
         <v>1</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -28653,16 +28653,16 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>6700</v>
+        <v>3800</v>
       </c>
       <c r="K393" t="n">
         <v>250</v>
       </c>
       <c r="L393" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="M393" t="n">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="Q393" t="n">
         <v>1</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -28725,16 +28725,16 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>22800</v>
+        <v>16400</v>
       </c>
       <c r="K394" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="L394" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M394" t="n">
-        <v>648</v>
+        <v>422</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>648</v>
+        <v>422</v>
       </c>
       <c r="Q394" t="n">
         <v>1</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -28797,16 +28797,16 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>7900</v>
+        <v>6700</v>
       </c>
       <c r="K395" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L395" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M395" t="n">
-        <v>500</v>
+        <v>275</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>500</v>
+        <v>275</v>
       </c>
       <c r="Q395" t="n">
         <v>1</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28869,16 +28869,16 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>17000</v>
+        <v>22800</v>
       </c>
       <c r="K396" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L396" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M396" t="n">
-        <v>856</v>
+        <v>648</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>856</v>
+        <v>648</v>
       </c>
       <c r="Q396" t="n">
         <v>1</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28941,16 +28941,16 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>6500</v>
+        <v>7900</v>
       </c>
       <c r="K397" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L397" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M397" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q397" t="n">
         <v>1</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -29013,16 +29013,16 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>14700</v>
+        <v>17000</v>
       </c>
       <c r="K398" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L398" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M398" t="n">
-        <v>649</v>
+        <v>856</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>649</v>
+        <v>856</v>
       </c>
       <c r="Q398" t="n">
         <v>1</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -29085,16 +29085,16 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>6100</v>
+        <v>6500</v>
       </c>
       <c r="K399" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L399" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M399" t="n">
-        <v>478</v>
+        <v>700</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>478</v>
+        <v>700</v>
       </c>
       <c r="Q399" t="n">
         <v>1</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -29157,7 +29157,7 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>18100</v>
+        <v>14700</v>
       </c>
       <c r="K400" t="n">
         <v>600</v>
@@ -29166,7 +29166,7 @@
         <v>700</v>
       </c>
       <c r="M400" t="n">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="Q400" t="n">
         <v>1</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -29229,34 +29229,178 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>3800</v>
+        <v>6100</v>
       </c>
       <c r="K401" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L401" t="n">
         <v>500</v>
       </c>
       <c r="M401" t="n">
+        <v>478</v>
+      </c>
+      <c r="N401" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O401" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P401" t="n">
+        <v>478</v>
+      </c>
+      <c r="Q401" t="n">
+        <v>1</v>
+      </c>
+      <c r="R401" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>6</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D402" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E402" t="n">
+        <v>13</v>
+      </c>
+      <c r="F402" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J402" t="n">
+        <v>18100</v>
+      </c>
+      <c r="K402" t="n">
+        <v>600</v>
+      </c>
+      <c r="L402" t="n">
+        <v>700</v>
+      </c>
+      <c r="M402" t="n">
+        <v>647</v>
+      </c>
+      <c r="N402" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O402" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P402" t="n">
+        <v>647</v>
+      </c>
+      <c r="Q402" t="n">
+        <v>1</v>
+      </c>
+      <c r="R402" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>6</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D403" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E403" t="n">
+        <v>13</v>
+      </c>
+      <c r="F403" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J403" t="n">
+        <v>3800</v>
+      </c>
+      <c r="K403" t="n">
         <v>500</v>
       </c>
-      <c r="N401" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O401" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P401" t="n">
+      <c r="L403" t="n">
         <v>500</v>
       </c>
-      <c r="Q401" t="n">
-        <v>1</v>
-      </c>
-      <c r="R401" t="inlineStr">
+      <c r="M403" t="n">
+        <v>500</v>
+      </c>
+      <c r="N403" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O403" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P403" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q403" t="n">
+        <v>1</v>
+      </c>
+      <c r="R403" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R403"/>
+  <dimension ref="A1:R405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19149,16 +19149,16 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>17400</v>
+        <v>8700</v>
       </c>
       <c r="K261" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L261" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M261" t="n">
-        <v>378</v>
+        <v>538</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>378</v>
+        <v>538</v>
       </c>
       <c r="Q261" t="n">
         <v>1</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19217,20 +19217,20 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>6500</v>
+        <v>3200</v>
       </c>
       <c r="K262" t="n">
         <v>400</v>
       </c>
       <c r="L262" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M262" t="n">
-        <v>442</v>
+        <v>400</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19239,11 +19239,11 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>442</v>
+        <v>400</v>
       </c>
       <c r="Q262" t="n">
         <v>1</v>
@@ -19289,20 +19289,20 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>4200</v>
+        <v>17400</v>
       </c>
       <c r="K263" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L263" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M263" t="n">
-        <v>300</v>
+        <v>378</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>300</v>
+        <v>378</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19361,20 +19361,20 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>1600</v>
+        <v>6500</v>
       </c>
       <c r="K264" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L264" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M264" t="n">
-        <v>250</v>
+        <v>442</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>250</v>
+        <v>442</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>5500</v>
+        <v>4200</v>
       </c>
       <c r="K265" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L265" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M265" t="n">
-        <v>655</v>
+        <v>300</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>655</v>
+        <v>300</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19505,20 +19505,20 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>22000</v>
+        <v>1600</v>
       </c>
       <c r="K266" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L266" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M266" t="n">
-        <v>444</v>
+        <v>250</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19527,11 +19527,11 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>444</v>
+        <v>250</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>6600</v>
+        <v>5500</v>
       </c>
       <c r="K267" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L267" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M267" t="n">
-        <v>352</v>
+        <v>655</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>352</v>
+        <v>655</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>13800</v>
+        <v>22000</v>
       </c>
       <c r="K268" t="n">
+        <v>400</v>
+      </c>
+      <c r="L268" t="n">
         <v>500</v>
       </c>
-      <c r="L268" t="n">
-        <v>600</v>
-      </c>
       <c r="M268" t="n">
-        <v>549</v>
+        <v>444</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>549</v>
+        <v>444</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19721,20 +19721,20 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>2300</v>
+        <v>6600</v>
       </c>
       <c r="K269" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L269" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M269" t="n">
-        <v>700</v>
+        <v>352</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19743,11 +19743,11 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>700</v>
+        <v>352</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19793,20 +19793,20 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>3600</v>
+        <v>13800</v>
       </c>
       <c r="K270" t="n">
         <v>500</v>
       </c>
       <c r="L270" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M270" t="n">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="Q270" t="n">
         <v>1</v>
@@ -19865,20 +19865,20 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="K271" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L271" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M271" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19937,20 +19937,20 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>12300</v>
+        <v>3600</v>
       </c>
       <c r="K272" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L272" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M272" t="n">
-        <v>653</v>
+        <v>500</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>653</v>
+        <v>500</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20009,20 +20009,20 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>6500</v>
+        <v>1200</v>
       </c>
       <c r="K273" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L273" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M273" t="n">
-        <v>749</v>
+        <v>500</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>749</v>
+        <v>500</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20081,20 +20081,20 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>2800</v>
+        <v>12300</v>
       </c>
       <c r="K274" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L274" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M274" t="n">
-        <v>400</v>
+        <v>653</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>400</v>
+        <v>653</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20153,20 +20153,20 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>1800</v>
+        <v>6500</v>
       </c>
       <c r="K275" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L275" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M275" t="n">
-        <v>500</v>
+        <v>749</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>500</v>
+        <v>749</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20225,20 +20225,20 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>8000</v>
+        <v>2800</v>
       </c>
       <c r="K276" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L276" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M276" t="n">
-        <v>472</v>
+        <v>400</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>472</v>
+        <v>400</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>6500</v>
+        <v>1800</v>
       </c>
       <c r="K277" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L277" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M277" t="n">
-        <v>373</v>
+        <v>500</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20319,11 +20319,11 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>373</v>
+        <v>500</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>12100</v>
+        <v>8000</v>
       </c>
       <c r="K278" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L278" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M278" t="n">
-        <v>644</v>
+        <v>472</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>644</v>
+        <v>472</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>3600</v>
+        <v>6500</v>
       </c>
       <c r="K279" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L279" t="n">
         <v>400</v>
       </c>
       <c r="M279" t="n">
-        <v>400</v>
+        <v>373</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>400</v>
+        <v>373</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>15300</v>
+        <v>12100</v>
       </c>
       <c r="K280" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L280" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M280" t="n">
-        <v>489</v>
+        <v>644</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>489</v>
+        <v>644</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20585,20 +20585,20 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>6400</v>
+        <v>3600</v>
       </c>
       <c r="K281" t="n">
         <v>400</v>
       </c>
       <c r="L281" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M281" t="n">
-        <v>447</v>
+        <v>400</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20607,11 +20607,11 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P281" t="n">
-        <v>447</v>
+        <v>400</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20657,20 +20657,20 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>5500</v>
+        <v>15300</v>
       </c>
       <c r="K282" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L282" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M282" t="n">
-        <v>325</v>
+        <v>489</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>325</v>
+        <v>489</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20729,20 +20729,20 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>2800</v>
+        <v>6400</v>
       </c>
       <c r="K283" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L283" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M283" t="n">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20801,20 +20801,20 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>10100</v>
+        <v>5500</v>
       </c>
       <c r="K284" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L284" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="M284" t="n">
-        <v>536</v>
+        <v>325</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>536</v>
+        <v>325</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>5200</v>
+        <v>2800</v>
       </c>
       <c r="K285" t="n">
         <v>300</v>
       </c>
       <c r="L285" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M285" t="n">
-        <v>356</v>
+        <v>300</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20895,11 +20895,11 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>356</v>
+        <v>300</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20949,7 +20949,7 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>16500</v>
+        <v>10100</v>
       </c>
       <c r="K286" t="n">
         <v>500</v>
@@ -20958,7 +20958,7 @@
         <v>600</v>
       </c>
       <c r="M286" t="n">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44434</v>
+        <v>44426</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21017,20 +21017,20 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>19300</v>
+        <v>5200</v>
       </c>
       <c r="K287" t="n">
+        <v>300</v>
+      </c>
+      <c r="L287" t="n">
         <v>400</v>
       </c>
-      <c r="L287" t="n">
-        <v>500</v>
-      </c>
       <c r="M287" t="n">
-        <v>430</v>
+        <v>356</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>430</v>
+        <v>356</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21089,20 +21089,20 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>6600</v>
+        <v>16500</v>
       </c>
       <c r="K288" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L288" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M288" t="n">
-        <v>352</v>
+        <v>541</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>352</v>
+        <v>541</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21165,16 +21165,16 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>7900</v>
+        <v>19300</v>
       </c>
       <c r="K289" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L289" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M289" t="n">
-        <v>750</v>
+        <v>430</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>750</v>
+        <v>430</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21237,16 +21237,16 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>3400</v>
+        <v>6600</v>
       </c>
       <c r="K290" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L290" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M290" t="n">
-        <v>600</v>
+        <v>352</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>600</v>
+        <v>352</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21309,7 +21309,7 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>21000</v>
+        <v>7900</v>
       </c>
       <c r="K291" t="n">
         <v>700</v>
@@ -21318,7 +21318,7 @@
         <v>800</v>
       </c>
       <c r="M291" t="n">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21381,7 +21381,7 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>6000</v>
+        <v>3400</v>
       </c>
       <c r="K292" t="n">
         <v>600</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="K293" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L293" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M293" t="n">
-        <v>946</v>
+        <v>743</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>946</v>
+        <v>743</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="K294" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L294" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M294" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>13400</v>
+        <v>10000</v>
       </c>
       <c r="K295" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L295" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M295" t="n">
-        <v>651</v>
+        <v>946</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>651</v>
+        <v>946</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>2800</v>
+        <v>5800</v>
       </c>
       <c r="K296" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L296" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M296" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>23200</v>
+        <v>13400</v>
       </c>
       <c r="K297" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L297" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M297" t="n">
-        <v>458</v>
+        <v>651</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>458</v>
+        <v>651</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>5400</v>
+        <v>2800</v>
       </c>
       <c r="K298" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L298" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M298" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>8500</v>
+        <v>23200</v>
       </c>
       <c r="K299" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L299" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M299" t="n">
-        <v>700</v>
+        <v>458</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>700</v>
+        <v>458</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>3800</v>
+        <v>5400</v>
       </c>
       <c r="K300" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L300" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M300" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>19000</v>
+        <v>8500</v>
       </c>
       <c r="K301" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L301" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M301" t="n">
-        <v>421</v>
+        <v>700</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>421</v>
+        <v>700</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>6100</v>
+        <v>3800</v>
       </c>
       <c r="K302" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L302" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M302" t="n">
-        <v>273</v>
+        <v>500</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>273</v>
+        <v>500</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>5500</v>
+        <v>19000</v>
       </c>
       <c r="K303" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="L303" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M303" t="n">
-        <v>800</v>
+        <v>421</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>800</v>
+        <v>421</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>2200</v>
+        <v>6100</v>
       </c>
       <c r="K304" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L304" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M304" t="n">
-        <v>600</v>
+        <v>273</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>600</v>
+        <v>273</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>14300</v>
+        <v>5500</v>
       </c>
       <c r="K305" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L305" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="M305" t="n">
-        <v>423</v>
+        <v>800</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>423</v>
+        <v>800</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>4400</v>
+        <v>2200</v>
       </c>
       <c r="K306" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L306" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M306" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>12400</v>
+        <v>14300</v>
       </c>
       <c r="K307" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L307" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="M307" t="n">
-        <v>750</v>
+        <v>423</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>750</v>
+        <v>423</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22533,16 +22533,16 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>3400</v>
+        <v>4400</v>
       </c>
       <c r="K308" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L308" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M308" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>8500</v>
+        <v>12400</v>
       </c>
       <c r="K309" t="n">
+        <v>700</v>
+      </c>
+      <c r="L309" t="n">
         <v>800</v>
       </c>
-      <c r="L309" t="n">
-        <v>900</v>
-      </c>
       <c r="M309" t="n">
-        <v>845</v>
+        <v>750</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>845</v>
+        <v>750</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22677,7 +22677,7 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>2900</v>
+        <v>3400</v>
       </c>
       <c r="K310" t="n">
         <v>600</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>12400</v>
+        <v>8500</v>
       </c>
       <c r="K311" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L311" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M311" t="n">
-        <v>555</v>
+        <v>845</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>555</v>
+        <v>845</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>5500</v>
+        <v>2900</v>
       </c>
       <c r="K312" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L312" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M312" t="n">
-        <v>451</v>
+        <v>600</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>451</v>
+        <v>600</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>12600</v>
+        <v>12400</v>
       </c>
       <c r="K313" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L313" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M313" t="n">
-        <v>451</v>
+        <v>555</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>451</v>
+        <v>555</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22961,11 +22961,11 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="K314" t="n">
         <v>400</v>
@@ -22974,7 +22974,7 @@
         <v>500</v>
       </c>
       <c r="M314" t="n">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22983,11 +22983,11 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P314" t="n">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23033,20 +23033,20 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>2800</v>
+        <v>12600</v>
       </c>
       <c r="K315" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L315" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M315" t="n">
-        <v>300</v>
+        <v>451</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>300</v>
+        <v>451</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23105,20 +23105,20 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>3600</v>
+        <v>6500</v>
       </c>
       <c r="K316" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L316" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M316" t="n">
-        <v>286</v>
+        <v>449</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>286</v>
+        <v>449</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44301</v>
+        <v>44341</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23177,20 +23177,20 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>33300</v>
+        <v>2800</v>
       </c>
       <c r="K317" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L317" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M317" t="n">
-        <v>518</v>
+        <v>300</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>518</v>
+        <v>300</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44301</v>
+        <v>44341</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>9500</v>
+        <v>3600</v>
       </c>
       <c r="K318" t="n">
+        <v>250</v>
+      </c>
+      <c r="L318" t="n">
         <v>300</v>
       </c>
-      <c r="L318" t="n">
-        <v>400</v>
-      </c>
       <c r="M318" t="n">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23271,11 +23271,11 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P318" t="n">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>13000</v>
+        <v>33300</v>
       </c>
       <c r="K319" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L319" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M319" t="n">
-        <v>843</v>
+        <v>518</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>843</v>
+        <v>518</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23397,16 +23397,16 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>5600</v>
+        <v>9500</v>
       </c>
       <c r="K320" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L320" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M320" t="n">
-        <v>600</v>
+        <v>374</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>600</v>
+        <v>374</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23469,16 +23469,16 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>8700</v>
+        <v>13000</v>
       </c>
       <c r="K321" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L321" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M321" t="n">
-        <v>562</v>
+        <v>843</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>562</v>
+        <v>843</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23541,16 +23541,16 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>3800</v>
+        <v>5600</v>
       </c>
       <c r="K322" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L322" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M322" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q322" t="n">
         <v>1</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23613,7 +23613,7 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>6300</v>
+        <v>8700</v>
       </c>
       <c r="K323" t="n">
         <v>500</v>
@@ -23622,7 +23622,7 @@
         <v>600</v>
       </c>
       <c r="M323" t="n">
-        <v>540</v>
+        <v>562</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>540</v>
+        <v>562</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23685,7 +23685,7 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>1900</v>
+        <v>3800</v>
       </c>
       <c r="K324" t="n">
         <v>400</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>19000</v>
+        <v>6300</v>
       </c>
       <c r="K325" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L325" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M325" t="n">
-        <v>437</v>
+        <v>540</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>437</v>
+        <v>540</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>6100</v>
+        <v>1900</v>
       </c>
       <c r="K326" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L326" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M326" t="n">
-        <v>296</v>
+        <v>400</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>296</v>
+        <v>400</v>
       </c>
       <c r="Q326" t="n">
         <v>1</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>9900</v>
+        <v>19000</v>
       </c>
       <c r="K327" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="L327" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M327" t="n">
-        <v>943</v>
+        <v>437</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>943</v>
+        <v>437</v>
       </c>
       <c r="Q327" t="n">
         <v>1</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23973,16 +23973,16 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>2500</v>
+        <v>6100</v>
       </c>
       <c r="K328" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="L328" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="M328" t="n">
-        <v>700</v>
+        <v>296</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>700</v>
+        <v>296</v>
       </c>
       <c r="Q328" t="n">
         <v>1</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>16300</v>
+        <v>9900</v>
       </c>
       <c r="K329" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L329" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M329" t="n">
-        <v>442</v>
+        <v>943</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>442</v>
+        <v>943</v>
       </c>
       <c r="Q329" t="n">
         <v>1</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24117,16 +24117,16 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>6100</v>
+        <v>2500</v>
       </c>
       <c r="K330" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L330" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M330" t="n">
-        <v>378</v>
+        <v>700</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>378</v>
+        <v>700</v>
       </c>
       <c r="Q330" t="n">
         <v>1</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24189,7 +24189,7 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>19000</v>
+        <v>16300</v>
       </c>
       <c r="K331" t="n">
         <v>400</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24261,16 +24261,16 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>5000</v>
+        <v>6100</v>
       </c>
       <c r="K332" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L332" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M332" t="n">
-        <v>324</v>
+        <v>378</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>324</v>
+        <v>378</v>
       </c>
       <c r="Q332" t="n">
         <v>1</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24333,16 +24333,16 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>28300</v>
+        <v>19000</v>
       </c>
       <c r="K333" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L333" t="n">
         <v>500</v>
       </c>
       <c r="M333" t="n">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="Q333" t="n">
         <v>1</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24405,16 +24405,16 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="K334" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L334" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M334" t="n">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="Q334" t="n">
         <v>1</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>12000</v>
+        <v>28300</v>
       </c>
       <c r="K335" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="L335" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M335" t="n">
-        <v>842</v>
+        <v>423</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>842</v>
+        <v>423</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24549,16 +24549,16 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="K336" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L336" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M336" t="n">
-        <v>647</v>
+        <v>275</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>647</v>
+        <v>275</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>10700</v>
+        <v>12000</v>
       </c>
       <c r="K337" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L337" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M337" t="n">
-        <v>738</v>
+        <v>842</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>738</v>
+        <v>842</v>
       </c>
       <c r="Q337" t="n">
         <v>1</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -24693,16 +24693,16 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="K338" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L338" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M338" t="n">
-        <v>480</v>
+        <v>647</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>480</v>
+        <v>647</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -24765,16 +24765,16 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>14900</v>
+        <v>10700</v>
       </c>
       <c r="K339" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L339" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M339" t="n">
-        <v>450</v>
+        <v>738</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>450</v>
+        <v>738</v>
       </c>
       <c r="Q339" t="n">
         <v>1</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="K340" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="L340" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M340" t="n">
-        <v>286</v>
+        <v>480</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>286</v>
+        <v>480</v>
       </c>
       <c r="Q340" t="n">
         <v>1</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -24909,7 +24909,7 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>26900</v>
+        <v>14900</v>
       </c>
       <c r="K341" t="n">
         <v>400</v>
@@ -24918,7 +24918,7 @@
         <v>500</v>
       </c>
       <c r="M341" t="n">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Q341" t="n">
         <v>1</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -24977,20 +24977,20 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>3400</v>
+        <v>4500</v>
       </c>
       <c r="K342" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L342" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M342" t="n">
-        <v>500</v>
+        <v>286</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -24999,11 +24999,11 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P342" t="n">
-        <v>500</v>
+        <v>286</v>
       </c>
       <c r="Q342" t="n">
         <v>1</v>
@@ -25049,20 +25049,20 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J343" t="n">
-        <v>8300</v>
+        <v>26900</v>
       </c>
       <c r="K343" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L343" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M343" t="n">
-        <v>316</v>
+        <v>458</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>316</v>
+        <v>458</v>
       </c>
       <c r="Q343" t="n">
         <v>1</v>
@@ -25121,20 +25121,20 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J344" t="n">
-        <v>2700</v>
+        <v>3400</v>
       </c>
       <c r="K344" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L344" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M344" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q344" t="n">
         <v>1</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -25193,20 +25193,20 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J345" t="n">
-        <v>10300</v>
+        <v>8300</v>
       </c>
       <c r="K345" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L345" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M345" t="n">
-        <v>473</v>
+        <v>316</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>473</v>
+        <v>316</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -25265,20 +25265,20 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J346" t="n">
-        <v>10500</v>
+        <v>2700</v>
       </c>
       <c r="K346" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L346" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M346" t="n">
-        <v>476</v>
+        <v>350</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>476</v>
+        <v>350</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -25337,20 +25337,20 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J347" t="n">
-        <v>3500</v>
+        <v>10300</v>
       </c>
       <c r="K347" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L347" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M347" t="n">
-        <v>350</v>
+        <v>473</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>350</v>
+        <v>473</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25409,20 +25409,20 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J348" t="n">
-        <v>4500</v>
+        <v>10500</v>
       </c>
       <c r="K348" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L348" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M348" t="n">
-        <v>350</v>
+        <v>476</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>350</v>
+        <v>476</v>
       </c>
       <c r="Q348" t="n">
         <v>1</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -25481,20 +25481,20 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J349" t="n">
-        <v>21600</v>
+        <v>3500</v>
       </c>
       <c r="K349" t="n">
         <v>350</v>
       </c>
       <c r="L349" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="M349" t="n">
-        <v>452</v>
+        <v>350</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>452</v>
+        <v>350</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -25557,16 +25557,16 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>10500</v>
+        <v>4500</v>
       </c>
       <c r="K350" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L350" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M350" t="n">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25575,11 +25575,11 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P350" t="n">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="Q350" t="n">
         <v>1</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>13200</v>
+        <v>21600</v>
       </c>
       <c r="K351" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L351" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M351" t="n">
-        <v>421</v>
+        <v>452</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>421</v>
+        <v>452</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -25701,16 +25701,16 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>4800</v>
+        <v>10500</v>
       </c>
       <c r="K352" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="L352" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M352" t="n">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -25773,16 +25773,16 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>18700</v>
+        <v>13200</v>
       </c>
       <c r="K353" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L353" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="M353" t="n">
-        <v>557</v>
+        <v>421</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>557</v>
+        <v>421</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -25845,16 +25845,16 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="K354" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L354" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="M354" t="n">
-        <v>422</v>
+        <v>300</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>422</v>
+        <v>300</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -25917,16 +25917,16 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>13300</v>
+        <v>18700</v>
       </c>
       <c r="K355" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L355" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M355" t="n">
-        <v>451</v>
+        <v>557</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>451</v>
+        <v>557</v>
       </c>
       <c r="Q355" t="n">
         <v>1</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -25989,16 +25989,16 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>5600</v>
+        <v>5000</v>
       </c>
       <c r="K356" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L356" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M356" t="n">
-        <v>279</v>
+        <v>422</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>279</v>
+        <v>422</v>
       </c>
       <c r="Q356" t="n">
         <v>1</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -26061,16 +26061,16 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>16300</v>
+        <v>13300</v>
       </c>
       <c r="K357" t="n">
+        <v>400</v>
+      </c>
+      <c r="L357" t="n">
         <v>500</v>
       </c>
-      <c r="L357" t="n">
-        <v>600</v>
-      </c>
       <c r="M357" t="n">
-        <v>542</v>
+        <v>451</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>542</v>
+        <v>451</v>
       </c>
       <c r="Q357" t="n">
         <v>1</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -26133,16 +26133,16 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>3200</v>
+        <v>5600</v>
       </c>
       <c r="K358" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L358" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M358" t="n">
-        <v>400</v>
+        <v>279</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>400</v>
+        <v>279</v>
       </c>
       <c r="Q358" t="n">
         <v>1</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -26205,16 +26205,16 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>19300</v>
+        <v>16300</v>
       </c>
       <c r="K359" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L359" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M359" t="n">
-        <v>425</v>
+        <v>542</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>425</v>
+        <v>542</v>
       </c>
       <c r="Q359" t="n">
         <v>1</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -26277,16 +26277,16 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>6500</v>
+        <v>3200</v>
       </c>
       <c r="K360" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L360" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M360" t="n">
-        <v>249</v>
+        <v>400</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>249</v>
+        <v>400</v>
       </c>
       <c r="Q360" t="n">
         <v>1</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -26349,16 +26349,16 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>14300</v>
+        <v>19300</v>
       </c>
       <c r="K361" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L361" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M361" t="n">
-        <v>499</v>
+        <v>425</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>499</v>
+        <v>425</v>
       </c>
       <c r="Q361" t="n">
         <v>1</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -26417,20 +26417,20 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J362" t="n">
-        <v>3200</v>
+        <v>6500</v>
       </c>
       <c r="K362" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L362" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M362" t="n">
-        <v>500</v>
+        <v>249</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26439,11 +26439,11 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P362" t="n">
-        <v>500</v>
+        <v>249</v>
       </c>
       <c r="Q362" t="n">
         <v>1</v>
@@ -26489,20 +26489,20 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J363" t="n">
-        <v>5500</v>
+        <v>14300</v>
       </c>
       <c r="K363" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L363" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M363" t="n">
-        <v>358</v>
+        <v>499</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>358</v>
+        <v>499</v>
       </c>
       <c r="Q363" t="n">
         <v>1</v>
@@ -26561,20 +26561,20 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J364" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="K364" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L364" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M364" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q364" t="n">
         <v>1</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -26633,20 +26633,20 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J365" t="n">
-        <v>16900</v>
+        <v>5500</v>
       </c>
       <c r="K365" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L365" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M365" t="n">
-        <v>430</v>
+        <v>358</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>430</v>
+        <v>358</v>
       </c>
       <c r="Q365" t="n">
         <v>1</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -26709,16 +26709,16 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="K366" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L366" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M366" t="n">
-        <v>273</v>
+        <v>400</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26727,11 +26727,11 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P366" t="n">
-        <v>273</v>
+        <v>400</v>
       </c>
       <c r="Q366" t="n">
         <v>1</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -26781,16 +26781,16 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>24800</v>
+        <v>16900</v>
       </c>
       <c r="K367" t="n">
+        <v>350</v>
+      </c>
+      <c r="L367" t="n">
         <v>500</v>
       </c>
-      <c r="L367" t="n">
-        <v>700</v>
-      </c>
       <c r="M367" t="n">
-        <v>617</v>
+        <v>430</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>617</v>
+        <v>430</v>
       </c>
       <c r="Q367" t="n">
         <v>1</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>7900</v>
+        <v>6000</v>
       </c>
       <c r="K368" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L368" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M368" t="n">
-        <v>457</v>
+        <v>273</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>457</v>
+        <v>273</v>
       </c>
       <c r="Q368" t="n">
         <v>1</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -26925,16 +26925,16 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>2700</v>
+        <v>24800</v>
       </c>
       <c r="K369" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L369" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M369" t="n">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26943,11 +26943,11 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P369" t="n">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="Q369" t="n">
         <v>1</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -26997,16 +26997,16 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>2100</v>
+        <v>7900</v>
       </c>
       <c r="K370" t="n">
         <v>400</v>
       </c>
       <c r="L370" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M370" t="n">
-        <v>400</v>
+        <v>457</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27015,11 +27015,11 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P370" t="n">
-        <v>400</v>
+        <v>457</v>
       </c>
       <c r="Q370" t="n">
         <v>1</v>
@@ -27065,20 +27065,20 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J371" t="n">
-        <v>3300</v>
+        <v>2700</v>
       </c>
       <c r="K371" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L371" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M371" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="Q371" t="n">
         <v>1</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -27137,20 +27137,20 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J372" t="n">
-        <v>5400</v>
+        <v>2100</v>
       </c>
       <c r="K372" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L372" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M372" t="n">
-        <v>944</v>
+        <v>400</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27159,11 +27159,11 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P372" t="n">
-        <v>944</v>
+        <v>400</v>
       </c>
       <c r="Q372" t="n">
         <v>1</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -27209,20 +27209,20 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J373" t="n">
-        <v>2700</v>
+        <v>3300</v>
       </c>
       <c r="K373" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L373" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M373" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27231,11 +27231,11 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P373" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="Q373" t="n">
         <v>1</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -27285,16 +27285,16 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>10200</v>
+        <v>5400</v>
       </c>
       <c r="K374" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L374" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M374" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="Q374" t="n">
         <v>1</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -27357,16 +27357,16 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="K375" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L375" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M375" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q375" t="n">
         <v>1</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -27429,16 +27429,16 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>28500</v>
+        <v>10200</v>
       </c>
       <c r="K376" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L376" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M376" t="n">
-        <v>333</v>
+        <v>667</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>333</v>
+        <v>667</v>
       </c>
       <c r="Q376" t="n">
         <v>1</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27501,16 +27501,16 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>7900</v>
+        <v>2800</v>
       </c>
       <c r="K377" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L377" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M377" t="n">
-        <v>221</v>
+        <v>500</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>221</v>
+        <v>500</v>
       </c>
       <c r="Q377" t="n">
         <v>1</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -27573,16 +27573,16 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>76300</v>
+        <v>28500</v>
       </c>
       <c r="K378" t="n">
+        <v>300</v>
+      </c>
+      <c r="L378" t="n">
         <v>400</v>
       </c>
-      <c r="L378" t="n">
-        <v>500</v>
-      </c>
       <c r="M378" t="n">
-        <v>441</v>
+        <v>333</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>441</v>
+        <v>333</v>
       </c>
       <c r="Q378" t="n">
         <v>1</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -27645,16 +27645,16 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>25400</v>
+        <v>7900</v>
       </c>
       <c r="K379" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L379" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="M379" t="n">
-        <v>357</v>
+        <v>221</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>357</v>
+        <v>221</v>
       </c>
       <c r="Q379" t="n">
         <v>1</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -27717,16 +27717,16 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>9700</v>
+        <v>76300</v>
       </c>
       <c r="K380" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L380" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M380" t="n">
-        <v>527</v>
+        <v>441</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>527</v>
+        <v>441</v>
       </c>
       <c r="Q380" t="n">
         <v>1</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -27789,7 +27789,7 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>5300</v>
+        <v>25400</v>
       </c>
       <c r="K381" t="n">
         <v>300</v>
@@ -27798,7 +27798,7 @@
         <v>400</v>
       </c>
       <c r="M381" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q381" t="n">
         <v>1</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -27861,16 +27861,16 @@
         </is>
       </c>
       <c r="J382" t="n">
-        <v>13100</v>
+        <v>9700</v>
       </c>
       <c r="K382" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L382" t="n">
         <v>600</v>
       </c>
       <c r="M382" t="n">
-        <v>563</v>
+        <v>527</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>563</v>
+        <v>527</v>
       </c>
       <c r="Q382" t="n">
         <v>1</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -27933,16 +27933,16 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="K383" t="n">
+        <v>300</v>
+      </c>
+      <c r="L383" t="n">
         <v>400</v>
       </c>
-      <c r="L383" t="n">
-        <v>450</v>
-      </c>
       <c r="M383" t="n">
-        <v>425</v>
+        <v>353</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>425</v>
+        <v>353</v>
       </c>
       <c r="Q383" t="n">
         <v>1</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -28005,16 +28005,16 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>26200</v>
+        <v>13100</v>
       </c>
       <c r="K384" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L384" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M384" t="n">
-        <v>427</v>
+        <v>563</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>427</v>
+        <v>563</v>
       </c>
       <c r="Q384" t="n">
         <v>1</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -28077,16 +28077,16 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>7800</v>
+        <v>5500</v>
       </c>
       <c r="K385" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L385" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="M385" t="n">
-        <v>329</v>
+        <v>425</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>329</v>
+        <v>425</v>
       </c>
       <c r="Q385" t="n">
         <v>1</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -28149,16 +28149,16 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>9200</v>
+        <v>26200</v>
       </c>
       <c r="K386" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L386" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M386" t="n">
-        <v>740</v>
+        <v>427</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>740</v>
+        <v>427</v>
       </c>
       <c r="Q386" t="n">
         <v>1</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -28221,16 +28221,16 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>4500</v>
+        <v>7800</v>
       </c>
       <c r="K387" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L387" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="M387" t="n">
-        <v>497</v>
+        <v>329</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>497</v>
+        <v>329</v>
       </c>
       <c r="Q387" t="n">
         <v>1</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -28293,16 +28293,16 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>13300</v>
+        <v>9200</v>
       </c>
       <c r="K388" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L388" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M388" t="n">
-        <v>451</v>
+        <v>740</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>451</v>
+        <v>740</v>
       </c>
       <c r="Q388" t="n">
         <v>1</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -28365,16 +28365,16 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>5600</v>
+        <v>4500</v>
       </c>
       <c r="K389" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L389" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M389" t="n">
-        <v>380</v>
+        <v>497</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>380</v>
+        <v>497</v>
       </c>
       <c r="Q389" t="n">
         <v>1</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -28437,16 +28437,16 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>10300</v>
+        <v>13300</v>
       </c>
       <c r="K390" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L390" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="M390" t="n">
-        <v>1091</v>
+        <v>451</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>1091</v>
+        <v>451</v>
       </c>
       <c r="Q390" t="n">
         <v>1</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -28509,16 +28509,16 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>11000</v>
+        <v>5600</v>
       </c>
       <c r="K391" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L391" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M391" t="n">
-        <v>741</v>
+        <v>380</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>741</v>
+        <v>380</v>
       </c>
       <c r="Q391" t="n">
         <v>1</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28581,16 +28581,16 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>11300</v>
+        <v>10300</v>
       </c>
       <c r="K392" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="L392" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="M392" t="n">
-        <v>379</v>
+        <v>1091</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>379</v>
+        <v>1091</v>
       </c>
       <c r="Q392" t="n">
         <v>1</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -28653,16 +28653,16 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>3800</v>
+        <v>11000</v>
       </c>
       <c r="K393" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="L393" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="M393" t="n">
-        <v>250</v>
+        <v>741</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>250</v>
+        <v>741</v>
       </c>
       <c r="Q393" t="n">
         <v>1</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -28725,16 +28725,16 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>16400</v>
+        <v>11300</v>
       </c>
       <c r="K394" t="n">
         <v>350</v>
       </c>
       <c r="L394" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M394" t="n">
-        <v>422</v>
+        <v>379</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>422</v>
+        <v>379</v>
       </c>
       <c r="Q394" t="n">
         <v>1</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -28797,16 +28797,16 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>6700</v>
+        <v>3800</v>
       </c>
       <c r="K395" t="n">
         <v>250</v>
       </c>
       <c r="L395" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="M395" t="n">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="Q395" t="n">
         <v>1</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28869,16 +28869,16 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>22800</v>
+        <v>16400</v>
       </c>
       <c r="K396" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="L396" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M396" t="n">
-        <v>648</v>
+        <v>422</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>648</v>
+        <v>422</v>
       </c>
       <c r="Q396" t="n">
         <v>1</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28941,16 +28941,16 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>7900</v>
+        <v>6700</v>
       </c>
       <c r="K397" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L397" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M397" t="n">
-        <v>500</v>
+        <v>275</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>500</v>
+        <v>275</v>
       </c>
       <c r="Q397" t="n">
         <v>1</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -29013,16 +29013,16 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>17000</v>
+        <v>22800</v>
       </c>
       <c r="K398" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L398" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M398" t="n">
-        <v>856</v>
+        <v>648</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>856</v>
+        <v>648</v>
       </c>
       <c r="Q398" t="n">
         <v>1</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -29085,16 +29085,16 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>6500</v>
+        <v>7900</v>
       </c>
       <c r="K399" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L399" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M399" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q399" t="n">
         <v>1</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -29157,16 +29157,16 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>14700</v>
+        <v>17000</v>
       </c>
       <c r="K400" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L400" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M400" t="n">
-        <v>649</v>
+        <v>856</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>649</v>
+        <v>856</v>
       </c>
       <c r="Q400" t="n">
         <v>1</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -29229,16 +29229,16 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>6100</v>
+        <v>6500</v>
       </c>
       <c r="K401" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L401" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M401" t="n">
-        <v>478</v>
+        <v>700</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>478</v>
+        <v>700</v>
       </c>
       <c r="Q401" t="n">
         <v>1</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -29301,7 +29301,7 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>18100</v>
+        <v>14700</v>
       </c>
       <c r="K402" t="n">
         <v>600</v>
@@ -29310,7 +29310,7 @@
         <v>700</v>
       </c>
       <c r="M402" t="n">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="Q402" t="n">
         <v>1</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -29373,34 +29373,178 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>3800</v>
+        <v>6100</v>
       </c>
       <c r="K403" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L403" t="n">
         <v>500</v>
       </c>
       <c r="M403" t="n">
+        <v>478</v>
+      </c>
+      <c r="N403" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O403" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P403" t="n">
+        <v>478</v>
+      </c>
+      <c r="Q403" t="n">
+        <v>1</v>
+      </c>
+      <c r="R403" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>6</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D404" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E404" t="n">
+        <v>13</v>
+      </c>
+      <c r="F404" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J404" t="n">
+        <v>18100</v>
+      </c>
+      <c r="K404" t="n">
+        <v>600</v>
+      </c>
+      <c r="L404" t="n">
+        <v>700</v>
+      </c>
+      <c r="M404" t="n">
+        <v>647</v>
+      </c>
+      <c r="N404" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O404" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P404" t="n">
+        <v>647</v>
+      </c>
+      <c r="Q404" t="n">
+        <v>1</v>
+      </c>
+      <c r="R404" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>6</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D405" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E405" t="n">
+        <v>13</v>
+      </c>
+      <c r="F405" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J405" t="n">
+        <v>3800</v>
+      </c>
+      <c r="K405" t="n">
         <v>500</v>
       </c>
-      <c r="N403" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O403" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P403" t="n">
+      <c r="L405" t="n">
         <v>500</v>
       </c>
-      <c r="Q403" t="n">
-        <v>1</v>
-      </c>
-      <c r="R403" t="inlineStr">
+      <c r="M405" t="n">
+        <v>500</v>
+      </c>
+      <c r="N405" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O405" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P405" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q405" t="n">
+        <v>1</v>
+      </c>
+      <c r="R405" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R411"/>
+  <dimension ref="A1:R415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20301,7 +20301,7 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>17100</v>
+        <v>13100</v>
       </c>
       <c r="K277" t="n">
         <v>500</v>
@@ -20310,7 +20310,7 @@
         <v>600</v>
       </c>
       <c r="M277" t="n">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20369,20 +20369,20 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>5700</v>
+        <v>3400</v>
       </c>
       <c r="K278" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L278" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M278" t="n">
-        <v>380</v>
+        <v>600</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20391,11 +20391,11 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>380</v>
+        <v>600</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44165</v>
+        <v>44455</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20441,20 +20441,20 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>16000</v>
+        <v>3300</v>
       </c>
       <c r="K279" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L279" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M279" t="n">
-        <v>647</v>
+        <v>400</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>647</v>
+        <v>400</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44165</v>
+        <v>44455</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>4500</v>
+        <v>2800</v>
       </c>
       <c r="K280" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L280" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M280" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20535,11 +20535,11 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P280" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44427</v>
+        <v>44418</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20589,7 +20589,7 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>12400</v>
+        <v>17100</v>
       </c>
       <c r="K281" t="n">
         <v>500</v>
@@ -20598,7 +20598,7 @@
         <v>600</v>
       </c>
       <c r="M281" t="n">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44427</v>
+        <v>44418</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="K282" t="n">
+        <v>350</v>
+      </c>
+      <c r="L282" t="n">
         <v>400</v>
       </c>
-      <c r="L282" t="n">
-        <v>500</v>
-      </c>
       <c r="M282" t="n">
-        <v>451</v>
+        <v>380</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>451</v>
+        <v>380</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44172</v>
+        <v>44165</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20736,13 +20736,13 @@
         <v>16000</v>
       </c>
       <c r="K283" t="n">
+        <v>600</v>
+      </c>
+      <c r="L283" t="n">
         <v>700</v>
       </c>
-      <c r="L283" t="n">
-        <v>800</v>
-      </c>
       <c r="M283" t="n">
-        <v>741</v>
+        <v>647</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>741</v>
+        <v>647</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44172</v>
+        <v>44165</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44389</v>
+        <v>44427</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>3500</v>
+        <v>12400</v>
       </c>
       <c r="K285" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L285" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M285" t="n">
-        <v>700</v>
+        <v>555</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>700</v>
+        <v>555</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44389</v>
+        <v>44427</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>2800</v>
+        <v>5500</v>
       </c>
       <c r="K286" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L286" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M286" t="n">
-        <v>600</v>
+        <v>451</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>600</v>
+        <v>451</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44249</v>
+        <v>44172</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="K287" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L287" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M287" t="n">
-        <v>944</v>
+        <v>741</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>944</v>
+        <v>741</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44249</v>
+        <v>44172</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="K288" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L288" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M288" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44265</v>
+        <v>44389</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21165,16 +21165,16 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>8800</v>
+        <v>3500</v>
       </c>
       <c r="K289" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L289" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M289" t="n">
-        <v>580</v>
+        <v>700</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>580</v>
+        <v>700</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44265</v>
+        <v>44389</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21237,16 +21237,16 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>6500</v>
+        <v>2800</v>
       </c>
       <c r="K290" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L290" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M290" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>16500</v>
+        <v>8000</v>
       </c>
       <c r="K291" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="L291" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M291" t="n">
-        <v>412</v>
+        <v>944</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>412</v>
+        <v>944</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21381,16 +21381,16 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>5900</v>
+        <v>3500</v>
       </c>
       <c r="K292" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="L292" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M292" t="n">
-        <v>277</v>
+        <v>700</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>277</v>
+        <v>700</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44201</v>
+        <v>44265</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>5200</v>
+        <v>8800</v>
       </c>
       <c r="K293" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L293" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M293" t="n">
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44201</v>
+        <v>44265</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="K294" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L294" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="M294" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>12000</v>
+        <v>16500</v>
       </c>
       <c r="K295" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L295" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M295" t="n">
-        <v>748</v>
+        <v>412</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>748</v>
+        <v>412</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>2600</v>
+        <v>5900</v>
       </c>
       <c r="K296" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L296" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M296" t="n">
-        <v>500</v>
+        <v>277</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>500</v>
+        <v>277</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44447</v>
+        <v>44201</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>16900</v>
+        <v>5200</v>
       </c>
       <c r="K297" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L297" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M297" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44447</v>
+        <v>44201</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>5200</v>
+        <v>2500</v>
       </c>
       <c r="K298" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L298" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M298" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44270</v>
+        <v>44280</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21888,13 +21888,13 @@
         <v>12000</v>
       </c>
       <c r="K299" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L299" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M299" t="n">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44270</v>
+        <v>44280</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>4700</v>
+        <v>2600</v>
       </c>
       <c r="K300" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L300" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M300" t="n">
-        <v>583</v>
+        <v>500</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>583</v>
+        <v>500</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>6500</v>
+        <v>16900</v>
       </c>
       <c r="K301" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="L301" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M301" t="n">
-        <v>851</v>
+        <v>400</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>851</v>
+        <v>400</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>2800</v>
+        <v>5200</v>
       </c>
       <c r="K302" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L302" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M302" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44267</v>
+        <v>44270</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="K303" t="n">
         <v>650</v>
       </c>
       <c r="L303" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M303" t="n">
-        <v>670</v>
+        <v>759</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>670</v>
+        <v>759</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44267</v>
+        <v>44270</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>3900</v>
+        <v>4700</v>
       </c>
       <c r="K304" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L304" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M304" t="n">
-        <v>500</v>
+        <v>583</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>500</v>
+        <v>583</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44312</v>
+        <v>44260</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>14800</v>
+        <v>6500</v>
       </c>
       <c r="K305" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="L305" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M305" t="n">
-        <v>414</v>
+        <v>851</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>414</v>
+        <v>851</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44312</v>
+        <v>44260</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>5200</v>
+        <v>2800</v>
       </c>
       <c r="K306" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="L306" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M306" t="n">
-        <v>277</v>
+        <v>600</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>277</v>
+        <v>600</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44187</v>
+        <v>44267</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>7000</v>
+        <v>11200</v>
       </c>
       <c r="K307" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L307" t="n">
         <v>700</v>
       </c>
       <c r="M307" t="n">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44187</v>
+        <v>44267</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22533,7 +22533,7 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>2500</v>
+        <v>3900</v>
       </c>
       <c r="K308" t="n">
         <v>500</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>10200</v>
+        <v>14800</v>
       </c>
       <c r="K309" t="n">
+        <v>350</v>
+      </c>
+      <c r="L309" t="n">
         <v>500</v>
       </c>
-      <c r="L309" t="n">
-        <v>600</v>
-      </c>
       <c r="M309" t="n">
-        <v>566</v>
+        <v>414</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>566</v>
+        <v>414</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>2900</v>
+        <v>5200</v>
       </c>
       <c r="K310" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L310" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M310" t="n">
-        <v>400</v>
+        <v>277</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>400</v>
+        <v>277</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44386</v>
+        <v>44187</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>13700</v>
+        <v>7000</v>
       </c>
       <c r="K311" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L311" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M311" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44386</v>
+        <v>44187</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="K312" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L312" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M312" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>18900</v>
+        <v>10200</v>
       </c>
       <c r="K313" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L313" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M313" t="n">
-        <v>414</v>
+        <v>566</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>414</v>
+        <v>566</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>8500</v>
+        <v>2900</v>
       </c>
       <c r="K314" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L314" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M314" t="n">
-        <v>249</v>
+        <v>400</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>249</v>
+        <v>400</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>8500</v>
+        <v>13700</v>
       </c>
       <c r="K315" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L315" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M315" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="K316" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L316" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M316" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44196</v>
+        <v>44308</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23181,16 +23181,16 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>13000</v>
+        <v>18900</v>
       </c>
       <c r="K317" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L317" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M317" t="n">
-        <v>700</v>
+        <v>414</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>700</v>
+        <v>414</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44196</v>
+        <v>44308</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="K318" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L318" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M318" t="n">
-        <v>500</v>
+        <v>249</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>500</v>
+        <v>249</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44301</v>
+        <v>44264</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>33300</v>
+        <v>8500</v>
       </c>
       <c r="K319" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L319" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M319" t="n">
-        <v>518</v>
+        <v>700</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>518</v>
+        <v>700</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44301</v>
+        <v>44264</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23397,16 +23397,16 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>9500</v>
+        <v>3800</v>
       </c>
       <c r="K320" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L320" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M320" t="n">
-        <v>374</v>
+        <v>500</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>374</v>
+        <v>500</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23469,16 +23469,16 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>5400</v>
+        <v>13000</v>
       </c>
       <c r="K321" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L321" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M321" t="n">
-        <v>944</v>
+        <v>700</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>944</v>
+        <v>700</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23541,16 +23541,16 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>2700</v>
+        <v>4500</v>
       </c>
       <c r="K322" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L322" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M322" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q322" t="n">
         <v>1</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>14000</v>
+        <v>33300</v>
       </c>
       <c r="K323" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L323" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M323" t="n">
-        <v>846</v>
+        <v>518</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>846</v>
+        <v>518</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23685,16 +23685,16 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="K324" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L324" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M324" t="n">
-        <v>600</v>
+        <v>374</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>600</v>
+        <v>374</v>
       </c>
       <c r="Q324" t="n">
         <v>1</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>6500</v>
+        <v>5400</v>
       </c>
       <c r="K325" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L325" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M325" t="n">
-        <v>751</v>
+        <v>944</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>751</v>
+        <v>944</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="K326" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L326" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M326" t="n">
-        <v>464</v>
+        <v>700</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>464</v>
+        <v>700</v>
       </c>
       <c r="Q326" t="n">
         <v>1</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>20100</v>
+        <v>14000</v>
       </c>
       <c r="K327" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L327" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M327" t="n">
-        <v>652</v>
+        <v>846</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>652</v>
+        <v>846</v>
       </c>
       <c r="Q327" t="n">
         <v>1</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23973,16 +23973,16 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="K328" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L328" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M328" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q328" t="n">
         <v>1</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>24300</v>
+        <v>6500</v>
       </c>
       <c r="K329" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L329" t="n">
         <v>800</v>
       </c>
       <c r="M329" t="n">
-        <v>713</v>
+        <v>751</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>713</v>
+        <v>751</v>
       </c>
       <c r="Q329" t="n">
         <v>1</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24117,16 +24117,16 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>9900</v>
+        <v>2500</v>
       </c>
       <c r="K330" t="n">
+        <v>400</v>
+      </c>
+      <c r="L330" t="n">
         <v>500</v>
       </c>
-      <c r="L330" t="n">
-        <v>600</v>
-      </c>
       <c r="M330" t="n">
-        <v>566</v>
+        <v>464</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>566</v>
+        <v>464</v>
       </c>
       <c r="Q330" t="n">
         <v>1</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>28300</v>
+        <v>20100</v>
       </c>
       <c r="K331" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L331" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M331" t="n">
-        <v>423</v>
+        <v>652</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>423</v>
+        <v>652</v>
       </c>
       <c r="Q331" t="n">
         <v>1</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24261,16 +24261,16 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="K332" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L332" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M332" t="n">
-        <v>275</v>
+        <v>500</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>275</v>
+        <v>500</v>
       </c>
       <c r="Q332" t="n">
         <v>1</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24333,16 +24333,16 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>22000</v>
+        <v>24300</v>
       </c>
       <c r="K333" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L333" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M333" t="n">
-        <v>444</v>
+        <v>713</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>444</v>
+        <v>713</v>
       </c>
       <c r="Q333" t="n">
         <v>1</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24405,16 +24405,16 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>6600</v>
+        <v>9900</v>
       </c>
       <c r="K334" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L334" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M334" t="n">
-        <v>352</v>
+        <v>566</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>352</v>
+        <v>566</v>
       </c>
       <c r="Q334" t="n">
         <v>1</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24477,7 +24477,7 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>15700</v>
+        <v>28300</v>
       </c>
       <c r="K335" t="n">
         <v>350</v>
@@ -24486,7 +24486,7 @@
         <v>500</v>
       </c>
       <c r="M335" t="n">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24549,16 +24549,16 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="K336" t="n">
+        <v>250</v>
+      </c>
+      <c r="L336" t="n">
         <v>300</v>
       </c>
-      <c r="L336" t="n">
-        <v>350</v>
-      </c>
       <c r="M336" t="n">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>14300</v>
+        <v>22000</v>
       </c>
       <c r="K337" t="n">
         <v>400</v>
       </c>
       <c r="L337" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M337" t="n">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="Q337" t="n">
         <v>1</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -24693,16 +24693,16 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>4400</v>
+        <v>6600</v>
       </c>
       <c r="K338" t="n">
         <v>300</v>
       </c>
       <c r="L338" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M338" t="n">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -24765,16 +24765,16 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>9200</v>
+        <v>15700</v>
       </c>
       <c r="K339" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L339" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M339" t="n">
-        <v>740</v>
+        <v>437</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>740</v>
+        <v>437</v>
       </c>
       <c r="Q339" t="n">
         <v>1</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>4500</v>
+        <v>5700</v>
       </c>
       <c r="K340" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L340" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="M340" t="n">
-        <v>497</v>
+        <v>324</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>497</v>
+        <v>324</v>
       </c>
       <c r="Q340" t="n">
         <v>1</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -24909,16 +24909,16 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>13800</v>
+        <v>14300</v>
       </c>
       <c r="K341" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L341" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="M341" t="n">
-        <v>549</v>
+        <v>423</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>549</v>
+        <v>423</v>
       </c>
       <c r="Q341" t="n">
         <v>1</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -24977,20 +24977,20 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>2300</v>
+        <v>4400</v>
       </c>
       <c r="K342" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L342" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M342" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -24999,11 +24999,11 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P342" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="Q342" t="n">
         <v>1</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -25049,20 +25049,20 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J343" t="n">
-        <v>3600</v>
+        <v>9200</v>
       </c>
       <c r="K343" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L343" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M343" t="n">
-        <v>500</v>
+        <v>740</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>500</v>
+        <v>740</v>
       </c>
       <c r="Q343" t="n">
         <v>1</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -25125,16 +25125,16 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>1200</v>
+        <v>4500</v>
       </c>
       <c r="K344" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L344" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M344" t="n">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25143,11 +25143,11 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P344" t="n">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="Q344" t="n">
         <v>1</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -25197,16 +25197,16 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>16700</v>
+        <v>13800</v>
       </c>
       <c r="K345" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L345" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M345" t="n">
-        <v>441</v>
+        <v>549</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>441</v>
+        <v>549</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -25265,20 +25265,20 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J346" t="n">
-        <v>4800</v>
+        <v>2300</v>
       </c>
       <c r="K346" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L346" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M346" t="n">
-        <v>376</v>
+        <v>700</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25287,11 +25287,11 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P346" t="n">
-        <v>376</v>
+        <v>700</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -25337,20 +25337,20 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J347" t="n">
-        <v>12000</v>
+        <v>3600</v>
       </c>
       <c r="K347" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L347" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M347" t="n">
-        <v>662</v>
+        <v>500</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>662</v>
+        <v>500</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -25413,7 +25413,7 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>4500</v>
+        <v>1200</v>
       </c>
       <c r="K348" t="n">
         <v>500</v>
@@ -25431,7 +25431,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P348" t="n">
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -25485,16 +25485,16 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>12100</v>
+        <v>16700</v>
       </c>
       <c r="K349" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L349" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M349" t="n">
-        <v>644</v>
+        <v>441</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>644</v>
+        <v>441</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -25557,16 +25557,16 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>3600</v>
+        <v>4800</v>
       </c>
       <c r="K350" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L350" t="n">
         <v>400</v>
       </c>
       <c r="M350" t="n">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="Q350" t="n">
         <v>1</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>10700</v>
+        <v>12000</v>
       </c>
       <c r="K351" t="n">
+        <v>600</v>
+      </c>
+      <c r="L351" t="n">
         <v>700</v>
       </c>
-      <c r="L351" t="n">
-        <v>800</v>
-      </c>
       <c r="M351" t="n">
-        <v>738</v>
+        <v>662</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>738</v>
+        <v>662</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -25701,16 +25701,16 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="K352" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L352" t="n">
         <v>500</v>
       </c>
       <c r="M352" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -25773,16 +25773,16 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>2700</v>
+        <v>12100</v>
       </c>
       <c r="K353" t="n">
         <v>600</v>
       </c>
       <c r="L353" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M353" t="n">
-        <v>600</v>
+        <v>644</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25791,11 +25791,11 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P353" t="n">
-        <v>600</v>
+        <v>644</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -25845,7 +25845,7 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>2100</v>
+        <v>3600</v>
       </c>
       <c r="K354" t="n">
         <v>400</v>
@@ -25863,7 +25863,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P354" t="n">
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -25913,20 +25913,20 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J355" t="n">
-        <v>3300</v>
+        <v>10700</v>
       </c>
       <c r="K355" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L355" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M355" t="n">
-        <v>550</v>
+        <v>738</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25935,11 +25935,11 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P355" t="n">
-        <v>550</v>
+        <v>738</v>
       </c>
       <c r="Q355" t="n">
         <v>1</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -25985,20 +25985,20 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J356" t="n">
-        <v>14700</v>
+        <v>4000</v>
       </c>
       <c r="K356" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L356" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M356" t="n">
-        <v>372</v>
+        <v>480</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>372</v>
+        <v>480</v>
       </c>
       <c r="Q356" t="n">
         <v>1</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -26057,20 +26057,20 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J357" t="n">
-        <v>4400</v>
+        <v>2700</v>
       </c>
       <c r="K357" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="L357" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="M357" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26079,11 +26079,11 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P357" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="Q357" t="n">
         <v>1</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -26129,20 +26129,20 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J358" t="n">
-        <v>7900</v>
+        <v>2100</v>
       </c>
       <c r="K358" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L358" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M358" t="n">
-        <v>757</v>
+        <v>400</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26151,11 +26151,11 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P358" t="n">
-        <v>757</v>
+        <v>400</v>
       </c>
       <c r="Q358" t="n">
         <v>1</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -26201,20 +26201,20 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J359" t="n">
-        <v>6800</v>
+        <v>3300</v>
       </c>
       <c r="K359" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L359" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M359" t="n">
-        <v>747</v>
+        <v>550</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26223,11 +26223,11 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P359" t="n">
-        <v>747</v>
+        <v>550</v>
       </c>
       <c r="Q359" t="n">
         <v>1</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -26273,20 +26273,20 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J360" t="n">
-        <v>2500</v>
+        <v>14700</v>
       </c>
       <c r="K360" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L360" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M360" t="n">
-        <v>500</v>
+        <v>372</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>500</v>
+        <v>372</v>
       </c>
       <c r="Q360" t="n">
         <v>1</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -26349,16 +26349,16 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>2300</v>
+        <v>4400</v>
       </c>
       <c r="K361" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L361" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="M361" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26367,11 +26367,11 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P361" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="Q361" t="n">
         <v>1</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -26430,7 +26430,7 @@
         <v>800</v>
       </c>
       <c r="M362" t="n">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="Q362" t="n">
         <v>1</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -26489,20 +26489,20 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J363" t="n">
-        <v>3400</v>
+        <v>6800</v>
       </c>
       <c r="K363" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L363" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M363" t="n">
-        <v>600</v>
+        <v>747</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26511,11 +26511,11 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P363" t="n">
-        <v>600</v>
+        <v>747</v>
       </c>
       <c r="Q363" t="n">
         <v>1</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -26561,20 +26561,20 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J364" t="n">
-        <v>16200</v>
+        <v>2500</v>
       </c>
       <c r="K364" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L364" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M364" t="n">
-        <v>353</v>
+        <v>500</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>353</v>
+        <v>500</v>
       </c>
       <c r="Q364" t="n">
         <v>1</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -26637,16 +26637,16 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>5600</v>
+        <v>2300</v>
       </c>
       <c r="K365" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="L365" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M365" t="n">
-        <v>275</v>
+        <v>600</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26655,11 +26655,11 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P365" t="n">
-        <v>275</v>
+        <v>600</v>
       </c>
       <c r="Q365" t="n">
         <v>1</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -26709,16 +26709,16 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>22800</v>
+        <v>7900</v>
       </c>
       <c r="K366" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L366" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M366" t="n">
-        <v>648</v>
+        <v>750</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>648</v>
+        <v>750</v>
       </c>
       <c r="Q366" t="n">
         <v>1</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -26781,16 +26781,16 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>7900</v>
+        <v>3400</v>
       </c>
       <c r="K367" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L367" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M367" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q367" t="n">
         <v>1</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>19000</v>
+        <v>16200</v>
       </c>
       <c r="K368" t="n">
+        <v>300</v>
+      </c>
+      <c r="L368" t="n">
         <v>400</v>
       </c>
-      <c r="L368" t="n">
-        <v>500</v>
-      </c>
       <c r="M368" t="n">
-        <v>442</v>
+        <v>353</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>442</v>
+        <v>353</v>
       </c>
       <c r="Q368" t="n">
         <v>1</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -26925,16 +26925,16 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>5000</v>
+        <v>5600</v>
       </c>
       <c r="K369" t="n">
+        <v>250</v>
+      </c>
+      <c r="L369" t="n">
         <v>300</v>
       </c>
-      <c r="L369" t="n">
-        <v>350</v>
-      </c>
       <c r="M369" t="n">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="Q369" t="n">
         <v>1</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -26997,16 +26997,16 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>20700</v>
+        <v>22800</v>
       </c>
       <c r="K370" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L370" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M370" t="n">
-        <v>441</v>
+        <v>648</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>441</v>
+        <v>648</v>
       </c>
       <c r="Q370" t="n">
         <v>1</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -27065,20 +27065,20 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J371" t="n">
-        <v>3400</v>
+        <v>7900</v>
       </c>
       <c r="K371" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L371" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M371" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27087,11 +27087,11 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P371" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q371" t="n">
         <v>1</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -27137,20 +27137,20 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J372" t="n">
-        <v>5300</v>
+        <v>19000</v>
       </c>
       <c r="K372" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L372" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M372" t="n">
-        <v>376</v>
+        <v>442</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>376</v>
+        <v>442</v>
       </c>
       <c r="Q372" t="n">
         <v>1</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -27213,16 +27213,16 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>2700</v>
+        <v>5000</v>
       </c>
       <c r="K373" t="n">
         <v>300</v>
       </c>
       <c r="L373" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M373" t="n">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27231,11 +27231,11 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P373" t="n">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="Q373" t="n">
         <v>1</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -27285,7 +27285,7 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>15600</v>
+        <v>20700</v>
       </c>
       <c r="K374" t="n">
         <v>400</v>
@@ -27294,7 +27294,7 @@
         <v>500</v>
       </c>
       <c r="M374" t="n">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="Q374" t="n">
         <v>1</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -27353,20 +27353,20 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J375" t="n">
-        <v>5200</v>
+        <v>3400</v>
       </c>
       <c r="K375" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L375" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M375" t="n">
-        <v>273</v>
+        <v>400</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27375,11 +27375,11 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P375" t="n">
-        <v>273</v>
+        <v>400</v>
       </c>
       <c r="Q375" t="n">
         <v>1</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -27425,20 +27425,20 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J376" t="n">
-        <v>7900</v>
+        <v>5300</v>
       </c>
       <c r="K376" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L376" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M376" t="n">
-        <v>750</v>
+        <v>376</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>750</v>
+        <v>376</v>
       </c>
       <c r="Q376" t="n">
         <v>1</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27501,16 +27501,16 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>3400</v>
+        <v>2700</v>
       </c>
       <c r="K377" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L377" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M377" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P377" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="Q377" t="n">
         <v>1</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -27573,16 +27573,16 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>13100</v>
+        <v>15600</v>
       </c>
       <c r="K378" t="n">
+        <v>400</v>
+      </c>
+      <c r="L378" t="n">
         <v>500</v>
       </c>
-      <c r="L378" t="n">
-        <v>600</v>
-      </c>
       <c r="M378" t="n">
-        <v>563</v>
+        <v>430</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>563</v>
+        <v>430</v>
       </c>
       <c r="Q378" t="n">
         <v>1</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -27645,16 +27645,16 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="K379" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L379" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="M379" t="n">
-        <v>425</v>
+        <v>273</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>425</v>
+        <v>273</v>
       </c>
       <c r="Q379" t="n">
         <v>1</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -27717,16 +27717,16 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>20400</v>
+        <v>7900</v>
       </c>
       <c r="K380" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L380" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="M380" t="n">
-        <v>369</v>
+        <v>750</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>369</v>
+        <v>750</v>
       </c>
       <c r="Q380" t="n">
         <v>1</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -27789,16 +27789,16 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>6000</v>
+        <v>3400</v>
       </c>
       <c r="K381" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="L381" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M381" t="n">
-        <v>277</v>
+        <v>600</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>277</v>
+        <v>600</v>
       </c>
       <c r="Q381" t="n">
         <v>1</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44203</v>
+        <v>44175</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -27861,16 +27861,16 @@
         </is>
       </c>
       <c r="J382" t="n">
-        <v>6100</v>
+        <v>13100</v>
       </c>
       <c r="K382" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L382" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M382" t="n">
-        <v>750</v>
+        <v>563</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>750</v>
+        <v>563</v>
       </c>
       <c r="Q382" t="n">
         <v>1</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44203</v>
+        <v>44175</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -27933,16 +27933,16 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>3400</v>
+        <v>5500</v>
       </c>
       <c r="K383" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L383" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="M383" t="n">
-        <v>600</v>
+        <v>425</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>600</v>
+        <v>425</v>
       </c>
       <c r="Q383" t="n">
         <v>1</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -28005,16 +28005,16 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>16500</v>
+        <v>20400</v>
       </c>
       <c r="K384" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L384" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="M384" t="n">
-        <v>601</v>
+        <v>369</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>601</v>
+        <v>369</v>
       </c>
       <c r="Q384" t="n">
         <v>1</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -28077,16 +28077,16 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="K385" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L385" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M385" t="n">
-        <v>442</v>
+        <v>277</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>442</v>
+        <v>277</v>
       </c>
       <c r="Q385" t="n">
         <v>1</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -28149,16 +28149,16 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>13100</v>
+        <v>6100</v>
       </c>
       <c r="K386" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L386" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M386" t="n">
-        <v>537</v>
+        <v>750</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>537</v>
+        <v>750</v>
       </c>
       <c r="Q386" t="n">
         <v>1</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -28221,16 +28221,16 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>5600</v>
+        <v>3400</v>
       </c>
       <c r="K387" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L387" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M387" t="n">
-        <v>443</v>
+        <v>600</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>443</v>
+        <v>600</v>
       </c>
       <c r="Q387" t="n">
         <v>1</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -28293,16 +28293,16 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>16300</v>
+        <v>16500</v>
       </c>
       <c r="K388" t="n">
         <v>500</v>
       </c>
       <c r="L388" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M388" t="n">
-        <v>542</v>
+        <v>601</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>542</v>
+        <v>601</v>
       </c>
       <c r="Q388" t="n">
         <v>1</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -28365,16 +28365,16 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>3200</v>
+        <v>5900</v>
       </c>
       <c r="K389" t="n">
         <v>400</v>
       </c>
       <c r="L389" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M389" t="n">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="Q389" t="n">
         <v>1</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -28437,16 +28437,16 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>12000</v>
+        <v>13100</v>
       </c>
       <c r="K390" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L390" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M390" t="n">
-        <v>842</v>
+        <v>537</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>842</v>
+        <v>537</v>
       </c>
       <c r="Q390" t="n">
         <v>1</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -28509,16 +28509,16 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>8500</v>
+        <v>5600</v>
       </c>
       <c r="K391" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L391" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M391" t="n">
-        <v>647</v>
+        <v>443</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>647</v>
+        <v>443</v>
       </c>
       <c r="Q391" t="n">
         <v>1</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28581,16 +28581,16 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>13000</v>
+        <v>16300</v>
       </c>
       <c r="K392" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L392" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M392" t="n">
-        <v>843</v>
+        <v>542</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>843</v>
+        <v>542</v>
       </c>
       <c r="Q392" t="n">
         <v>1</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -28653,16 +28653,16 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>5600</v>
+        <v>3200</v>
       </c>
       <c r="K393" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L393" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M393" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q393" t="n">
         <v>1</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -28725,16 +28725,16 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>8700</v>
+        <v>12000</v>
       </c>
       <c r="K394" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L394" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M394" t="n">
-        <v>562</v>
+        <v>842</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>562</v>
+        <v>842</v>
       </c>
       <c r="Q394" t="n">
         <v>1</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -28797,16 +28797,16 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>3800</v>
+        <v>8500</v>
       </c>
       <c r="K395" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L395" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M395" t="n">
-        <v>400</v>
+        <v>647</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>400</v>
+        <v>647</v>
       </c>
       <c r="Q395" t="n">
         <v>1</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28872,13 +28872,13 @@
         <v>13000</v>
       </c>
       <c r="K396" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L396" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M396" t="n">
-        <v>754</v>
+        <v>843</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>754</v>
+        <v>843</v>
       </c>
       <c r="Q396" t="n">
         <v>1</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28941,7 +28941,7 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>4000</v>
+        <v>5600</v>
       </c>
       <c r="K397" t="n">
         <v>600</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -29013,16 +29013,16 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>26200</v>
+        <v>8700</v>
       </c>
       <c r="K398" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L398" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M398" t="n">
-        <v>427</v>
+        <v>562</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>427</v>
+        <v>562</v>
       </c>
       <c r="Q398" t="n">
         <v>1</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -29085,16 +29085,16 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>7800</v>
+        <v>3800</v>
       </c>
       <c r="K399" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L399" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M399" t="n">
-        <v>329</v>
+        <v>400</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>329</v>
+        <v>400</v>
       </c>
       <c r="Q399" t="n">
         <v>1</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -29157,16 +29157,16 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>16600</v>
+        <v>13000</v>
       </c>
       <c r="K400" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L400" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M400" t="n">
-        <v>497</v>
+        <v>754</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>497</v>
+        <v>754</v>
       </c>
       <c r="Q400" t="n">
         <v>1</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -29229,16 +29229,16 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="K401" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L401" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M401" t="n">
-        <v>427</v>
+        <v>600</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>427</v>
+        <v>600</v>
       </c>
       <c r="Q401" t="n">
         <v>1</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -29301,16 +29301,16 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>17400</v>
+        <v>26200</v>
       </c>
       <c r="K402" t="n">
         <v>350</v>
       </c>
       <c r="L402" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M402" t="n">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="Q402" t="n">
         <v>1</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -29369,20 +29369,20 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J403" t="n">
-        <v>6500</v>
+        <v>7800</v>
       </c>
       <c r="K403" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L403" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M403" t="n">
-        <v>442</v>
+        <v>329</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29391,11 +29391,11 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P403" t="n">
-        <v>442</v>
+        <v>329</v>
       </c>
       <c r="Q403" t="n">
         <v>1</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -29441,20 +29441,20 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J404" t="n">
-        <v>4200</v>
+        <v>16600</v>
       </c>
       <c r="K404" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L404" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M404" t="n">
-        <v>300</v>
+        <v>497</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>300</v>
+        <v>497</v>
       </c>
       <c r="Q404" t="n">
         <v>1</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29517,16 +29517,16 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>1600</v>
+        <v>7000</v>
       </c>
       <c r="K405" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L405" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="M405" t="n">
-        <v>250</v>
+        <v>427</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29535,11 +29535,11 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P405" t="n">
-        <v>250</v>
+        <v>427</v>
       </c>
       <c r="Q405" t="n">
         <v>1</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29589,16 +29589,16 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>7200</v>
+        <v>17400</v>
       </c>
       <c r="K406" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L406" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M406" t="n">
-        <v>739</v>
+        <v>378</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29607,11 +29607,11 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P406" t="n">
-        <v>739</v>
+        <v>378</v>
       </c>
       <c r="Q406" t="n">
         <v>1</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -29657,20 +29657,20 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J407" t="n">
-        <v>2300</v>
+        <v>6500</v>
       </c>
       <c r="K407" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L407" t="n">
         <v>500</v>
       </c>
       <c r="M407" t="n">
-        <v>500</v>
+        <v>442</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29679,11 +29679,11 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P407" t="n">
-        <v>500</v>
+        <v>442</v>
       </c>
       <c r="Q407" t="n">
         <v>1</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29729,20 +29729,20 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J408" t="n">
-        <v>14600</v>
+        <v>4200</v>
       </c>
       <c r="K408" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L408" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M408" t="n">
-        <v>542</v>
+        <v>300</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>542</v>
+        <v>300</v>
       </c>
       <c r="Q408" t="n">
         <v>1</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29805,16 +29805,16 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>5400</v>
+        <v>1600</v>
       </c>
       <c r="K409" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L409" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M409" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29823,11 +29823,11 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P409" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="Q409" t="n">
         <v>1</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29877,16 +29877,16 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>9100</v>
+        <v>7200</v>
       </c>
       <c r="K410" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L410" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M410" t="n">
-        <v>486</v>
+        <v>739</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29895,11 +29895,11 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P410" t="n">
-        <v>486</v>
+        <v>739</v>
       </c>
       <c r="Q410" t="n">
         <v>1</v>
@@ -29925,58 +29925,346 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E411" t="n">
+        <v>13</v>
+      </c>
+      <c r="F411" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J411" t="n">
+        <v>2300</v>
+      </c>
+      <c r="K411" t="n">
+        <v>500</v>
+      </c>
+      <c r="L411" t="n">
+        <v>500</v>
+      </c>
+      <c r="M411" t="n">
+        <v>500</v>
+      </c>
+      <c r="N411" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O411" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P411" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q411" t="n">
+        <v>1</v>
+      </c>
+      <c r="R411" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>6</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D412" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E412" t="n">
+        <v>13</v>
+      </c>
+      <c r="F412" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J412" t="n">
+        <v>14600</v>
+      </c>
+      <c r="K412" t="n">
+        <v>500</v>
+      </c>
+      <c r="L412" t="n">
+        <v>600</v>
+      </c>
+      <c r="M412" t="n">
+        <v>542</v>
+      </c>
+      <c r="N412" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O412" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P412" t="n">
+        <v>542</v>
+      </c>
+      <c r="Q412" t="n">
+        <v>1</v>
+      </c>
+      <c r="R412" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>6</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D413" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E413" t="n">
+        <v>13</v>
+      </c>
+      <c r="F413" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J413" t="n">
+        <v>5400</v>
+      </c>
+      <c r="K413" t="n">
+        <v>500</v>
+      </c>
+      <c r="L413" t="n">
+        <v>500</v>
+      </c>
+      <c r="M413" t="n">
+        <v>500</v>
+      </c>
+      <c r="N413" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O413" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P413" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q413" t="n">
+        <v>1</v>
+      </c>
+      <c r="R413" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>6</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D414" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E411" t="n">
-        <v>13</v>
-      </c>
-      <c r="F411" t="n">
-        <v>100112023</v>
-      </c>
-      <c r="G411" t="inlineStr">
-        <is>
-          <t>Brócoli</t>
-        </is>
-      </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I411" t="inlineStr">
+      <c r="E414" t="n">
+        <v>13</v>
+      </c>
+      <c r="F414" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J414" t="n">
+        <v>9100</v>
+      </c>
+      <c r="K414" t="n">
+        <v>450</v>
+      </c>
+      <c r="L414" t="n">
+        <v>500</v>
+      </c>
+      <c r="M414" t="n">
+        <v>486</v>
+      </c>
+      <c r="N414" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O414" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P414" t="n">
+        <v>486</v>
+      </c>
+      <c r="Q414" t="n">
+        <v>1</v>
+      </c>
+      <c r="R414" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>6</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D415" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E415" t="n">
+        <v>13</v>
+      </c>
+      <c r="F415" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I415" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J411" t="n">
+      <c r="J415" t="n">
         <v>4000</v>
       </c>
-      <c r="K411" t="n">
+      <c r="K415" t="n">
         <v>350</v>
       </c>
-      <c r="L411" t="n">
+      <c r="L415" t="n">
         <v>350</v>
       </c>
-      <c r="M411" t="n">
+      <c r="M415" t="n">
         <v>350</v>
       </c>
-      <c r="N411" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O411" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P411" t="n">
+      <c r="N415" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O415" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P415" t="n">
         <v>350</v>
       </c>
-      <c r="Q411" t="n">
-        <v>1</v>
-      </c>
-      <c r="R411" t="inlineStr">
+      <c r="Q415" t="n">
+        <v>1</v>
+      </c>
+      <c r="R415" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R417"/>
+  <dimension ref="A1:R419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44165</v>
+        <v>44460</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>16000</v>
+        <v>16700</v>
       </c>
       <c r="K285" t="n">
+        <v>500</v>
+      </c>
+      <c r="L285" t="n">
         <v>600</v>
       </c>
-      <c r="L285" t="n">
-        <v>700</v>
-      </c>
       <c r="M285" t="n">
-        <v>647</v>
+        <v>549</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>647</v>
+        <v>549</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44165</v>
+        <v>44460</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="K286" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L286" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M286" t="n">
-        <v>500</v>
+        <v>373</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>500</v>
+        <v>373</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>12400</v>
+        <v>16000</v>
       </c>
       <c r="K287" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L287" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M287" t="n">
-        <v>555</v>
+        <v>647</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>555</v>
+        <v>647</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="K288" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L288" t="n">
         <v>500</v>
       </c>
       <c r="M288" t="n">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21165,16 +21165,16 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>16000</v>
+        <v>12400</v>
       </c>
       <c r="K289" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L289" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M289" t="n">
-        <v>741</v>
+        <v>555</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>741</v>
+        <v>555</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21237,16 +21237,16 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="K290" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L290" t="n">
         <v>500</v>
       </c>
       <c r="M290" t="n">
-        <v>500</v>
+        <v>451</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>500</v>
+        <v>451</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="K291" t="n">
         <v>700</v>
       </c>
       <c r="L291" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M291" t="n">
-        <v>700</v>
+        <v>741</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>700</v>
+        <v>741</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21381,16 +21381,16 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>2800</v>
+        <v>4500</v>
       </c>
       <c r="K292" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L292" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M292" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="K293" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L293" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M293" t="n">
-        <v>944</v>
+        <v>700</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>944</v>
+        <v>700</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="K294" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L294" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M294" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>8800</v>
+        <v>8000</v>
       </c>
       <c r="K295" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L295" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M295" t="n">
-        <v>580</v>
+        <v>944</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>580</v>
+        <v>944</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="K296" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L296" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="M296" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>16500</v>
+        <v>8800</v>
       </c>
       <c r="K297" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L297" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M297" t="n">
-        <v>412</v>
+        <v>580</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>412</v>
+        <v>580</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>5900</v>
+        <v>6500</v>
       </c>
       <c r="K298" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="L298" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M298" t="n">
-        <v>277</v>
+        <v>450</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>277</v>
+        <v>450</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>5200</v>
+        <v>16500</v>
       </c>
       <c r="K299" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L299" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M299" t="n">
-        <v>750</v>
+        <v>412</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>750</v>
+        <v>412</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>2500</v>
+        <v>5900</v>
       </c>
       <c r="K300" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L300" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M300" t="n">
-        <v>600</v>
+        <v>277</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>600</v>
+        <v>277</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22029,7 +22029,7 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>12000</v>
+        <v>5200</v>
       </c>
       <c r="K301" t="n">
         <v>700</v>
@@ -22038,7 +22038,7 @@
         <v>800</v>
       </c>
       <c r="M301" t="n">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="K302" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L302" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M302" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>16900</v>
+        <v>12000</v>
       </c>
       <c r="K303" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L303" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M303" t="n">
-        <v>400</v>
+        <v>748</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>400</v>
+        <v>748</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>5200</v>
+        <v>2600</v>
       </c>
       <c r="K304" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L304" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M304" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>12000</v>
+        <v>16900</v>
       </c>
       <c r="K305" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="L305" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M305" t="n">
-        <v>759</v>
+        <v>400</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>759</v>
+        <v>400</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>4700</v>
+        <v>5200</v>
       </c>
       <c r="K306" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L306" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M306" t="n">
-        <v>583</v>
+        <v>300</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>583</v>
+        <v>300</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="K307" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L307" t="n">
         <v>900</v>
       </c>
       <c r="M307" t="n">
-        <v>851</v>
+        <v>759</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>851</v>
+        <v>759</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22533,16 +22533,16 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>2800</v>
+        <v>4700</v>
       </c>
       <c r="K308" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L308" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M308" t="n">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>11200</v>
+        <v>6500</v>
       </c>
       <c r="K309" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L309" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M309" t="n">
-        <v>670</v>
+        <v>851</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>670</v>
+        <v>851</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>3900</v>
+        <v>2800</v>
       </c>
       <c r="K310" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L310" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M310" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>14800</v>
+        <v>11200</v>
       </c>
       <c r="K311" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="L311" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M311" t="n">
-        <v>414</v>
+        <v>670</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>414</v>
+        <v>670</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>5200</v>
+        <v>3900</v>
       </c>
       <c r="K312" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L312" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M312" t="n">
-        <v>277</v>
+        <v>500</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>277</v>
+        <v>500</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>7000</v>
+        <v>14800</v>
       </c>
       <c r="K313" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="L313" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M313" t="n">
-        <v>650</v>
+        <v>414</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>650</v>
+        <v>414</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>2500</v>
+        <v>5200</v>
       </c>
       <c r="K314" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L314" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M314" t="n">
-        <v>500</v>
+        <v>277</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>500</v>
+        <v>277</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>10200</v>
+        <v>7000</v>
       </c>
       <c r="K315" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L315" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M315" t="n">
-        <v>566</v>
+        <v>650</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>566</v>
+        <v>650</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="K316" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L316" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M316" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23181,7 +23181,7 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>13700</v>
+        <v>10200</v>
       </c>
       <c r="K317" t="n">
         <v>500</v>
@@ -23190,7 +23190,7 @@
         <v>600</v>
       </c>
       <c r="M317" t="n">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23253,7 +23253,7 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="K318" t="n">
         <v>400</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>18900</v>
+        <v>13700</v>
       </c>
       <c r="K319" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L319" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M319" t="n">
-        <v>414</v>
+        <v>550</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>414</v>
+        <v>550</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23397,16 +23397,16 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>8500</v>
+        <v>3200</v>
       </c>
       <c r="K320" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L320" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M320" t="n">
-        <v>249</v>
+        <v>400</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>249</v>
+        <v>400</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23469,16 +23469,16 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>8500</v>
+        <v>18900</v>
       </c>
       <c r="K321" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L321" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M321" t="n">
-        <v>700</v>
+        <v>414</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>700</v>
+        <v>414</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23541,16 +23541,16 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>3800</v>
+        <v>8500</v>
       </c>
       <c r="K322" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L322" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M322" t="n">
-        <v>500</v>
+        <v>249</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>500</v>
+        <v>249</v>
       </c>
       <c r="Q322" t="n">
         <v>1</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23613,7 +23613,7 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="K323" t="n">
         <v>700</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23685,7 +23685,7 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>4500</v>
+        <v>3800</v>
       </c>
       <c r="K324" t="n">
         <v>500</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>33300</v>
+        <v>13000</v>
       </c>
       <c r="K325" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L325" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M325" t="n">
-        <v>518</v>
+        <v>700</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>518</v>
+        <v>700</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="K326" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L326" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M326" t="n">
-        <v>374</v>
+        <v>500</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>374</v>
+        <v>500</v>
       </c>
       <c r="Q326" t="n">
         <v>1</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>5400</v>
+        <v>33300</v>
       </c>
       <c r="K327" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L327" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M327" t="n">
-        <v>944</v>
+        <v>518</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>944</v>
+        <v>518</v>
       </c>
       <c r="Q327" t="n">
         <v>1</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23973,16 +23973,16 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>2700</v>
+        <v>9500</v>
       </c>
       <c r="K328" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L328" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M328" t="n">
-        <v>700</v>
+        <v>374</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>700</v>
+        <v>374</v>
       </c>
       <c r="Q328" t="n">
         <v>1</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>14000</v>
+        <v>5400</v>
       </c>
       <c r="K329" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L329" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M329" t="n">
-        <v>846</v>
+        <v>944</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>846</v>
+        <v>944</v>
       </c>
       <c r="Q329" t="n">
         <v>1</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24117,16 +24117,16 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>4500</v>
+        <v>2700</v>
       </c>
       <c r="K330" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L330" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M330" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q330" t="n">
         <v>1</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="K331" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L331" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M331" t="n">
-        <v>751</v>
+        <v>846</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>751</v>
+        <v>846</v>
       </c>
       <c r="Q331" t="n">
         <v>1</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24261,16 +24261,16 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="K332" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L332" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M332" t="n">
-        <v>464</v>
+        <v>600</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>464</v>
+        <v>600</v>
       </c>
       <c r="Q332" t="n">
         <v>1</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24333,16 +24333,16 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>20100</v>
+        <v>6500</v>
       </c>
       <c r="K333" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L333" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M333" t="n">
-        <v>652</v>
+        <v>751</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>652</v>
+        <v>751</v>
       </c>
       <c r="Q333" t="n">
         <v>1</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24405,16 +24405,16 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="K334" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L334" t="n">
         <v>500</v>
       </c>
       <c r="M334" t="n">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="Q334" t="n">
         <v>1</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>24300</v>
+        <v>20100</v>
       </c>
       <c r="K335" t="n">
         <v>600</v>
       </c>
       <c r="L335" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M335" t="n">
-        <v>713</v>
+        <v>652</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>713</v>
+        <v>652</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24549,16 +24549,16 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>9900</v>
+        <v>7000</v>
       </c>
       <c r="K336" t="n">
         <v>500</v>
       </c>
       <c r="L336" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M336" t="n">
-        <v>566</v>
+        <v>500</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>566</v>
+        <v>500</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>28300</v>
+        <v>24300</v>
       </c>
       <c r="K337" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L337" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M337" t="n">
-        <v>423</v>
+        <v>713</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>423</v>
+        <v>713</v>
       </c>
       <c r="Q337" t="n">
         <v>1</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -24693,16 +24693,16 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>5500</v>
+        <v>9900</v>
       </c>
       <c r="K338" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L338" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M338" t="n">
-        <v>275</v>
+        <v>566</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>275</v>
+        <v>566</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -24765,16 +24765,16 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>22000</v>
+        <v>28300</v>
       </c>
       <c r="K339" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L339" t="n">
         <v>500</v>
       </c>
       <c r="M339" t="n">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="Q339" t="n">
         <v>1</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>6600</v>
+        <v>5500</v>
       </c>
       <c r="K340" t="n">
+        <v>250</v>
+      </c>
+      <c r="L340" t="n">
         <v>300</v>
       </c>
-      <c r="L340" t="n">
-        <v>400</v>
-      </c>
       <c r="M340" t="n">
-        <v>352</v>
+        <v>275</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>352</v>
+        <v>275</v>
       </c>
       <c r="Q340" t="n">
         <v>1</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -24909,16 +24909,16 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>15700</v>
+        <v>22000</v>
       </c>
       <c r="K341" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L341" t="n">
         <v>500</v>
       </c>
       <c r="M341" t="n">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="Q341" t="n">
         <v>1</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -24981,16 +24981,16 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>5700</v>
+        <v>6600</v>
       </c>
       <c r="K342" t="n">
         <v>300</v>
       </c>
       <c r="L342" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M342" t="n">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="Q342" t="n">
         <v>1</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -25053,16 +25053,16 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>14300</v>
+        <v>15700</v>
       </c>
       <c r="K343" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L343" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M343" t="n">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="Q343" t="n">
         <v>1</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -25125,16 +25125,16 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>4400</v>
+        <v>5700</v>
       </c>
       <c r="K344" t="n">
         <v>300</v>
       </c>
       <c r="L344" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M344" t="n">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="Q344" t="n">
         <v>1</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -25197,16 +25197,16 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>9200</v>
+        <v>14300</v>
       </c>
       <c r="K345" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L345" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="M345" t="n">
-        <v>740</v>
+        <v>423</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>740</v>
+        <v>423</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -25269,16 +25269,16 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="K346" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L346" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="M346" t="n">
-        <v>497</v>
+        <v>300</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>497</v>
+        <v>300</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>13800</v>
+        <v>9200</v>
       </c>
       <c r="K347" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L347" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M347" t="n">
-        <v>549</v>
+        <v>740</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>549</v>
+        <v>740</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -25409,20 +25409,20 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J348" t="n">
-        <v>2300</v>
+        <v>4500</v>
       </c>
       <c r="K348" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L348" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M348" t="n">
-        <v>700</v>
+        <v>497</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25431,11 +25431,11 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P348" t="n">
-        <v>700</v>
+        <v>497</v>
       </c>
       <c r="Q348" t="n">
         <v>1</v>
@@ -25481,20 +25481,20 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J349" t="n">
-        <v>3600</v>
+        <v>13800</v>
       </c>
       <c r="K349" t="n">
         <v>500</v>
       </c>
       <c r="L349" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M349" t="n">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -25553,20 +25553,20 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J350" t="n">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="K350" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L350" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M350" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q350" t="n">
         <v>1</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -25625,20 +25625,20 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J351" t="n">
-        <v>16700</v>
+        <v>3600</v>
       </c>
       <c r="K351" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L351" t="n">
         <v>500</v>
       </c>
       <c r="M351" t="n">
-        <v>441</v>
+        <v>500</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>441</v>
+        <v>500</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -25701,16 +25701,16 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>4800</v>
+        <v>1200</v>
       </c>
       <c r="K352" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L352" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M352" t="n">
-        <v>376</v>
+        <v>500</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25719,11 +25719,11 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P352" t="n">
-        <v>376</v>
+        <v>500</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -25773,16 +25773,16 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>12000</v>
+        <v>16700</v>
       </c>
       <c r="K353" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L353" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M353" t="n">
-        <v>662</v>
+        <v>441</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>662</v>
+        <v>441</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -25845,16 +25845,16 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="K354" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L354" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M354" t="n">
-        <v>500</v>
+        <v>376</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>500</v>
+        <v>376</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -25917,7 +25917,7 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>12100</v>
+        <v>12000</v>
       </c>
       <c r="K355" t="n">
         <v>600</v>
@@ -25926,7 +25926,7 @@
         <v>700</v>
       </c>
       <c r="M355" t="n">
-        <v>644</v>
+        <v>662</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>644</v>
+        <v>662</v>
       </c>
       <c r="Q355" t="n">
         <v>1</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -25989,16 +25989,16 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>3600</v>
+        <v>4500</v>
       </c>
       <c r="K356" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L356" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M356" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q356" t="n">
         <v>1</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -26061,16 +26061,16 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>10700</v>
+        <v>12100</v>
       </c>
       <c r="K357" t="n">
+        <v>600</v>
+      </c>
+      <c r="L357" t="n">
         <v>700</v>
       </c>
-      <c r="L357" t="n">
-        <v>800</v>
-      </c>
       <c r="M357" t="n">
-        <v>738</v>
+        <v>644</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>738</v>
+        <v>644</v>
       </c>
       <c r="Q357" t="n">
         <v>1</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -26133,16 +26133,16 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="K358" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L358" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M358" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="Q358" t="n">
         <v>1</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -26205,16 +26205,16 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>2700</v>
+        <v>10700</v>
       </c>
       <c r="K359" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L359" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M359" t="n">
-        <v>600</v>
+        <v>738</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26223,11 +26223,11 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P359" t="n">
-        <v>600</v>
+        <v>738</v>
       </c>
       <c r="Q359" t="n">
         <v>1</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -26277,16 +26277,16 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>2100</v>
+        <v>4000</v>
       </c>
       <c r="K360" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L360" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M360" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26295,11 +26295,11 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P360" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="Q360" t="n">
         <v>1</v>
@@ -26345,20 +26345,20 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J361" t="n">
-        <v>3300</v>
+        <v>2700</v>
       </c>
       <c r="K361" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L361" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M361" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="Q361" t="n">
         <v>1</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -26417,20 +26417,20 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J362" t="n">
-        <v>14700</v>
+        <v>2100</v>
       </c>
       <c r="K362" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L362" t="n">
         <v>400</v>
       </c>
       <c r="M362" t="n">
-        <v>372</v>
+        <v>400</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26439,11 +26439,11 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P362" t="n">
-        <v>372</v>
+        <v>400</v>
       </c>
       <c r="Q362" t="n">
         <v>1</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -26489,20 +26489,20 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J363" t="n">
-        <v>4400</v>
+        <v>3300</v>
       </c>
       <c r="K363" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="L363" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="M363" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26511,11 +26511,11 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P363" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="Q363" t="n">
         <v>1</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -26565,16 +26565,16 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>7900</v>
+        <v>14700</v>
       </c>
       <c r="K364" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L364" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M364" t="n">
-        <v>757</v>
+        <v>372</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>757</v>
+        <v>372</v>
       </c>
       <c r="Q364" t="n">
         <v>1</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -26633,20 +26633,20 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J365" t="n">
-        <v>6800</v>
+        <v>4400</v>
       </c>
       <c r="K365" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="L365" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="M365" t="n">
-        <v>747</v>
+        <v>250</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26655,11 +26655,11 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P365" t="n">
-        <v>747</v>
+        <v>250</v>
       </c>
       <c r="Q365" t="n">
         <v>1</v>
@@ -26705,20 +26705,20 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J366" t="n">
-        <v>2500</v>
+        <v>7900</v>
       </c>
       <c r="K366" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L366" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M366" t="n">
-        <v>500</v>
+        <v>757</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>500</v>
+        <v>757</v>
       </c>
       <c r="Q366" t="n">
         <v>1</v>
@@ -26777,20 +26777,20 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J367" t="n">
-        <v>2300</v>
+        <v>6800</v>
       </c>
       <c r="K367" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L367" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M367" t="n">
-        <v>600</v>
+        <v>747</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>600</v>
+        <v>747</v>
       </c>
       <c r="Q367" t="n">
         <v>1</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -26849,20 +26849,20 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J368" t="n">
-        <v>7900</v>
+        <v>2500</v>
       </c>
       <c r="K368" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L368" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M368" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="Q368" t="n">
         <v>1</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -26925,7 +26925,7 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>3400</v>
+        <v>2300</v>
       </c>
       <c r="K369" t="n">
         <v>600</v>
@@ -26943,7 +26943,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P369" t="n">
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -26997,16 +26997,16 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>16200</v>
+        <v>7900</v>
       </c>
       <c r="K370" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L370" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M370" t="n">
-        <v>353</v>
+        <v>750</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>353</v>
+        <v>750</v>
       </c>
       <c r="Q370" t="n">
         <v>1</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -27069,16 +27069,16 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>5600</v>
+        <v>3400</v>
       </c>
       <c r="K371" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="L371" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M371" t="n">
-        <v>275</v>
+        <v>600</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>275</v>
+        <v>600</v>
       </c>
       <c r="Q371" t="n">
         <v>1</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -27141,16 +27141,16 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>22800</v>
+        <v>16200</v>
       </c>
       <c r="K372" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L372" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M372" t="n">
-        <v>648</v>
+        <v>353</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>648</v>
+        <v>353</v>
       </c>
       <c r="Q372" t="n">
         <v>1</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -27213,16 +27213,16 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>7900</v>
+        <v>5600</v>
       </c>
       <c r="K373" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L373" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M373" t="n">
-        <v>500</v>
+        <v>275</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>500</v>
+        <v>275</v>
       </c>
       <c r="Q373" t="n">
         <v>1</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -27285,16 +27285,16 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>19000</v>
+        <v>22800</v>
       </c>
       <c r="K374" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L374" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M374" t="n">
-        <v>442</v>
+        <v>648</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>442</v>
+        <v>648</v>
       </c>
       <c r="Q374" t="n">
         <v>1</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -27357,16 +27357,16 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>5000</v>
+        <v>7900</v>
       </c>
       <c r="K375" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L375" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M375" t="n">
-        <v>324</v>
+        <v>500</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>324</v>
+        <v>500</v>
       </c>
       <c r="Q375" t="n">
         <v>1</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -27429,7 +27429,7 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>20700</v>
+        <v>19000</v>
       </c>
       <c r="K376" t="n">
         <v>400</v>
@@ -27438,7 +27438,7 @@
         <v>500</v>
       </c>
       <c r="M376" t="n">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q376" t="n">
         <v>1</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27497,20 +27497,20 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J377" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="K377" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L377" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M377" t="n">
-        <v>400</v>
+        <v>324</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P377" t="n">
-        <v>400</v>
+        <v>324</v>
       </c>
       <c r="Q377" t="n">
         <v>1</v>
@@ -27569,20 +27569,20 @@
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J378" t="n">
-        <v>5300</v>
+        <v>20700</v>
       </c>
       <c r="K378" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L378" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M378" t="n">
-        <v>376</v>
+        <v>441</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>376</v>
+        <v>441</v>
       </c>
       <c r="Q378" t="n">
         <v>1</v>
@@ -27641,20 +27641,20 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J379" t="n">
-        <v>2700</v>
+        <v>3400</v>
       </c>
       <c r="K379" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L379" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M379" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q379" t="n">
         <v>1</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -27713,20 +27713,20 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J380" t="n">
-        <v>15600</v>
+        <v>5300</v>
       </c>
       <c r="K380" t="n">
+        <v>350</v>
+      </c>
+      <c r="L380" t="n">
         <v>400</v>
       </c>
-      <c r="L380" t="n">
-        <v>500</v>
-      </c>
       <c r="M380" t="n">
-        <v>430</v>
+        <v>376</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>430</v>
+        <v>376</v>
       </c>
       <c r="Q380" t="n">
         <v>1</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -27789,16 +27789,16 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>5200</v>
+        <v>2700</v>
       </c>
       <c r="K381" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L381" t="n">
         <v>300</v>
       </c>
       <c r="M381" t="n">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27807,11 +27807,11 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P381" t="n">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="Q381" t="n">
         <v>1</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -27861,16 +27861,16 @@
         </is>
       </c>
       <c r="J382" t="n">
-        <v>7900</v>
+        <v>15600</v>
       </c>
       <c r="K382" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L382" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M382" t="n">
-        <v>750</v>
+        <v>430</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>750</v>
+        <v>430</v>
       </c>
       <c r="Q382" t="n">
         <v>1</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -27933,16 +27933,16 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>3400</v>
+        <v>5200</v>
       </c>
       <c r="K383" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L383" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M383" t="n">
-        <v>600</v>
+        <v>273</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>600</v>
+        <v>273</v>
       </c>
       <c r="Q383" t="n">
         <v>1</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -28005,16 +28005,16 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>13100</v>
+        <v>7900</v>
       </c>
       <c r="K384" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L384" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M384" t="n">
-        <v>563</v>
+        <v>750</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>563</v>
+        <v>750</v>
       </c>
       <c r="Q384" t="n">
         <v>1</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -28077,16 +28077,16 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>5500</v>
+        <v>3400</v>
       </c>
       <c r="K385" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L385" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M385" t="n">
-        <v>425</v>
+        <v>600</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>425</v>
+        <v>600</v>
       </c>
       <c r="Q385" t="n">
         <v>1</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -28149,16 +28149,16 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>20400</v>
+        <v>13100</v>
       </c>
       <c r="K386" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L386" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M386" t="n">
-        <v>369</v>
+        <v>563</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>369</v>
+        <v>563</v>
       </c>
       <c r="Q386" t="n">
         <v>1</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -28221,16 +28221,16 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="K387" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L387" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M387" t="n">
-        <v>277</v>
+        <v>425</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>277</v>
+        <v>425</v>
       </c>
       <c r="Q387" t="n">
         <v>1</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -28293,16 +28293,16 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>6100</v>
+        <v>20400</v>
       </c>
       <c r="K388" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L388" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="M388" t="n">
-        <v>750</v>
+        <v>369</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>750</v>
+        <v>369</v>
       </c>
       <c r="Q388" t="n">
         <v>1</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -28365,16 +28365,16 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>3400</v>
+        <v>6000</v>
       </c>
       <c r="K389" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L389" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M389" t="n">
-        <v>600</v>
+        <v>277</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>600</v>
+        <v>277</v>
       </c>
       <c r="Q389" t="n">
         <v>1</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -28437,16 +28437,16 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>16500</v>
+        <v>6100</v>
       </c>
       <c r="K390" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L390" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M390" t="n">
-        <v>601</v>
+        <v>750</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>601</v>
+        <v>750</v>
       </c>
       <c r="Q390" t="n">
         <v>1</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -28509,16 +28509,16 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>5900</v>
+        <v>3400</v>
       </c>
       <c r="K391" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L391" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M391" t="n">
-        <v>442</v>
+        <v>600</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>442</v>
+        <v>600</v>
       </c>
       <c r="Q391" t="n">
         <v>1</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28581,16 +28581,16 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>13100</v>
+        <v>16500</v>
       </c>
       <c r="K392" t="n">
         <v>500</v>
       </c>
       <c r="L392" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M392" t="n">
-        <v>537</v>
+        <v>601</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>537</v>
+        <v>601</v>
       </c>
       <c r="Q392" t="n">
         <v>1</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -28653,7 +28653,7 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>5600</v>
+        <v>5900</v>
       </c>
       <c r="K393" t="n">
         <v>400</v>
@@ -28662,7 +28662,7 @@
         <v>500</v>
       </c>
       <c r="M393" t="n">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Q393" t="n">
         <v>1</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -28725,7 +28725,7 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>16300</v>
+        <v>13100</v>
       </c>
       <c r="K394" t="n">
         <v>500</v>
@@ -28734,7 +28734,7 @@
         <v>600</v>
       </c>
       <c r="M394" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="Q394" t="n">
         <v>1</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -28797,16 +28797,16 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>3200</v>
+        <v>5600</v>
       </c>
       <c r="K395" t="n">
         <v>400</v>
       </c>
       <c r="L395" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M395" t="n">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="Q395" t="n">
         <v>1</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28869,16 +28869,16 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>12000</v>
+        <v>16300</v>
       </c>
       <c r="K396" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L396" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M396" t="n">
-        <v>842</v>
+        <v>542</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>842</v>
+        <v>542</v>
       </c>
       <c r="Q396" t="n">
         <v>1</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28941,16 +28941,16 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>8500</v>
+        <v>3200</v>
       </c>
       <c r="K397" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L397" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M397" t="n">
-        <v>647</v>
+        <v>400</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>647</v>
+        <v>400</v>
       </c>
       <c r="Q397" t="n">
         <v>1</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -29013,7 +29013,7 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="K398" t="n">
         <v>800</v>
@@ -29022,7 +29022,7 @@
         <v>900</v>
       </c>
       <c r="M398" t="n">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="Q398" t="n">
         <v>1</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -29085,16 +29085,16 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>5600</v>
+        <v>8500</v>
       </c>
       <c r="K399" t="n">
         <v>600</v>
       </c>
       <c r="L399" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M399" t="n">
-        <v>600</v>
+        <v>647</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>600</v>
+        <v>647</v>
       </c>
       <c r="Q399" t="n">
         <v>1</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -29157,16 +29157,16 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>8700</v>
+        <v>13000</v>
       </c>
       <c r="K400" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L400" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M400" t="n">
-        <v>562</v>
+        <v>843</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>562</v>
+        <v>843</v>
       </c>
       <c r="Q400" t="n">
         <v>1</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -29229,16 +29229,16 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>3800</v>
+        <v>5600</v>
       </c>
       <c r="K401" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L401" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M401" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q401" t="n">
         <v>1</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -29301,16 +29301,16 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>13000</v>
+        <v>8700</v>
       </c>
       <c r="K402" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L402" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M402" t="n">
-        <v>754</v>
+        <v>562</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>754</v>
+        <v>562</v>
       </c>
       <c r="Q402" t="n">
         <v>1</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -29373,16 +29373,16 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="K403" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L403" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M403" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q403" t="n">
         <v>1</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -29445,16 +29445,16 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>26200</v>
+        <v>13000</v>
       </c>
       <c r="K404" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L404" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M404" t="n">
-        <v>427</v>
+        <v>754</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>427</v>
+        <v>754</v>
       </c>
       <c r="Q404" t="n">
         <v>1</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29517,16 +29517,16 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>7800</v>
+        <v>4000</v>
       </c>
       <c r="K405" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L405" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M405" t="n">
-        <v>329</v>
+        <v>600</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>329</v>
+        <v>600</v>
       </c>
       <c r="Q405" t="n">
         <v>1</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29589,16 +29589,16 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>16600</v>
+        <v>26200</v>
       </c>
       <c r="K406" t="n">
         <v>350</v>
       </c>
       <c r="L406" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M406" t="n">
-        <v>497</v>
+        <v>427</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>497</v>
+        <v>427</v>
       </c>
       <c r="Q406" t="n">
         <v>1</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -29661,16 +29661,16 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>7000</v>
+        <v>7800</v>
       </c>
       <c r="K407" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L407" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="M407" t="n">
-        <v>427</v>
+        <v>329</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>427</v>
+        <v>329</v>
       </c>
       <c r="Q407" t="n">
         <v>1</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29733,16 +29733,16 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>17400</v>
+        <v>16600</v>
       </c>
       <c r="K408" t="n">
         <v>350</v>
       </c>
       <c r="L408" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M408" t="n">
-        <v>378</v>
+        <v>497</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>378</v>
+        <v>497</v>
       </c>
       <c r="Q408" t="n">
         <v>1</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29801,20 +29801,20 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J409" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="K409" t="n">
         <v>400</v>
       </c>
       <c r="L409" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M409" t="n">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29823,11 +29823,11 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P409" t="n">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="Q409" t="n">
         <v>1</v>
@@ -29873,20 +29873,20 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J410" t="n">
-        <v>4200</v>
+        <v>17400</v>
       </c>
       <c r="K410" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L410" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M410" t="n">
-        <v>300</v>
+        <v>378</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>300</v>
+        <v>378</v>
       </c>
       <c r="Q410" t="n">
         <v>1</v>
@@ -29945,20 +29945,20 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J411" t="n">
-        <v>1600</v>
+        <v>6500</v>
       </c>
       <c r="K411" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L411" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M411" t="n">
-        <v>250</v>
+        <v>442</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>250</v>
+        <v>442</v>
       </c>
       <c r="Q411" t="n">
         <v>1</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30017,20 +30017,20 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J412" t="n">
-        <v>7200</v>
+        <v>4200</v>
       </c>
       <c r="K412" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L412" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M412" t="n">
-        <v>739</v>
+        <v>300</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30039,11 +30039,11 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P412" t="n">
-        <v>739</v>
+        <v>300</v>
       </c>
       <c r="Q412" t="n">
         <v>1</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -30093,16 +30093,16 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>2300</v>
+        <v>1600</v>
       </c>
       <c r="K413" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L413" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M413" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30111,11 +30111,11 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P413" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="Q413" t="n">
         <v>1</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -30165,16 +30165,16 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>14600</v>
+        <v>7200</v>
       </c>
       <c r="K414" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L414" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M414" t="n">
-        <v>542</v>
+        <v>739</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30183,11 +30183,11 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P414" t="n">
-        <v>542</v>
+        <v>739</v>
       </c>
       <c r="Q414" t="n">
         <v>1</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30237,7 +30237,7 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>5400</v>
+        <v>2300</v>
       </c>
       <c r="K415" t="n">
         <v>500</v>
@@ -30255,7 +30255,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P415" t="n">
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30309,16 +30309,16 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>9100</v>
+        <v>14600</v>
       </c>
       <c r="K416" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L416" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M416" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q416" t="n">
         <v>1</v>
@@ -30357,58 +30357,202 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E417" t="n">
+        <v>13</v>
+      </c>
+      <c r="F417" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J417" t="n">
+        <v>5400</v>
+      </c>
+      <c r="K417" t="n">
+        <v>500</v>
+      </c>
+      <c r="L417" t="n">
+        <v>500</v>
+      </c>
+      <c r="M417" t="n">
+        <v>500</v>
+      </c>
+      <c r="N417" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O417" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P417" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q417" t="n">
+        <v>1</v>
+      </c>
+      <c r="R417" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>6</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D418" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E417" t="n">
-        <v>13</v>
-      </c>
-      <c r="F417" t="n">
-        <v>100112023</v>
-      </c>
-      <c r="G417" t="inlineStr">
-        <is>
-          <t>Brócoli</t>
-        </is>
-      </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I417" t="inlineStr">
+      <c r="E418" t="n">
+        <v>13</v>
+      </c>
+      <c r="F418" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J418" t="n">
+        <v>9100</v>
+      </c>
+      <c r="K418" t="n">
+        <v>450</v>
+      </c>
+      <c r="L418" t="n">
+        <v>500</v>
+      </c>
+      <c r="M418" t="n">
+        <v>486</v>
+      </c>
+      <c r="N418" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O418" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P418" t="n">
+        <v>486</v>
+      </c>
+      <c r="Q418" t="n">
+        <v>1</v>
+      </c>
+      <c r="R418" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>6</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D419" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E419" t="n">
+        <v>13</v>
+      </c>
+      <c r="F419" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I419" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J417" t="n">
+      <c r="J419" t="n">
         <v>4000</v>
       </c>
-      <c r="K417" t="n">
+      <c r="K419" t="n">
         <v>350</v>
       </c>
-      <c r="L417" t="n">
+      <c r="L419" t="n">
         <v>350</v>
       </c>
-      <c r="M417" t="n">
+      <c r="M419" t="n">
         <v>350</v>
       </c>
-      <c r="N417" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O417" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P417" t="n">
+      <c r="N419" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O419" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P419" t="n">
         <v>350</v>
       </c>
-      <c r="Q417" t="n">
-        <v>1</v>
-      </c>
-      <c r="R417" t="inlineStr">
+      <c r="Q419" t="n">
+        <v>1</v>
+      </c>
+      <c r="R419" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R419"/>
+  <dimension ref="A1:R421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -28293,16 +28293,16 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>20400</v>
+        <v>12500</v>
       </c>
       <c r="K388" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L388" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M388" t="n">
-        <v>369</v>
+        <v>554</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>369</v>
+        <v>554</v>
       </c>
       <c r="Q388" t="n">
         <v>1</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -28365,16 +28365,16 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>6000</v>
+        <v>2600</v>
       </c>
       <c r="K389" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L389" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M389" t="n">
-        <v>277</v>
+        <v>500</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>277</v>
+        <v>500</v>
       </c>
       <c r="Q389" t="n">
         <v>1</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -28437,16 +28437,16 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>6100</v>
+        <v>20400</v>
       </c>
       <c r="K390" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L390" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="M390" t="n">
-        <v>750</v>
+        <v>369</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>750</v>
+        <v>369</v>
       </c>
       <c r="Q390" t="n">
         <v>1</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -28509,16 +28509,16 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>3400</v>
+        <v>6000</v>
       </c>
       <c r="K391" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L391" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M391" t="n">
-        <v>600</v>
+        <v>277</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>600</v>
+        <v>277</v>
       </c>
       <c r="Q391" t="n">
         <v>1</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28581,16 +28581,16 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>16500</v>
+        <v>6100</v>
       </c>
       <c r="K392" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L392" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M392" t="n">
-        <v>601</v>
+        <v>750</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>601</v>
+        <v>750</v>
       </c>
       <c r="Q392" t="n">
         <v>1</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -28653,16 +28653,16 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>5900</v>
+        <v>3400</v>
       </c>
       <c r="K393" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L393" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M393" t="n">
-        <v>442</v>
+        <v>600</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>442</v>
+        <v>600</v>
       </c>
       <c r="Q393" t="n">
         <v>1</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -28725,16 +28725,16 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>13100</v>
+        <v>16500</v>
       </c>
       <c r="K394" t="n">
         <v>500</v>
       </c>
       <c r="L394" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M394" t="n">
-        <v>537</v>
+        <v>601</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>537</v>
+        <v>601</v>
       </c>
       <c r="Q394" t="n">
         <v>1</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -28797,7 +28797,7 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>5600</v>
+        <v>5900</v>
       </c>
       <c r="K395" t="n">
         <v>400</v>
@@ -28806,7 +28806,7 @@
         <v>500</v>
       </c>
       <c r="M395" t="n">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Q395" t="n">
         <v>1</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28869,7 +28869,7 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>16300</v>
+        <v>13100</v>
       </c>
       <c r="K396" t="n">
         <v>500</v>
@@ -28878,7 +28878,7 @@
         <v>600</v>
       </c>
       <c r="M396" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="Q396" t="n">
         <v>1</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28941,16 +28941,16 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>3200</v>
+        <v>5600</v>
       </c>
       <c r="K397" t="n">
         <v>400</v>
       </c>
       <c r="L397" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M397" t="n">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="Q397" t="n">
         <v>1</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -29013,16 +29013,16 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>12000</v>
+        <v>16300</v>
       </c>
       <c r="K398" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L398" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M398" t="n">
-        <v>842</v>
+        <v>542</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>842</v>
+        <v>542</v>
       </c>
       <c r="Q398" t="n">
         <v>1</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -29085,16 +29085,16 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>8500</v>
+        <v>3200</v>
       </c>
       <c r="K399" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L399" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M399" t="n">
-        <v>647</v>
+        <v>400</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>647</v>
+        <v>400</v>
       </c>
       <c r="Q399" t="n">
         <v>1</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -29157,7 +29157,7 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="K400" t="n">
         <v>800</v>
@@ -29166,7 +29166,7 @@
         <v>900</v>
       </c>
       <c r="M400" t="n">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="Q400" t="n">
         <v>1</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -29229,16 +29229,16 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>5600</v>
+        <v>8500</v>
       </c>
       <c r="K401" t="n">
         <v>600</v>
       </c>
       <c r="L401" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M401" t="n">
-        <v>600</v>
+        <v>647</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>600</v>
+        <v>647</v>
       </c>
       <c r="Q401" t="n">
         <v>1</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -29301,16 +29301,16 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>8700</v>
+        <v>13000</v>
       </c>
       <c r="K402" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L402" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M402" t="n">
-        <v>562</v>
+        <v>843</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>562</v>
+        <v>843</v>
       </c>
       <c r="Q402" t="n">
         <v>1</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -29373,16 +29373,16 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>3800</v>
+        <v>5600</v>
       </c>
       <c r="K403" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L403" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M403" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q403" t="n">
         <v>1</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -29445,16 +29445,16 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>13000</v>
+        <v>8700</v>
       </c>
       <c r="K404" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L404" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M404" t="n">
-        <v>754</v>
+        <v>562</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>754</v>
+        <v>562</v>
       </c>
       <c r="Q404" t="n">
         <v>1</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29517,16 +29517,16 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="K405" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L405" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M405" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q405" t="n">
         <v>1</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29589,16 +29589,16 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>26200</v>
+        <v>13000</v>
       </c>
       <c r="K406" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L406" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M406" t="n">
-        <v>427</v>
+        <v>754</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>427</v>
+        <v>754</v>
       </c>
       <c r="Q406" t="n">
         <v>1</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -29661,16 +29661,16 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>7800</v>
+        <v>4000</v>
       </c>
       <c r="K407" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L407" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M407" t="n">
-        <v>329</v>
+        <v>600</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>329</v>
+        <v>600</v>
       </c>
       <c r="Q407" t="n">
         <v>1</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29733,16 +29733,16 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>16600</v>
+        <v>26200</v>
       </c>
       <c r="K408" t="n">
         <v>350</v>
       </c>
       <c r="L408" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M408" t="n">
-        <v>497</v>
+        <v>427</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>497</v>
+        <v>427</v>
       </c>
       <c r="Q408" t="n">
         <v>1</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29805,16 +29805,16 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>7000</v>
+        <v>7800</v>
       </c>
       <c r="K409" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L409" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="M409" t="n">
-        <v>427</v>
+        <v>329</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>427</v>
+        <v>329</v>
       </c>
       <c r="Q409" t="n">
         <v>1</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29877,16 +29877,16 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>17400</v>
+        <v>16600</v>
       </c>
       <c r="K410" t="n">
         <v>350</v>
       </c>
       <c r="L410" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M410" t="n">
-        <v>378</v>
+        <v>497</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>378</v>
+        <v>497</v>
       </c>
       <c r="Q410" t="n">
         <v>1</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29945,20 +29945,20 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J411" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="K411" t="n">
         <v>400</v>
       </c>
       <c r="L411" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M411" t="n">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29967,11 +29967,11 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P411" t="n">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="Q411" t="n">
         <v>1</v>
@@ -30017,20 +30017,20 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J412" t="n">
-        <v>4200</v>
+        <v>17400</v>
       </c>
       <c r="K412" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L412" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M412" t="n">
-        <v>300</v>
+        <v>378</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>300</v>
+        <v>378</v>
       </c>
       <c r="Q412" t="n">
         <v>1</v>
@@ -30089,20 +30089,20 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J413" t="n">
-        <v>1600</v>
+        <v>6500</v>
       </c>
       <c r="K413" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L413" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M413" t="n">
-        <v>250</v>
+        <v>442</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>250</v>
+        <v>442</v>
       </c>
       <c r="Q413" t="n">
         <v>1</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -30161,20 +30161,20 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>7200</v>
+        <v>4200</v>
       </c>
       <c r="K414" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L414" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M414" t="n">
-        <v>739</v>
+        <v>300</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30183,11 +30183,11 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P414" t="n">
-        <v>739</v>
+        <v>300</v>
       </c>
       <c r="Q414" t="n">
         <v>1</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30237,16 +30237,16 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>2300</v>
+        <v>1600</v>
       </c>
       <c r="K415" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L415" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M415" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30255,11 +30255,11 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P415" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="Q415" t="n">
         <v>1</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30309,16 +30309,16 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>14600</v>
+        <v>7200</v>
       </c>
       <c r="K416" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L416" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M416" t="n">
-        <v>542</v>
+        <v>739</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30327,11 +30327,11 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P416" t="n">
-        <v>542</v>
+        <v>739</v>
       </c>
       <c r="Q416" t="n">
         <v>1</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -30381,7 +30381,7 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>5400</v>
+        <v>2300</v>
       </c>
       <c r="K417" t="n">
         <v>500</v>
@@ -30399,7 +30399,7 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P417" t="n">
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -30453,16 +30453,16 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>9100</v>
+        <v>14600</v>
       </c>
       <c r="K418" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L418" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M418" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q418" t="n">
         <v>1</v>
@@ -30501,58 +30501,202 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E419" t="n">
+        <v>13</v>
+      </c>
+      <c r="F419" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J419" t="n">
+        <v>5400</v>
+      </c>
+      <c r="K419" t="n">
+        <v>500</v>
+      </c>
+      <c r="L419" t="n">
+        <v>500</v>
+      </c>
+      <c r="M419" t="n">
+        <v>500</v>
+      </c>
+      <c r="N419" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O419" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P419" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q419" t="n">
+        <v>1</v>
+      </c>
+      <c r="R419" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>6</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D420" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E419" t="n">
-        <v>13</v>
-      </c>
-      <c r="F419" t="n">
-        <v>100112023</v>
-      </c>
-      <c r="G419" t="inlineStr">
-        <is>
-          <t>Brócoli</t>
-        </is>
-      </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I419" t="inlineStr">
+      <c r="E420" t="n">
+        <v>13</v>
+      </c>
+      <c r="F420" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J420" t="n">
+        <v>9100</v>
+      </c>
+      <c r="K420" t="n">
+        <v>450</v>
+      </c>
+      <c r="L420" t="n">
+        <v>500</v>
+      </c>
+      <c r="M420" t="n">
+        <v>486</v>
+      </c>
+      <c r="N420" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O420" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P420" t="n">
+        <v>486</v>
+      </c>
+      <c r="Q420" t="n">
+        <v>1</v>
+      </c>
+      <c r="R420" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>6</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D421" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E421" t="n">
+        <v>13</v>
+      </c>
+      <c r="F421" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I421" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J419" t="n">
+      <c r="J421" t="n">
         <v>4000</v>
       </c>
-      <c r="K419" t="n">
+      <c r="K421" t="n">
         <v>350</v>
       </c>
-      <c r="L419" t="n">
+      <c r="L421" t="n">
         <v>350</v>
       </c>
-      <c r="M419" t="n">
+      <c r="M421" t="n">
         <v>350</v>
       </c>
-      <c r="N419" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O419" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P419" t="n">
+      <c r="N421" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O421" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P421" t="n">
         <v>350</v>
       </c>
-      <c r="Q419" t="n">
-        <v>1</v>
-      </c>
-      <c r="R419" t="inlineStr">
+      <c r="Q421" t="n">
+        <v>1</v>
+      </c>
+      <c r="R421" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R421"/>
+  <dimension ref="A1:R423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="K325" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L325" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M325" t="n">
-        <v>700</v>
+        <v>544</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>700</v>
+        <v>544</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="K326" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L326" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M326" t="n">
-        <v>500</v>
+        <v>429</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>500</v>
+        <v>429</v>
       </c>
       <c r="Q326" t="n">
         <v>1</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>33300</v>
+        <v>13000</v>
       </c>
       <c r="K327" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L327" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M327" t="n">
-        <v>518</v>
+        <v>700</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>518</v>
+        <v>700</v>
       </c>
       <c r="Q327" t="n">
         <v>1</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23973,16 +23973,16 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="K328" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L328" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M328" t="n">
-        <v>374</v>
+        <v>500</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>374</v>
+        <v>500</v>
       </c>
       <c r="Q328" t="n">
         <v>1</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>5400</v>
+        <v>33300</v>
       </c>
       <c r="K329" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L329" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M329" t="n">
-        <v>944</v>
+        <v>518</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>944</v>
+        <v>518</v>
       </c>
       <c r="Q329" t="n">
         <v>1</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24117,16 +24117,16 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>2700</v>
+        <v>9500</v>
       </c>
       <c r="K330" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L330" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M330" t="n">
-        <v>700</v>
+        <v>374</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>700</v>
+        <v>374</v>
       </c>
       <c r="Q330" t="n">
         <v>1</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>14000</v>
+        <v>5400</v>
       </c>
       <c r="K331" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L331" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M331" t="n">
-        <v>846</v>
+        <v>944</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>846</v>
+        <v>944</v>
       </c>
       <c r="Q331" t="n">
         <v>1</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24261,16 +24261,16 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>4500</v>
+        <v>2700</v>
       </c>
       <c r="K332" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L332" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M332" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q332" t="n">
         <v>1</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24333,16 +24333,16 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="K333" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L333" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M333" t="n">
-        <v>751</v>
+        <v>846</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>751</v>
+        <v>846</v>
       </c>
       <c r="Q333" t="n">
         <v>1</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24405,16 +24405,16 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="K334" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L334" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M334" t="n">
-        <v>464</v>
+        <v>600</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>464</v>
+        <v>600</v>
       </c>
       <c r="Q334" t="n">
         <v>1</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>20100</v>
+        <v>6500</v>
       </c>
       <c r="K335" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L335" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M335" t="n">
-        <v>652</v>
+        <v>751</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>652</v>
+        <v>751</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24549,16 +24549,16 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="K336" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L336" t="n">
         <v>500</v>
       </c>
       <c r="M336" t="n">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>24300</v>
+        <v>20100</v>
       </c>
       <c r="K337" t="n">
         <v>600</v>
       </c>
       <c r="L337" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M337" t="n">
-        <v>713</v>
+        <v>652</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>713</v>
+        <v>652</v>
       </c>
       <c r="Q337" t="n">
         <v>1</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -24693,16 +24693,16 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>9900</v>
+        <v>7000</v>
       </c>
       <c r="K338" t="n">
         <v>500</v>
       </c>
       <c r="L338" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M338" t="n">
-        <v>566</v>
+        <v>500</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>566</v>
+        <v>500</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -24765,16 +24765,16 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>28300</v>
+        <v>24300</v>
       </c>
       <c r="K339" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L339" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M339" t="n">
-        <v>423</v>
+        <v>713</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>423</v>
+        <v>713</v>
       </c>
       <c r="Q339" t="n">
         <v>1</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>5500</v>
+        <v>9900</v>
       </c>
       <c r="K340" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L340" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M340" t="n">
-        <v>275</v>
+        <v>566</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>275</v>
+        <v>566</v>
       </c>
       <c r="Q340" t="n">
         <v>1</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -24909,16 +24909,16 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>22000</v>
+        <v>28300</v>
       </c>
       <c r="K341" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L341" t="n">
         <v>500</v>
       </c>
       <c r="M341" t="n">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="Q341" t="n">
         <v>1</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -24981,16 +24981,16 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>6600</v>
+        <v>5500</v>
       </c>
       <c r="K342" t="n">
+        <v>250</v>
+      </c>
+      <c r="L342" t="n">
         <v>300</v>
       </c>
-      <c r="L342" t="n">
-        <v>400</v>
-      </c>
       <c r="M342" t="n">
-        <v>352</v>
+        <v>275</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>352</v>
+        <v>275</v>
       </c>
       <c r="Q342" t="n">
         <v>1</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -25053,16 +25053,16 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>15700</v>
+        <v>22000</v>
       </c>
       <c r="K343" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L343" t="n">
         <v>500</v>
       </c>
       <c r="M343" t="n">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="Q343" t="n">
         <v>1</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -25125,16 +25125,16 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>5700</v>
+        <v>6600</v>
       </c>
       <c r="K344" t="n">
         <v>300</v>
       </c>
       <c r="L344" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M344" t="n">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="Q344" t="n">
         <v>1</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -25197,16 +25197,16 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>14300</v>
+        <v>15700</v>
       </c>
       <c r="K345" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L345" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M345" t="n">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -25269,16 +25269,16 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>4400</v>
+        <v>5700</v>
       </c>
       <c r="K346" t="n">
         <v>300</v>
       </c>
       <c r="L346" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M346" t="n">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>9200</v>
+        <v>14300</v>
       </c>
       <c r="K347" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L347" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="M347" t="n">
-        <v>740</v>
+        <v>423</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>740</v>
+        <v>423</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -25413,16 +25413,16 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="K348" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L348" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="M348" t="n">
-        <v>497</v>
+        <v>300</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>497</v>
+        <v>300</v>
       </c>
       <c r="Q348" t="n">
         <v>1</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -25485,16 +25485,16 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>13800</v>
+        <v>9200</v>
       </c>
       <c r="K349" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L349" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M349" t="n">
-        <v>549</v>
+        <v>740</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>549</v>
+        <v>740</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -25553,20 +25553,20 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J350" t="n">
-        <v>2300</v>
+        <v>4500</v>
       </c>
       <c r="K350" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L350" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M350" t="n">
-        <v>700</v>
+        <v>497</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25575,11 +25575,11 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P350" t="n">
-        <v>700</v>
+        <v>497</v>
       </c>
       <c r="Q350" t="n">
         <v>1</v>
@@ -25625,20 +25625,20 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J351" t="n">
-        <v>3600</v>
+        <v>13800</v>
       </c>
       <c r="K351" t="n">
         <v>500</v>
       </c>
       <c r="L351" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M351" t="n">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25697,20 +25697,20 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J352" t="n">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="K352" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L352" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M352" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -25769,20 +25769,20 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J353" t="n">
-        <v>16700</v>
+        <v>3600</v>
       </c>
       <c r="K353" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L353" t="n">
         <v>500</v>
       </c>
       <c r="M353" t="n">
-        <v>441</v>
+        <v>500</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>441</v>
+        <v>500</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -25845,16 +25845,16 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>4800</v>
+        <v>1200</v>
       </c>
       <c r="K354" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L354" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M354" t="n">
-        <v>376</v>
+        <v>500</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25863,11 +25863,11 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P354" t="n">
-        <v>376</v>
+        <v>500</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -25917,16 +25917,16 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>12000</v>
+        <v>16700</v>
       </c>
       <c r="K355" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L355" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M355" t="n">
-        <v>662</v>
+        <v>441</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>662</v>
+        <v>441</v>
       </c>
       <c r="Q355" t="n">
         <v>1</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -25989,16 +25989,16 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="K356" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L356" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M356" t="n">
-        <v>500</v>
+        <v>376</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>500</v>
+        <v>376</v>
       </c>
       <c r="Q356" t="n">
         <v>1</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -26061,7 +26061,7 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>12100</v>
+        <v>12000</v>
       </c>
       <c r="K357" t="n">
         <v>600</v>
@@ -26070,7 +26070,7 @@
         <v>700</v>
       </c>
       <c r="M357" t="n">
-        <v>644</v>
+        <v>662</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>644</v>
+        <v>662</v>
       </c>
       <c r="Q357" t="n">
         <v>1</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -26133,16 +26133,16 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>3600</v>
+        <v>4500</v>
       </c>
       <c r="K358" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L358" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M358" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q358" t="n">
         <v>1</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -26205,16 +26205,16 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>10700</v>
+        <v>12100</v>
       </c>
       <c r="K359" t="n">
+        <v>600</v>
+      </c>
+      <c r="L359" t="n">
         <v>700</v>
       </c>
-      <c r="L359" t="n">
-        <v>800</v>
-      </c>
       <c r="M359" t="n">
-        <v>738</v>
+        <v>644</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>738</v>
+        <v>644</v>
       </c>
       <c r="Q359" t="n">
         <v>1</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -26277,16 +26277,16 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="K360" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L360" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M360" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="Q360" t="n">
         <v>1</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -26349,16 +26349,16 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>2700</v>
+        <v>10700</v>
       </c>
       <c r="K361" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L361" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M361" t="n">
-        <v>600</v>
+        <v>738</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26367,11 +26367,11 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P361" t="n">
-        <v>600</v>
+        <v>738</v>
       </c>
       <c r="Q361" t="n">
         <v>1</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -26421,16 +26421,16 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>2100</v>
+        <v>4000</v>
       </c>
       <c r="K362" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L362" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M362" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26439,11 +26439,11 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P362" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="Q362" t="n">
         <v>1</v>
@@ -26489,20 +26489,20 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J363" t="n">
-        <v>3300</v>
+        <v>2700</v>
       </c>
       <c r="K363" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L363" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M363" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="Q363" t="n">
         <v>1</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -26561,20 +26561,20 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J364" t="n">
-        <v>14700</v>
+        <v>2100</v>
       </c>
       <c r="K364" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L364" t="n">
         <v>400</v>
       </c>
       <c r="M364" t="n">
-        <v>372</v>
+        <v>400</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26583,11 +26583,11 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P364" t="n">
-        <v>372</v>
+        <v>400</v>
       </c>
       <c r="Q364" t="n">
         <v>1</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -26633,20 +26633,20 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J365" t="n">
-        <v>4400</v>
+        <v>3300</v>
       </c>
       <c r="K365" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="L365" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="M365" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26655,11 +26655,11 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P365" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="Q365" t="n">
         <v>1</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -26709,16 +26709,16 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>7900</v>
+        <v>14700</v>
       </c>
       <c r="K366" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L366" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M366" t="n">
-        <v>757</v>
+        <v>372</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>757</v>
+        <v>372</v>
       </c>
       <c r="Q366" t="n">
         <v>1</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -26777,20 +26777,20 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J367" t="n">
-        <v>6800</v>
+        <v>4400</v>
       </c>
       <c r="K367" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="L367" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="M367" t="n">
-        <v>747</v>
+        <v>250</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26799,11 +26799,11 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P367" t="n">
-        <v>747</v>
+        <v>250</v>
       </c>
       <c r="Q367" t="n">
         <v>1</v>
@@ -26849,20 +26849,20 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J368" t="n">
-        <v>2500</v>
+        <v>7900</v>
       </c>
       <c r="K368" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L368" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M368" t="n">
-        <v>500</v>
+        <v>757</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>500</v>
+        <v>757</v>
       </c>
       <c r="Q368" t="n">
         <v>1</v>
@@ -26921,20 +26921,20 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J369" t="n">
-        <v>2300</v>
+        <v>6800</v>
       </c>
       <c r="K369" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L369" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M369" t="n">
-        <v>600</v>
+        <v>747</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>600</v>
+        <v>747</v>
       </c>
       <c r="Q369" t="n">
         <v>1</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -26993,20 +26993,20 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J370" t="n">
-        <v>7900</v>
+        <v>2500</v>
       </c>
       <c r="K370" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L370" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M370" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="Q370" t="n">
         <v>1</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -27069,7 +27069,7 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>3400</v>
+        <v>2300</v>
       </c>
       <c r="K371" t="n">
         <v>600</v>
@@ -27087,7 +27087,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P371" t="n">
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -27141,16 +27141,16 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>16200</v>
+        <v>7900</v>
       </c>
       <c r="K372" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L372" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M372" t="n">
-        <v>353</v>
+        <v>750</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>353</v>
+        <v>750</v>
       </c>
       <c r="Q372" t="n">
         <v>1</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -27213,16 +27213,16 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>5600</v>
+        <v>3400</v>
       </c>
       <c r="K373" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="L373" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M373" t="n">
-        <v>275</v>
+        <v>600</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>275</v>
+        <v>600</v>
       </c>
       <c r="Q373" t="n">
         <v>1</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -27285,16 +27285,16 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>22800</v>
+        <v>16200</v>
       </c>
       <c r="K374" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L374" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M374" t="n">
-        <v>648</v>
+        <v>353</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>648</v>
+        <v>353</v>
       </c>
       <c r="Q374" t="n">
         <v>1</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -27357,16 +27357,16 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>7900</v>
+        <v>5600</v>
       </c>
       <c r="K375" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L375" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M375" t="n">
-        <v>500</v>
+        <v>275</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>500</v>
+        <v>275</v>
       </c>
       <c r="Q375" t="n">
         <v>1</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -27429,16 +27429,16 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>19000</v>
+        <v>22800</v>
       </c>
       <c r="K376" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L376" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M376" t="n">
-        <v>442</v>
+        <v>648</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>442</v>
+        <v>648</v>
       </c>
       <c r="Q376" t="n">
         <v>1</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27501,16 +27501,16 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>5000</v>
+        <v>7900</v>
       </c>
       <c r="K377" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L377" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M377" t="n">
-        <v>324</v>
+        <v>500</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>324</v>
+        <v>500</v>
       </c>
       <c r="Q377" t="n">
         <v>1</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -27573,7 +27573,7 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>20700</v>
+        <v>19000</v>
       </c>
       <c r="K378" t="n">
         <v>400</v>
@@ -27582,7 +27582,7 @@
         <v>500</v>
       </c>
       <c r="M378" t="n">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q378" t="n">
         <v>1</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -27641,20 +27641,20 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J379" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="K379" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L379" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M379" t="n">
-        <v>400</v>
+        <v>324</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27663,11 +27663,11 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P379" t="n">
-        <v>400</v>
+        <v>324</v>
       </c>
       <c r="Q379" t="n">
         <v>1</v>
@@ -27713,20 +27713,20 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J380" t="n">
-        <v>5300</v>
+        <v>20700</v>
       </c>
       <c r="K380" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L380" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M380" t="n">
-        <v>376</v>
+        <v>441</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>376</v>
+        <v>441</v>
       </c>
       <c r="Q380" t="n">
         <v>1</v>
@@ -27785,20 +27785,20 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J381" t="n">
-        <v>2700</v>
+        <v>3400</v>
       </c>
       <c r="K381" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L381" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M381" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q381" t="n">
         <v>1</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -27857,20 +27857,20 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>15600</v>
+        <v>5300</v>
       </c>
       <c r="K382" t="n">
+        <v>350</v>
+      </c>
+      <c r="L382" t="n">
         <v>400</v>
       </c>
-      <c r="L382" t="n">
-        <v>500</v>
-      </c>
       <c r="M382" t="n">
-        <v>430</v>
+        <v>376</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>430</v>
+        <v>376</v>
       </c>
       <c r="Q382" t="n">
         <v>1</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -27933,16 +27933,16 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>5200</v>
+        <v>2700</v>
       </c>
       <c r="K383" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L383" t="n">
         <v>300</v>
       </c>
       <c r="M383" t="n">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27951,11 +27951,11 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P383" t="n">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="Q383" t="n">
         <v>1</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -28005,16 +28005,16 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>7900</v>
+        <v>15600</v>
       </c>
       <c r="K384" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L384" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M384" t="n">
-        <v>750</v>
+        <v>430</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>750</v>
+        <v>430</v>
       </c>
       <c r="Q384" t="n">
         <v>1</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -28077,16 +28077,16 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>3400</v>
+        <v>5200</v>
       </c>
       <c r="K385" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L385" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M385" t="n">
-        <v>600</v>
+        <v>273</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>600</v>
+        <v>273</v>
       </c>
       <c r="Q385" t="n">
         <v>1</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -28149,16 +28149,16 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>13100</v>
+        <v>7900</v>
       </c>
       <c r="K386" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L386" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M386" t="n">
-        <v>563</v>
+        <v>750</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>563</v>
+        <v>750</v>
       </c>
       <c r="Q386" t="n">
         <v>1</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -28221,16 +28221,16 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>5500</v>
+        <v>3400</v>
       </c>
       <c r="K387" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L387" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M387" t="n">
-        <v>425</v>
+        <v>600</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>425</v>
+        <v>600</v>
       </c>
       <c r="Q387" t="n">
         <v>1</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -28293,7 +28293,7 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>12500</v>
+        <v>13100</v>
       </c>
       <c r="K388" t="n">
         <v>500</v>
@@ -28302,7 +28302,7 @@
         <v>600</v>
       </c>
       <c r="M388" t="n">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="Q388" t="n">
         <v>1</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -28365,16 +28365,16 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>2600</v>
+        <v>5500</v>
       </c>
       <c r="K389" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L389" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M389" t="n">
-        <v>500</v>
+        <v>425</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>500</v>
+        <v>425</v>
       </c>
       <c r="Q389" t="n">
         <v>1</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -28437,16 +28437,16 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>20400</v>
+        <v>12500</v>
       </c>
       <c r="K390" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L390" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M390" t="n">
-        <v>369</v>
+        <v>554</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>369</v>
+        <v>554</v>
       </c>
       <c r="Q390" t="n">
         <v>1</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -28509,16 +28509,16 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>6000</v>
+        <v>2600</v>
       </c>
       <c r="K391" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L391" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M391" t="n">
-        <v>277</v>
+        <v>500</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>277</v>
+        <v>500</v>
       </c>
       <c r="Q391" t="n">
         <v>1</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28581,16 +28581,16 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>6100</v>
+        <v>20400</v>
       </c>
       <c r="K392" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L392" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="M392" t="n">
-        <v>750</v>
+        <v>369</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>750</v>
+        <v>369</v>
       </c>
       <c r="Q392" t="n">
         <v>1</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -28653,16 +28653,16 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>3400</v>
+        <v>6000</v>
       </c>
       <c r="K393" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L393" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M393" t="n">
-        <v>600</v>
+        <v>277</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>600</v>
+        <v>277</v>
       </c>
       <c r="Q393" t="n">
         <v>1</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -28725,16 +28725,16 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>16500</v>
+        <v>6100</v>
       </c>
       <c r="K394" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L394" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M394" t="n">
-        <v>601</v>
+        <v>750</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>601</v>
+        <v>750</v>
       </c>
       <c r="Q394" t="n">
         <v>1</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -28797,16 +28797,16 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>5900</v>
+        <v>3400</v>
       </c>
       <c r="K395" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L395" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M395" t="n">
-        <v>442</v>
+        <v>600</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>442</v>
+        <v>600</v>
       </c>
       <c r="Q395" t="n">
         <v>1</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28869,16 +28869,16 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>13100</v>
+        <v>16500</v>
       </c>
       <c r="K396" t="n">
         <v>500</v>
       </c>
       <c r="L396" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M396" t="n">
-        <v>537</v>
+        <v>601</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>537</v>
+        <v>601</v>
       </c>
       <c r="Q396" t="n">
         <v>1</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28941,7 +28941,7 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>5600</v>
+        <v>5900</v>
       </c>
       <c r="K397" t="n">
         <v>400</v>
@@ -28950,7 +28950,7 @@
         <v>500</v>
       </c>
       <c r="M397" t="n">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Q397" t="n">
         <v>1</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -29013,7 +29013,7 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>16300</v>
+        <v>13100</v>
       </c>
       <c r="K398" t="n">
         <v>500</v>
@@ -29022,7 +29022,7 @@
         <v>600</v>
       </c>
       <c r="M398" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="Q398" t="n">
         <v>1</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -29085,16 +29085,16 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>3200</v>
+        <v>5600</v>
       </c>
       <c r="K399" t="n">
         <v>400</v>
       </c>
       <c r="L399" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M399" t="n">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="Q399" t="n">
         <v>1</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -29157,16 +29157,16 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>12000</v>
+        <v>16300</v>
       </c>
       <c r="K400" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L400" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M400" t="n">
-        <v>842</v>
+        <v>542</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>842</v>
+        <v>542</v>
       </c>
       <c r="Q400" t="n">
         <v>1</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -29229,16 +29229,16 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>8500</v>
+        <v>3200</v>
       </c>
       <c r="K401" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L401" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M401" t="n">
-        <v>647</v>
+        <v>400</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>647</v>
+        <v>400</v>
       </c>
       <c r="Q401" t="n">
         <v>1</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -29301,7 +29301,7 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="K402" t="n">
         <v>800</v>
@@ -29310,7 +29310,7 @@
         <v>900</v>
       </c>
       <c r="M402" t="n">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="Q402" t="n">
         <v>1</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -29373,16 +29373,16 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>5600</v>
+        <v>8500</v>
       </c>
       <c r="K403" t="n">
         <v>600</v>
       </c>
       <c r="L403" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M403" t="n">
-        <v>600</v>
+        <v>647</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>600</v>
+        <v>647</v>
       </c>
       <c r="Q403" t="n">
         <v>1</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -29445,16 +29445,16 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>8700</v>
+        <v>13000</v>
       </c>
       <c r="K404" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L404" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M404" t="n">
-        <v>562</v>
+        <v>843</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>562</v>
+        <v>843</v>
       </c>
       <c r="Q404" t="n">
         <v>1</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29517,16 +29517,16 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>3800</v>
+        <v>5600</v>
       </c>
       <c r="K405" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L405" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M405" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q405" t="n">
         <v>1</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29589,16 +29589,16 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>13000</v>
+        <v>8700</v>
       </c>
       <c r="K406" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L406" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M406" t="n">
-        <v>754</v>
+        <v>562</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>754</v>
+        <v>562</v>
       </c>
       <c r="Q406" t="n">
         <v>1</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -29661,16 +29661,16 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="K407" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L407" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M407" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q407" t="n">
         <v>1</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29733,16 +29733,16 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>26200</v>
+        <v>13000</v>
       </c>
       <c r="K408" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L408" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M408" t="n">
-        <v>427</v>
+        <v>754</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>427</v>
+        <v>754</v>
       </c>
       <c r="Q408" t="n">
         <v>1</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29805,16 +29805,16 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>7800</v>
+        <v>4000</v>
       </c>
       <c r="K409" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L409" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M409" t="n">
-        <v>329</v>
+        <v>600</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>329</v>
+        <v>600</v>
       </c>
       <c r="Q409" t="n">
         <v>1</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29877,16 +29877,16 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>16600</v>
+        <v>26200</v>
       </c>
       <c r="K410" t="n">
         <v>350</v>
       </c>
       <c r="L410" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M410" t="n">
-        <v>497</v>
+        <v>427</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>497</v>
+        <v>427</v>
       </c>
       <c r="Q410" t="n">
         <v>1</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29949,16 +29949,16 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>7000</v>
+        <v>7800</v>
       </c>
       <c r="K411" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L411" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="M411" t="n">
-        <v>427</v>
+        <v>329</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>427</v>
+        <v>329</v>
       </c>
       <c r="Q411" t="n">
         <v>1</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30021,16 +30021,16 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>17400</v>
+        <v>16600</v>
       </c>
       <c r="K412" t="n">
         <v>350</v>
       </c>
       <c r="L412" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M412" t="n">
-        <v>378</v>
+        <v>497</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>378</v>
+        <v>497</v>
       </c>
       <c r="Q412" t="n">
         <v>1</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -30089,20 +30089,20 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J413" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="K413" t="n">
         <v>400</v>
       </c>
       <c r="L413" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M413" t="n">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30111,11 +30111,11 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P413" t="n">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="Q413" t="n">
         <v>1</v>
@@ -30161,20 +30161,20 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>4200</v>
+        <v>17400</v>
       </c>
       <c r="K414" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L414" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M414" t="n">
-        <v>300</v>
+        <v>378</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>300</v>
+        <v>378</v>
       </c>
       <c r="Q414" t="n">
         <v>1</v>
@@ -30233,20 +30233,20 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>1600</v>
+        <v>6500</v>
       </c>
       <c r="K415" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L415" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M415" t="n">
-        <v>250</v>
+        <v>442</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>250</v>
+        <v>442</v>
       </c>
       <c r="Q415" t="n">
         <v>1</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30305,20 +30305,20 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J416" t="n">
-        <v>7200</v>
+        <v>4200</v>
       </c>
       <c r="K416" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L416" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M416" t="n">
-        <v>739</v>
+        <v>300</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30327,11 +30327,11 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P416" t="n">
-        <v>739</v>
+        <v>300</v>
       </c>
       <c r="Q416" t="n">
         <v>1</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -30381,16 +30381,16 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>2300</v>
+        <v>1600</v>
       </c>
       <c r="K417" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L417" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M417" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30399,11 +30399,11 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P417" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="Q417" t="n">
         <v>1</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -30453,16 +30453,16 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>14600</v>
+        <v>7200</v>
       </c>
       <c r="K418" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L418" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M418" t="n">
-        <v>542</v>
+        <v>739</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30471,11 +30471,11 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P418" t="n">
-        <v>542</v>
+        <v>739</v>
       </c>
       <c r="Q418" t="n">
         <v>1</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -30525,7 +30525,7 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>5400</v>
+        <v>2300</v>
       </c>
       <c r="K419" t="n">
         <v>500</v>
@@ -30543,7 +30543,7 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P419" t="n">
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -30597,16 +30597,16 @@
         </is>
       </c>
       <c r="J420" t="n">
-        <v>9100</v>
+        <v>14600</v>
       </c>
       <c r="K420" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L420" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M420" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q420" t="n">
         <v>1</v>
@@ -30645,58 +30645,202 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E421" t="n">
+        <v>13</v>
+      </c>
+      <c r="F421" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J421" t="n">
+        <v>5400</v>
+      </c>
+      <c r="K421" t="n">
+        <v>500</v>
+      </c>
+      <c r="L421" t="n">
+        <v>500</v>
+      </c>
+      <c r="M421" t="n">
+        <v>500</v>
+      </c>
+      <c r="N421" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O421" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P421" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q421" t="n">
+        <v>1</v>
+      </c>
+      <c r="R421" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>6</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D422" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E421" t="n">
-        <v>13</v>
-      </c>
-      <c r="F421" t="n">
-        <v>100112023</v>
-      </c>
-      <c r="G421" t="inlineStr">
-        <is>
-          <t>Brócoli</t>
-        </is>
-      </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I421" t="inlineStr">
+      <c r="E422" t="n">
+        <v>13</v>
+      </c>
+      <c r="F422" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I422" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J422" t="n">
+        <v>9100</v>
+      </c>
+      <c r="K422" t="n">
+        <v>450</v>
+      </c>
+      <c r="L422" t="n">
+        <v>500</v>
+      </c>
+      <c r="M422" t="n">
+        <v>486</v>
+      </c>
+      <c r="N422" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O422" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P422" t="n">
+        <v>486</v>
+      </c>
+      <c r="Q422" t="n">
+        <v>1</v>
+      </c>
+      <c r="R422" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>6</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D423" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E423" t="n">
+        <v>13</v>
+      </c>
+      <c r="F423" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I423" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J421" t="n">
+      <c r="J423" t="n">
         <v>4000</v>
       </c>
-      <c r="K421" t="n">
+      <c r="K423" t="n">
         <v>350</v>
       </c>
-      <c r="L421" t="n">
+      <c r="L423" t="n">
         <v>350</v>
       </c>
-      <c r="M421" t="n">
+      <c r="M423" t="n">
         <v>350</v>
       </c>
-      <c r="N421" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O421" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P421" t="n">
+      <c r="N423" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O423" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P423" t="n">
         <v>350</v>
       </c>
-      <c r="Q421" t="n">
-        <v>1</v>
-      </c>
-      <c r="R421" t="inlineStr">
+      <c r="Q423" t="n">
+        <v>1</v>
+      </c>
+      <c r="R423" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R423"/>
+  <dimension ref="A1:R427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>3500</v>
+        <v>8400</v>
       </c>
       <c r="K293" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L293" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M293" t="n">
-        <v>700</v>
+        <v>473</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>700</v>
+        <v>473</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21521,20 +21521,20 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>2800</v>
+        <v>6000</v>
       </c>
       <c r="K294" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L294" t="n">
         <v>600</v>
       </c>
       <c r="M294" t="n">
-        <v>600</v>
+        <v>558</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21543,11 +21543,11 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P294" t="n">
-        <v>600</v>
+        <v>558</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44249</v>
+        <v>44466</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21593,20 +21593,20 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>8000</v>
+        <v>3300</v>
       </c>
       <c r="K295" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="L295" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="M295" t="n">
-        <v>944</v>
+        <v>350</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>944</v>
+        <v>350</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44249</v>
+        <v>44466</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="K296" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L296" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M296" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21687,11 +21687,11 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P296" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44265</v>
+        <v>44389</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>8800</v>
+        <v>3500</v>
       </c>
       <c r="K297" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L297" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M297" t="n">
-        <v>580</v>
+        <v>700</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>580</v>
+        <v>700</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44265</v>
+        <v>44389</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>6500</v>
+        <v>2800</v>
       </c>
       <c r="K298" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L298" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M298" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>16500</v>
+        <v>8000</v>
       </c>
       <c r="K299" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="L299" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M299" t="n">
-        <v>412</v>
+        <v>944</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>412</v>
+        <v>944</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>5900</v>
+        <v>3500</v>
       </c>
       <c r="K300" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="L300" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M300" t="n">
-        <v>277</v>
+        <v>700</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>277</v>
+        <v>700</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44201</v>
+        <v>44265</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>5200</v>
+        <v>8800</v>
       </c>
       <c r="K301" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L301" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M301" t="n">
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44201</v>
+        <v>44265</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="K302" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L302" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="M302" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>12000</v>
+        <v>16500</v>
       </c>
       <c r="K303" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L303" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M303" t="n">
-        <v>748</v>
+        <v>412</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>748</v>
+        <v>412</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>2600</v>
+        <v>5900</v>
       </c>
       <c r="K304" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L304" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M304" t="n">
-        <v>500</v>
+        <v>277</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>500</v>
+        <v>277</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44447</v>
+        <v>44201</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>16900</v>
+        <v>5200</v>
       </c>
       <c r="K305" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L305" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M305" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44447</v>
+        <v>44201</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>5200</v>
+        <v>2500</v>
       </c>
       <c r="K306" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L306" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M306" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44270</v>
+        <v>44280</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22464,13 +22464,13 @@
         <v>12000</v>
       </c>
       <c r="K307" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L307" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M307" t="n">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44270</v>
+        <v>44280</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22533,16 +22533,16 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>4700</v>
+        <v>2600</v>
       </c>
       <c r="K308" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L308" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M308" t="n">
-        <v>583</v>
+        <v>500</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>583</v>
+        <v>500</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>6500</v>
+        <v>16900</v>
       </c>
       <c r="K309" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="L309" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M309" t="n">
-        <v>851</v>
+        <v>400</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>851</v>
+        <v>400</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>2800</v>
+        <v>5200</v>
       </c>
       <c r="K310" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L310" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M310" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44267</v>
+        <v>44270</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="K311" t="n">
         <v>650</v>
       </c>
       <c r="L311" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M311" t="n">
-        <v>670</v>
+        <v>759</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>670</v>
+        <v>759</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44267</v>
+        <v>44270</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>3900</v>
+        <v>4700</v>
       </c>
       <c r="K312" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L312" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M312" t="n">
-        <v>500</v>
+        <v>583</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>500</v>
+        <v>583</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44312</v>
+        <v>44260</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>14800</v>
+        <v>6500</v>
       </c>
       <c r="K313" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="L313" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M313" t="n">
-        <v>414</v>
+        <v>851</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>414</v>
+        <v>851</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44312</v>
+        <v>44260</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>5200</v>
+        <v>2800</v>
       </c>
       <c r="K314" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="L314" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M314" t="n">
-        <v>277</v>
+        <v>600</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>277</v>
+        <v>600</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44187</v>
+        <v>44267</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>7000</v>
+        <v>11200</v>
       </c>
       <c r="K315" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L315" t="n">
         <v>700</v>
       </c>
       <c r="M315" t="n">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44187</v>
+        <v>44267</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23109,7 +23109,7 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>2500</v>
+        <v>3900</v>
       </c>
       <c r="K316" t="n">
         <v>500</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23181,16 +23181,16 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>10200</v>
+        <v>14800</v>
       </c>
       <c r="K317" t="n">
+        <v>350</v>
+      </c>
+      <c r="L317" t="n">
         <v>500</v>
       </c>
-      <c r="L317" t="n">
-        <v>600</v>
-      </c>
       <c r="M317" t="n">
-        <v>566</v>
+        <v>414</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>566</v>
+        <v>414</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>2900</v>
+        <v>5200</v>
       </c>
       <c r="K318" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L318" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M318" t="n">
-        <v>400</v>
+        <v>277</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>400</v>
+        <v>277</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44386</v>
+        <v>44187</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>13700</v>
+        <v>7000</v>
       </c>
       <c r="K319" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L319" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M319" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44386</v>
+        <v>44187</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23397,16 +23397,16 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="K320" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L320" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M320" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23469,16 +23469,16 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>18900</v>
+        <v>10200</v>
       </c>
       <c r="K321" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L321" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M321" t="n">
-        <v>414</v>
+        <v>566</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>414</v>
+        <v>566</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23541,16 +23541,16 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>8500</v>
+        <v>2900</v>
       </c>
       <c r="K322" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L322" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M322" t="n">
-        <v>249</v>
+        <v>400</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>249</v>
+        <v>400</v>
       </c>
       <c r="Q322" t="n">
         <v>1</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>8500</v>
+        <v>13700</v>
       </c>
       <c r="K323" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L323" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M323" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23685,16 +23685,16 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="K324" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L324" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M324" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q324" t="n">
         <v>1</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>8000</v>
+        <v>18900</v>
       </c>
       <c r="K325" t="n">
+        <v>350</v>
+      </c>
+      <c r="L325" t="n">
         <v>500</v>
       </c>
-      <c r="L325" t="n">
-        <v>600</v>
-      </c>
       <c r="M325" t="n">
-        <v>544</v>
+        <v>414</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>544</v>
+        <v>414</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="K326" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L326" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="M326" t="n">
-        <v>429</v>
+        <v>249</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>429</v>
+        <v>249</v>
       </c>
       <c r="Q326" t="n">
         <v>1</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23901,7 +23901,7 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="K327" t="n">
         <v>700</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23973,7 +23973,7 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>4500</v>
+        <v>3800</v>
       </c>
       <c r="K328" t="n">
         <v>500</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>33300</v>
+        <v>8000</v>
       </c>
       <c r="K329" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L329" t="n">
         <v>600</v>
       </c>
       <c r="M329" t="n">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="Q329" t="n">
         <v>1</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24117,16 +24117,16 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="K330" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L330" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M330" t="n">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="Q330" t="n">
         <v>1</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>5400</v>
+        <v>13000</v>
       </c>
       <c r="K331" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L331" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M331" t="n">
-        <v>944</v>
+        <v>700</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>944</v>
+        <v>700</v>
       </c>
       <c r="Q331" t="n">
         <v>1</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24261,16 +24261,16 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>2700</v>
+        <v>4500</v>
       </c>
       <c r="K332" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L332" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M332" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q332" t="n">
         <v>1</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24333,16 +24333,16 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>14000</v>
+        <v>33300</v>
       </c>
       <c r="K333" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L333" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M333" t="n">
-        <v>846</v>
+        <v>518</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>846</v>
+        <v>518</v>
       </c>
       <c r="Q333" t="n">
         <v>1</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24405,16 +24405,16 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="K334" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L334" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M334" t="n">
-        <v>600</v>
+        <v>374</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>600</v>
+        <v>374</v>
       </c>
       <c r="Q334" t="n">
         <v>1</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>6500</v>
+        <v>5400</v>
       </c>
       <c r="K335" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L335" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M335" t="n">
-        <v>751</v>
+        <v>944</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>751</v>
+        <v>944</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24549,16 +24549,16 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="K336" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L336" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M336" t="n">
-        <v>464</v>
+        <v>700</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>464</v>
+        <v>700</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>20100</v>
+        <v>14000</v>
       </c>
       <c r="K337" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L337" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M337" t="n">
-        <v>652</v>
+        <v>846</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>652</v>
+        <v>846</v>
       </c>
       <c r="Q337" t="n">
         <v>1</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -24693,16 +24693,16 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="K338" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L338" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M338" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -24765,16 +24765,16 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>24300</v>
+        <v>6500</v>
       </c>
       <c r="K339" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L339" t="n">
         <v>800</v>
       </c>
       <c r="M339" t="n">
-        <v>713</v>
+        <v>751</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>713</v>
+        <v>751</v>
       </c>
       <c r="Q339" t="n">
         <v>1</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>9900</v>
+        <v>2500</v>
       </c>
       <c r="K340" t="n">
+        <v>400</v>
+      </c>
+      <c r="L340" t="n">
         <v>500</v>
       </c>
-      <c r="L340" t="n">
-        <v>600</v>
-      </c>
       <c r="M340" t="n">
-        <v>566</v>
+        <v>464</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>566</v>
+        <v>464</v>
       </c>
       <c r="Q340" t="n">
         <v>1</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -24909,16 +24909,16 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>28300</v>
+        <v>20100</v>
       </c>
       <c r="K341" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L341" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M341" t="n">
-        <v>423</v>
+        <v>652</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>423</v>
+        <v>652</v>
       </c>
       <c r="Q341" t="n">
         <v>1</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -24981,16 +24981,16 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="K342" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L342" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M342" t="n">
-        <v>275</v>
+        <v>500</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>275</v>
+        <v>500</v>
       </c>
       <c r="Q342" t="n">
         <v>1</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -25053,16 +25053,16 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>22000</v>
+        <v>24300</v>
       </c>
       <c r="K343" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L343" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M343" t="n">
-        <v>444</v>
+        <v>713</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>444</v>
+        <v>713</v>
       </c>
       <c r="Q343" t="n">
         <v>1</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -25125,16 +25125,16 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>6600</v>
+        <v>9900</v>
       </c>
       <c r="K344" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L344" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M344" t="n">
-        <v>352</v>
+        <v>566</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>352</v>
+        <v>566</v>
       </c>
       <c r="Q344" t="n">
         <v>1</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -25197,7 +25197,7 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>15700</v>
+        <v>28300</v>
       </c>
       <c r="K345" t="n">
         <v>350</v>
@@ -25206,7 +25206,7 @@
         <v>500</v>
       </c>
       <c r="M345" t="n">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -25269,16 +25269,16 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="K346" t="n">
+        <v>250</v>
+      </c>
+      <c r="L346" t="n">
         <v>300</v>
       </c>
-      <c r="L346" t="n">
-        <v>350</v>
-      </c>
       <c r="M346" t="n">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>14300</v>
+        <v>22000</v>
       </c>
       <c r="K347" t="n">
         <v>400</v>
       </c>
       <c r="L347" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M347" t="n">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -25413,16 +25413,16 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>4400</v>
+        <v>6600</v>
       </c>
       <c r="K348" t="n">
         <v>300</v>
       </c>
       <c r="L348" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M348" t="n">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="Q348" t="n">
         <v>1</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -25485,16 +25485,16 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>9200</v>
+        <v>15700</v>
       </c>
       <c r="K349" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L349" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M349" t="n">
-        <v>740</v>
+        <v>437</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>740</v>
+        <v>437</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -25557,16 +25557,16 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>4500</v>
+        <v>5700</v>
       </c>
       <c r="K350" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L350" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="M350" t="n">
-        <v>497</v>
+        <v>324</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>497</v>
+        <v>324</v>
       </c>
       <c r="Q350" t="n">
         <v>1</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>13800</v>
+        <v>14300</v>
       </c>
       <c r="K351" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L351" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="M351" t="n">
-        <v>549</v>
+        <v>423</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>549</v>
+        <v>423</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -25697,20 +25697,20 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J352" t="n">
-        <v>2300</v>
+        <v>4400</v>
       </c>
       <c r="K352" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L352" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M352" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25719,11 +25719,11 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P352" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -25769,20 +25769,20 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J353" t="n">
-        <v>3600</v>
+        <v>9200</v>
       </c>
       <c r="K353" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L353" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M353" t="n">
-        <v>500</v>
+        <v>740</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>500</v>
+        <v>740</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -25845,16 +25845,16 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>1200</v>
+        <v>4500</v>
       </c>
       <c r="K354" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L354" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M354" t="n">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25863,11 +25863,11 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P354" t="n">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -25917,16 +25917,16 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>16700</v>
+        <v>13800</v>
       </c>
       <c r="K355" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L355" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M355" t="n">
-        <v>441</v>
+        <v>549</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>441</v>
+        <v>549</v>
       </c>
       <c r="Q355" t="n">
         <v>1</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -25985,20 +25985,20 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J356" t="n">
-        <v>4800</v>
+        <v>2300</v>
       </c>
       <c r="K356" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L356" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M356" t="n">
-        <v>376</v>
+        <v>700</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26007,11 +26007,11 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P356" t="n">
-        <v>376</v>
+        <v>700</v>
       </c>
       <c r="Q356" t="n">
         <v>1</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -26057,20 +26057,20 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J357" t="n">
-        <v>12000</v>
+        <v>3600</v>
       </c>
       <c r="K357" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L357" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M357" t="n">
-        <v>662</v>
+        <v>500</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>662</v>
+        <v>500</v>
       </c>
       <c r="Q357" t="n">
         <v>1</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -26133,7 +26133,7 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>4500</v>
+        <v>1200</v>
       </c>
       <c r="K358" t="n">
         <v>500</v>
@@ -26151,7 +26151,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P358" t="n">
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -26205,16 +26205,16 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>12100</v>
+        <v>16700</v>
       </c>
       <c r="K359" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L359" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M359" t="n">
-        <v>644</v>
+        <v>441</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>644</v>
+        <v>441</v>
       </c>
       <c r="Q359" t="n">
         <v>1</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -26277,16 +26277,16 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>3600</v>
+        <v>4800</v>
       </c>
       <c r="K360" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L360" t="n">
         <v>400</v>
       </c>
       <c r="M360" t="n">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="Q360" t="n">
         <v>1</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -26349,16 +26349,16 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>10700</v>
+        <v>12000</v>
       </c>
       <c r="K361" t="n">
+        <v>600</v>
+      </c>
+      <c r="L361" t="n">
         <v>700</v>
       </c>
-      <c r="L361" t="n">
-        <v>800</v>
-      </c>
       <c r="M361" t="n">
-        <v>738</v>
+        <v>662</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>738</v>
+        <v>662</v>
       </c>
       <c r="Q361" t="n">
         <v>1</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -26421,16 +26421,16 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="K362" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L362" t="n">
         <v>500</v>
       </c>
       <c r="M362" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="Q362" t="n">
         <v>1</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -26493,16 +26493,16 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>2700</v>
+        <v>12100</v>
       </c>
       <c r="K363" t="n">
         <v>600</v>
       </c>
       <c r="L363" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M363" t="n">
-        <v>600</v>
+        <v>644</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26511,11 +26511,11 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P363" t="n">
-        <v>600</v>
+        <v>644</v>
       </c>
       <c r="Q363" t="n">
         <v>1</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -26565,7 +26565,7 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>2100</v>
+        <v>3600</v>
       </c>
       <c r="K364" t="n">
         <v>400</v>
@@ -26583,7 +26583,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P364" t="n">
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -26633,20 +26633,20 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J365" t="n">
-        <v>3300</v>
+        <v>10700</v>
       </c>
       <c r="K365" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L365" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M365" t="n">
-        <v>550</v>
+        <v>738</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26655,11 +26655,11 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P365" t="n">
-        <v>550</v>
+        <v>738</v>
       </c>
       <c r="Q365" t="n">
         <v>1</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -26705,20 +26705,20 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J366" t="n">
-        <v>14700</v>
+        <v>4000</v>
       </c>
       <c r="K366" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L366" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M366" t="n">
-        <v>372</v>
+        <v>480</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>372</v>
+        <v>480</v>
       </c>
       <c r="Q366" t="n">
         <v>1</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -26777,20 +26777,20 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J367" t="n">
-        <v>4400</v>
+        <v>2700</v>
       </c>
       <c r="K367" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="L367" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="M367" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26799,11 +26799,11 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P367" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="Q367" t="n">
         <v>1</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -26849,20 +26849,20 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J368" t="n">
-        <v>7900</v>
+        <v>2100</v>
       </c>
       <c r="K368" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L368" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M368" t="n">
-        <v>757</v>
+        <v>400</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26871,11 +26871,11 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P368" t="n">
-        <v>757</v>
+        <v>400</v>
       </c>
       <c r="Q368" t="n">
         <v>1</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -26921,20 +26921,20 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J369" t="n">
-        <v>6800</v>
+        <v>3300</v>
       </c>
       <c r="K369" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L369" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M369" t="n">
-        <v>747</v>
+        <v>550</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26943,11 +26943,11 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P369" t="n">
-        <v>747</v>
+        <v>550</v>
       </c>
       <c r="Q369" t="n">
         <v>1</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -26993,20 +26993,20 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J370" t="n">
-        <v>2500</v>
+        <v>14700</v>
       </c>
       <c r="K370" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L370" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M370" t="n">
-        <v>500</v>
+        <v>372</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>500</v>
+        <v>372</v>
       </c>
       <c r="Q370" t="n">
         <v>1</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -27069,16 +27069,16 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>2300</v>
+        <v>4400</v>
       </c>
       <c r="K371" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L371" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="M371" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27087,11 +27087,11 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P371" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="Q371" t="n">
         <v>1</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -27150,7 +27150,7 @@
         <v>800</v>
       </c>
       <c r="M372" t="n">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="Q372" t="n">
         <v>1</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -27209,20 +27209,20 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J373" t="n">
-        <v>3400</v>
+        <v>6800</v>
       </c>
       <c r="K373" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L373" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M373" t="n">
-        <v>600</v>
+        <v>747</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27231,11 +27231,11 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P373" t="n">
-        <v>600</v>
+        <v>747</v>
       </c>
       <c r="Q373" t="n">
         <v>1</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -27281,20 +27281,20 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J374" t="n">
-        <v>16200</v>
+        <v>2500</v>
       </c>
       <c r="K374" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L374" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M374" t="n">
-        <v>353</v>
+        <v>500</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>353</v>
+        <v>500</v>
       </c>
       <c r="Q374" t="n">
         <v>1</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -27357,16 +27357,16 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>5600</v>
+        <v>2300</v>
       </c>
       <c r="K375" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="L375" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M375" t="n">
-        <v>275</v>
+        <v>600</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27375,11 +27375,11 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P375" t="n">
-        <v>275</v>
+        <v>600</v>
       </c>
       <c r="Q375" t="n">
         <v>1</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -27429,16 +27429,16 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>22800</v>
+        <v>7900</v>
       </c>
       <c r="K376" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L376" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M376" t="n">
-        <v>648</v>
+        <v>750</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>648</v>
+        <v>750</v>
       </c>
       <c r="Q376" t="n">
         <v>1</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27501,16 +27501,16 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>7900</v>
+        <v>3400</v>
       </c>
       <c r="K377" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L377" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M377" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q377" t="n">
         <v>1</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -27573,16 +27573,16 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>19000</v>
+        <v>16200</v>
       </c>
       <c r="K378" t="n">
+        <v>300</v>
+      </c>
+      <c r="L378" t="n">
         <v>400</v>
       </c>
-      <c r="L378" t="n">
-        <v>500</v>
-      </c>
       <c r="M378" t="n">
-        <v>442</v>
+        <v>353</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>442</v>
+        <v>353</v>
       </c>
       <c r="Q378" t="n">
         <v>1</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -27645,16 +27645,16 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>5000</v>
+        <v>5600</v>
       </c>
       <c r="K379" t="n">
+        <v>250</v>
+      </c>
+      <c r="L379" t="n">
         <v>300</v>
       </c>
-      <c r="L379" t="n">
-        <v>350</v>
-      </c>
       <c r="M379" t="n">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="Q379" t="n">
         <v>1</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -27717,16 +27717,16 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>20700</v>
+        <v>22800</v>
       </c>
       <c r="K380" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L380" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M380" t="n">
-        <v>441</v>
+        <v>648</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>441</v>
+        <v>648</v>
       </c>
       <c r="Q380" t="n">
         <v>1</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -27785,20 +27785,20 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J381" t="n">
-        <v>3400</v>
+        <v>7900</v>
       </c>
       <c r="K381" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L381" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M381" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27807,11 +27807,11 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P381" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q381" t="n">
         <v>1</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -27857,20 +27857,20 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>5300</v>
+        <v>19000</v>
       </c>
       <c r="K382" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L382" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M382" t="n">
-        <v>376</v>
+        <v>442</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>376</v>
+        <v>442</v>
       </c>
       <c r="Q382" t="n">
         <v>1</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -27933,16 +27933,16 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>2700</v>
+        <v>5000</v>
       </c>
       <c r="K383" t="n">
         <v>300</v>
       </c>
       <c r="L383" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M383" t="n">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27951,11 +27951,11 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P383" t="n">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="Q383" t="n">
         <v>1</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -28005,7 +28005,7 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>15600</v>
+        <v>20700</v>
       </c>
       <c r="K384" t="n">
         <v>400</v>
@@ -28014,7 +28014,7 @@
         <v>500</v>
       </c>
       <c r="M384" t="n">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="Q384" t="n">
         <v>1</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -28073,20 +28073,20 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J385" t="n">
-        <v>5200</v>
+        <v>3400</v>
       </c>
       <c r="K385" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L385" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M385" t="n">
-        <v>273</v>
+        <v>400</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28095,11 +28095,11 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P385" t="n">
-        <v>273</v>
+        <v>400</v>
       </c>
       <c r="Q385" t="n">
         <v>1</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -28145,20 +28145,20 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J386" t="n">
-        <v>7900</v>
+        <v>5300</v>
       </c>
       <c r="K386" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L386" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M386" t="n">
-        <v>750</v>
+        <v>376</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>750</v>
+        <v>376</v>
       </c>
       <c r="Q386" t="n">
         <v>1</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -28221,16 +28221,16 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>3400</v>
+        <v>2700</v>
       </c>
       <c r="K387" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L387" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M387" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28239,11 +28239,11 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P387" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="Q387" t="n">
         <v>1</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -28293,16 +28293,16 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>13100</v>
+        <v>15600</v>
       </c>
       <c r="K388" t="n">
+        <v>400</v>
+      </c>
+      <c r="L388" t="n">
         <v>500</v>
       </c>
-      <c r="L388" t="n">
-        <v>600</v>
-      </c>
       <c r="M388" t="n">
-        <v>563</v>
+        <v>430</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>563</v>
+        <v>430</v>
       </c>
       <c r="Q388" t="n">
         <v>1</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -28365,16 +28365,16 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="K389" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L389" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="M389" t="n">
-        <v>425</v>
+        <v>273</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>425</v>
+        <v>273</v>
       </c>
       <c r="Q389" t="n">
         <v>1</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -28437,16 +28437,16 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>12500</v>
+        <v>7900</v>
       </c>
       <c r="K390" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L390" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M390" t="n">
-        <v>554</v>
+        <v>750</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>554</v>
+        <v>750</v>
       </c>
       <c r="Q390" t="n">
         <v>1</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -28509,16 +28509,16 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="K391" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L391" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M391" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q391" t="n">
         <v>1</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28581,16 +28581,16 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>20400</v>
+        <v>13100</v>
       </c>
       <c r="K392" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L392" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M392" t="n">
-        <v>369</v>
+        <v>563</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>369</v>
+        <v>563</v>
       </c>
       <c r="Q392" t="n">
         <v>1</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -28653,16 +28653,16 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="K393" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L393" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M393" t="n">
-        <v>277</v>
+        <v>425</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>277</v>
+        <v>425</v>
       </c>
       <c r="Q393" t="n">
         <v>1</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -28725,16 +28725,16 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>6100</v>
+        <v>12500</v>
       </c>
       <c r="K394" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L394" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M394" t="n">
-        <v>750</v>
+        <v>554</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>750</v>
+        <v>554</v>
       </c>
       <c r="Q394" t="n">
         <v>1</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -28797,16 +28797,16 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>3400</v>
+        <v>2600</v>
       </c>
       <c r="K395" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L395" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M395" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q395" t="n">
         <v>1</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28869,16 +28869,16 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>16500</v>
+        <v>20400</v>
       </c>
       <c r="K396" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L396" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="M396" t="n">
-        <v>601</v>
+        <v>369</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>601</v>
+        <v>369</v>
       </c>
       <c r="Q396" t="n">
         <v>1</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28941,16 +28941,16 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="K397" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L397" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M397" t="n">
-        <v>442</v>
+        <v>277</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>442</v>
+        <v>277</v>
       </c>
       <c r="Q397" t="n">
         <v>1</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -29013,16 +29013,16 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>13100</v>
+        <v>6100</v>
       </c>
       <c r="K398" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L398" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M398" t="n">
-        <v>537</v>
+        <v>750</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>537</v>
+        <v>750</v>
       </c>
       <c r="Q398" t="n">
         <v>1</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -29085,16 +29085,16 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>5600</v>
+        <v>3400</v>
       </c>
       <c r="K399" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L399" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M399" t="n">
-        <v>443</v>
+        <v>600</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>443</v>
+        <v>600</v>
       </c>
       <c r="Q399" t="n">
         <v>1</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -29157,16 +29157,16 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>16300</v>
+        <v>16500</v>
       </c>
       <c r="K400" t="n">
         <v>500</v>
       </c>
       <c r="L400" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M400" t="n">
-        <v>542</v>
+        <v>601</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>542</v>
+        <v>601</v>
       </c>
       <c r="Q400" t="n">
         <v>1</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -29229,16 +29229,16 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>3200</v>
+        <v>5900</v>
       </c>
       <c r="K401" t="n">
         <v>400</v>
       </c>
       <c r="L401" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M401" t="n">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="Q401" t="n">
         <v>1</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -29301,16 +29301,16 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>12000</v>
+        <v>13100</v>
       </c>
       <c r="K402" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L402" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M402" t="n">
-        <v>842</v>
+        <v>537</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>842</v>
+        <v>537</v>
       </c>
       <c r="Q402" t="n">
         <v>1</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -29373,16 +29373,16 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>8500</v>
+        <v>5600</v>
       </c>
       <c r="K403" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L403" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M403" t="n">
-        <v>647</v>
+        <v>443</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>647</v>
+        <v>443</v>
       </c>
       <c r="Q403" t="n">
         <v>1</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -29445,16 +29445,16 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>13000</v>
+        <v>16300</v>
       </c>
       <c r="K404" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L404" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M404" t="n">
-        <v>843</v>
+        <v>542</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>843</v>
+        <v>542</v>
       </c>
       <c r="Q404" t="n">
         <v>1</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29517,16 +29517,16 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>5600</v>
+        <v>3200</v>
       </c>
       <c r="K405" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L405" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M405" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q405" t="n">
         <v>1</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29589,16 +29589,16 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>8700</v>
+        <v>12000</v>
       </c>
       <c r="K406" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L406" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M406" t="n">
-        <v>562</v>
+        <v>842</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>562</v>
+        <v>842</v>
       </c>
       <c r="Q406" t="n">
         <v>1</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -29661,16 +29661,16 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>3800</v>
+        <v>8500</v>
       </c>
       <c r="K407" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L407" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M407" t="n">
-        <v>400</v>
+        <v>647</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>400</v>
+        <v>647</v>
       </c>
       <c r="Q407" t="n">
         <v>1</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29736,13 +29736,13 @@
         <v>13000</v>
       </c>
       <c r="K408" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L408" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M408" t="n">
-        <v>754</v>
+        <v>843</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>754</v>
+        <v>843</v>
       </c>
       <c r="Q408" t="n">
         <v>1</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29805,7 +29805,7 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>4000</v>
+        <v>5600</v>
       </c>
       <c r="K409" t="n">
         <v>600</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29877,16 +29877,16 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>26200</v>
+        <v>8700</v>
       </c>
       <c r="K410" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L410" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M410" t="n">
-        <v>427</v>
+        <v>562</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>427</v>
+        <v>562</v>
       </c>
       <c r="Q410" t="n">
         <v>1</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29949,16 +29949,16 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>7800</v>
+        <v>3800</v>
       </c>
       <c r="K411" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L411" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M411" t="n">
-        <v>329</v>
+        <v>400</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>329</v>
+        <v>400</v>
       </c>
       <c r="Q411" t="n">
         <v>1</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30021,16 +30021,16 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>16600</v>
+        <v>13000</v>
       </c>
       <c r="K412" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L412" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M412" t="n">
-        <v>497</v>
+        <v>754</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>497</v>
+        <v>754</v>
       </c>
       <c r="Q412" t="n">
         <v>1</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -30093,16 +30093,16 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="K413" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L413" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M413" t="n">
-        <v>427</v>
+        <v>600</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>427</v>
+        <v>600</v>
       </c>
       <c r="Q413" t="n">
         <v>1</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -30165,16 +30165,16 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>17400</v>
+        <v>26200</v>
       </c>
       <c r="K414" t="n">
         <v>350</v>
       </c>
       <c r="L414" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M414" t="n">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="Q414" t="n">
         <v>1</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30233,20 +30233,20 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>6500</v>
+        <v>7800</v>
       </c>
       <c r="K415" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L415" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M415" t="n">
-        <v>442</v>
+        <v>329</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30255,11 +30255,11 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P415" t="n">
-        <v>442</v>
+        <v>329</v>
       </c>
       <c r="Q415" t="n">
         <v>1</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30305,20 +30305,20 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J416" t="n">
-        <v>4200</v>
+        <v>16600</v>
       </c>
       <c r="K416" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L416" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M416" t="n">
-        <v>300</v>
+        <v>497</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>300</v>
+        <v>497</v>
       </c>
       <c r="Q416" t="n">
         <v>1</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -30381,16 +30381,16 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>1600</v>
+        <v>7000</v>
       </c>
       <c r="K417" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L417" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="M417" t="n">
-        <v>250</v>
+        <v>427</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30399,11 +30399,11 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P417" t="n">
-        <v>250</v>
+        <v>427</v>
       </c>
       <c r="Q417" t="n">
         <v>1</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -30453,16 +30453,16 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>7200</v>
+        <v>17400</v>
       </c>
       <c r="K418" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L418" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M418" t="n">
-        <v>739</v>
+        <v>378</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30471,11 +30471,11 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P418" t="n">
-        <v>739</v>
+        <v>378</v>
       </c>
       <c r="Q418" t="n">
         <v>1</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -30521,20 +30521,20 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>2300</v>
+        <v>6500</v>
       </c>
       <c r="K419" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L419" t="n">
         <v>500</v>
       </c>
       <c r="M419" t="n">
-        <v>500</v>
+        <v>442</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30543,11 +30543,11 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P419" t="n">
-        <v>500</v>
+        <v>442</v>
       </c>
       <c r="Q419" t="n">
         <v>1</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -30593,20 +30593,20 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>14600</v>
+        <v>4200</v>
       </c>
       <c r="K420" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L420" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M420" t="n">
-        <v>542</v>
+        <v>300</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>542</v>
+        <v>300</v>
       </c>
       <c r="Q420" t="n">
         <v>1</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30669,16 +30669,16 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>5400</v>
+        <v>1600</v>
       </c>
       <c r="K421" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L421" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M421" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30687,11 +30687,11 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P421" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="Q421" t="n">
         <v>1</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -30741,16 +30741,16 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>9100</v>
+        <v>7200</v>
       </c>
       <c r="K422" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L422" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M422" t="n">
-        <v>486</v>
+        <v>739</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30759,11 +30759,11 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P422" t="n">
-        <v>486</v>
+        <v>739</v>
       </c>
       <c r="Q422" t="n">
         <v>1</v>
@@ -30789,58 +30789,346 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E423" t="n">
+        <v>13</v>
+      </c>
+      <c r="F423" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J423" t="n">
+        <v>2300</v>
+      </c>
+      <c r="K423" t="n">
+        <v>500</v>
+      </c>
+      <c r="L423" t="n">
+        <v>500</v>
+      </c>
+      <c r="M423" t="n">
+        <v>500</v>
+      </c>
+      <c r="N423" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O423" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P423" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q423" t="n">
+        <v>1</v>
+      </c>
+      <c r="R423" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>6</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D424" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E424" t="n">
+        <v>13</v>
+      </c>
+      <c r="F424" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J424" t="n">
+        <v>14600</v>
+      </c>
+      <c r="K424" t="n">
+        <v>500</v>
+      </c>
+      <c r="L424" t="n">
+        <v>600</v>
+      </c>
+      <c r="M424" t="n">
+        <v>542</v>
+      </c>
+      <c r="N424" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O424" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P424" t="n">
+        <v>542</v>
+      </c>
+      <c r="Q424" t="n">
+        <v>1</v>
+      </c>
+      <c r="R424" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>6</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D425" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E425" t="n">
+        <v>13</v>
+      </c>
+      <c r="F425" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J425" t="n">
+        <v>5400</v>
+      </c>
+      <c r="K425" t="n">
+        <v>500</v>
+      </c>
+      <c r="L425" t="n">
+        <v>500</v>
+      </c>
+      <c r="M425" t="n">
+        <v>500</v>
+      </c>
+      <c r="N425" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O425" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P425" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q425" t="n">
+        <v>1</v>
+      </c>
+      <c r="R425" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>6</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D426" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E423" t="n">
-        <v>13</v>
-      </c>
-      <c r="F423" t="n">
-        <v>100112023</v>
-      </c>
-      <c r="G423" t="inlineStr">
-        <is>
-          <t>Brócoli</t>
-        </is>
-      </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I423" t="inlineStr">
+      <c r="E426" t="n">
+        <v>13</v>
+      </c>
+      <c r="F426" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I426" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J426" t="n">
+        <v>9100</v>
+      </c>
+      <c r="K426" t="n">
+        <v>450</v>
+      </c>
+      <c r="L426" t="n">
+        <v>500</v>
+      </c>
+      <c r="M426" t="n">
+        <v>486</v>
+      </c>
+      <c r="N426" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O426" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P426" t="n">
+        <v>486</v>
+      </c>
+      <c r="Q426" t="n">
+        <v>1</v>
+      </c>
+      <c r="R426" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>6</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D427" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E427" t="n">
+        <v>13</v>
+      </c>
+      <c r="F427" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I427" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J423" t="n">
+      <c r="J427" t="n">
         <v>4000</v>
       </c>
-      <c r="K423" t="n">
+      <c r="K427" t="n">
         <v>350</v>
       </c>
-      <c r="L423" t="n">
+      <c r="L427" t="n">
         <v>350</v>
       </c>
-      <c r="M423" t="n">
+      <c r="M427" t="n">
         <v>350</v>
       </c>
-      <c r="N423" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O423" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P423" t="n">
+      <c r="N427" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O427" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P427" t="n">
         <v>350</v>
       </c>
-      <c r="Q423" t="n">
-        <v>1</v>
-      </c>
-      <c r="R423" t="inlineStr">
+      <c r="Q427" t="n">
+        <v>1</v>
+      </c>
+      <c r="R427" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R437"/>
+  <dimension ref="A1:R440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27501,16 +27501,16 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>2700</v>
+        <v>15500</v>
       </c>
       <c r="K377" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L377" t="n">
         <v>600</v>
       </c>
       <c r="M377" t="n">
-        <v>600</v>
+        <v>524</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P377" t="n">
-        <v>600</v>
+        <v>524</v>
       </c>
       <c r="Q377" t="n">
         <v>1</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -27569,20 +27569,20 @@
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J378" t="n">
-        <v>2100</v>
+        <v>6700</v>
       </c>
       <c r="K378" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L378" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M378" t="n">
-        <v>400</v>
+        <v>651</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27591,11 +27591,11 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P378" t="n">
-        <v>400</v>
+        <v>651</v>
       </c>
       <c r="Q378" t="n">
         <v>1</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -27641,20 +27641,20 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J379" t="n">
-        <v>3300</v>
+        <v>5500</v>
       </c>
       <c r="K379" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="L379" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="M379" t="n">
-        <v>550</v>
+        <v>325</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27663,11 +27663,11 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P379" t="n">
-        <v>550</v>
+        <v>325</v>
       </c>
       <c r="Q379" t="n">
         <v>1</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -27717,16 +27717,16 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>14700</v>
+        <v>2700</v>
       </c>
       <c r="K380" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L380" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M380" t="n">
-        <v>372</v>
+        <v>600</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27735,11 +27735,11 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P380" t="n">
-        <v>372</v>
+        <v>600</v>
       </c>
       <c r="Q380" t="n">
         <v>1</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -27789,16 +27789,16 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>4400</v>
+        <v>2100</v>
       </c>
       <c r="K381" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L381" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M381" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27807,11 +27807,11 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P381" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="Q381" t="n">
         <v>1</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -27857,20 +27857,20 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>7900</v>
+        <v>3300</v>
       </c>
       <c r="K382" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L382" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M382" t="n">
-        <v>757</v>
+        <v>550</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27879,11 +27879,11 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P382" t="n">
-        <v>757</v>
+        <v>550</v>
       </c>
       <c r="Q382" t="n">
         <v>1</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -27933,16 +27933,16 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>6800</v>
+        <v>14700</v>
       </c>
       <c r="K383" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L383" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M383" t="n">
-        <v>747</v>
+        <v>372</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27951,11 +27951,11 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P383" t="n">
-        <v>747</v>
+        <v>372</v>
       </c>
       <c r="Q383" t="n">
         <v>1</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -28005,16 +28005,16 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>2500</v>
+        <v>4400</v>
       </c>
       <c r="K384" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L384" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M384" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="Q384" t="n">
         <v>1</v>
@@ -28073,20 +28073,20 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J385" t="n">
-        <v>2300</v>
+        <v>7900</v>
       </c>
       <c r="K385" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L385" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M385" t="n">
-        <v>600</v>
+        <v>757</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28095,11 +28095,11 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P385" t="n">
-        <v>600</v>
+        <v>757</v>
       </c>
       <c r="Q385" t="n">
         <v>1</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -28149,7 +28149,7 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>7900</v>
+        <v>6800</v>
       </c>
       <c r="K386" t="n">
         <v>700</v>
@@ -28158,7 +28158,7 @@
         <v>800</v>
       </c>
       <c r="M386" t="n">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28167,11 +28167,11 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P386" t="n">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="Q386" t="n">
         <v>1</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -28221,16 +28221,16 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K387" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L387" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M387" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q387" t="n">
         <v>1</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -28289,20 +28289,20 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J388" t="n">
-        <v>16200</v>
+        <v>2300</v>
       </c>
       <c r="K388" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L388" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M388" t="n">
-        <v>353</v>
+        <v>600</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28311,11 +28311,11 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P388" t="n">
-        <v>353</v>
+        <v>600</v>
       </c>
       <c r="Q388" t="n">
         <v>1</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -28361,20 +28361,20 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J389" t="n">
-        <v>5600</v>
+        <v>7900</v>
       </c>
       <c r="K389" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="L389" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="M389" t="n">
-        <v>275</v>
+        <v>750</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>275</v>
+        <v>750</v>
       </c>
       <c r="Q389" t="n">
         <v>1</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -28433,20 +28433,20 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J390" t="n">
-        <v>22800</v>
+        <v>3400</v>
       </c>
       <c r="K390" t="n">
         <v>600</v>
       </c>
       <c r="L390" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M390" t="n">
-        <v>648</v>
+        <v>600</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>648</v>
+        <v>600</v>
       </c>
       <c r="Q390" t="n">
         <v>1</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -28505,20 +28505,20 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J391" t="n">
-        <v>7900</v>
+        <v>16200</v>
       </c>
       <c r="K391" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L391" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M391" t="n">
-        <v>500</v>
+        <v>353</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>500</v>
+        <v>353</v>
       </c>
       <c r="Q391" t="n">
         <v>1</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28577,20 +28577,20 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J392" t="n">
-        <v>19000</v>
+        <v>5600</v>
       </c>
       <c r="K392" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L392" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M392" t="n">
-        <v>442</v>
+        <v>275</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>442</v>
+        <v>275</v>
       </c>
       <c r="Q392" t="n">
         <v>1</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -28649,20 +28649,20 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J393" t="n">
-        <v>5000</v>
+        <v>22800</v>
       </c>
       <c r="K393" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L393" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="M393" t="n">
-        <v>324</v>
+        <v>648</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>324</v>
+        <v>648</v>
       </c>
       <c r="Q393" t="n">
         <v>1</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -28721,20 +28721,20 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J394" t="n">
-        <v>20700</v>
+        <v>7900</v>
       </c>
       <c r="K394" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L394" t="n">
         <v>500</v>
       </c>
       <c r="M394" t="n">
-        <v>441</v>
+        <v>500</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>441</v>
+        <v>500</v>
       </c>
       <c r="Q394" t="n">
         <v>1</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -28797,16 +28797,16 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>3400</v>
+        <v>19000</v>
       </c>
       <c r="K395" t="n">
         <v>400</v>
       </c>
       <c r="L395" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M395" t="n">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28815,11 +28815,11 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P395" t="n">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="Q395" t="n">
         <v>1</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28869,16 +28869,16 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="K396" t="n">
+        <v>300</v>
+      </c>
+      <c r="L396" t="n">
         <v>350</v>
       </c>
-      <c r="L396" t="n">
-        <v>400</v>
-      </c>
       <c r="M396" t="n">
-        <v>376</v>
+        <v>324</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>376</v>
+        <v>324</v>
       </c>
       <c r="Q396" t="n">
         <v>1</v>
@@ -28937,20 +28937,20 @@
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J397" t="n">
-        <v>2700</v>
+        <v>20700</v>
       </c>
       <c r="K397" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L397" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M397" t="n">
-        <v>300</v>
+        <v>441</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28959,11 +28959,11 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P397" t="n">
-        <v>300</v>
+        <v>441</v>
       </c>
       <c r="Q397" t="n">
         <v>1</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -29013,16 +29013,16 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>15600</v>
+        <v>3400</v>
       </c>
       <c r="K398" t="n">
         <v>400</v>
       </c>
       <c r="L398" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M398" t="n">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29031,11 +29031,11 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P398" t="n">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="Q398" t="n">
         <v>1</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -29085,16 +29085,16 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="K399" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L399" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M399" t="n">
-        <v>273</v>
+        <v>376</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>273</v>
+        <v>376</v>
       </c>
       <c r="Q399" t="n">
         <v>1</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -29153,20 +29153,20 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J400" t="n">
-        <v>7900</v>
+        <v>2700</v>
       </c>
       <c r="K400" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L400" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M400" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29175,11 +29175,11 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P400" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="Q400" t="n">
         <v>1</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -29225,20 +29225,20 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J401" t="n">
-        <v>3400</v>
+        <v>15600</v>
       </c>
       <c r="K401" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L401" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M401" t="n">
-        <v>600</v>
+        <v>430</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>600</v>
+        <v>430</v>
       </c>
       <c r="Q401" t="n">
         <v>1</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -29297,20 +29297,20 @@
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J402" t="n">
-        <v>13100</v>
+        <v>5200</v>
       </c>
       <c r="K402" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L402" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M402" t="n">
-        <v>563</v>
+        <v>273</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>563</v>
+        <v>273</v>
       </c>
       <c r="Q402" t="n">
         <v>1</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -29369,20 +29369,20 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J403" t="n">
-        <v>5500</v>
+        <v>7900</v>
       </c>
       <c r="K403" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L403" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="M403" t="n">
-        <v>425</v>
+        <v>750</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>425</v>
+        <v>750</v>
       </c>
       <c r="Q403" t="n">
         <v>1</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -29441,20 +29441,20 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J404" t="n">
-        <v>12500</v>
+        <v>3400</v>
       </c>
       <c r="K404" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L404" t="n">
         <v>600</v>
       </c>
       <c r="M404" t="n">
-        <v>554</v>
+        <v>600</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>554</v>
+        <v>600</v>
       </c>
       <c r="Q404" t="n">
         <v>1</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29513,20 +29513,20 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J405" t="n">
-        <v>2600</v>
+        <v>13100</v>
       </c>
       <c r="K405" t="n">
         <v>500</v>
       </c>
       <c r="L405" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M405" t="n">
-        <v>500</v>
+        <v>563</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>500</v>
+        <v>563</v>
       </c>
       <c r="Q405" t="n">
         <v>1</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29585,20 +29585,20 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J406" t="n">
-        <v>20400</v>
+        <v>5500</v>
       </c>
       <c r="K406" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L406" t="n">
         <v>450</v>
       </c>
       <c r="M406" t="n">
-        <v>369</v>
+        <v>425</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>369</v>
+        <v>425</v>
       </c>
       <c r="Q406" t="n">
         <v>1</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -29657,20 +29657,20 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J407" t="n">
-        <v>6000</v>
+        <v>12500</v>
       </c>
       <c r="K407" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L407" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M407" t="n">
-        <v>277</v>
+        <v>554</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>277</v>
+        <v>554</v>
       </c>
       <c r="Q407" t="n">
         <v>1</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29729,20 +29729,20 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J408" t="n">
-        <v>6100</v>
+        <v>2600</v>
       </c>
       <c r="K408" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L408" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M408" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="Q408" t="n">
         <v>1</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29801,20 +29801,20 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J409" t="n">
-        <v>3400</v>
+        <v>20400</v>
       </c>
       <c r="K409" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L409" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="M409" t="n">
-        <v>600</v>
+        <v>369</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>600</v>
+        <v>369</v>
       </c>
       <c r="Q409" t="n">
         <v>1</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29873,20 +29873,20 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J410" t="n">
-        <v>16500</v>
+        <v>6000</v>
       </c>
       <c r="K410" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L410" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M410" t="n">
-        <v>601</v>
+        <v>277</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>601</v>
+        <v>277</v>
       </c>
       <c r="Q410" t="n">
         <v>1</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29945,20 +29945,20 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J411" t="n">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="K411" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L411" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M411" t="n">
-        <v>442</v>
+        <v>750</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>442</v>
+        <v>750</v>
       </c>
       <c r="Q411" t="n">
         <v>1</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30017,20 +30017,20 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J412" t="n">
-        <v>13100</v>
+        <v>3400</v>
       </c>
       <c r="K412" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L412" t="n">
         <v>600</v>
       </c>
       <c r="M412" t="n">
-        <v>537</v>
+        <v>600</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>537</v>
+        <v>600</v>
       </c>
       <c r="Q412" t="n">
         <v>1</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -30089,20 +30089,20 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J413" t="n">
-        <v>5600</v>
+        <v>16500</v>
       </c>
       <c r="K413" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L413" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M413" t="n">
-        <v>443</v>
+        <v>601</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>443</v>
+        <v>601</v>
       </c>
       <c r="Q413" t="n">
         <v>1</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -30161,20 +30161,20 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>16300</v>
+        <v>5900</v>
       </c>
       <c r="K414" t="n">
+        <v>400</v>
+      </c>
+      <c r="L414" t="n">
         <v>500</v>
       </c>
-      <c r="L414" t="n">
-        <v>600</v>
-      </c>
       <c r="M414" t="n">
-        <v>542</v>
+        <v>442</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>542</v>
+        <v>442</v>
       </c>
       <c r="Q414" t="n">
         <v>1</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30233,20 +30233,20 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>3200</v>
+        <v>13100</v>
       </c>
       <c r="K415" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L415" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M415" t="n">
-        <v>400</v>
+        <v>537</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>400</v>
+        <v>537</v>
       </c>
       <c r="Q415" t="n">
         <v>1</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30305,20 +30305,20 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J416" t="n">
-        <v>12000</v>
+        <v>5600</v>
       </c>
       <c r="K416" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L416" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M416" t="n">
-        <v>842</v>
+        <v>443</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>842</v>
+        <v>443</v>
       </c>
       <c r="Q416" t="n">
         <v>1</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -30377,20 +30377,20 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>8500</v>
+        <v>16300</v>
       </c>
       <c r="K417" t="n">
+        <v>500</v>
+      </c>
+      <c r="L417" t="n">
         <v>600</v>
       </c>
-      <c r="L417" t="n">
-        <v>700</v>
-      </c>
       <c r="M417" t="n">
-        <v>647</v>
+        <v>542</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>647</v>
+        <v>542</v>
       </c>
       <c r="Q417" t="n">
         <v>1</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -30449,20 +30449,20 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>13000</v>
+        <v>3200</v>
       </c>
       <c r="K418" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L418" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M418" t="n">
-        <v>843</v>
+        <v>400</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>843</v>
+        <v>400</v>
       </c>
       <c r="Q418" t="n">
         <v>1</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -30521,20 +30521,20 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>5600</v>
+        <v>12000</v>
       </c>
       <c r="K419" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L419" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M419" t="n">
-        <v>600</v>
+        <v>842</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>600</v>
+        <v>842</v>
       </c>
       <c r="Q419" t="n">
         <v>1</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -30593,20 +30593,20 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>8700</v>
+        <v>8500</v>
       </c>
       <c r="K420" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L420" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M420" t="n">
-        <v>562</v>
+        <v>647</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>562</v>
+        <v>647</v>
       </c>
       <c r="Q420" t="n">
         <v>1</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30665,20 +30665,20 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J421" t="n">
-        <v>3800</v>
+        <v>13000</v>
       </c>
       <c r="K421" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L421" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M421" t="n">
-        <v>400</v>
+        <v>843</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>400</v>
+        <v>843</v>
       </c>
       <c r="Q421" t="n">
         <v>1</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -30737,20 +30737,20 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J422" t="n">
-        <v>13000</v>
+        <v>5600</v>
       </c>
       <c r="K422" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L422" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M422" t="n">
-        <v>754</v>
+        <v>600</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>754</v>
+        <v>600</v>
       </c>
       <c r="Q422" t="n">
         <v>1</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -30809,20 +30809,20 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J423" t="n">
-        <v>4000</v>
+        <v>8700</v>
       </c>
       <c r="K423" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L423" t="n">
         <v>600</v>
       </c>
       <c r="M423" t="n">
-        <v>600</v>
+        <v>562</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>600</v>
+        <v>562</v>
       </c>
       <c r="Q423" t="n">
         <v>1</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30881,20 +30881,20 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J424" t="n">
-        <v>26200</v>
+        <v>3800</v>
       </c>
       <c r="K424" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L424" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M424" t="n">
-        <v>427</v>
+        <v>400</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>427</v>
+        <v>400</v>
       </c>
       <c r="Q424" t="n">
         <v>1</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -30953,20 +30953,20 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J425" t="n">
-        <v>7800</v>
+        <v>13000</v>
       </c>
       <c r="K425" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L425" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="M425" t="n">
-        <v>329</v>
+        <v>754</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>329</v>
+        <v>754</v>
       </c>
       <c r="Q425" t="n">
         <v>1</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -31025,20 +31025,20 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J426" t="n">
-        <v>16600</v>
+        <v>4000</v>
       </c>
       <c r="K426" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L426" t="n">
         <v>600</v>
       </c>
       <c r="M426" t="n">
-        <v>497</v>
+        <v>600</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>497</v>
+        <v>600</v>
       </c>
       <c r="Q426" t="n">
         <v>1</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -31097,17 +31097,17 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J427" t="n">
-        <v>7000</v>
+        <v>26200</v>
       </c>
       <c r="K427" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L427" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M427" t="n">
         <v>427</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -31169,20 +31169,20 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>17400</v>
+        <v>7800</v>
       </c>
       <c r="K428" t="n">
+        <v>300</v>
+      </c>
+      <c r="L428" t="n">
         <v>350</v>
       </c>
-      <c r="L428" t="n">
-        <v>400</v>
-      </c>
       <c r="M428" t="n">
-        <v>378</v>
+        <v>329</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>378</v>
+        <v>329</v>
       </c>
       <c r="Q428" t="n">
         <v>1</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -31245,16 +31245,16 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>6500</v>
+        <v>16600</v>
       </c>
       <c r="K429" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L429" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M429" t="n">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31263,11 +31263,11 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P429" t="n">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="Q429" t="n">
         <v>1</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -31317,16 +31317,16 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>4200</v>
+        <v>7000</v>
       </c>
       <c r="K430" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L430" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M430" t="n">
-        <v>300</v>
+        <v>427</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>300</v>
+        <v>427</v>
       </c>
       <c r="Q430" t="n">
         <v>1</v>
@@ -31385,20 +31385,20 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J431" t="n">
-        <v>1600</v>
+        <v>17400</v>
       </c>
       <c r="K431" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L431" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M431" t="n">
-        <v>250</v>
+        <v>378</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31407,11 +31407,11 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P431" t="n">
-        <v>250</v>
+        <v>378</v>
       </c>
       <c r="Q431" t="n">
         <v>1</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -31461,16 +31461,16 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>7200</v>
+        <v>6500</v>
       </c>
       <c r="K432" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L432" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M432" t="n">
-        <v>739</v>
+        <v>442</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31479,11 +31479,11 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P432" t="n">
-        <v>739</v>
+        <v>442</v>
       </c>
       <c r="Q432" t="n">
         <v>1</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -31533,16 +31533,16 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>2300</v>
+        <v>4200</v>
       </c>
       <c r="K433" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L433" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M433" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31551,11 +31551,11 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P433" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q433" t="n">
         <v>1</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -31601,20 +31601,20 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J434" t="n">
-        <v>14600</v>
+        <v>1600</v>
       </c>
       <c r="K434" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L434" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="M434" t="n">
-        <v>542</v>
+        <v>250</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31623,11 +31623,11 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P434" t="n">
-        <v>542</v>
+        <v>250</v>
       </c>
       <c r="Q434" t="n">
         <v>1</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -31673,20 +31673,20 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J435" t="n">
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="K435" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L435" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M435" t="n">
-        <v>500</v>
+        <v>739</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31695,11 +31695,11 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P435" t="n">
-        <v>500</v>
+        <v>739</v>
       </c>
       <c r="Q435" t="n">
         <v>1</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -31745,20 +31745,20 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J436" t="n">
-        <v>9100</v>
+        <v>2300</v>
       </c>
       <c r="K436" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L436" t="n">
         <v>500</v>
       </c>
       <c r="M436" t="n">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31767,11 +31767,11 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P436" t="n">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="Q436" t="n">
         <v>1</v>
@@ -31797,58 +31797,274 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E437" t="n">
+        <v>13</v>
+      </c>
+      <c r="F437" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J437" t="n">
+        <v>14600</v>
+      </c>
+      <c r="K437" t="n">
+        <v>500</v>
+      </c>
+      <c r="L437" t="n">
+        <v>600</v>
+      </c>
+      <c r="M437" t="n">
+        <v>542</v>
+      </c>
+      <c r="N437" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O437" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P437" t="n">
+        <v>542</v>
+      </c>
+      <c r="Q437" t="n">
+        <v>1</v>
+      </c>
+      <c r="R437" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>6</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D438" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E438" t="n">
+        <v>13</v>
+      </c>
+      <c r="F438" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I438" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J438" t="n">
+        <v>5400</v>
+      </c>
+      <c r="K438" t="n">
+        <v>500</v>
+      </c>
+      <c r="L438" t="n">
+        <v>500</v>
+      </c>
+      <c r="M438" t="n">
+        <v>500</v>
+      </c>
+      <c r="N438" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O438" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P438" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q438" t="n">
+        <v>1</v>
+      </c>
+      <c r="R438" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>6</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D439" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E437" t="n">
-        <v>13</v>
-      </c>
-      <c r="F437" t="n">
-        <v>100112023</v>
-      </c>
-      <c r="G437" t="inlineStr">
-        <is>
-          <t>Brócoli</t>
-        </is>
-      </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I437" t="inlineStr">
+      <c r="E439" t="n">
+        <v>13</v>
+      </c>
+      <c r="F439" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I439" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J439" t="n">
+        <v>9100</v>
+      </c>
+      <c r="K439" t="n">
+        <v>450</v>
+      </c>
+      <c r="L439" t="n">
+        <v>500</v>
+      </c>
+      <c r="M439" t="n">
+        <v>486</v>
+      </c>
+      <c r="N439" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O439" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P439" t="n">
+        <v>486</v>
+      </c>
+      <c r="Q439" t="n">
+        <v>1</v>
+      </c>
+      <c r="R439" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>6</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D440" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E440" t="n">
+        <v>13</v>
+      </c>
+      <c r="F440" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I440" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J437" t="n">
+      <c r="J440" t="n">
         <v>4000</v>
       </c>
-      <c r="K437" t="n">
+      <c r="K440" t="n">
         <v>350</v>
       </c>
-      <c r="L437" t="n">
+      <c r="L440" t="n">
         <v>350</v>
       </c>
-      <c r="M437" t="n">
+      <c r="M440" t="n">
         <v>350</v>
       </c>
-      <c r="N437" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O437" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P437" t="n">
+      <c r="N440" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O440" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P440" t="n">
         <v>350</v>
       </c>
-      <c r="Q437" t="n">
-        <v>1</v>
-      </c>
-      <c r="R437" t="inlineStr">
+      <c r="Q440" t="n">
+        <v>1</v>
+      </c>
+      <c r="R440" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R443"/>
+  <dimension ref="A1:R446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -27069,7 +27069,7 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>13700</v>
+        <v>11600</v>
       </c>
       <c r="K371" t="n">
         <v>500</v>
@@ -27078,7 +27078,7 @@
         <v>600</v>
       </c>
       <c r="M371" t="n">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="Q371" t="n">
         <v>1</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -27137,20 +27137,20 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J372" t="n">
-        <v>3200</v>
+        <v>7200</v>
       </c>
       <c r="K372" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L372" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M372" t="n">
-        <v>400</v>
+        <v>653</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27159,11 +27159,11 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P372" t="n">
-        <v>400</v>
+        <v>653</v>
       </c>
       <c r="Q372" t="n">
         <v>1</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44384</v>
+        <v>44476</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -27209,20 +27209,20 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J373" t="n">
-        <v>27300</v>
+        <v>2800</v>
       </c>
       <c r="K373" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L373" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M373" t="n">
-        <v>508</v>
+        <v>300</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>508</v>
+        <v>300</v>
       </c>
       <c r="Q373" t="n">
         <v>1</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -27281,20 +27281,20 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J374" t="n">
-        <v>9700</v>
+        <v>13700</v>
       </c>
       <c r="K374" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L374" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M374" t="n">
-        <v>354</v>
+        <v>550</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>354</v>
+        <v>550</v>
       </c>
       <c r="Q374" t="n">
         <v>1</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -27353,20 +27353,20 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J375" t="n">
-        <v>5500</v>
+        <v>3200</v>
       </c>
       <c r="K375" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L375" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M375" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q375" t="n">
         <v>1</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -27425,20 +27425,20 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J376" t="n">
-        <v>2200</v>
+        <v>27300</v>
       </c>
       <c r="K376" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L376" t="n">
         <v>600</v>
       </c>
       <c r="M376" t="n">
-        <v>600</v>
+        <v>508</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>600</v>
+        <v>508</v>
       </c>
       <c r="Q376" t="n">
         <v>1</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27497,20 +27497,20 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J377" t="n">
-        <v>16700</v>
+        <v>9700</v>
       </c>
       <c r="K377" t="n">
+        <v>300</v>
+      </c>
+      <c r="L377" t="n">
         <v>400</v>
       </c>
-      <c r="L377" t="n">
-        <v>500</v>
-      </c>
       <c r="M377" t="n">
-        <v>441</v>
+        <v>354</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>441</v>
+        <v>354</v>
       </c>
       <c r="Q377" t="n">
         <v>1</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -27569,20 +27569,20 @@
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J378" t="n">
-        <v>4800</v>
+        <v>5500</v>
       </c>
       <c r="K378" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="L378" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M378" t="n">
-        <v>376</v>
+        <v>800</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>376</v>
+        <v>800</v>
       </c>
       <c r="Q378" t="n">
         <v>1</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -27641,20 +27641,20 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J379" t="n">
-        <v>15600</v>
+        <v>2200</v>
       </c>
       <c r="K379" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L379" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M379" t="n">
-        <v>430</v>
+        <v>600</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>430</v>
+        <v>600</v>
       </c>
       <c r="Q379" t="n">
         <v>1</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -27713,20 +27713,20 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J380" t="n">
-        <v>5200</v>
+        <v>16700</v>
       </c>
       <c r="K380" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L380" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M380" t="n">
-        <v>273</v>
+        <v>441</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>273</v>
+        <v>441</v>
       </c>
       <c r="Q380" t="n">
         <v>1</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -27785,20 +27785,20 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J381" t="n">
-        <v>28300</v>
+        <v>4800</v>
       </c>
       <c r="K381" t="n">
         <v>350</v>
       </c>
       <c r="L381" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M381" t="n">
-        <v>423</v>
+        <v>376</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>423</v>
+        <v>376</v>
       </c>
       <c r="Q381" t="n">
         <v>1</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -27857,20 +27857,20 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>5500</v>
+        <v>15600</v>
       </c>
       <c r="K382" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L382" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M382" t="n">
-        <v>275</v>
+        <v>430</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>275</v>
+        <v>430</v>
       </c>
       <c r="Q382" t="n">
         <v>1</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44172</v>
+        <v>44306</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -27929,20 +27929,20 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J383" t="n">
-        <v>16000</v>
+        <v>5200</v>
       </c>
       <c r="K383" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="L383" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M383" t="n">
-        <v>741</v>
+        <v>273</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>741</v>
+        <v>273</v>
       </c>
       <c r="Q383" t="n">
         <v>1</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -28001,20 +28001,20 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J384" t="n">
-        <v>4500</v>
+        <v>28300</v>
       </c>
       <c r="K384" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L384" t="n">
         <v>500</v>
       </c>
       <c r="M384" t="n">
-        <v>500</v>
+        <v>423</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>500</v>
+        <v>423</v>
       </c>
       <c r="Q384" t="n">
         <v>1</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -28073,20 +28073,20 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J385" t="n">
-        <v>33300</v>
+        <v>5500</v>
       </c>
       <c r="K385" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L385" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M385" t="n">
-        <v>518</v>
+        <v>275</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>518</v>
+        <v>275</v>
       </c>
       <c r="Q385" t="n">
         <v>1</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -28145,20 +28145,20 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J386" t="n">
-        <v>9500</v>
+        <v>16000</v>
       </c>
       <c r="K386" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L386" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M386" t="n">
-        <v>374</v>
+        <v>741</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>374</v>
+        <v>741</v>
       </c>
       <c r="Q386" t="n">
         <v>1</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -28217,20 +28217,20 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J387" t="n">
-        <v>20400</v>
+        <v>4500</v>
       </c>
       <c r="K387" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L387" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M387" t="n">
-        <v>369</v>
+        <v>500</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>369</v>
+        <v>500</v>
       </c>
       <c r="Q387" t="n">
         <v>1</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -28289,20 +28289,20 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J388" t="n">
-        <v>6000</v>
+        <v>33300</v>
       </c>
       <c r="K388" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L388" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M388" t="n">
-        <v>277</v>
+        <v>518</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>277</v>
+        <v>518</v>
       </c>
       <c r="Q388" t="n">
         <v>1</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -28361,20 +28361,20 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J389" t="n">
-        <v>9100</v>
+        <v>9500</v>
       </c>
       <c r="K389" t="n">
+        <v>300</v>
+      </c>
+      <c r="L389" t="n">
         <v>400</v>
       </c>
-      <c r="L389" t="n">
-        <v>500</v>
-      </c>
       <c r="M389" t="n">
-        <v>436</v>
+        <v>374</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>436</v>
+        <v>374</v>
       </c>
       <c r="Q389" t="n">
         <v>1</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -28433,20 +28433,20 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J390" t="n">
-        <v>4700</v>
+        <v>20400</v>
       </c>
       <c r="K390" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L390" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M390" t="n">
-        <v>279</v>
+        <v>369</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>279</v>
+        <v>369</v>
       </c>
       <c r="Q390" t="n">
         <v>1</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -28509,16 +28509,16 @@
         </is>
       </c>
       <c r="J391" t="n">
+        <v>6000</v>
+      </c>
+      <c r="K391" t="n">
+        <v>250</v>
+      </c>
+      <c r="L391" t="n">
         <v>300</v>
       </c>
-      <c r="K391" t="n">
-        <v>500</v>
-      </c>
-      <c r="L391" t="n">
-        <v>500</v>
-      </c>
       <c r="M391" t="n">
-        <v>500</v>
+        <v>277</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28527,11 +28527,11 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P391" t="n">
-        <v>500</v>
+        <v>277</v>
       </c>
       <c r="Q391" t="n">
         <v>1</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28581,16 +28581,16 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>8000</v>
+        <v>9100</v>
       </c>
       <c r="K392" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L392" t="n">
         <v>500</v>
       </c>
       <c r="M392" t="n">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="Q392" t="n">
         <v>1</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -28653,16 +28653,16 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>6500</v>
+        <v>4700</v>
       </c>
       <c r="K393" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="L393" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M393" t="n">
-        <v>373</v>
+        <v>279</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>373</v>
+        <v>279</v>
       </c>
       <c r="Q393" t="n">
         <v>1</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -28721,20 +28721,20 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J394" t="n">
-        <v>10300</v>
+        <v>300</v>
       </c>
       <c r="K394" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L394" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="M394" t="n">
-        <v>1091</v>
+        <v>500</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28743,11 +28743,11 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P394" t="n">
-        <v>1091</v>
+        <v>500</v>
       </c>
       <c r="Q394" t="n">
         <v>1</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -28793,20 +28793,20 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J395" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="K395" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L395" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M395" t="n">
-        <v>741</v>
+        <v>472</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>741</v>
+        <v>472</v>
       </c>
       <c r="Q395" t="n">
         <v>1</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28865,20 +28865,20 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J396" t="n">
-        <v>25200</v>
+        <v>6500</v>
       </c>
       <c r="K396" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L396" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M396" t="n">
-        <v>549</v>
+        <v>373</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>549</v>
+        <v>373</v>
       </c>
       <c r="Q396" t="n">
         <v>1</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28937,20 +28937,20 @@
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J397" t="n">
-        <v>8400</v>
+        <v>10300</v>
       </c>
       <c r="K397" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="L397" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="M397" t="n">
-        <v>377</v>
+        <v>1091</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>377</v>
+        <v>1091</v>
       </c>
       <c r="Q397" t="n">
         <v>1</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -29009,20 +29009,20 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J398" t="n">
-        <v>13800</v>
+        <v>11000</v>
       </c>
       <c r="K398" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L398" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M398" t="n">
-        <v>549</v>
+        <v>741</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>549</v>
+        <v>741</v>
       </c>
       <c r="Q398" t="n">
         <v>1</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -29085,16 +29085,16 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>2300</v>
+        <v>25200</v>
       </c>
       <c r="K399" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L399" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M399" t="n">
-        <v>700</v>
+        <v>549</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29103,11 +29103,11 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P399" t="n">
-        <v>700</v>
+        <v>549</v>
       </c>
       <c r="Q399" t="n">
         <v>1</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -29157,16 +29157,16 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>3600</v>
+        <v>8400</v>
       </c>
       <c r="K400" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L400" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M400" t="n">
-        <v>500</v>
+        <v>377</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>500</v>
+        <v>377</v>
       </c>
       <c r="Q400" t="n">
         <v>1</v>
@@ -29225,20 +29225,20 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J401" t="n">
-        <v>1200</v>
+        <v>13800</v>
       </c>
       <c r="K401" t="n">
         <v>500</v>
       </c>
       <c r="L401" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M401" t="n">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29247,11 +29247,11 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P401" t="n">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="Q401" t="n">
         <v>1</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -29301,16 +29301,16 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>9000</v>
+        <v>2300</v>
       </c>
       <c r="K402" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L402" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M402" t="n">
-        <v>536</v>
+        <v>700</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29319,11 +29319,11 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P402" t="n">
-        <v>536</v>
+        <v>700</v>
       </c>
       <c r="Q402" t="n">
         <v>1</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -29369,11 +29369,11 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J403" t="n">
-        <v>2800</v>
+        <v>3600</v>
       </c>
       <c r="K403" t="n">
         <v>500</v>
@@ -29391,7 +29391,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P403" t="n">
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -29445,16 +29445,16 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>3400</v>
+        <v>1200</v>
       </c>
       <c r="K404" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L404" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M404" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29463,11 +29463,11 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P404" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q404" t="n">
         <v>1</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29517,16 +29517,16 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>11300</v>
+        <v>9000</v>
       </c>
       <c r="K405" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L405" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M405" t="n">
-        <v>379</v>
+        <v>536</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>379</v>
+        <v>536</v>
       </c>
       <c r="Q405" t="n">
         <v>1</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29585,20 +29585,20 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J406" t="n">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="K406" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L406" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M406" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29607,11 +29607,11 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P406" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="Q406" t="n">
         <v>1</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -29657,20 +29657,20 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J407" t="n">
-        <v>19400</v>
+        <v>3400</v>
       </c>
       <c r="K407" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="L407" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M407" t="n">
-        <v>609</v>
+        <v>400</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>609</v>
+        <v>400</v>
       </c>
       <c r="Q407" t="n">
         <v>1</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29729,20 +29729,20 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J408" t="n">
-        <v>5700</v>
+        <v>11300</v>
       </c>
       <c r="K408" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L408" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M408" t="n">
-        <v>473</v>
+        <v>379</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>473</v>
+        <v>379</v>
       </c>
       <c r="Q408" t="n">
         <v>1</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29801,20 +29801,20 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J409" t="n">
-        <v>14600</v>
+        <v>3800</v>
       </c>
       <c r="K409" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L409" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="M409" t="n">
-        <v>542</v>
+        <v>250</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>542</v>
+        <v>250</v>
       </c>
       <c r="Q409" t="n">
         <v>1</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29873,20 +29873,20 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J410" t="n">
-        <v>5400</v>
+        <v>19400</v>
       </c>
       <c r="K410" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L410" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M410" t="n">
-        <v>500</v>
+        <v>609</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>500</v>
+        <v>609</v>
       </c>
       <c r="Q410" t="n">
         <v>1</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29945,20 +29945,20 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J411" t="n">
-        <v>10200</v>
+        <v>5700</v>
       </c>
       <c r="K411" t="n">
+        <v>450</v>
+      </c>
+      <c r="L411" t="n">
         <v>500</v>
       </c>
-      <c r="L411" t="n">
-        <v>600</v>
-      </c>
       <c r="M411" t="n">
-        <v>566</v>
+        <v>473</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>566</v>
+        <v>473</v>
       </c>
       <c r="Q411" t="n">
         <v>1</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30017,20 +30017,20 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J412" t="n">
-        <v>2900</v>
+        <v>14600</v>
       </c>
       <c r="K412" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L412" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M412" t="n">
-        <v>400</v>
+        <v>542</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>400</v>
+        <v>542</v>
       </c>
       <c r="Q412" t="n">
         <v>1</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -30089,20 +30089,20 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J413" t="n">
-        <v>7000</v>
+        <v>5400</v>
       </c>
       <c r="K413" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L413" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M413" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="Q413" t="n">
         <v>1</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -30161,20 +30161,20 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>2500</v>
+        <v>10200</v>
       </c>
       <c r="K414" t="n">
         <v>500</v>
       </c>
       <c r="L414" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M414" t="n">
-        <v>500</v>
+        <v>566</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>500</v>
+        <v>566</v>
       </c>
       <c r="Q414" t="n">
         <v>1</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30233,20 +30233,20 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>8400</v>
+        <v>2900</v>
       </c>
       <c r="K415" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L415" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M415" t="n">
-        <v>473</v>
+        <v>400</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>473</v>
+        <v>400</v>
       </c>
       <c r="Q415" t="n">
         <v>1</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30309,16 +30309,16 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="K416" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L416" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M416" t="n">
-        <v>558</v>
+        <v>650</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30327,11 +30327,11 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P416" t="n">
-        <v>558</v>
+        <v>650</v>
       </c>
       <c r="Q416" t="n">
         <v>1</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -30381,16 +30381,16 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>3300</v>
+        <v>2500</v>
       </c>
       <c r="K417" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L417" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M417" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q417" t="n">
         <v>1</v>
@@ -30449,20 +30449,20 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>1500</v>
+        <v>8400</v>
       </c>
       <c r="K418" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L418" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M418" t="n">
-        <v>400</v>
+        <v>473</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30471,11 +30471,11 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P418" t="n">
-        <v>400</v>
+        <v>473</v>
       </c>
       <c r="Q418" t="n">
         <v>1</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -30525,16 +30525,16 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="K419" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L419" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M419" t="n">
-        <v>759</v>
+        <v>558</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30543,11 +30543,11 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P419" t="n">
-        <v>759</v>
+        <v>558</v>
       </c>
       <c r="Q419" t="n">
         <v>1</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -30597,16 +30597,16 @@
         </is>
       </c>
       <c r="J420" t="n">
-        <v>4700</v>
+        <v>3300</v>
       </c>
       <c r="K420" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L420" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="M420" t="n">
-        <v>583</v>
+        <v>350</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>583</v>
+        <v>350</v>
       </c>
       <c r="Q420" t="n">
         <v>1</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30665,20 +30665,20 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J421" t="n">
-        <v>6500</v>
+        <v>1500</v>
       </c>
       <c r="K421" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L421" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="M421" t="n">
-        <v>1049</v>
+        <v>400</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30687,11 +30687,11 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P421" t="n">
-        <v>1049</v>
+        <v>400</v>
       </c>
       <c r="Q421" t="n">
         <v>1</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -30737,20 +30737,20 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J422" t="n">
-        <v>2800</v>
+        <v>12000</v>
       </c>
       <c r="K422" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L422" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M422" t="n">
-        <v>800</v>
+        <v>759</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>800</v>
+        <v>759</v>
       </c>
       <c r="Q422" t="n">
         <v>1</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -30809,20 +30809,20 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J423" t="n">
-        <v>2700</v>
+        <v>4700</v>
       </c>
       <c r="K423" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L423" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M423" t="n">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30831,11 +30831,11 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P423" t="n">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="Q423" t="n">
         <v>1</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30881,20 +30881,20 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J424" t="n">
-        <v>2100</v>
+        <v>6500</v>
       </c>
       <c r="K424" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L424" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="M424" t="n">
-        <v>400</v>
+        <v>1049</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30903,11 +30903,11 @@
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P424" t="n">
-        <v>400</v>
+        <v>1049</v>
       </c>
       <c r="Q424" t="n">
         <v>1</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -30953,20 +30953,20 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J425" t="n">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="K425" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="L425" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M425" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30975,11 +30975,11 @@
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P425" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="Q425" t="n">
         <v>1</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>5200</v>
+        <v>2700</v>
       </c>
       <c r="K426" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L426" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M426" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31047,11 +31047,11 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P426" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="Q426" t="n">
         <v>1</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -31101,16 +31101,16 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="K427" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L427" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M427" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31119,11 +31119,11 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P427" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q427" t="n">
         <v>1</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -31169,20 +31169,20 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>12500</v>
+        <v>3300</v>
       </c>
       <c r="K428" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L428" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M428" t="n">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31191,11 +31191,11 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P428" t="n">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="Q428" t="n">
         <v>1</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -31241,20 +31241,20 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J429" t="n">
-        <v>2600</v>
+        <v>5200</v>
       </c>
       <c r="K429" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L429" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M429" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="Q429" t="n">
         <v>1</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -31313,20 +31313,20 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J430" t="n">
-        <v>6100</v>
+        <v>2500</v>
       </c>
       <c r="K430" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L430" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M430" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="Q430" t="n">
         <v>1</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -31385,20 +31385,20 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J431" t="n">
-        <v>2500</v>
+        <v>12500</v>
       </c>
       <c r="K431" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L431" t="n">
         <v>600</v>
       </c>
       <c r="M431" t="n">
-        <v>600</v>
+        <v>554</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>600</v>
+        <v>554</v>
       </c>
       <c r="Q431" t="n">
         <v>1</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -31457,20 +31457,20 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J432" t="n">
-        <v>7900</v>
+        <v>2600</v>
       </c>
       <c r="K432" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L432" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M432" t="n">
-        <v>757</v>
+        <v>500</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>757</v>
+        <v>500</v>
       </c>
       <c r="Q432" t="n">
         <v>1</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -31533,7 +31533,7 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>6800</v>
+        <v>6100</v>
       </c>
       <c r="K433" t="n">
         <v>700</v>
@@ -31542,7 +31542,7 @@
         <v>800</v>
       </c>
       <c r="M433" t="n">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31551,11 +31551,11 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P433" t="n">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="Q433" t="n">
         <v>1</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -31608,13 +31608,13 @@
         <v>2500</v>
       </c>
       <c r="K434" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L434" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M434" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q434" t="n">
         <v>1</v>
@@ -31673,20 +31673,20 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J435" t="n">
-        <v>2300</v>
+        <v>7900</v>
       </c>
       <c r="K435" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L435" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M435" t="n">
-        <v>600</v>
+        <v>757</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31695,11 +31695,11 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P435" t="n">
-        <v>600</v>
+        <v>757</v>
       </c>
       <c r="Q435" t="n">
         <v>1</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -31749,16 +31749,16 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>3500</v>
+        <v>6800</v>
       </c>
       <c r="K436" t="n">
         <v>700</v>
       </c>
       <c r="L436" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M436" t="n">
-        <v>700</v>
+        <v>747</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31767,11 +31767,11 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P436" t="n">
-        <v>700</v>
+        <v>747</v>
       </c>
       <c r="Q436" t="n">
         <v>1</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -31821,16 +31821,16 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="K437" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L437" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M437" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q437" t="n">
         <v>1</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -31889,20 +31889,20 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J438" t="n">
-        <v>14800</v>
+        <v>2300</v>
       </c>
       <c r="K438" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L438" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M438" t="n">
-        <v>414</v>
+        <v>600</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31911,11 +31911,11 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P438" t="n">
-        <v>414</v>
+        <v>600</v>
       </c>
       <c r="Q438" t="n">
         <v>1</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -31961,20 +31961,20 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J439" t="n">
-        <v>5200</v>
+        <v>3500</v>
       </c>
       <c r="K439" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="L439" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M439" t="n">
-        <v>277</v>
+        <v>700</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>277</v>
+        <v>700</v>
       </c>
       <c r="Q439" t="n">
         <v>1</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -32033,20 +32033,20 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J440" t="n">
-        <v>8700</v>
+        <v>2800</v>
       </c>
       <c r="K440" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L440" t="n">
         <v>600</v>
       </c>
       <c r="M440" t="n">
-        <v>511</v>
+        <v>600</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>511</v>
+        <v>600</v>
       </c>
       <c r="Q440" t="n">
         <v>1</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -32105,20 +32105,20 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J441" t="n">
-        <v>4000</v>
+        <v>14800</v>
       </c>
       <c r="K441" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L441" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M441" t="n">
-        <v>355</v>
+        <v>414</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>355</v>
+        <v>414</v>
       </c>
       <c r="Q441" t="n">
         <v>1</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -32177,20 +32177,20 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J442" t="n">
-        <v>16300</v>
+        <v>5200</v>
       </c>
       <c r="K442" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L442" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M442" t="n">
-        <v>442</v>
+        <v>277</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>442</v>
+        <v>277</v>
       </c>
       <c r="Q442" t="n">
         <v>1</v>
@@ -32229,58 +32229,274 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E443" t="n">
+        <v>13</v>
+      </c>
+      <c r="F443" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I443" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J443" t="n">
+        <v>8700</v>
+      </c>
+      <c r="K443" t="n">
+        <v>400</v>
+      </c>
+      <c r="L443" t="n">
+        <v>600</v>
+      </c>
+      <c r="M443" t="n">
+        <v>511</v>
+      </c>
+      <c r="N443" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O443" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P443" t="n">
+        <v>511</v>
+      </c>
+      <c r="Q443" t="n">
+        <v>1</v>
+      </c>
+      <c r="R443" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>6</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D444" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E444" t="n">
+        <v>13</v>
+      </c>
+      <c r="F444" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I444" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J444" t="n">
+        <v>4000</v>
+      </c>
+      <c r="K444" t="n">
+        <v>250</v>
+      </c>
+      <c r="L444" t="n">
+        <v>400</v>
+      </c>
+      <c r="M444" t="n">
+        <v>355</v>
+      </c>
+      <c r="N444" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O444" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P444" t="n">
+        <v>355</v>
+      </c>
+      <c r="Q444" t="n">
+        <v>1</v>
+      </c>
+      <c r="R444" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>6</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D445" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E443" t="n">
-        <v>13</v>
-      </c>
-      <c r="F443" t="n">
-        <v>100112023</v>
-      </c>
-      <c r="G443" t="inlineStr">
-        <is>
-          <t>Brócoli</t>
-        </is>
-      </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I443" t="inlineStr">
+      <c r="E445" t="n">
+        <v>13</v>
+      </c>
+      <c r="F445" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I445" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J445" t="n">
+        <v>16300</v>
+      </c>
+      <c r="K445" t="n">
+        <v>400</v>
+      </c>
+      <c r="L445" t="n">
+        <v>500</v>
+      </c>
+      <c r="M445" t="n">
+        <v>442</v>
+      </c>
+      <c r="N445" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O445" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P445" t="n">
+        <v>442</v>
+      </c>
+      <c r="Q445" t="n">
+        <v>1</v>
+      </c>
+      <c r="R445" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>6</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D446" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E446" t="n">
+        <v>13</v>
+      </c>
+      <c r="F446" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I446" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J443" t="n">
+      <c r="J446" t="n">
         <v>6100</v>
       </c>
-      <c r="K443" t="n">
+      <c r="K446" t="n">
         <v>350</v>
       </c>
-      <c r="L443" t="n">
+      <c r="L446" t="n">
         <v>400</v>
       </c>
-      <c r="M443" t="n">
+      <c r="M446" t="n">
         <v>378</v>
       </c>
-      <c r="N443" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O443" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P443" t="n">
+      <c r="N446" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O446" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P446" t="n">
         <v>378</v>
       </c>
-      <c r="Q443" t="n">
-        <v>1</v>
-      </c>
-      <c r="R443" t="inlineStr">
+      <c r="Q446" t="n">
+        <v>1</v>
+      </c>
+      <c r="R446" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R455"/>
+  <dimension ref="A1:R457"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44447</v>
+        <v>44484</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>16900</v>
+        <v>13500</v>
       </c>
       <c r="K223" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L223" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M223" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q223" t="n">
         <v>1</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44447</v>
+        <v>44484</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>5200</v>
+        <v>4700</v>
       </c>
       <c r="K224" t="n">
         <v>300</v>
       </c>
       <c r="L224" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M224" t="n">
-        <v>300</v>
+        <v>372</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>300</v>
+        <v>372</v>
       </c>
       <c r="Q224" t="n">
         <v>1</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>16500</v>
+        <v>16900</v>
       </c>
       <c r="K225" t="n">
+        <v>350</v>
+      </c>
+      <c r="L225" t="n">
         <v>500</v>
       </c>
-      <c r="L225" t="n">
-        <v>600</v>
-      </c>
       <c r="M225" t="n">
-        <v>541</v>
+        <v>400</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>541</v>
+        <v>400</v>
       </c>
       <c r="Q225" t="n">
         <v>1</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44294</v>
+        <v>44447</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16625,20 +16625,20 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>26900</v>
+        <v>5200</v>
       </c>
       <c r="K226" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L226" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M226" t="n">
-        <v>458</v>
+        <v>300</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>458</v>
+        <v>300</v>
       </c>
       <c r="Q226" t="n">
         <v>1</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>3400</v>
+        <v>16500</v>
       </c>
       <c r="K227" t="n">
         <v>500</v>
       </c>
       <c r="L227" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M227" t="n">
-        <v>500</v>
+        <v>541</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16719,11 +16719,11 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>500</v>
+        <v>541</v>
       </c>
       <c r="Q227" t="n">
         <v>1</v>
@@ -16769,20 +16769,20 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>8300</v>
+        <v>26900</v>
       </c>
       <c r="K228" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L228" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M228" t="n">
-        <v>316</v>
+        <v>458</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>316</v>
+        <v>458</v>
       </c>
       <c r="Q228" t="n">
         <v>1</v>
@@ -16841,20 +16841,20 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>2700</v>
+        <v>3400</v>
       </c>
       <c r="K229" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L229" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M229" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q229" t="n">
         <v>1</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16913,20 +16913,20 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>7000</v>
+        <v>8300</v>
       </c>
       <c r="K230" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="L230" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="M230" t="n">
-        <v>950</v>
+        <v>316</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>950</v>
+        <v>316</v>
       </c>
       <c r="Q230" t="n">
         <v>1</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="K231" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L231" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="M231" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17007,11 +17007,11 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="Q231" t="n">
         <v>1</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>14300</v>
+        <v>7000</v>
       </c>
       <c r="K232" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L232" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="M232" t="n">
-        <v>423</v>
+        <v>950</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>423</v>
+        <v>950</v>
       </c>
       <c r="Q232" t="n">
         <v>1</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>4400</v>
+        <v>2500</v>
       </c>
       <c r="K233" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L233" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M233" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="Q233" t="n">
         <v>1</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>16200</v>
+        <v>14300</v>
       </c>
       <c r="K234" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L234" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M234" t="n">
-        <v>353</v>
+        <v>423</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>353</v>
+        <v>423</v>
       </c>
       <c r="Q234" t="n">
         <v>1</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>5600</v>
+        <v>4400</v>
       </c>
       <c r="K235" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L235" t="n">
         <v>300</v>
       </c>
       <c r="M235" t="n">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="Q235" t="n">
         <v>1</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44169</v>
+        <v>44356</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>17100</v>
+        <v>16200</v>
       </c>
       <c r="K236" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L236" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M236" t="n">
-        <v>704</v>
+        <v>353</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>704</v>
+        <v>353</v>
       </c>
       <c r="Q236" t="n">
         <v>1</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44169</v>
+        <v>44356</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>8800</v>
+        <v>5600</v>
       </c>
       <c r="K237" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L237" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M237" t="n">
-        <v>539</v>
+        <v>275</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>539</v>
+        <v>275</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44454</v>
+        <v>44169</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>15100</v>
+        <v>17100</v>
       </c>
       <c r="K238" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L238" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M238" t="n">
-        <v>549</v>
+        <v>704</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>549</v>
+        <v>704</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44454</v>
+        <v>44169</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>4000</v>
+        <v>8800</v>
       </c>
       <c r="K239" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L239" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M239" t="n">
-        <v>385</v>
+        <v>539</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>385</v>
+        <v>539</v>
       </c>
       <c r="Q239" t="n">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44410</v>
+        <v>44454</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17637,7 +17637,7 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>13100</v>
+        <v>15100</v>
       </c>
       <c r="K240" t="n">
         <v>500</v>
@@ -17646,7 +17646,7 @@
         <v>600</v>
       </c>
       <c r="M240" t="n">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="Q240" t="n">
         <v>1</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44410</v>
+        <v>44454</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>5600</v>
+        <v>4000</v>
       </c>
       <c r="K241" t="n">
+        <v>350</v>
+      </c>
+      <c r="L241" t="n">
         <v>400</v>
       </c>
-      <c r="L241" t="n">
-        <v>500</v>
-      </c>
       <c r="M241" t="n">
-        <v>443</v>
+        <v>385</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>443</v>
+        <v>385</v>
       </c>
       <c r="Q241" t="n">
         <v>1</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44467</v>
+        <v>44410</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>7400</v>
+        <v>13100</v>
       </c>
       <c r="K242" t="n">
+        <v>500</v>
+      </c>
+      <c r="L242" t="n">
         <v>600</v>
       </c>
-      <c r="L242" t="n">
-        <v>700</v>
-      </c>
       <c r="M242" t="n">
-        <v>662</v>
+        <v>537</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>662</v>
+        <v>537</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44467</v>
+        <v>44410</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17849,20 +17849,20 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>7100</v>
+        <v>5600</v>
       </c>
       <c r="K243" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L243" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M243" t="n">
-        <v>752</v>
+        <v>443</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17871,11 +17871,11 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>752</v>
+        <v>443</v>
       </c>
       <c r="Q243" t="n">
         <v>1</v>
@@ -17921,20 +17921,20 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>3300</v>
+        <v>7400</v>
       </c>
       <c r="K244" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L244" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M244" t="n">
-        <v>400</v>
+        <v>662</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>400</v>
+        <v>662</v>
       </c>
       <c r="Q244" t="n">
         <v>1</v>
@@ -17993,20 +17993,20 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>2600</v>
+        <v>7100</v>
       </c>
       <c r="K245" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L245" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M245" t="n">
-        <v>500</v>
+        <v>752</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>500</v>
+        <v>752</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18065,20 +18065,20 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>12400</v>
+        <v>3300</v>
       </c>
       <c r="K246" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L246" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M246" t="n">
-        <v>555</v>
+        <v>400</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>555</v>
+        <v>400</v>
       </c>
       <c r="Q246" t="n">
         <v>1</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>5500</v>
+        <v>2600</v>
       </c>
       <c r="K247" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L247" t="n">
         <v>500</v>
       </c>
       <c r="M247" t="n">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18159,11 +18159,11 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="Q247" t="n">
         <v>1</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>9700</v>
+        <v>12400</v>
       </c>
       <c r="K248" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L248" t="n">
         <v>600</v>
       </c>
       <c r="M248" t="n">
-        <v>527</v>
+        <v>555</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>527</v>
+        <v>555</v>
       </c>
       <c r="Q248" t="n">
         <v>1</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18285,16 +18285,16 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="K249" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L249" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M249" t="n">
-        <v>353</v>
+        <v>451</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>353</v>
+        <v>451</v>
       </c>
       <c r="Q249" t="n">
         <v>1</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>8000</v>
+        <v>9700</v>
       </c>
       <c r="K250" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L250" t="n">
         <v>600</v>
       </c>
       <c r="M250" t="n">
-        <v>559</v>
+        <v>527</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>559</v>
+        <v>527</v>
       </c>
       <c r="Q250" t="n">
         <v>1</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18425,20 +18425,20 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>6600</v>
+        <v>5300</v>
       </c>
       <c r="K251" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L251" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M251" t="n">
-        <v>752</v>
+        <v>353</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18447,11 +18447,11 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>752</v>
+        <v>353</v>
       </c>
       <c r="Q251" t="n">
         <v>1</v>
@@ -18497,20 +18497,20 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>2800</v>
+        <v>8000</v>
       </c>
       <c r="K252" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L252" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M252" t="n">
-        <v>400</v>
+        <v>559</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>400</v>
+        <v>559</v>
       </c>
       <c r="Q252" t="n">
         <v>1</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18573,7 +18573,7 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>10700</v>
+        <v>6600</v>
       </c>
       <c r="K253" t="n">
         <v>700</v>
@@ -18582,7 +18582,7 @@
         <v>800</v>
       </c>
       <c r="M253" t="n">
-        <v>738</v>
+        <v>752</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18591,11 +18591,11 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>738</v>
+        <v>752</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="K254" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L254" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M254" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="Q254" t="n">
         <v>1</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44411</v>
+        <v>44273</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>16300</v>
+        <v>10700</v>
       </c>
       <c r="K255" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L255" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M255" t="n">
-        <v>542</v>
+        <v>738</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>542</v>
+        <v>738</v>
       </c>
       <c r="Q255" t="n">
         <v>1</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44411</v>
+        <v>44273</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="K256" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L256" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M256" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="Q256" t="n">
         <v>1</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44236</v>
+        <v>44411</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>11000</v>
+        <v>16300</v>
       </c>
       <c r="K257" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L257" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M257" t="n">
-        <v>841</v>
+        <v>542</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>841</v>
+        <v>542</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44236</v>
+        <v>44411</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>8000</v>
+        <v>3200</v>
       </c>
       <c r="K258" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L258" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M258" t="n">
-        <v>656</v>
+        <v>400</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>656</v>
+        <v>400</v>
       </c>
       <c r="Q258" t="n">
         <v>1</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>7900</v>
+        <v>11000</v>
       </c>
       <c r="K259" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L259" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M259" t="n">
-        <v>750</v>
+        <v>841</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>750</v>
+        <v>841</v>
       </c>
       <c r="Q259" t="n">
         <v>1</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>3400</v>
+        <v>8000</v>
       </c>
       <c r="K260" t="n">
         <v>600</v>
       </c>
       <c r="L260" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M260" t="n">
-        <v>600</v>
+        <v>656</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>600</v>
+        <v>656</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19152,13 +19152,13 @@
         <v>7900</v>
       </c>
       <c r="K261" t="n">
+        <v>700</v>
+      </c>
+      <c r="L261" t="n">
         <v>800</v>
       </c>
-      <c r="L261" t="n">
-        <v>900</v>
-      </c>
       <c r="M261" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="Q261" t="n">
         <v>1</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K262" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L262" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M262" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q262" t="n">
         <v>1</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44403</v>
+        <v>44235</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>8100</v>
+        <v>7900</v>
       </c>
       <c r="K263" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L263" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M263" t="n">
-        <v>620</v>
+        <v>850</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>620</v>
+        <v>850</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44403</v>
+        <v>44235</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19368,13 +19368,13 @@
         <v>2500</v>
       </c>
       <c r="K264" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L264" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M264" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44203</v>
+        <v>44403</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>6100</v>
+        <v>8100</v>
       </c>
       <c r="K265" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L265" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M265" t="n">
-        <v>750</v>
+        <v>620</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>750</v>
+        <v>620</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44203</v>
+        <v>44403</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K266" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L266" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M266" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>19500</v>
+        <v>6100</v>
       </c>
       <c r="K267" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L267" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M267" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>4800</v>
+        <v>3400</v>
       </c>
       <c r="K268" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L268" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M268" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44291</v>
+        <v>44413</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>12100</v>
+        <v>19500</v>
       </c>
       <c r="K269" t="n">
+        <v>500</v>
+      </c>
+      <c r="L269" t="n">
         <v>600</v>
       </c>
-      <c r="L269" t="n">
-        <v>700</v>
-      </c>
       <c r="M269" t="n">
-        <v>644</v>
+        <v>550</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>644</v>
+        <v>550</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44291</v>
+        <v>44413</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19797,7 +19797,7 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>3600</v>
+        <v>4800</v>
       </c>
       <c r="K270" t="n">
         <v>400</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44426</v>
+        <v>44291</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>10100</v>
+        <v>12100</v>
       </c>
       <c r="K271" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L271" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M271" t="n">
-        <v>536</v>
+        <v>644</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>536</v>
+        <v>644</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44426</v>
+        <v>44291</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>5200</v>
+        <v>3600</v>
       </c>
       <c r="K272" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L272" t="n">
         <v>400</v>
       </c>
       <c r="M272" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20013,7 +20013,7 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="K273" t="n">
         <v>500</v>
@@ -20022,7 +20022,7 @@
         <v>600</v>
       </c>
       <c r="M273" t="n">
-        <v>567</v>
+        <v>536</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>567</v>
+        <v>536</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20081,20 +20081,20 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>6700</v>
+        <v>5200</v>
       </c>
       <c r="K274" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L274" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M274" t="n">
-        <v>749</v>
+        <v>356</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20103,11 +20103,11 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>749</v>
+        <v>356</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20153,20 +20153,20 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>3200</v>
+        <v>10200</v>
       </c>
       <c r="K275" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L275" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M275" t="n">
-        <v>400</v>
+        <v>567</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>400</v>
+        <v>567</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>24300</v>
+        <v>6700</v>
       </c>
       <c r="K276" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L276" t="n">
         <v>800</v>
       </c>
       <c r="M276" t="n">
-        <v>713</v>
+        <v>749</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20247,11 +20247,11 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>713</v>
+        <v>749</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>9900</v>
+        <v>3200</v>
       </c>
       <c r="K277" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L277" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M277" t="n">
-        <v>566</v>
+        <v>400</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>566</v>
+        <v>400</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>19300</v>
+        <v>24300</v>
       </c>
       <c r="K278" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L278" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M278" t="n">
-        <v>430</v>
+        <v>713</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>430</v>
+        <v>713</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>6600</v>
+        <v>9900</v>
       </c>
       <c r="K279" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L279" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M279" t="n">
-        <v>352</v>
+        <v>566</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>352</v>
+        <v>566</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>16600</v>
+        <v>19300</v>
       </c>
       <c r="K280" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L280" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M280" t="n">
-        <v>497</v>
+        <v>430</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>497</v>
+        <v>430</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>7000</v>
+        <v>6600</v>
       </c>
       <c r="K281" t="n">
+        <v>300</v>
+      </c>
+      <c r="L281" t="n">
         <v>400</v>
       </c>
-      <c r="L281" t="n">
-        <v>450</v>
-      </c>
       <c r="M281" t="n">
-        <v>427</v>
+        <v>352</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>427</v>
+        <v>352</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>24800</v>
+        <v>16600</v>
       </c>
       <c r="K282" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L282" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M282" t="n">
-        <v>617</v>
+        <v>497</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>617</v>
+        <v>497</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>7900</v>
+        <v>7000</v>
       </c>
       <c r="K283" t="n">
         <v>400</v>
       </c>
       <c r="L283" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M283" t="n">
-        <v>457</v>
+        <v>427</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>457</v>
+        <v>427</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>19000</v>
+        <v>24800</v>
       </c>
       <c r="K284" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L284" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M284" t="n">
-        <v>442</v>
+        <v>617</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>442</v>
+        <v>617</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>5000</v>
+        <v>7900</v>
       </c>
       <c r="K285" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L285" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M285" t="n">
-        <v>324</v>
+        <v>457</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>324</v>
+        <v>457</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>6100</v>
+        <v>19000</v>
       </c>
       <c r="K286" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L286" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M286" t="n">
-        <v>750</v>
+        <v>442</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>750</v>
+        <v>442</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="K287" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L287" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="M287" t="n">
-        <v>600</v>
+        <v>324</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>600</v>
+        <v>324</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21093,7 +21093,7 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>12000</v>
+        <v>6100</v>
       </c>
       <c r="K288" t="n">
         <v>700</v>
@@ -21102,7 +21102,7 @@
         <v>800</v>
       </c>
       <c r="M288" t="n">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21165,16 +21165,16 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="K289" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L289" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M289" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21237,16 +21237,16 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>12300</v>
+        <v>12000</v>
       </c>
       <c r="K290" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L290" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M290" t="n">
-        <v>653</v>
+        <v>748</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>653</v>
+        <v>748</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21305,20 +21305,20 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>6500</v>
+        <v>2600</v>
       </c>
       <c r="K291" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L291" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M291" t="n">
-        <v>749</v>
+        <v>500</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21327,11 +21327,11 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P291" t="n">
-        <v>749</v>
+        <v>500</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21377,20 +21377,20 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>2800</v>
+        <v>12300</v>
       </c>
       <c r="K292" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L292" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M292" t="n">
-        <v>400</v>
+        <v>653</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>400</v>
+        <v>653</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21449,20 +21449,20 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>1800</v>
+        <v>6500</v>
       </c>
       <c r="K293" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L293" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M293" t="n">
-        <v>500</v>
+        <v>749</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>500</v>
+        <v>749</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44445</v>
+        <v>44274</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21521,20 +21521,20 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>6600</v>
+        <v>2800</v>
       </c>
       <c r="K294" t="n">
         <v>400</v>
       </c>
       <c r="L294" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M294" t="n">
-        <v>441</v>
+        <v>400</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21543,11 +21543,11 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P294" t="n">
-        <v>441</v>
+        <v>400</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44445</v>
+        <v>44274</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="K295" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L295" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M295" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21615,11 +21615,11 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P295" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44229</v>
+        <v>44445</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>6100</v>
+        <v>6600</v>
       </c>
       <c r="K296" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L296" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M296" t="n">
-        <v>850</v>
+        <v>441</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21687,11 +21687,11 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P296" t="n">
-        <v>850</v>
+        <v>441</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44229</v>
+        <v>44445</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="K297" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L297" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="M297" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21759,11 +21759,11 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P297" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>16800</v>
+        <v>6100</v>
       </c>
       <c r="K298" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="L298" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M298" t="n">
-        <v>430</v>
+        <v>850</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>430</v>
+        <v>850</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>5600</v>
+        <v>2500</v>
       </c>
       <c r="K299" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="L299" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M299" t="n">
-        <v>279</v>
+        <v>700</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>279</v>
+        <v>700</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>13300</v>
+        <v>16800</v>
       </c>
       <c r="K300" t="n">
+        <v>350</v>
+      </c>
+      <c r="L300" t="n">
         <v>500</v>
       </c>
-      <c r="L300" t="n">
-        <v>600</v>
-      </c>
       <c r="M300" t="n">
-        <v>549</v>
+        <v>430</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>549</v>
+        <v>430</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>4400</v>
+        <v>5600</v>
       </c>
       <c r="K301" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L301" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M301" t="n">
-        <v>400</v>
+        <v>279</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>400</v>
+        <v>279</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>17400</v>
+        <v>13300</v>
       </c>
       <c r="K302" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L302" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M302" t="n">
-        <v>378</v>
+        <v>549</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>378</v>
+        <v>549</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22169,20 +22169,20 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="K303" t="n">
         <v>400</v>
       </c>
       <c r="L303" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M303" t="n">
-        <v>442</v>
+        <v>400</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22191,11 +22191,11 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P303" t="n">
-        <v>442</v>
+        <v>400</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22241,20 +22241,20 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>4200</v>
+        <v>17400</v>
       </c>
       <c r="K304" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L304" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M304" t="n">
-        <v>300</v>
+        <v>378</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>300</v>
+        <v>378</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22313,20 +22313,20 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>1600</v>
+        <v>6500</v>
       </c>
       <c r="K305" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L305" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M305" t="n">
-        <v>250</v>
+        <v>442</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>250</v>
+        <v>442</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22385,20 +22385,20 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>18700</v>
+        <v>4200</v>
       </c>
       <c r="K306" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L306" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M306" t="n">
-        <v>557</v>
+        <v>300</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>557</v>
+        <v>300</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>5000</v>
+        <v>1600</v>
       </c>
       <c r="K307" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L307" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="M307" t="n">
-        <v>422</v>
+        <v>250</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22479,11 +22479,11 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P307" t="n">
-        <v>422</v>
+        <v>250</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22533,16 +22533,16 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>15300</v>
+        <v>18700</v>
       </c>
       <c r="K308" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L308" t="n">
         <v>600</v>
       </c>
       <c r="M308" t="n">
-        <v>489</v>
+        <v>557</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>489</v>
+        <v>557</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22601,20 +22601,20 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>6400</v>
+        <v>5000</v>
       </c>
       <c r="K309" t="n">
         <v>400</v>
       </c>
       <c r="L309" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M309" t="n">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22623,11 +22623,11 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P309" t="n">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22673,20 +22673,20 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>5500</v>
+        <v>15300</v>
       </c>
       <c r="K310" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L310" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M310" t="n">
-        <v>325</v>
+        <v>489</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>325</v>
+        <v>489</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22745,20 +22745,20 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>2800</v>
+        <v>6400</v>
       </c>
       <c r="K311" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L311" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M311" t="n">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22817,20 +22817,20 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="K312" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L312" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="M312" t="n">
-        <v>647</v>
+        <v>325</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>647</v>
+        <v>325</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>4500</v>
+        <v>2800</v>
       </c>
       <c r="K313" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L313" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M313" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22911,11 +22911,11 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P313" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="K314" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L314" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M314" t="n">
-        <v>950</v>
+        <v>647</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>950</v>
+        <v>647</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="K315" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L315" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M315" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>16300</v>
+        <v>7000</v>
       </c>
       <c r="K316" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L316" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M316" t="n">
-        <v>471</v>
+        <v>950</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>471</v>
+        <v>950</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23181,16 +23181,16 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>5800</v>
+        <v>2500</v>
       </c>
       <c r="K317" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L317" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M317" t="n">
-        <v>348</v>
+        <v>700</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>348</v>
+        <v>700</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23249,20 +23249,20 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>2000</v>
+        <v>16300</v>
       </c>
       <c r="K318" t="n">
         <v>400</v>
       </c>
       <c r="L318" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M318" t="n">
-        <v>400</v>
+        <v>471</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23271,11 +23271,11 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P318" t="n">
-        <v>400</v>
+        <v>471</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23321,20 +23321,20 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>1500</v>
+        <v>5800</v>
       </c>
       <c r="K319" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L319" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M319" t="n">
-        <v>500</v>
+        <v>348</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23343,11 +23343,11 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P319" t="n">
-        <v>500</v>
+        <v>348</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23393,20 +23393,20 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>8700</v>
+        <v>2000</v>
       </c>
       <c r="K320" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L320" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M320" t="n">
-        <v>838</v>
+        <v>400</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23415,11 +23415,11 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P320" t="n">
-        <v>838</v>
+        <v>400</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23465,20 +23465,20 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="K321" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L321" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M321" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23487,11 +23487,11 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P321" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23541,16 +23541,16 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>6900</v>
+        <v>8700</v>
       </c>
       <c r="K322" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L322" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M322" t="n">
-        <v>549</v>
+        <v>838</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>549</v>
+        <v>838</v>
       </c>
       <c r="Q322" t="n">
         <v>1</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23609,20 +23609,20 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>3800</v>
+        <v>2700</v>
       </c>
       <c r="K323" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L323" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M323" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23631,11 +23631,11 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P323" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23681,20 +23681,20 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J324" t="n">
-        <v>7900</v>
+        <v>6900</v>
       </c>
       <c r="K324" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L324" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M324" t="n">
-        <v>371</v>
+        <v>549</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>371</v>
+        <v>549</v>
       </c>
       <c r="Q324" t="n">
         <v>1</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>15500</v>
+        <v>3800</v>
       </c>
       <c r="K325" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L325" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M325" t="n">
-        <v>524</v>
+        <v>700</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23775,11 +23775,11 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P325" t="n">
-        <v>524</v>
+        <v>700</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23825,20 +23825,20 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J326" t="n">
-        <v>6700</v>
+        <v>7900</v>
       </c>
       <c r="K326" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L326" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M326" t="n">
-        <v>651</v>
+        <v>371</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23847,11 +23847,11 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P326" t="n">
-        <v>651</v>
+        <v>371</v>
       </c>
       <c r="Q326" t="n">
         <v>1</v>
@@ -23897,20 +23897,20 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J327" t="n">
-        <v>5500</v>
+        <v>15500</v>
       </c>
       <c r="K327" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L327" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M327" t="n">
-        <v>325</v>
+        <v>524</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>325</v>
+        <v>524</v>
       </c>
       <c r="Q327" t="n">
         <v>1</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23973,16 +23973,16 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="K328" t="n">
+        <v>600</v>
+      </c>
+      <c r="L328" t="n">
         <v>700</v>
       </c>
-      <c r="L328" t="n">
-        <v>800</v>
-      </c>
       <c r="M328" t="n">
-        <v>751</v>
+        <v>651</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23991,11 +23991,11 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P328" t="n">
-        <v>751</v>
+        <v>651</v>
       </c>
       <c r="Q328" t="n">
         <v>1</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="K329" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L329" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M329" t="n">
-        <v>464</v>
+        <v>325</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>464</v>
+        <v>325</v>
       </c>
       <c r="Q329" t="n">
         <v>1</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24117,7 +24117,7 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>7900</v>
+        <v>6500</v>
       </c>
       <c r="K330" t="n">
         <v>700</v>
@@ -24126,7 +24126,7 @@
         <v>800</v>
       </c>
       <c r="M330" t="n">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="Q330" t="n">
         <v>1</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K331" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L331" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M331" t="n">
-        <v>600</v>
+        <v>464</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>600</v>
+        <v>464</v>
       </c>
       <c r="Q331" t="n">
         <v>1</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24261,16 +24261,16 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>16200</v>
+        <v>7900</v>
       </c>
       <c r="K332" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L332" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M332" t="n">
-        <v>442</v>
+        <v>750</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>442</v>
+        <v>750</v>
       </c>
       <c r="Q332" t="n">
         <v>1</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24329,20 +24329,20 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J333" t="n">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="K333" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L333" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M333" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24351,11 +24351,11 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P333" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q333" t="n">
         <v>1</v>
@@ -24401,20 +24401,20 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J334" t="n">
-        <v>3200</v>
+        <v>16200</v>
       </c>
       <c r="K334" t="n">
         <v>400</v>
       </c>
       <c r="L334" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M334" t="n">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="Q334" t="n">
         <v>1</v>
@@ -24473,20 +24473,20 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J335" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="K335" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L335" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M335" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24545,20 +24545,20 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J336" t="n">
-        <v>21300</v>
+        <v>3200</v>
       </c>
       <c r="K336" t="n">
         <v>400</v>
       </c>
       <c r="L336" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M336" t="n">
-        <v>495</v>
+        <v>400</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>495</v>
+        <v>400</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>7000</v>
+        <v>2700</v>
       </c>
       <c r="K337" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L337" t="n">
         <v>400</v>
       </c>
       <c r="M337" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24639,11 +24639,11 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P337" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="Q337" t="n">
         <v>1</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -24693,16 +24693,16 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>6100</v>
+        <v>21300</v>
       </c>
       <c r="K338" t="n">
+        <v>400</v>
+      </c>
+      <c r="L338" t="n">
         <v>600</v>
       </c>
-      <c r="L338" t="n">
-        <v>700</v>
-      </c>
       <c r="M338" t="n">
-        <v>650</v>
+        <v>495</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>650</v>
+        <v>495</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -24765,16 +24765,16 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>3400</v>
+        <v>7000</v>
       </c>
       <c r="K339" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L339" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M339" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="Q339" t="n">
         <v>1</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>19700</v>
+        <v>6100</v>
       </c>
       <c r="K340" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L340" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M340" t="n">
-        <v>443</v>
+        <v>650</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>443</v>
+        <v>650</v>
       </c>
       <c r="Q340" t="n">
         <v>1</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -24909,16 +24909,16 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>5300</v>
+        <v>3400</v>
       </c>
       <c r="K341" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L341" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M341" t="n">
-        <v>326</v>
+        <v>500</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>326</v>
+        <v>500</v>
       </c>
       <c r="Q341" t="n">
         <v>1</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -24981,16 +24981,16 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>14700</v>
+        <v>19700</v>
       </c>
       <c r="K342" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L342" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M342" t="n">
-        <v>372</v>
+        <v>443</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>372</v>
+        <v>443</v>
       </c>
       <c r="Q342" t="n">
         <v>1</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -25053,16 +25053,16 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>4400</v>
+        <v>5300</v>
       </c>
       <c r="K343" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L343" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M343" t="n">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="Q343" t="n">
         <v>1</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44448</v>
+        <v>44372</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -25125,16 +25125,16 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>16400</v>
+        <v>14700</v>
       </c>
       <c r="K344" t="n">
         <v>350</v>
       </c>
       <c r="L344" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M344" t="n">
-        <v>422</v>
+        <v>372</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>422</v>
+        <v>372</v>
       </c>
       <c r="Q344" t="n">
         <v>1</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44448</v>
+        <v>44372</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -25197,16 +25197,16 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>6700</v>
+        <v>4400</v>
       </c>
       <c r="K345" t="n">
         <v>250</v>
       </c>
       <c r="L345" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="M345" t="n">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -25269,16 +25269,16 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>14000</v>
+        <v>16400</v>
       </c>
       <c r="K346" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="L346" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M346" t="n">
-        <v>846</v>
+        <v>422</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>846</v>
+        <v>422</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>4500</v>
+        <v>6700</v>
       </c>
       <c r="K347" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L347" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M347" t="n">
-        <v>600</v>
+        <v>275</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>600</v>
+        <v>275</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -25413,16 +25413,16 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>16700</v>
+        <v>14000</v>
       </c>
       <c r="K348" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L348" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M348" t="n">
-        <v>531</v>
+        <v>846</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>531</v>
+        <v>846</v>
       </c>
       <c r="Q348" t="n">
         <v>1</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -25481,20 +25481,20 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J349" t="n">
-        <v>5600</v>
+        <v>4500</v>
       </c>
       <c r="K349" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L349" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M349" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25503,11 +25503,11 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P349" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -25553,20 +25553,20 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J350" t="n">
-        <v>6100</v>
+        <v>16700</v>
       </c>
       <c r="K350" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L350" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M350" t="n">
-        <v>372</v>
+        <v>531</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>372</v>
+        <v>531</v>
       </c>
       <c r="Q350" t="n">
         <v>1</v>
@@ -25625,20 +25625,20 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J351" t="n">
-        <v>2000</v>
+        <v>5600</v>
       </c>
       <c r="K351" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L351" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M351" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -25697,20 +25697,20 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J352" t="n">
-        <v>8700</v>
+        <v>6100</v>
       </c>
       <c r="K352" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L352" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M352" t="n">
-        <v>538</v>
+        <v>372</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>538</v>
+        <v>372</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -25773,7 +25773,7 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>3200</v>
+        <v>2000</v>
       </c>
       <c r="K353" t="n">
         <v>400</v>
@@ -25791,7 +25791,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P353" t="n">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -25845,16 +25845,16 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>7000</v>
+        <v>8700</v>
       </c>
       <c r="K354" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L354" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M354" t="n">
-        <v>750</v>
+        <v>538</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>750</v>
+        <v>538</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -25917,16 +25917,16 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K355" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L355" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M355" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q355" t="n">
         <v>1</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -25989,16 +25989,16 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>15900</v>
+        <v>7000</v>
       </c>
       <c r="K356" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L356" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M356" t="n">
-        <v>531</v>
+        <v>750</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>531</v>
+        <v>750</v>
       </c>
       <c r="Q356" t="n">
         <v>1</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -26057,20 +26057,20 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J357" t="n">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="K357" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L357" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M357" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26079,11 +26079,11 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P357" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q357" t="n">
         <v>1</v>
@@ -26129,20 +26129,20 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J358" t="n">
-        <v>6300</v>
+        <v>15900</v>
       </c>
       <c r="K358" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L358" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M358" t="n">
-        <v>360</v>
+        <v>531</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>360</v>
+        <v>531</v>
       </c>
       <c r="Q358" t="n">
         <v>1</v>
@@ -26201,20 +26201,20 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J359" t="n">
-        <v>1800</v>
+        <v>3300</v>
       </c>
       <c r="K359" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L359" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M359" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q359" t="n">
         <v>1</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -26273,20 +26273,20 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J360" t="n">
-        <v>76300</v>
+        <v>6300</v>
       </c>
       <c r="K360" t="n">
+        <v>300</v>
+      </c>
+      <c r="L360" t="n">
         <v>400</v>
       </c>
-      <c r="L360" t="n">
-        <v>500</v>
-      </c>
       <c r="M360" t="n">
-        <v>441</v>
+        <v>360</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>441</v>
+        <v>360</v>
       </c>
       <c r="Q360" t="n">
         <v>1</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -26349,16 +26349,16 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>25400</v>
+        <v>1800</v>
       </c>
       <c r="K361" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L361" t="n">
         <v>400</v>
       </c>
       <c r="M361" t="n">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26367,11 +26367,11 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P361" t="n">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="Q361" t="n">
         <v>1</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -26421,16 +26421,16 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>14000</v>
+        <v>76300</v>
       </c>
       <c r="K362" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L362" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M362" t="n">
-        <v>846</v>
+        <v>441</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>846</v>
+        <v>441</v>
       </c>
       <c r="Q362" t="n">
         <v>1</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -26493,16 +26493,16 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>5000</v>
+        <v>25400</v>
       </c>
       <c r="K363" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L363" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M363" t="n">
-        <v>600</v>
+        <v>357</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>600</v>
+        <v>357</v>
       </c>
       <c r="Q363" t="n">
         <v>1</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44377</v>
+        <v>44242</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -26565,16 +26565,16 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>19100</v>
+        <v>14000</v>
       </c>
       <c r="K364" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L364" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M364" t="n">
-        <v>443</v>
+        <v>846</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>443</v>
+        <v>846</v>
       </c>
       <c r="Q364" t="n">
         <v>1</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44377</v>
+        <v>44242</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -26637,16 +26637,16 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="K365" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L365" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M365" t="n">
-        <v>326</v>
+        <v>600</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>326</v>
+        <v>600</v>
       </c>
       <c r="Q365" t="n">
         <v>1</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -26709,7 +26709,7 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>22000</v>
+        <v>19100</v>
       </c>
       <c r="K366" t="n">
         <v>400</v>
@@ -26718,7 +26718,7 @@
         <v>500</v>
       </c>
       <c r="M366" t="n">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Q366" t="n">
         <v>1</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -26781,16 +26781,16 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>6600</v>
+        <v>5300</v>
       </c>
       <c r="K367" t="n">
         <v>300</v>
       </c>
       <c r="L367" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M367" t="n">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="Q367" t="n">
         <v>1</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>20100</v>
+        <v>22000</v>
       </c>
       <c r="K368" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L368" t="n">
         <v>500</v>
       </c>
       <c r="M368" t="n">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="Q368" t="n">
         <v>1</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -26921,20 +26921,20 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J369" t="n">
-        <v>2300</v>
+        <v>6600</v>
       </c>
       <c r="K369" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L369" t="n">
         <v>400</v>
       </c>
       <c r="M369" t="n">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26943,11 +26943,11 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P369" t="n">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="Q369" t="n">
         <v>1</v>
@@ -26993,20 +26993,20 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J370" t="n">
-        <v>6300</v>
+        <v>20100</v>
       </c>
       <c r="K370" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="L370" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M370" t="n">
-        <v>251</v>
+        <v>430</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>251</v>
+        <v>430</v>
       </c>
       <c r="Q370" t="n">
         <v>1</v>
@@ -27065,20 +27065,20 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J371" t="n">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="K371" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L371" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M371" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q371" t="n">
         <v>1</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -27137,20 +27137,20 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J372" t="n">
-        <v>17100</v>
+        <v>6300</v>
       </c>
       <c r="K372" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L372" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M372" t="n">
-        <v>597</v>
+        <v>251</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>597</v>
+        <v>251</v>
       </c>
       <c r="Q372" t="n">
         <v>1</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -27213,16 +27213,16 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>7400</v>
+        <v>1200</v>
       </c>
       <c r="K373" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L373" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M373" t="n">
-        <v>454</v>
+        <v>300</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27231,11 +27231,11 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P373" t="n">
-        <v>454</v>
+        <v>300</v>
       </c>
       <c r="Q373" t="n">
         <v>1</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -27285,16 +27285,16 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>20100</v>
+        <v>17100</v>
       </c>
       <c r="K374" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L374" t="n">
         <v>700</v>
       </c>
       <c r="M374" t="n">
-        <v>652</v>
+        <v>597</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>652</v>
+        <v>597</v>
       </c>
       <c r="Q374" t="n">
         <v>1</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -27357,16 +27357,16 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>7000</v>
+        <v>7400</v>
       </c>
       <c r="K375" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L375" t="n">
         <v>500</v>
       </c>
       <c r="M375" t="n">
-        <v>500</v>
+        <v>454</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>500</v>
+        <v>454</v>
       </c>
       <c r="Q375" t="n">
         <v>1</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -27429,16 +27429,16 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>15300</v>
+        <v>20100</v>
       </c>
       <c r="K376" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L376" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M376" t="n">
-        <v>527</v>
+        <v>652</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>527</v>
+        <v>652</v>
       </c>
       <c r="Q376" t="n">
         <v>1</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27497,11 +27497,11 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J377" t="n">
-        <v>4400</v>
+        <v>7000</v>
       </c>
       <c r="K377" t="n">
         <v>500</v>
@@ -27519,7 +27519,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P377" t="n">
@@ -27569,20 +27569,20 @@
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J378" t="n">
-        <v>5900</v>
+        <v>15300</v>
       </c>
       <c r="K378" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L378" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M378" t="n">
-        <v>354</v>
+        <v>527</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>354</v>
+        <v>527</v>
       </c>
       <c r="Q378" t="n">
         <v>1</v>
@@ -27641,20 +27641,20 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J379" t="n">
-        <v>2800</v>
+        <v>4400</v>
       </c>
       <c r="K379" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L379" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M379" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q379" t="n">
         <v>1</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -27713,20 +27713,20 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J380" t="n">
-        <v>11600</v>
+        <v>5900</v>
       </c>
       <c r="K380" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L380" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M380" t="n">
-        <v>549</v>
+        <v>354</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>549</v>
+        <v>354</v>
       </c>
       <c r="Q380" t="n">
         <v>1</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -27785,20 +27785,20 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J381" t="n">
-        <v>7200</v>
+        <v>2800</v>
       </c>
       <c r="K381" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L381" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M381" t="n">
-        <v>653</v>
+        <v>400</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27807,11 +27807,11 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P381" t="n">
-        <v>653</v>
+        <v>400</v>
       </c>
       <c r="Q381" t="n">
         <v>1</v>
@@ -27857,20 +27857,20 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>2800</v>
+        <v>11600</v>
       </c>
       <c r="K382" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L382" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M382" t="n">
-        <v>300</v>
+        <v>549</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>300</v>
+        <v>549</v>
       </c>
       <c r="Q382" t="n">
         <v>1</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -27933,16 +27933,16 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>13700</v>
+        <v>7200</v>
       </c>
       <c r="K383" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L383" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M383" t="n">
-        <v>550</v>
+        <v>653</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27951,11 +27951,11 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P383" t="n">
-        <v>550</v>
+        <v>653</v>
       </c>
       <c r="Q383" t="n">
         <v>1</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -28005,16 +28005,16 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="K384" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L384" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M384" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q384" t="n">
         <v>1</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -28077,16 +28077,16 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>27300</v>
+        <v>13700</v>
       </c>
       <c r="K385" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L385" t="n">
         <v>600</v>
       </c>
       <c r="M385" t="n">
-        <v>508</v>
+        <v>550</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>508</v>
+        <v>550</v>
       </c>
       <c r="Q385" t="n">
         <v>1</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -28149,16 +28149,16 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>9700</v>
+        <v>3200</v>
       </c>
       <c r="K386" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L386" t="n">
         <v>400</v>
       </c>
       <c r="M386" t="n">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="Q386" t="n">
         <v>1</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -28221,16 +28221,16 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>5500</v>
+        <v>27300</v>
       </c>
       <c r="K387" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L387" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M387" t="n">
-        <v>800</v>
+        <v>508</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>800</v>
+        <v>508</v>
       </c>
       <c r="Q387" t="n">
         <v>1</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -28293,16 +28293,16 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>2200</v>
+        <v>9700</v>
       </c>
       <c r="K388" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L388" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M388" t="n">
-        <v>600</v>
+        <v>354</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>600</v>
+        <v>354</v>
       </c>
       <c r="Q388" t="n">
         <v>1</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -28365,16 +28365,16 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>16700</v>
+        <v>5500</v>
       </c>
       <c r="K389" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L389" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M389" t="n">
-        <v>441</v>
+        <v>800</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>441</v>
+        <v>800</v>
       </c>
       <c r="Q389" t="n">
         <v>1</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -28437,16 +28437,16 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>4800</v>
+        <v>2200</v>
       </c>
       <c r="K390" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L390" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M390" t="n">
-        <v>376</v>
+        <v>600</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>376</v>
+        <v>600</v>
       </c>
       <c r="Q390" t="n">
         <v>1</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -28509,7 +28509,7 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>15600</v>
+        <v>16700</v>
       </c>
       <c r="K391" t="n">
         <v>400</v>
@@ -28518,7 +28518,7 @@
         <v>500</v>
       </c>
       <c r="M391" t="n">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="Q391" t="n">
         <v>1</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28581,16 +28581,16 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>5200</v>
+        <v>4800</v>
       </c>
       <c r="K392" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L392" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M392" t="n">
-        <v>273</v>
+        <v>376</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>273</v>
+        <v>376</v>
       </c>
       <c r="Q392" t="n">
         <v>1</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -28653,16 +28653,16 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>28300</v>
+        <v>15600</v>
       </c>
       <c r="K393" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L393" t="n">
         <v>500</v>
       </c>
       <c r="M393" t="n">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="Q393" t="n">
         <v>1</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -28725,7 +28725,7 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="K394" t="n">
         <v>250</v>
@@ -28734,7 +28734,7 @@
         <v>300</v>
       </c>
       <c r="M394" t="n">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q394" t="n">
         <v>1</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -28797,16 +28797,16 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>16000</v>
+        <v>28300</v>
       </c>
       <c r="K395" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L395" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M395" t="n">
-        <v>741</v>
+        <v>423</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>741</v>
+        <v>423</v>
       </c>
       <c r="Q395" t="n">
         <v>1</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28869,16 +28869,16 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="K396" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L396" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M396" t="n">
-        <v>500</v>
+        <v>275</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>500</v>
+        <v>275</v>
       </c>
       <c r="Q396" t="n">
         <v>1</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28941,16 +28941,16 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>33300</v>
+        <v>16000</v>
       </c>
       <c r="K397" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L397" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M397" t="n">
-        <v>518</v>
+        <v>741</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>518</v>
+        <v>741</v>
       </c>
       <c r="Q397" t="n">
         <v>1</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -29013,16 +29013,16 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="K398" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L398" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M398" t="n">
-        <v>374</v>
+        <v>500</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>374</v>
+        <v>500</v>
       </c>
       <c r="Q398" t="n">
         <v>1</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -29085,16 +29085,16 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>20400</v>
+        <v>33300</v>
       </c>
       <c r="K399" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L399" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M399" t="n">
-        <v>369</v>
+        <v>518</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>369</v>
+        <v>518</v>
       </c>
       <c r="Q399" t="n">
         <v>1</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -29157,16 +29157,16 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="K400" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L400" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M400" t="n">
-        <v>277</v>
+        <v>374</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>277</v>
+        <v>374</v>
       </c>
       <c r="Q400" t="n">
         <v>1</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -29229,16 +29229,16 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>9100</v>
+        <v>20400</v>
       </c>
       <c r="K401" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L401" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M401" t="n">
-        <v>436</v>
+        <v>369</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>436</v>
+        <v>369</v>
       </c>
       <c r="Q401" t="n">
         <v>1</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -29301,7 +29301,7 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>4700</v>
+        <v>6000</v>
       </c>
       <c r="K402" t="n">
         <v>250</v>
@@ -29310,7 +29310,7 @@
         <v>300</v>
       </c>
       <c r="M402" t="n">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Q402" t="n">
         <v>1</v>
@@ -29369,20 +29369,20 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J403" t="n">
-        <v>300</v>
+        <v>9100</v>
       </c>
       <c r="K403" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L403" t="n">
         <v>500</v>
       </c>
       <c r="M403" t="n">
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29391,11 +29391,11 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P403" t="n">
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="Q403" t="n">
         <v>1</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -29441,20 +29441,20 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J404" t="n">
-        <v>8000</v>
+        <v>4700</v>
       </c>
       <c r="K404" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="L404" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M404" t="n">
-        <v>472</v>
+        <v>279</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>472</v>
+        <v>279</v>
       </c>
       <c r="Q404" t="n">
         <v>1</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29517,16 +29517,16 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>6500</v>
+        <v>300</v>
       </c>
       <c r="K405" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L405" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M405" t="n">
-        <v>373</v>
+        <v>500</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29535,11 +29535,11 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P405" t="n">
-        <v>373</v>
+        <v>500</v>
       </c>
       <c r="Q405" t="n">
         <v>1</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29589,16 +29589,16 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>10300</v>
+        <v>8000</v>
       </c>
       <c r="K406" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="L406" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="M406" t="n">
-        <v>1091</v>
+        <v>472</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>1091</v>
+        <v>472</v>
       </c>
       <c r="Q406" t="n">
         <v>1</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -29661,16 +29661,16 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="K407" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L407" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M407" t="n">
-        <v>741</v>
+        <v>373</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>741</v>
+        <v>373</v>
       </c>
       <c r="Q407" t="n">
         <v>1</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29733,16 +29733,16 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>25200</v>
+        <v>10300</v>
       </c>
       <c r="K408" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L408" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="M408" t="n">
-        <v>549</v>
+        <v>1091</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>549</v>
+        <v>1091</v>
       </c>
       <c r="Q408" t="n">
         <v>1</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29805,16 +29805,16 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>8400</v>
+        <v>11000</v>
       </c>
       <c r="K409" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L409" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M409" t="n">
-        <v>377</v>
+        <v>741</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>377</v>
+        <v>741</v>
       </c>
       <c r="Q409" t="n">
         <v>1</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29877,7 +29877,7 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>13800</v>
+        <v>25200</v>
       </c>
       <c r="K410" t="n">
         <v>500</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29945,20 +29945,20 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J411" t="n">
-        <v>2300</v>
+        <v>8400</v>
       </c>
       <c r="K411" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L411" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M411" t="n">
-        <v>700</v>
+        <v>377</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29967,11 +29967,11 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P411" t="n">
-        <v>700</v>
+        <v>377</v>
       </c>
       <c r="Q411" t="n">
         <v>1</v>
@@ -30017,20 +30017,20 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J412" t="n">
-        <v>3600</v>
+        <v>13800</v>
       </c>
       <c r="K412" t="n">
         <v>500</v>
       </c>
       <c r="L412" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M412" t="n">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="Q412" t="n">
         <v>1</v>
@@ -30089,20 +30089,20 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J413" t="n">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="K413" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L413" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M413" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q413" t="n">
         <v>1</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -30161,20 +30161,20 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>9000</v>
+        <v>3600</v>
       </c>
       <c r="K414" t="n">
         <v>500</v>
       </c>
       <c r="L414" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M414" t="n">
-        <v>536</v>
+        <v>500</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>536</v>
+        <v>500</v>
       </c>
       <c r="Q414" t="n">
         <v>1</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30233,11 +30233,11 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="K415" t="n">
         <v>500</v>
@@ -30305,20 +30305,20 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J416" t="n">
-        <v>3400</v>
+        <v>9000</v>
       </c>
       <c r="K416" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L416" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M416" t="n">
-        <v>400</v>
+        <v>536</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>400</v>
+        <v>536</v>
       </c>
       <c r="Q416" t="n">
         <v>1</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -30381,16 +30381,16 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>11300</v>
+        <v>2800</v>
       </c>
       <c r="K417" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L417" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M417" t="n">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30399,11 +30399,11 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P417" t="n">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="Q417" t="n">
         <v>1</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -30453,16 +30453,16 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>3800</v>
+        <v>3400</v>
       </c>
       <c r="K418" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L418" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M418" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="Q418" t="n">
         <v>1</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -30525,16 +30525,16 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>19400</v>
+        <v>11300</v>
       </c>
       <c r="K419" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L419" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M419" t="n">
-        <v>609</v>
+        <v>379</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>609</v>
+        <v>379</v>
       </c>
       <c r="Q419" t="n">
         <v>1</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -30597,16 +30597,16 @@
         </is>
       </c>
       <c r="J420" t="n">
-        <v>5700</v>
+        <v>3800</v>
       </c>
       <c r="K420" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="L420" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M420" t="n">
-        <v>473</v>
+        <v>250</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>473</v>
+        <v>250</v>
       </c>
       <c r="Q420" t="n">
         <v>1</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30669,16 +30669,16 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>14600</v>
+        <v>19400</v>
       </c>
       <c r="K421" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L421" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M421" t="n">
-        <v>542</v>
+        <v>609</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>542</v>
+        <v>609</v>
       </c>
       <c r="Q421" t="n">
         <v>1</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -30741,16 +30741,16 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>5400</v>
+        <v>5700</v>
       </c>
       <c r="K422" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L422" t="n">
         <v>500</v>
       </c>
       <c r="M422" t="n">
-        <v>500</v>
+        <v>473</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>500</v>
+        <v>473</v>
       </c>
       <c r="Q422" t="n">
         <v>1</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -30813,7 +30813,7 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>10200</v>
+        <v>14600</v>
       </c>
       <c r="K423" t="n">
         <v>500</v>
@@ -30822,7 +30822,7 @@
         <v>600</v>
       </c>
       <c r="M423" t="n">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="Q423" t="n">
         <v>1</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30885,16 +30885,16 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>2900</v>
+        <v>5400</v>
       </c>
       <c r="K424" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L424" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M424" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q424" t="n">
         <v>1</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -30957,16 +30957,16 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>7000</v>
+        <v>10200</v>
       </c>
       <c r="K425" t="n">
+        <v>500</v>
+      </c>
+      <c r="L425" t="n">
         <v>600</v>
       </c>
-      <c r="L425" t="n">
-        <v>700</v>
-      </c>
       <c r="M425" t="n">
-        <v>650</v>
+        <v>566</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>650</v>
+        <v>566</v>
       </c>
       <c r="Q425" t="n">
         <v>1</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="K426" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L426" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M426" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q426" t="n">
         <v>1</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -31101,16 +31101,16 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>8400</v>
+        <v>7000</v>
       </c>
       <c r="K427" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L427" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M427" t="n">
-        <v>473</v>
+        <v>650</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>473</v>
+        <v>650</v>
       </c>
       <c r="Q427" t="n">
         <v>1</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -31169,20 +31169,20 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="K428" t="n">
         <v>500</v>
       </c>
       <c r="L428" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M428" t="n">
-        <v>558</v>
+        <v>500</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31191,11 +31191,11 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P428" t="n">
-        <v>558</v>
+        <v>500</v>
       </c>
       <c r="Q428" t="n">
         <v>1</v>
@@ -31241,20 +31241,20 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J429" t="n">
-        <v>3300</v>
+        <v>8400</v>
       </c>
       <c r="K429" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L429" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M429" t="n">
-        <v>350</v>
+        <v>473</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>350</v>
+        <v>473</v>
       </c>
       <c r="Q429" t="n">
         <v>1</v>
@@ -31313,20 +31313,20 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J430" t="n">
-        <v>1500</v>
+        <v>6000</v>
       </c>
       <c r="K430" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L430" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M430" t="n">
-        <v>400</v>
+        <v>558</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>400</v>
+        <v>558</v>
       </c>
       <c r="Q430" t="n">
         <v>1</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -31385,20 +31385,20 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J431" t="n">
-        <v>12000</v>
+        <v>3300</v>
       </c>
       <c r="K431" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="L431" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="M431" t="n">
-        <v>759</v>
+        <v>350</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>759</v>
+        <v>350</v>
       </c>
       <c r="Q431" t="n">
         <v>1</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -31461,16 +31461,16 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>4700</v>
+        <v>1500</v>
       </c>
       <c r="K432" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L432" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M432" t="n">
-        <v>583</v>
+        <v>400</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31479,11 +31479,11 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P432" t="n">
-        <v>583</v>
+        <v>400</v>
       </c>
       <c r="Q432" t="n">
         <v>1</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -31533,16 +31533,16 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="K433" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="L433" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="M433" t="n">
-        <v>1049</v>
+        <v>759</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>1049</v>
+        <v>759</v>
       </c>
       <c r="Q433" t="n">
         <v>1</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -31605,16 +31605,16 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>2800</v>
+        <v>4700</v>
       </c>
       <c r="K434" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L434" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M434" t="n">
-        <v>800</v>
+        <v>583</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>800</v>
+        <v>583</v>
       </c>
       <c r="Q434" t="n">
         <v>1</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -31677,16 +31677,16 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>2700</v>
+        <v>6500</v>
       </c>
       <c r="K435" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L435" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="M435" t="n">
-        <v>600</v>
+        <v>1049</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31695,11 +31695,11 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P435" t="n">
-        <v>600</v>
+        <v>1049</v>
       </c>
       <c r="Q435" t="n">
         <v>1</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -31749,16 +31749,16 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="K436" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L436" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M436" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31767,11 +31767,11 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P436" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q436" t="n">
         <v>1</v>
@@ -31817,20 +31817,20 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J437" t="n">
-        <v>3300</v>
+        <v>2700</v>
       </c>
       <c r="K437" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L437" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M437" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="Q437" t="n">
         <v>1</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -31889,20 +31889,20 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J438" t="n">
-        <v>5200</v>
+        <v>2100</v>
       </c>
       <c r="K438" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L438" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M438" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31911,11 +31911,11 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P438" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="Q438" t="n">
         <v>1</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -31961,20 +31961,20 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J439" t="n">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="K439" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="L439" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M439" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31983,11 +31983,11 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P439" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="Q439" t="n">
         <v>1</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -32037,16 +32037,16 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>12500</v>
+        <v>5200</v>
       </c>
       <c r="K440" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L440" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M440" t="n">
-        <v>554</v>
+        <v>750</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>554</v>
+        <v>750</v>
       </c>
       <c r="Q440" t="n">
         <v>1</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -32109,16 +32109,16 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="K441" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L441" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M441" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q441" t="n">
         <v>1</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -32181,16 +32181,16 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>6100</v>
+        <v>12500</v>
       </c>
       <c r="K442" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L442" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M442" t="n">
-        <v>750</v>
+        <v>554</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>750</v>
+        <v>554</v>
       </c>
       <c r="Q442" t="n">
         <v>1</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -32253,16 +32253,16 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="K443" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L443" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M443" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q443" t="n">
         <v>1</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -32325,7 +32325,7 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>7900</v>
+        <v>6100</v>
       </c>
       <c r="K444" t="n">
         <v>700</v>
@@ -32334,7 +32334,7 @@
         <v>800</v>
       </c>
       <c r="M444" t="n">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="Q444" t="n">
         <v>1</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -32393,20 +32393,20 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>6800</v>
+        <v>2500</v>
       </c>
       <c r="K445" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L445" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M445" t="n">
-        <v>747</v>
+        <v>600</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32415,11 +32415,11 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P445" t="n">
-        <v>747</v>
+        <v>600</v>
       </c>
       <c r="Q445" t="n">
         <v>1</v>
@@ -32465,20 +32465,20 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J446" t="n">
-        <v>2500</v>
+        <v>7900</v>
       </c>
       <c r="K446" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L446" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M446" t="n">
-        <v>500</v>
+        <v>757</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>500</v>
+        <v>757</v>
       </c>
       <c r="Q446" t="n">
         <v>1</v>
@@ -32537,20 +32537,20 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>2300</v>
+        <v>6800</v>
       </c>
       <c r="K447" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L447" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M447" t="n">
-        <v>600</v>
+        <v>747</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>600</v>
+        <v>747</v>
       </c>
       <c r="Q447" t="n">
         <v>1</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -32609,20 +32609,20 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J448" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="K448" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L448" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M448" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q448" t="n">
         <v>1</v>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -32685,7 +32685,7 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="K449" t="n">
         <v>600</v>
@@ -32703,7 +32703,7 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P449" t="n">
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -32757,16 +32757,16 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>14800</v>
+        <v>3500</v>
       </c>
       <c r="K450" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L450" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M450" t="n">
-        <v>414</v>
+        <v>700</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>414</v>
+        <v>700</v>
       </c>
       <c r="Q450" t="n">
         <v>1</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -32829,16 +32829,16 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>5200</v>
+        <v>2800</v>
       </c>
       <c r="K451" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="L451" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M451" t="n">
-        <v>277</v>
+        <v>600</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>277</v>
+        <v>600</v>
       </c>
       <c r="Q451" t="n">
         <v>1</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -32901,16 +32901,16 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>8700</v>
+        <v>14800</v>
       </c>
       <c r="K452" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L452" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M452" t="n">
-        <v>511</v>
+        <v>414</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>511</v>
+        <v>414</v>
       </c>
       <c r="Q452" t="n">
         <v>1</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -32973,16 +32973,16 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>4000</v>
+        <v>5200</v>
       </c>
       <c r="K453" t="n">
         <v>250</v>
       </c>
       <c r="L453" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M453" t="n">
-        <v>355</v>
+        <v>277</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>355</v>
+        <v>277</v>
       </c>
       <c r="Q453" t="n">
         <v>1</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -33045,16 +33045,16 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>16300</v>
+        <v>8700</v>
       </c>
       <c r="K454" t="n">
         <v>400</v>
       </c>
       <c r="L454" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M454" t="n">
-        <v>442</v>
+        <v>511</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>442</v>
+        <v>511</v>
       </c>
       <c r="Q454" t="n">
         <v>1</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -33117,34 +33117,178 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>6100</v>
+        <v>4000</v>
       </c>
       <c r="K455" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="L455" t="n">
         <v>400</v>
       </c>
       <c r="M455" t="n">
+        <v>355</v>
+      </c>
+      <c r="N455" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O455" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P455" t="n">
+        <v>355</v>
+      </c>
+      <c r="Q455" t="n">
+        <v>1</v>
+      </c>
+      <c r="R455" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>6</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D456" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E456" t="n">
+        <v>13</v>
+      </c>
+      <c r="F456" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I456" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J456" t="n">
+        <v>16300</v>
+      </c>
+      <c r="K456" t="n">
+        <v>400</v>
+      </c>
+      <c r="L456" t="n">
+        <v>500</v>
+      </c>
+      <c r="M456" t="n">
+        <v>442</v>
+      </c>
+      <c r="N456" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O456" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P456" t="n">
+        <v>442</v>
+      </c>
+      <c r="Q456" t="n">
+        <v>1</v>
+      </c>
+      <c r="R456" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>6</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D457" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E457" t="n">
+        <v>13</v>
+      </c>
+      <c r="F457" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I457" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J457" t="n">
+        <v>6100</v>
+      </c>
+      <c r="K457" t="n">
+        <v>350</v>
+      </c>
+      <c r="L457" t="n">
+        <v>400</v>
+      </c>
+      <c r="M457" t="n">
         <v>378</v>
       </c>
-      <c r="N455" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O455" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P455" t="n">
+      <c r="N457" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O457" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P457" t="n">
         <v>378</v>
       </c>
-      <c r="Q455" t="n">
-        <v>1</v>
-      </c>
-      <c r="R455" t="inlineStr">
+      <c r="Q457" t="n">
+        <v>1</v>
+      </c>
+      <c r="R457" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R459"/>
+  <dimension ref="A1:R461"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>24300</v>
+        <v>17100</v>
       </c>
       <c r="K280" t="n">
+        <v>500</v>
+      </c>
+      <c r="L280" t="n">
         <v>600</v>
       </c>
-      <c r="L280" t="n">
-        <v>800</v>
-      </c>
       <c r="M280" t="n">
-        <v>713</v>
+        <v>533</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>713</v>
+        <v>533</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>9900</v>
+        <v>8000</v>
       </c>
       <c r="K281" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L281" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M281" t="n">
-        <v>566</v>
+        <v>378</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>566</v>
+        <v>378</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>19300</v>
+        <v>24300</v>
       </c>
       <c r="K282" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L282" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M282" t="n">
-        <v>430</v>
+        <v>713</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>430</v>
+        <v>713</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>6600</v>
+        <v>9900</v>
       </c>
       <c r="K283" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L283" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M283" t="n">
-        <v>352</v>
+        <v>566</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>352</v>
+        <v>566</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>16600</v>
+        <v>19300</v>
       </c>
       <c r="K284" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L284" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M284" t="n">
-        <v>497</v>
+        <v>430</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>497</v>
+        <v>430</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>7000</v>
+        <v>6600</v>
       </c>
       <c r="K285" t="n">
+        <v>300</v>
+      </c>
+      <c r="L285" t="n">
         <v>400</v>
       </c>
-      <c r="L285" t="n">
-        <v>450</v>
-      </c>
       <c r="M285" t="n">
-        <v>427</v>
+        <v>352</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>427</v>
+        <v>352</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>24800</v>
+        <v>16600</v>
       </c>
       <c r="K286" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L286" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M286" t="n">
-        <v>617</v>
+        <v>497</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>617</v>
+        <v>497</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>7900</v>
+        <v>7000</v>
       </c>
       <c r="K287" t="n">
         <v>400</v>
       </c>
       <c r="L287" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M287" t="n">
-        <v>457</v>
+        <v>427</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>457</v>
+        <v>427</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>19000</v>
+        <v>24800</v>
       </c>
       <c r="K288" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L288" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M288" t="n">
-        <v>442</v>
+        <v>617</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>442</v>
+        <v>617</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21165,16 +21165,16 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>5000</v>
+        <v>7900</v>
       </c>
       <c r="K289" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L289" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M289" t="n">
-        <v>324</v>
+        <v>457</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>324</v>
+        <v>457</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21237,16 +21237,16 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>6100</v>
+        <v>19000</v>
       </c>
       <c r="K290" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L290" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M290" t="n">
-        <v>750</v>
+        <v>442</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>750</v>
+        <v>442</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="K291" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L291" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="M291" t="n">
-        <v>600</v>
+        <v>324</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>600</v>
+        <v>324</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21381,7 +21381,7 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>12000</v>
+        <v>6100</v>
       </c>
       <c r="K292" t="n">
         <v>700</v>
@@ -21390,7 +21390,7 @@
         <v>800</v>
       </c>
       <c r="M292" t="n">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="K293" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L293" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M293" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>12300</v>
+        <v>12000</v>
       </c>
       <c r="K294" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L294" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M294" t="n">
-        <v>653</v>
+        <v>748</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>653</v>
+        <v>748</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21593,20 +21593,20 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>6500</v>
+        <v>2600</v>
       </c>
       <c r="K295" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L295" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M295" t="n">
-        <v>749</v>
+        <v>500</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21615,11 +21615,11 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P295" t="n">
-        <v>749</v>
+        <v>500</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21665,20 +21665,20 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>2800</v>
+        <v>12300</v>
       </c>
       <c r="K296" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L296" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M296" t="n">
-        <v>400</v>
+        <v>653</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>400</v>
+        <v>653</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21737,20 +21737,20 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>1800</v>
+        <v>6500</v>
       </c>
       <c r="K297" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L297" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M297" t="n">
-        <v>500</v>
+        <v>749</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>500</v>
+        <v>749</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44445</v>
+        <v>44274</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21809,20 +21809,20 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>6600</v>
+        <v>2800</v>
       </c>
       <c r="K298" t="n">
         <v>400</v>
       </c>
       <c r="L298" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M298" t="n">
-        <v>441</v>
+        <v>400</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21831,11 +21831,11 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>441</v>
+        <v>400</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44445</v>
+        <v>44274</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="K299" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L299" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M299" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21903,11 +21903,11 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P299" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44229</v>
+        <v>44445</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>6100</v>
+        <v>6600</v>
       </c>
       <c r="K300" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L300" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M300" t="n">
-        <v>850</v>
+        <v>441</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21975,11 +21975,11 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P300" t="n">
-        <v>850</v>
+        <v>441</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44229</v>
+        <v>44445</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="K301" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L301" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="M301" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22047,11 +22047,11 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P301" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>16800</v>
+        <v>6100</v>
       </c>
       <c r="K302" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="L302" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M302" t="n">
-        <v>430</v>
+        <v>850</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>430</v>
+        <v>850</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>5600</v>
+        <v>2500</v>
       </c>
       <c r="K303" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="L303" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M303" t="n">
-        <v>279</v>
+        <v>700</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>279</v>
+        <v>700</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>13300</v>
+        <v>16800</v>
       </c>
       <c r="K304" t="n">
+        <v>350</v>
+      </c>
+      <c r="L304" t="n">
         <v>500</v>
       </c>
-      <c r="L304" t="n">
-        <v>600</v>
-      </c>
       <c r="M304" t="n">
-        <v>549</v>
+        <v>430</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>549</v>
+        <v>430</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>4400</v>
+        <v>5600</v>
       </c>
       <c r="K305" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L305" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M305" t="n">
-        <v>400</v>
+        <v>279</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>400</v>
+        <v>279</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>17400</v>
+        <v>13300</v>
       </c>
       <c r="K306" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L306" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M306" t="n">
-        <v>378</v>
+        <v>549</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>378</v>
+        <v>549</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22457,20 +22457,20 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="K307" t="n">
         <v>400</v>
       </c>
       <c r="L307" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M307" t="n">
-        <v>442</v>
+        <v>400</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22479,11 +22479,11 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P307" t="n">
-        <v>442</v>
+        <v>400</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22529,20 +22529,20 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>4200</v>
+        <v>17400</v>
       </c>
       <c r="K308" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L308" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M308" t="n">
-        <v>300</v>
+        <v>378</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>300</v>
+        <v>378</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
@@ -22601,20 +22601,20 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>1600</v>
+        <v>6500</v>
       </c>
       <c r="K309" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L309" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M309" t="n">
-        <v>250</v>
+        <v>442</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>250</v>
+        <v>442</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22673,20 +22673,20 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>18700</v>
+        <v>4200</v>
       </c>
       <c r="K310" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L310" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M310" t="n">
-        <v>557</v>
+        <v>300</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>557</v>
+        <v>300</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>5000</v>
+        <v>1600</v>
       </c>
       <c r="K311" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L311" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="M311" t="n">
-        <v>422</v>
+        <v>250</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22767,11 +22767,11 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P311" t="n">
-        <v>422</v>
+        <v>250</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>15300</v>
+        <v>18700</v>
       </c>
       <c r="K312" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L312" t="n">
         <v>600</v>
       </c>
       <c r="M312" t="n">
-        <v>489</v>
+        <v>557</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>489</v>
+        <v>557</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22889,20 +22889,20 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>6400</v>
+        <v>5000</v>
       </c>
       <c r="K313" t="n">
         <v>400</v>
       </c>
       <c r="L313" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M313" t="n">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22911,11 +22911,11 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P313" t="n">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22961,20 +22961,20 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>5500</v>
+        <v>15300</v>
       </c>
       <c r="K314" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L314" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M314" t="n">
-        <v>325</v>
+        <v>489</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>325</v>
+        <v>489</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23033,20 +23033,20 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>2800</v>
+        <v>6400</v>
       </c>
       <c r="K315" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L315" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M315" t="n">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23105,20 +23105,20 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="K316" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L316" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="M316" t="n">
-        <v>647</v>
+        <v>325</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>647</v>
+        <v>325</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23181,16 +23181,16 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>4500</v>
+        <v>2800</v>
       </c>
       <c r="K317" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L317" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M317" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23199,11 +23199,11 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P317" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="K318" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L318" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M318" t="n">
-        <v>950</v>
+        <v>647</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>950</v>
+        <v>647</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="K319" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L319" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M319" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23397,16 +23397,16 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>16300</v>
+        <v>7000</v>
       </c>
       <c r="K320" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L320" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M320" t="n">
-        <v>471</v>
+        <v>950</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>471</v>
+        <v>950</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23469,16 +23469,16 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>5800</v>
+        <v>2500</v>
       </c>
       <c r="K321" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L321" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M321" t="n">
-        <v>348</v>
+        <v>700</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>348</v>
+        <v>700</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23537,20 +23537,20 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>2000</v>
+        <v>16300</v>
       </c>
       <c r="K322" t="n">
         <v>400</v>
       </c>
       <c r="L322" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M322" t="n">
-        <v>400</v>
+        <v>471</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23559,11 +23559,11 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P322" t="n">
-        <v>400</v>
+        <v>471</v>
       </c>
       <c r="Q322" t="n">
         <v>1</v>
@@ -23609,20 +23609,20 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>1500</v>
+        <v>5800</v>
       </c>
       <c r="K323" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L323" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M323" t="n">
-        <v>500</v>
+        <v>348</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23631,11 +23631,11 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P323" t="n">
-        <v>500</v>
+        <v>348</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23681,20 +23681,20 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J324" t="n">
-        <v>8700</v>
+        <v>2000</v>
       </c>
       <c r="K324" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L324" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M324" t="n">
-        <v>838</v>
+        <v>400</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23703,11 +23703,11 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P324" t="n">
-        <v>838</v>
+        <v>400</v>
       </c>
       <c r="Q324" t="n">
         <v>1</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23753,20 +23753,20 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J325" t="n">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="K325" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L325" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M325" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23775,11 +23775,11 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P325" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>6900</v>
+        <v>8700</v>
       </c>
       <c r="K326" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L326" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M326" t="n">
-        <v>549</v>
+        <v>838</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>549</v>
+        <v>838</v>
       </c>
       <c r="Q326" t="n">
         <v>1</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23897,20 +23897,20 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J327" t="n">
-        <v>3800</v>
+        <v>2700</v>
       </c>
       <c r="K327" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L327" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M327" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23919,11 +23919,11 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P327" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q327" t="n">
         <v>1</v>
@@ -23969,20 +23969,20 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>7900</v>
+        <v>6900</v>
       </c>
       <c r="K328" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L328" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M328" t="n">
-        <v>371</v>
+        <v>549</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>371</v>
+        <v>549</v>
       </c>
       <c r="Q328" t="n">
         <v>1</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>15500</v>
+        <v>3800</v>
       </c>
       <c r="K329" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L329" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M329" t="n">
-        <v>524</v>
+        <v>700</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24063,11 +24063,11 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P329" t="n">
-        <v>524</v>
+        <v>700</v>
       </c>
       <c r="Q329" t="n">
         <v>1</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24113,20 +24113,20 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J330" t="n">
-        <v>6700</v>
+        <v>7900</v>
       </c>
       <c r="K330" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L330" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M330" t="n">
-        <v>651</v>
+        <v>371</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24135,11 +24135,11 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P330" t="n">
-        <v>651</v>
+        <v>371</v>
       </c>
       <c r="Q330" t="n">
         <v>1</v>
@@ -24185,20 +24185,20 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J331" t="n">
-        <v>5500</v>
+        <v>15500</v>
       </c>
       <c r="K331" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L331" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M331" t="n">
-        <v>325</v>
+        <v>524</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>325</v>
+        <v>524</v>
       </c>
       <c r="Q331" t="n">
         <v>1</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24261,16 +24261,16 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="K332" t="n">
+        <v>600</v>
+      </c>
+      <c r="L332" t="n">
         <v>700</v>
       </c>
-      <c r="L332" t="n">
-        <v>800</v>
-      </c>
       <c r="M332" t="n">
-        <v>751</v>
+        <v>651</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24279,11 +24279,11 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P332" t="n">
-        <v>751</v>
+        <v>651</v>
       </c>
       <c r="Q332" t="n">
         <v>1</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24333,16 +24333,16 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="K333" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L333" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M333" t="n">
-        <v>464</v>
+        <v>325</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>464</v>
+        <v>325</v>
       </c>
       <c r="Q333" t="n">
         <v>1</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24405,7 +24405,7 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>7900</v>
+        <v>6500</v>
       </c>
       <c r="K334" t="n">
         <v>700</v>
@@ -24414,7 +24414,7 @@
         <v>800</v>
       </c>
       <c r="M334" t="n">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="Q334" t="n">
         <v>1</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K335" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L335" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M335" t="n">
-        <v>600</v>
+        <v>464</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>600</v>
+        <v>464</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24549,16 +24549,16 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>16200</v>
+        <v>7900</v>
       </c>
       <c r="K336" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L336" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M336" t="n">
-        <v>442</v>
+        <v>750</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>442</v>
+        <v>750</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -24617,20 +24617,20 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J337" t="n">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="K337" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L337" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M337" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24639,11 +24639,11 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P337" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q337" t="n">
         <v>1</v>
@@ -24689,20 +24689,20 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J338" t="n">
-        <v>3200</v>
+        <v>16200</v>
       </c>
       <c r="K338" t="n">
         <v>400</v>
       </c>
       <c r="L338" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M338" t="n">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24761,20 +24761,20 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J339" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="K339" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L339" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M339" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q339" t="n">
         <v>1</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -24833,20 +24833,20 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J340" t="n">
-        <v>21300</v>
+        <v>3200</v>
       </c>
       <c r="K340" t="n">
         <v>400</v>
       </c>
       <c r="L340" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M340" t="n">
-        <v>495</v>
+        <v>400</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>495</v>
+        <v>400</v>
       </c>
       <c r="Q340" t="n">
         <v>1</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -24909,16 +24909,16 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>7000</v>
+        <v>2700</v>
       </c>
       <c r="K341" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L341" t="n">
         <v>400</v>
       </c>
       <c r="M341" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24927,11 +24927,11 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P341" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="Q341" t="n">
         <v>1</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -24981,16 +24981,16 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>6100</v>
+        <v>21300</v>
       </c>
       <c r="K342" t="n">
+        <v>400</v>
+      </c>
+      <c r="L342" t="n">
         <v>600</v>
       </c>
-      <c r="L342" t="n">
-        <v>700</v>
-      </c>
       <c r="M342" t="n">
-        <v>650</v>
+        <v>495</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>650</v>
+        <v>495</v>
       </c>
       <c r="Q342" t="n">
         <v>1</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -25053,16 +25053,16 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>3400</v>
+        <v>7000</v>
       </c>
       <c r="K343" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L343" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M343" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="Q343" t="n">
         <v>1</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -25125,16 +25125,16 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>19700</v>
+        <v>6100</v>
       </c>
       <c r="K344" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L344" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M344" t="n">
-        <v>443</v>
+        <v>650</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>443</v>
+        <v>650</v>
       </c>
       <c r="Q344" t="n">
         <v>1</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -25197,16 +25197,16 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>5300</v>
+        <v>3400</v>
       </c>
       <c r="K345" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L345" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M345" t="n">
-        <v>326</v>
+        <v>500</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>326</v>
+        <v>500</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -25269,16 +25269,16 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>14700</v>
+        <v>19700</v>
       </c>
       <c r="K346" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L346" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M346" t="n">
-        <v>372</v>
+        <v>443</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>372</v>
+        <v>443</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>4400</v>
+        <v>5300</v>
       </c>
       <c r="K347" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L347" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M347" t="n">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44448</v>
+        <v>44372</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -25413,16 +25413,16 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>16400</v>
+        <v>14700</v>
       </c>
       <c r="K348" t="n">
         <v>350</v>
       </c>
       <c r="L348" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M348" t="n">
-        <v>422</v>
+        <v>372</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>422</v>
+        <v>372</v>
       </c>
       <c r="Q348" t="n">
         <v>1</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44448</v>
+        <v>44372</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -25485,16 +25485,16 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>6700</v>
+        <v>4400</v>
       </c>
       <c r="K349" t="n">
         <v>250</v>
       </c>
       <c r="L349" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="M349" t="n">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -25557,16 +25557,16 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>14000</v>
+        <v>16400</v>
       </c>
       <c r="K350" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="L350" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M350" t="n">
-        <v>846</v>
+        <v>422</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>846</v>
+        <v>422</v>
       </c>
       <c r="Q350" t="n">
         <v>1</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>4500</v>
+        <v>6700</v>
       </c>
       <c r="K351" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L351" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M351" t="n">
-        <v>600</v>
+        <v>275</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>600</v>
+        <v>275</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -25701,16 +25701,16 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>16700</v>
+        <v>14000</v>
       </c>
       <c r="K352" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L352" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M352" t="n">
-        <v>531</v>
+        <v>846</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>531</v>
+        <v>846</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -25769,20 +25769,20 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J353" t="n">
-        <v>5600</v>
+        <v>4500</v>
       </c>
       <c r="K353" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L353" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M353" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25791,11 +25791,11 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P353" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
@@ -25841,20 +25841,20 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J354" t="n">
-        <v>6100</v>
+        <v>16700</v>
       </c>
       <c r="K354" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L354" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M354" t="n">
-        <v>372</v>
+        <v>531</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>372</v>
+        <v>531</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25913,20 +25913,20 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J355" t="n">
-        <v>2000</v>
+        <v>5600</v>
       </c>
       <c r="K355" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L355" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M355" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q355" t="n">
         <v>1</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -25985,20 +25985,20 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J356" t="n">
-        <v>8700</v>
+        <v>6100</v>
       </c>
       <c r="K356" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L356" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M356" t="n">
-        <v>538</v>
+        <v>372</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>538</v>
+        <v>372</v>
       </c>
       <c r="Q356" t="n">
         <v>1</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -26061,7 +26061,7 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>3200</v>
+        <v>2000</v>
       </c>
       <c r="K357" t="n">
         <v>400</v>
@@ -26079,7 +26079,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P357" t="n">
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -26133,16 +26133,16 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>7000</v>
+        <v>8700</v>
       </c>
       <c r="K358" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L358" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M358" t="n">
-        <v>750</v>
+        <v>538</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>750</v>
+        <v>538</v>
       </c>
       <c r="Q358" t="n">
         <v>1</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -26205,16 +26205,16 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K359" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L359" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M359" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q359" t="n">
         <v>1</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -26277,16 +26277,16 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>15900</v>
+        <v>7000</v>
       </c>
       <c r="K360" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L360" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M360" t="n">
-        <v>531</v>
+        <v>750</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>531</v>
+        <v>750</v>
       </c>
       <c r="Q360" t="n">
         <v>1</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -26345,20 +26345,20 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J361" t="n">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="K361" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L361" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M361" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26367,11 +26367,11 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P361" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q361" t="n">
         <v>1</v>
@@ -26417,20 +26417,20 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J362" t="n">
-        <v>6300</v>
+        <v>15900</v>
       </c>
       <c r="K362" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L362" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M362" t="n">
-        <v>360</v>
+        <v>531</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>360</v>
+        <v>531</v>
       </c>
       <c r="Q362" t="n">
         <v>1</v>
@@ -26489,20 +26489,20 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J363" t="n">
-        <v>1800</v>
+        <v>3300</v>
       </c>
       <c r="K363" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L363" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M363" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q363" t="n">
         <v>1</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -26561,20 +26561,20 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J364" t="n">
-        <v>76300</v>
+        <v>6300</v>
       </c>
       <c r="K364" t="n">
+        <v>300</v>
+      </c>
+      <c r="L364" t="n">
         <v>400</v>
       </c>
-      <c r="L364" t="n">
-        <v>500</v>
-      </c>
       <c r="M364" t="n">
-        <v>441</v>
+        <v>360</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>441</v>
+        <v>360</v>
       </c>
       <c r="Q364" t="n">
         <v>1</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -26637,16 +26637,16 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>25400</v>
+        <v>1800</v>
       </c>
       <c r="K365" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L365" t="n">
         <v>400</v>
       </c>
       <c r="M365" t="n">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26655,11 +26655,11 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P365" t="n">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="Q365" t="n">
         <v>1</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -26709,16 +26709,16 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>14000</v>
+        <v>76300</v>
       </c>
       <c r="K366" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L366" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M366" t="n">
-        <v>846</v>
+        <v>441</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>846</v>
+        <v>441</v>
       </c>
       <c r="Q366" t="n">
         <v>1</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -26781,16 +26781,16 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>5000</v>
+        <v>25400</v>
       </c>
       <c r="K367" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L367" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M367" t="n">
-        <v>600</v>
+        <v>357</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>600</v>
+        <v>357</v>
       </c>
       <c r="Q367" t="n">
         <v>1</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44377</v>
+        <v>44242</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>19100</v>
+        <v>14000</v>
       </c>
       <c r="K368" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L368" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M368" t="n">
-        <v>443</v>
+        <v>846</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>443</v>
+        <v>846</v>
       </c>
       <c r="Q368" t="n">
         <v>1</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44377</v>
+        <v>44242</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -26925,16 +26925,16 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="K369" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L369" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M369" t="n">
-        <v>326</v>
+        <v>600</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>326</v>
+        <v>600</v>
       </c>
       <c r="Q369" t="n">
         <v>1</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -26997,7 +26997,7 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>22000</v>
+        <v>19100</v>
       </c>
       <c r="K370" t="n">
         <v>400</v>
@@ -27006,7 +27006,7 @@
         <v>500</v>
       </c>
       <c r="M370" t="n">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Q370" t="n">
         <v>1</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -27069,16 +27069,16 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>6600</v>
+        <v>5300</v>
       </c>
       <c r="K371" t="n">
         <v>300</v>
       </c>
       <c r="L371" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M371" t="n">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="Q371" t="n">
         <v>1</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -27141,16 +27141,16 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>20100</v>
+        <v>22000</v>
       </c>
       <c r="K372" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L372" t="n">
         <v>500</v>
       </c>
       <c r="M372" t="n">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="Q372" t="n">
         <v>1</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -27209,20 +27209,20 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J373" t="n">
-        <v>2300</v>
+        <v>6600</v>
       </c>
       <c r="K373" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L373" t="n">
         <v>400</v>
       </c>
       <c r="M373" t="n">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27231,11 +27231,11 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P373" t="n">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="Q373" t="n">
         <v>1</v>
@@ -27281,20 +27281,20 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J374" t="n">
-        <v>6300</v>
+        <v>20100</v>
       </c>
       <c r="K374" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="L374" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M374" t="n">
-        <v>251</v>
+        <v>430</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>251</v>
+        <v>430</v>
       </c>
       <c r="Q374" t="n">
         <v>1</v>
@@ -27353,20 +27353,20 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J375" t="n">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="K375" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L375" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M375" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q375" t="n">
         <v>1</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -27425,20 +27425,20 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J376" t="n">
-        <v>17100</v>
+        <v>6300</v>
       </c>
       <c r="K376" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L376" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M376" t="n">
-        <v>597</v>
+        <v>251</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>597</v>
+        <v>251</v>
       </c>
       <c r="Q376" t="n">
         <v>1</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27501,16 +27501,16 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>7400</v>
+        <v>1200</v>
       </c>
       <c r="K377" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L377" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M377" t="n">
-        <v>454</v>
+        <v>300</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P377" t="n">
-        <v>454</v>
+        <v>300</v>
       </c>
       <c r="Q377" t="n">
         <v>1</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -27573,16 +27573,16 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>20100</v>
+        <v>17100</v>
       </c>
       <c r="K378" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L378" t="n">
         <v>700</v>
       </c>
       <c r="M378" t="n">
-        <v>652</v>
+        <v>597</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>652</v>
+        <v>597</v>
       </c>
       <c r="Q378" t="n">
         <v>1</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -27645,16 +27645,16 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>7000</v>
+        <v>7400</v>
       </c>
       <c r="K379" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L379" t="n">
         <v>500</v>
       </c>
       <c r="M379" t="n">
-        <v>500</v>
+        <v>454</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>500</v>
+        <v>454</v>
       </c>
       <c r="Q379" t="n">
         <v>1</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -27717,16 +27717,16 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>15300</v>
+        <v>20100</v>
       </c>
       <c r="K380" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L380" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M380" t="n">
-        <v>527</v>
+        <v>652</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>527</v>
+        <v>652</v>
       </c>
       <c r="Q380" t="n">
         <v>1</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -27785,11 +27785,11 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J381" t="n">
-        <v>4400</v>
+        <v>7000</v>
       </c>
       <c r="K381" t="n">
         <v>500</v>
@@ -27807,7 +27807,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P381" t="n">
@@ -27857,20 +27857,20 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>5900</v>
+        <v>15300</v>
       </c>
       <c r="K382" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L382" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M382" t="n">
-        <v>354</v>
+        <v>527</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>354</v>
+        <v>527</v>
       </c>
       <c r="Q382" t="n">
         <v>1</v>
@@ -27929,20 +27929,20 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J383" t="n">
-        <v>2800</v>
+        <v>4400</v>
       </c>
       <c r="K383" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L383" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M383" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q383" t="n">
         <v>1</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -28001,20 +28001,20 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J384" t="n">
-        <v>11600</v>
+        <v>5900</v>
       </c>
       <c r="K384" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L384" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M384" t="n">
-        <v>549</v>
+        <v>354</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>549</v>
+        <v>354</v>
       </c>
       <c r="Q384" t="n">
         <v>1</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -28073,20 +28073,20 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J385" t="n">
-        <v>7200</v>
+        <v>2800</v>
       </c>
       <c r="K385" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L385" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M385" t="n">
-        <v>653</v>
+        <v>400</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28095,11 +28095,11 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P385" t="n">
-        <v>653</v>
+        <v>400</v>
       </c>
       <c r="Q385" t="n">
         <v>1</v>
@@ -28145,20 +28145,20 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J386" t="n">
-        <v>2800</v>
+        <v>11600</v>
       </c>
       <c r="K386" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L386" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M386" t="n">
-        <v>300</v>
+        <v>549</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>300</v>
+        <v>549</v>
       </c>
       <c r="Q386" t="n">
         <v>1</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -28221,16 +28221,16 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>13700</v>
+        <v>7200</v>
       </c>
       <c r="K387" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L387" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M387" t="n">
-        <v>550</v>
+        <v>653</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28239,11 +28239,11 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P387" t="n">
-        <v>550</v>
+        <v>653</v>
       </c>
       <c r="Q387" t="n">
         <v>1</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -28293,16 +28293,16 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="K388" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L388" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M388" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q388" t="n">
         <v>1</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -28365,16 +28365,16 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>27300</v>
+        <v>13700</v>
       </c>
       <c r="K389" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L389" t="n">
         <v>600</v>
       </c>
       <c r="M389" t="n">
-        <v>508</v>
+        <v>550</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>508</v>
+        <v>550</v>
       </c>
       <c r="Q389" t="n">
         <v>1</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -28437,16 +28437,16 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>9700</v>
+        <v>3200</v>
       </c>
       <c r="K390" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L390" t="n">
         <v>400</v>
       </c>
       <c r="M390" t="n">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="Q390" t="n">
         <v>1</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -28509,16 +28509,16 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>5500</v>
+        <v>27300</v>
       </c>
       <c r="K391" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L391" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M391" t="n">
-        <v>800</v>
+        <v>508</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>800</v>
+        <v>508</v>
       </c>
       <c r="Q391" t="n">
         <v>1</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28581,16 +28581,16 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>2200</v>
+        <v>9700</v>
       </c>
       <c r="K392" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L392" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M392" t="n">
-        <v>600</v>
+        <v>354</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>600</v>
+        <v>354</v>
       </c>
       <c r="Q392" t="n">
         <v>1</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -28653,16 +28653,16 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>16700</v>
+        <v>5500</v>
       </c>
       <c r="K393" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L393" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M393" t="n">
-        <v>441</v>
+        <v>800</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>441</v>
+        <v>800</v>
       </c>
       <c r="Q393" t="n">
         <v>1</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -28725,16 +28725,16 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>4800</v>
+        <v>2200</v>
       </c>
       <c r="K394" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L394" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M394" t="n">
-        <v>376</v>
+        <v>600</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>376</v>
+        <v>600</v>
       </c>
       <c r="Q394" t="n">
         <v>1</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -28797,7 +28797,7 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>15600</v>
+        <v>16700</v>
       </c>
       <c r="K395" t="n">
         <v>400</v>
@@ -28806,7 +28806,7 @@
         <v>500</v>
       </c>
       <c r="M395" t="n">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="Q395" t="n">
         <v>1</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28869,16 +28869,16 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>5200</v>
+        <v>4800</v>
       </c>
       <c r="K396" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L396" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M396" t="n">
-        <v>273</v>
+        <v>376</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>273</v>
+        <v>376</v>
       </c>
       <c r="Q396" t="n">
         <v>1</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28941,16 +28941,16 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>28300</v>
+        <v>15600</v>
       </c>
       <c r="K397" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L397" t="n">
         <v>500</v>
       </c>
       <c r="M397" t="n">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="Q397" t="n">
         <v>1</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -29013,7 +29013,7 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="K398" t="n">
         <v>250</v>
@@ -29022,7 +29022,7 @@
         <v>300</v>
       </c>
       <c r="M398" t="n">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q398" t="n">
         <v>1</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -29085,16 +29085,16 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>16000</v>
+        <v>28300</v>
       </c>
       <c r="K399" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L399" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M399" t="n">
-        <v>741</v>
+        <v>423</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>741</v>
+        <v>423</v>
       </c>
       <c r="Q399" t="n">
         <v>1</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -29157,16 +29157,16 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="K400" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L400" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M400" t="n">
-        <v>500</v>
+        <v>275</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>500</v>
+        <v>275</v>
       </c>
       <c r="Q400" t="n">
         <v>1</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -29229,16 +29229,16 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>33300</v>
+        <v>16000</v>
       </c>
       <c r="K401" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L401" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M401" t="n">
-        <v>518</v>
+        <v>741</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>518</v>
+        <v>741</v>
       </c>
       <c r="Q401" t="n">
         <v>1</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -29301,16 +29301,16 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="K402" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L402" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M402" t="n">
-        <v>374</v>
+        <v>500</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>374</v>
+        <v>500</v>
       </c>
       <c r="Q402" t="n">
         <v>1</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -29373,16 +29373,16 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>20400</v>
+        <v>33300</v>
       </c>
       <c r="K403" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L403" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M403" t="n">
-        <v>369</v>
+        <v>518</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>369</v>
+        <v>518</v>
       </c>
       <c r="Q403" t="n">
         <v>1</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -29445,16 +29445,16 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="K404" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L404" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M404" t="n">
-        <v>277</v>
+        <v>374</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>277</v>
+        <v>374</v>
       </c>
       <c r="Q404" t="n">
         <v>1</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29517,16 +29517,16 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>9100</v>
+        <v>20400</v>
       </c>
       <c r="K405" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L405" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M405" t="n">
-        <v>436</v>
+        <v>369</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>436</v>
+        <v>369</v>
       </c>
       <c r="Q405" t="n">
         <v>1</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29589,7 +29589,7 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>4700</v>
+        <v>6000</v>
       </c>
       <c r="K406" t="n">
         <v>250</v>
@@ -29598,7 +29598,7 @@
         <v>300</v>
       </c>
       <c r="M406" t="n">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Q406" t="n">
         <v>1</v>
@@ -29657,20 +29657,20 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J407" t="n">
-        <v>300</v>
+        <v>9100</v>
       </c>
       <c r="K407" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L407" t="n">
         <v>500</v>
       </c>
       <c r="M407" t="n">
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29679,11 +29679,11 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P407" t="n">
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="Q407" t="n">
         <v>1</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29729,20 +29729,20 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J408" t="n">
-        <v>8000</v>
+        <v>4700</v>
       </c>
       <c r="K408" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="L408" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M408" t="n">
-        <v>472</v>
+        <v>279</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>472</v>
+        <v>279</v>
       </c>
       <c r="Q408" t="n">
         <v>1</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29805,16 +29805,16 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>6500</v>
+        <v>300</v>
       </c>
       <c r="K409" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L409" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M409" t="n">
-        <v>373</v>
+        <v>500</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29823,11 +29823,11 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P409" t="n">
-        <v>373</v>
+        <v>500</v>
       </c>
       <c r="Q409" t="n">
         <v>1</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29877,16 +29877,16 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>10300</v>
+        <v>8000</v>
       </c>
       <c r="K410" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="L410" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="M410" t="n">
-        <v>1091</v>
+        <v>472</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>1091</v>
+        <v>472</v>
       </c>
       <c r="Q410" t="n">
         <v>1</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29949,16 +29949,16 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="K411" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L411" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M411" t="n">
-        <v>741</v>
+        <v>373</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>741</v>
+        <v>373</v>
       </c>
       <c r="Q411" t="n">
         <v>1</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30021,16 +30021,16 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>25200</v>
+        <v>10300</v>
       </c>
       <c r="K412" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L412" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="M412" t="n">
-        <v>549</v>
+        <v>1091</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>549</v>
+        <v>1091</v>
       </c>
       <c r="Q412" t="n">
         <v>1</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -30093,16 +30093,16 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>8400</v>
+        <v>11000</v>
       </c>
       <c r="K413" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L413" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M413" t="n">
-        <v>377</v>
+        <v>741</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>377</v>
+        <v>741</v>
       </c>
       <c r="Q413" t="n">
         <v>1</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -30165,7 +30165,7 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>13800</v>
+        <v>25200</v>
       </c>
       <c r="K414" t="n">
         <v>500</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30233,20 +30233,20 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>2300</v>
+        <v>8400</v>
       </c>
       <c r="K415" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L415" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M415" t="n">
-        <v>700</v>
+        <v>377</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30255,11 +30255,11 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P415" t="n">
-        <v>700</v>
+        <v>377</v>
       </c>
       <c r="Q415" t="n">
         <v>1</v>
@@ -30305,20 +30305,20 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J416" t="n">
-        <v>3600</v>
+        <v>13800</v>
       </c>
       <c r="K416" t="n">
         <v>500</v>
       </c>
       <c r="L416" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M416" t="n">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="Q416" t="n">
         <v>1</v>
@@ -30377,20 +30377,20 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="K417" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L417" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M417" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q417" t="n">
         <v>1</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -30449,20 +30449,20 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>9000</v>
+        <v>3600</v>
       </c>
       <c r="K418" t="n">
         <v>500</v>
       </c>
       <c r="L418" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M418" t="n">
-        <v>536</v>
+        <v>500</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>536</v>
+        <v>500</v>
       </c>
       <c r="Q418" t="n">
         <v>1</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -30521,11 +30521,11 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="K419" t="n">
         <v>500</v>
@@ -30593,20 +30593,20 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>3400</v>
+        <v>9000</v>
       </c>
       <c r="K420" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L420" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M420" t="n">
-        <v>400</v>
+        <v>536</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>400</v>
+        <v>536</v>
       </c>
       <c r="Q420" t="n">
         <v>1</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30669,16 +30669,16 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>11300</v>
+        <v>2800</v>
       </c>
       <c r="K421" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L421" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M421" t="n">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30687,11 +30687,11 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P421" t="n">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="Q421" t="n">
         <v>1</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -30741,16 +30741,16 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>3800</v>
+        <v>3400</v>
       </c>
       <c r="K422" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L422" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M422" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="Q422" t="n">
         <v>1</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -30813,16 +30813,16 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>19400</v>
+        <v>11300</v>
       </c>
       <c r="K423" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L423" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M423" t="n">
-        <v>609</v>
+        <v>379</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>609</v>
+        <v>379</v>
       </c>
       <c r="Q423" t="n">
         <v>1</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30885,16 +30885,16 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>5700</v>
+        <v>3800</v>
       </c>
       <c r="K424" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="L424" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M424" t="n">
-        <v>473</v>
+        <v>250</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>473</v>
+        <v>250</v>
       </c>
       <c r="Q424" t="n">
         <v>1</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -30957,16 +30957,16 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>14600</v>
+        <v>19400</v>
       </c>
       <c r="K425" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L425" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M425" t="n">
-        <v>542</v>
+        <v>609</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>542</v>
+        <v>609</v>
       </c>
       <c r="Q425" t="n">
         <v>1</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>5400</v>
+        <v>5700</v>
       </c>
       <c r="K426" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L426" t="n">
         <v>500</v>
       </c>
       <c r="M426" t="n">
-        <v>500</v>
+        <v>473</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>500</v>
+        <v>473</v>
       </c>
       <c r="Q426" t="n">
         <v>1</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -31101,7 +31101,7 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>10200</v>
+        <v>14600</v>
       </c>
       <c r="K427" t="n">
         <v>500</v>
@@ -31110,7 +31110,7 @@
         <v>600</v>
       </c>
       <c r="M427" t="n">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="Q427" t="n">
         <v>1</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -31173,16 +31173,16 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>2900</v>
+        <v>5400</v>
       </c>
       <c r="K428" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L428" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M428" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q428" t="n">
         <v>1</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -31245,16 +31245,16 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>7000</v>
+        <v>10200</v>
       </c>
       <c r="K429" t="n">
+        <v>500</v>
+      </c>
+      <c r="L429" t="n">
         <v>600</v>
       </c>
-      <c r="L429" t="n">
-        <v>700</v>
-      </c>
       <c r="M429" t="n">
-        <v>650</v>
+        <v>566</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>650</v>
+        <v>566</v>
       </c>
       <c r="Q429" t="n">
         <v>1</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -31317,16 +31317,16 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="K430" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L430" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M430" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q430" t="n">
         <v>1</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -31389,16 +31389,16 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>8400</v>
+        <v>7000</v>
       </c>
       <c r="K431" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L431" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M431" t="n">
-        <v>473</v>
+        <v>650</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>473</v>
+        <v>650</v>
       </c>
       <c r="Q431" t="n">
         <v>1</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -31457,20 +31457,20 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J432" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="K432" t="n">
         <v>500</v>
       </c>
       <c r="L432" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M432" t="n">
-        <v>558</v>
+        <v>500</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31479,11 +31479,11 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P432" t="n">
-        <v>558</v>
+        <v>500</v>
       </c>
       <c r="Q432" t="n">
         <v>1</v>
@@ -31529,20 +31529,20 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J433" t="n">
-        <v>3300</v>
+        <v>8400</v>
       </c>
       <c r="K433" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L433" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M433" t="n">
-        <v>350</v>
+        <v>473</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>350</v>
+        <v>473</v>
       </c>
       <c r="Q433" t="n">
         <v>1</v>
@@ -31601,20 +31601,20 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J434" t="n">
-        <v>1500</v>
+        <v>6000</v>
       </c>
       <c r="K434" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L434" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M434" t="n">
-        <v>400</v>
+        <v>558</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>400</v>
+        <v>558</v>
       </c>
       <c r="Q434" t="n">
         <v>1</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -31673,20 +31673,20 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J435" t="n">
-        <v>12000</v>
+        <v>3300</v>
       </c>
       <c r="K435" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="L435" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="M435" t="n">
-        <v>759</v>
+        <v>350</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>759</v>
+        <v>350</v>
       </c>
       <c r="Q435" t="n">
         <v>1</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -31749,16 +31749,16 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>4700</v>
+        <v>1500</v>
       </c>
       <c r="K436" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L436" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M436" t="n">
-        <v>583</v>
+        <v>400</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31767,11 +31767,11 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P436" t="n">
-        <v>583</v>
+        <v>400</v>
       </c>
       <c r="Q436" t="n">
         <v>1</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -31821,16 +31821,16 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="K437" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="L437" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="M437" t="n">
-        <v>1049</v>
+        <v>759</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>1049</v>
+        <v>759</v>
       </c>
       <c r="Q437" t="n">
         <v>1</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -31893,16 +31893,16 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>2800</v>
+        <v>4700</v>
       </c>
       <c r="K438" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L438" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M438" t="n">
-        <v>800</v>
+        <v>583</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>800</v>
+        <v>583</v>
       </c>
       <c r="Q438" t="n">
         <v>1</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -31965,16 +31965,16 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>2700</v>
+        <v>6500</v>
       </c>
       <c r="K439" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L439" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="M439" t="n">
-        <v>600</v>
+        <v>1049</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31983,11 +31983,11 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P439" t="n">
-        <v>600</v>
+        <v>1049</v>
       </c>
       <c r="Q439" t="n">
         <v>1</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -32037,16 +32037,16 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="K440" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L440" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M440" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32055,11 +32055,11 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P440" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q440" t="n">
         <v>1</v>
@@ -32105,20 +32105,20 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J441" t="n">
-        <v>3300</v>
+        <v>2700</v>
       </c>
       <c r="K441" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L441" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M441" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="Q441" t="n">
         <v>1</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -32177,20 +32177,20 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J442" t="n">
-        <v>5200</v>
+        <v>2100</v>
       </c>
       <c r="K442" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L442" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M442" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32199,11 +32199,11 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P442" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="Q442" t="n">
         <v>1</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -32249,20 +32249,20 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J443" t="n">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="K443" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="L443" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M443" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32271,11 +32271,11 @@
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P443" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="Q443" t="n">
         <v>1</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -32325,16 +32325,16 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>12500</v>
+        <v>5200</v>
       </c>
       <c r="K444" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L444" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M444" t="n">
-        <v>554</v>
+        <v>750</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>554</v>
+        <v>750</v>
       </c>
       <c r="Q444" t="n">
         <v>1</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -32397,16 +32397,16 @@
         </is>
       </c>
       <c r="J445" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="K445" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L445" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M445" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q445" t="n">
         <v>1</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -32469,16 +32469,16 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>6100</v>
+        <v>12500</v>
       </c>
       <c r="K446" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L446" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M446" t="n">
-        <v>750</v>
+        <v>554</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>750</v>
+        <v>554</v>
       </c>
       <c r="Q446" t="n">
         <v>1</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -32541,16 +32541,16 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="K447" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L447" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M447" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q447" t="n">
         <v>1</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -32613,7 +32613,7 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>7900</v>
+        <v>6100</v>
       </c>
       <c r="K448" t="n">
         <v>700</v>
@@ -32622,7 +32622,7 @@
         <v>800</v>
       </c>
       <c r="M448" t="n">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="Q448" t="n">
         <v>1</v>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -32681,20 +32681,20 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J449" t="n">
-        <v>6800</v>
+        <v>2500</v>
       </c>
       <c r="K449" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L449" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M449" t="n">
-        <v>747</v>
+        <v>600</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32703,11 +32703,11 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P449" t="n">
-        <v>747</v>
+        <v>600</v>
       </c>
       <c r="Q449" t="n">
         <v>1</v>
@@ -32753,20 +32753,20 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J450" t="n">
-        <v>2500</v>
+        <v>7900</v>
       </c>
       <c r="K450" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L450" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M450" t="n">
-        <v>500</v>
+        <v>757</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>500</v>
+        <v>757</v>
       </c>
       <c r="Q450" t="n">
         <v>1</v>
@@ -32825,20 +32825,20 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J451" t="n">
-        <v>2300</v>
+        <v>6800</v>
       </c>
       <c r="K451" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L451" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M451" t="n">
-        <v>600</v>
+        <v>747</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>600</v>
+        <v>747</v>
       </c>
       <c r="Q451" t="n">
         <v>1</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -32897,20 +32897,20 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J452" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="K452" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L452" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M452" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q452" t="n">
         <v>1</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -32973,7 +32973,7 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="K453" t="n">
         <v>600</v>
@@ -32991,7 +32991,7 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P453" t="n">
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -33045,16 +33045,16 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>14800</v>
+        <v>3500</v>
       </c>
       <c r="K454" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L454" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M454" t="n">
-        <v>414</v>
+        <v>700</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>414</v>
+        <v>700</v>
       </c>
       <c r="Q454" t="n">
         <v>1</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -33117,16 +33117,16 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>5200</v>
+        <v>2800</v>
       </c>
       <c r="K455" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="L455" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M455" t="n">
-        <v>277</v>
+        <v>600</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>277</v>
+        <v>600</v>
       </c>
       <c r="Q455" t="n">
         <v>1</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33189,16 +33189,16 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>8700</v>
+        <v>14800</v>
       </c>
       <c r="K456" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L456" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M456" t="n">
-        <v>511</v>
+        <v>414</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>511</v>
+        <v>414</v>
       </c>
       <c r="Q456" t="n">
         <v>1</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33261,16 +33261,16 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>4000</v>
+        <v>5200</v>
       </c>
       <c r="K457" t="n">
         <v>250</v>
       </c>
       <c r="L457" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M457" t="n">
-        <v>355</v>
+        <v>277</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>355</v>
+        <v>277</v>
       </c>
       <c r="Q457" t="n">
         <v>1</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33333,16 +33333,16 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>16300</v>
+        <v>8700</v>
       </c>
       <c r="K458" t="n">
         <v>400</v>
       </c>
       <c r="L458" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M458" t="n">
-        <v>442</v>
+        <v>511</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>442</v>
+        <v>511</v>
       </c>
       <c r="Q458" t="n">
         <v>1</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -33405,34 +33405,178 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>6100</v>
+        <v>4000</v>
       </c>
       <c r="K459" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="L459" t="n">
         <v>400</v>
       </c>
       <c r="M459" t="n">
+        <v>355</v>
+      </c>
+      <c r="N459" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O459" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P459" t="n">
+        <v>355</v>
+      </c>
+      <c r="Q459" t="n">
+        <v>1</v>
+      </c>
+      <c r="R459" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>6</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D460" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E460" t="n">
+        <v>13</v>
+      </c>
+      <c r="F460" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J460" t="n">
+        <v>16300</v>
+      </c>
+      <c r="K460" t="n">
+        <v>400</v>
+      </c>
+      <c r="L460" t="n">
+        <v>500</v>
+      </c>
+      <c r="M460" t="n">
+        <v>442</v>
+      </c>
+      <c r="N460" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O460" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P460" t="n">
+        <v>442</v>
+      </c>
+      <c r="Q460" t="n">
+        <v>1</v>
+      </c>
+      <c r="R460" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>6</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D461" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E461" t="n">
+        <v>13</v>
+      </c>
+      <c r="F461" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J461" t="n">
+        <v>6100</v>
+      </c>
+      <c r="K461" t="n">
+        <v>350</v>
+      </c>
+      <c r="L461" t="n">
+        <v>400</v>
+      </c>
+      <c r="M461" t="n">
         <v>378</v>
       </c>
-      <c r="N459" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O459" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P459" t="n">
+      <c r="N461" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O461" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P461" t="n">
         <v>378</v>
       </c>
-      <c r="Q459" t="n">
-        <v>1</v>
-      </c>
-      <c r="R459" t="inlineStr">
+      <c r="Q461" t="n">
+        <v>1</v>
+      </c>
+      <c r="R461" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R461"/>
+  <dimension ref="A1:R463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22533,16 +22533,16 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>17400</v>
+        <v>10100</v>
       </c>
       <c r="K308" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L308" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M308" t="n">
-        <v>378</v>
+        <v>533</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>378</v>
+        <v>533</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22601,20 +22601,20 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>6500</v>
+        <v>3400</v>
       </c>
       <c r="K309" t="n">
         <v>400</v>
       </c>
       <c r="L309" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M309" t="n">
-        <v>442</v>
+        <v>400</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22623,11 +22623,11 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P309" t="n">
-        <v>442</v>
+        <v>400</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22673,20 +22673,20 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>4200</v>
+        <v>17400</v>
       </c>
       <c r="K310" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L310" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M310" t="n">
-        <v>300</v>
+        <v>378</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>300</v>
+        <v>378</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22745,20 +22745,20 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>1600</v>
+        <v>6500</v>
       </c>
       <c r="K311" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L311" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M311" t="n">
-        <v>250</v>
+        <v>442</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>250</v>
+        <v>442</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22817,20 +22817,20 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>18700</v>
+        <v>4200</v>
       </c>
       <c r="K312" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L312" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M312" t="n">
-        <v>557</v>
+        <v>300</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>557</v>
+        <v>300</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>5000</v>
+        <v>1600</v>
       </c>
       <c r="K313" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L313" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="M313" t="n">
-        <v>422</v>
+        <v>250</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22911,11 +22911,11 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P313" t="n">
-        <v>422</v>
+        <v>250</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>15300</v>
+        <v>18700</v>
       </c>
       <c r="K314" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L314" t="n">
         <v>600</v>
       </c>
       <c r="M314" t="n">
-        <v>489</v>
+        <v>557</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>489</v>
+        <v>557</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23033,20 +23033,20 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>6400</v>
+        <v>5000</v>
       </c>
       <c r="K315" t="n">
         <v>400</v>
       </c>
       <c r="L315" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M315" t="n">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23055,11 +23055,11 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P315" t="n">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23105,20 +23105,20 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>5500</v>
+        <v>15300</v>
       </c>
       <c r="K316" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L316" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M316" t="n">
-        <v>325</v>
+        <v>489</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>325</v>
+        <v>489</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23177,20 +23177,20 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>2800</v>
+        <v>6400</v>
       </c>
       <c r="K317" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L317" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M317" t="n">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23249,20 +23249,20 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="K318" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L318" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="M318" t="n">
-        <v>647</v>
+        <v>325</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>647</v>
+        <v>325</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>4500</v>
+        <v>2800</v>
       </c>
       <c r="K319" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L319" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M319" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23343,11 +23343,11 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P319" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23397,16 +23397,16 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="K320" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L320" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M320" t="n">
-        <v>950</v>
+        <v>647</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>950</v>
+        <v>647</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23469,16 +23469,16 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="K321" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L321" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M321" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23541,16 +23541,16 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>16300</v>
+        <v>7000</v>
       </c>
       <c r="K322" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L322" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M322" t="n">
-        <v>471</v>
+        <v>950</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>471</v>
+        <v>950</v>
       </c>
       <c r="Q322" t="n">
         <v>1</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>5800</v>
+        <v>2500</v>
       </c>
       <c r="K323" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L323" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M323" t="n">
-        <v>348</v>
+        <v>700</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>348</v>
+        <v>700</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23681,20 +23681,20 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J324" t="n">
-        <v>2000</v>
+        <v>16300</v>
       </c>
       <c r="K324" t="n">
         <v>400</v>
       </c>
       <c r="L324" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M324" t="n">
-        <v>400</v>
+        <v>471</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23703,11 +23703,11 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P324" t="n">
-        <v>400</v>
+        <v>471</v>
       </c>
       <c r="Q324" t="n">
         <v>1</v>
@@ -23753,20 +23753,20 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J325" t="n">
-        <v>1500</v>
+        <v>5800</v>
       </c>
       <c r="K325" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L325" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M325" t="n">
-        <v>500</v>
+        <v>348</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23775,11 +23775,11 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P325" t="n">
-        <v>500</v>
+        <v>348</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23825,20 +23825,20 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J326" t="n">
-        <v>8700</v>
+        <v>2000</v>
       </c>
       <c r="K326" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L326" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M326" t="n">
-        <v>838</v>
+        <v>400</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23847,11 +23847,11 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P326" t="n">
-        <v>838</v>
+        <v>400</v>
       </c>
       <c r="Q326" t="n">
         <v>1</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23897,20 +23897,20 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J327" t="n">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="K327" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L327" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M327" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23919,11 +23919,11 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P327" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q327" t="n">
         <v>1</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23973,16 +23973,16 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>6900</v>
+        <v>8700</v>
       </c>
       <c r="K328" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L328" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M328" t="n">
-        <v>549</v>
+        <v>838</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>549</v>
+        <v>838</v>
       </c>
       <c r="Q328" t="n">
         <v>1</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24041,20 +24041,20 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J329" t="n">
-        <v>3800</v>
+        <v>2700</v>
       </c>
       <c r="K329" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L329" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M329" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24063,11 +24063,11 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P329" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q329" t="n">
         <v>1</v>
@@ -24113,20 +24113,20 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J330" t="n">
-        <v>7900</v>
+        <v>6900</v>
       </c>
       <c r="K330" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L330" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M330" t="n">
-        <v>371</v>
+        <v>549</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>371</v>
+        <v>549</v>
       </c>
       <c r="Q330" t="n">
         <v>1</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>15500</v>
+        <v>3800</v>
       </c>
       <c r="K331" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L331" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M331" t="n">
-        <v>524</v>
+        <v>700</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24207,11 +24207,11 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P331" t="n">
-        <v>524</v>
+        <v>700</v>
       </c>
       <c r="Q331" t="n">
         <v>1</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24257,20 +24257,20 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J332" t="n">
-        <v>6700</v>
+        <v>7900</v>
       </c>
       <c r="K332" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L332" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M332" t="n">
-        <v>651</v>
+        <v>371</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24279,11 +24279,11 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P332" t="n">
-        <v>651</v>
+        <v>371</v>
       </c>
       <c r="Q332" t="n">
         <v>1</v>
@@ -24329,20 +24329,20 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J333" t="n">
-        <v>5500</v>
+        <v>15500</v>
       </c>
       <c r="K333" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L333" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M333" t="n">
-        <v>325</v>
+        <v>524</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>325</v>
+        <v>524</v>
       </c>
       <c r="Q333" t="n">
         <v>1</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24405,16 +24405,16 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="K334" t="n">
+        <v>600</v>
+      </c>
+      <c r="L334" t="n">
         <v>700</v>
       </c>
-      <c r="L334" t="n">
-        <v>800</v>
-      </c>
       <c r="M334" t="n">
-        <v>751</v>
+        <v>651</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24423,11 +24423,11 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P334" t="n">
-        <v>751</v>
+        <v>651</v>
       </c>
       <c r="Q334" t="n">
         <v>1</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="K335" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L335" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M335" t="n">
-        <v>464</v>
+        <v>325</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>464</v>
+        <v>325</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24549,7 +24549,7 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>7900</v>
+        <v>6500</v>
       </c>
       <c r="K336" t="n">
         <v>700</v>
@@ -24558,7 +24558,7 @@
         <v>800</v>
       </c>
       <c r="M336" t="n">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K337" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L337" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M337" t="n">
-        <v>600</v>
+        <v>464</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>600</v>
+        <v>464</v>
       </c>
       <c r="Q337" t="n">
         <v>1</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -24693,16 +24693,16 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>16200</v>
+        <v>7900</v>
       </c>
       <c r="K338" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L338" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M338" t="n">
-        <v>442</v>
+        <v>750</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>442</v>
+        <v>750</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -24761,20 +24761,20 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J339" t="n">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="K339" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L339" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M339" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24783,11 +24783,11 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P339" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q339" t="n">
         <v>1</v>
@@ -24833,20 +24833,20 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J340" t="n">
-        <v>3200</v>
+        <v>16200</v>
       </c>
       <c r="K340" t="n">
         <v>400</v>
       </c>
       <c r="L340" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M340" t="n">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="Q340" t="n">
         <v>1</v>
@@ -24905,20 +24905,20 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J341" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="K341" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L341" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M341" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q341" t="n">
         <v>1</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -24977,20 +24977,20 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>21300</v>
+        <v>3200</v>
       </c>
       <c r="K342" t="n">
         <v>400</v>
       </c>
       <c r="L342" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M342" t="n">
-        <v>495</v>
+        <v>400</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>495</v>
+        <v>400</v>
       </c>
       <c r="Q342" t="n">
         <v>1</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -25053,16 +25053,16 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>7000</v>
+        <v>2700</v>
       </c>
       <c r="K343" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L343" t="n">
         <v>400</v>
       </c>
       <c r="M343" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25071,11 +25071,11 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P343" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="Q343" t="n">
         <v>1</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -25125,16 +25125,16 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>6100</v>
+        <v>21300</v>
       </c>
       <c r="K344" t="n">
+        <v>400</v>
+      </c>
+      <c r="L344" t="n">
         <v>600</v>
       </c>
-      <c r="L344" t="n">
-        <v>700</v>
-      </c>
       <c r="M344" t="n">
-        <v>650</v>
+        <v>495</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>650</v>
+        <v>495</v>
       </c>
       <c r="Q344" t="n">
         <v>1</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -25197,16 +25197,16 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>3400</v>
+        <v>7000</v>
       </c>
       <c r="K345" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L345" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M345" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -25269,16 +25269,16 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>19700</v>
+        <v>6100</v>
       </c>
       <c r="K346" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L346" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M346" t="n">
-        <v>443</v>
+        <v>650</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>443</v>
+        <v>650</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>5300</v>
+        <v>3400</v>
       </c>
       <c r="K347" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L347" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M347" t="n">
-        <v>326</v>
+        <v>500</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>326</v>
+        <v>500</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -25413,16 +25413,16 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>14700</v>
+        <v>19700</v>
       </c>
       <c r="K348" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L348" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M348" t="n">
-        <v>372</v>
+        <v>443</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>372</v>
+        <v>443</v>
       </c>
       <c r="Q348" t="n">
         <v>1</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -25485,16 +25485,16 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>4400</v>
+        <v>5300</v>
       </c>
       <c r="K349" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L349" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M349" t="n">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44448</v>
+        <v>44372</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -25557,16 +25557,16 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>16400</v>
+        <v>14700</v>
       </c>
       <c r="K350" t="n">
         <v>350</v>
       </c>
       <c r="L350" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M350" t="n">
-        <v>422</v>
+        <v>372</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>422</v>
+        <v>372</v>
       </c>
       <c r="Q350" t="n">
         <v>1</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44448</v>
+        <v>44372</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>6700</v>
+        <v>4400</v>
       </c>
       <c r="K351" t="n">
         <v>250</v>
       </c>
       <c r="L351" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="M351" t="n">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -25701,16 +25701,16 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>14000</v>
+        <v>16400</v>
       </c>
       <c r="K352" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="L352" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M352" t="n">
-        <v>846</v>
+        <v>422</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>846</v>
+        <v>422</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -25773,16 +25773,16 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>4500</v>
+        <v>6700</v>
       </c>
       <c r="K353" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L353" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M353" t="n">
-        <v>600</v>
+        <v>275</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>600</v>
+        <v>275</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -25845,16 +25845,16 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>16700</v>
+        <v>14000</v>
       </c>
       <c r="K354" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L354" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M354" t="n">
-        <v>531</v>
+        <v>846</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>531</v>
+        <v>846</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -25913,20 +25913,20 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J355" t="n">
-        <v>5600</v>
+        <v>4500</v>
       </c>
       <c r="K355" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L355" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M355" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25935,11 +25935,11 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P355" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q355" t="n">
         <v>1</v>
@@ -25985,20 +25985,20 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J356" t="n">
-        <v>6100</v>
+        <v>16700</v>
       </c>
       <c r="K356" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L356" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M356" t="n">
-        <v>372</v>
+        <v>531</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>372</v>
+        <v>531</v>
       </c>
       <c r="Q356" t="n">
         <v>1</v>
@@ -26057,20 +26057,20 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J357" t="n">
-        <v>2000</v>
+        <v>5600</v>
       </c>
       <c r="K357" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L357" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M357" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q357" t="n">
         <v>1</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -26129,20 +26129,20 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J358" t="n">
-        <v>8700</v>
+        <v>6100</v>
       </c>
       <c r="K358" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L358" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M358" t="n">
-        <v>538</v>
+        <v>372</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>538</v>
+        <v>372</v>
       </c>
       <c r="Q358" t="n">
         <v>1</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -26205,7 +26205,7 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>3200</v>
+        <v>2000</v>
       </c>
       <c r="K359" t="n">
         <v>400</v>
@@ -26223,7 +26223,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P359" t="n">
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -26277,16 +26277,16 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>7000</v>
+        <v>8700</v>
       </c>
       <c r="K360" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L360" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M360" t="n">
-        <v>750</v>
+        <v>538</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>750</v>
+        <v>538</v>
       </c>
       <c r="Q360" t="n">
         <v>1</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -26349,16 +26349,16 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K361" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L361" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M361" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q361" t="n">
         <v>1</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -26421,16 +26421,16 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>15900</v>
+        <v>7000</v>
       </c>
       <c r="K362" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L362" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M362" t="n">
-        <v>531</v>
+        <v>750</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>531</v>
+        <v>750</v>
       </c>
       <c r="Q362" t="n">
         <v>1</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -26489,20 +26489,20 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J363" t="n">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="K363" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L363" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M363" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26511,11 +26511,11 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P363" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q363" t="n">
         <v>1</v>
@@ -26561,20 +26561,20 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J364" t="n">
-        <v>6300</v>
+        <v>15900</v>
       </c>
       <c r="K364" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L364" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M364" t="n">
-        <v>360</v>
+        <v>531</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>360</v>
+        <v>531</v>
       </c>
       <c r="Q364" t="n">
         <v>1</v>
@@ -26633,20 +26633,20 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J365" t="n">
-        <v>1800</v>
+        <v>3300</v>
       </c>
       <c r="K365" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L365" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M365" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q365" t="n">
         <v>1</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -26705,20 +26705,20 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J366" t="n">
-        <v>76300</v>
+        <v>6300</v>
       </c>
       <c r="K366" t="n">
+        <v>300</v>
+      </c>
+      <c r="L366" t="n">
         <v>400</v>
       </c>
-      <c r="L366" t="n">
-        <v>500</v>
-      </c>
       <c r="M366" t="n">
-        <v>441</v>
+        <v>360</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>441</v>
+        <v>360</v>
       </c>
       <c r="Q366" t="n">
         <v>1</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -26781,16 +26781,16 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>25400</v>
+        <v>1800</v>
       </c>
       <c r="K367" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L367" t="n">
         <v>400</v>
       </c>
       <c r="M367" t="n">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26799,11 +26799,11 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P367" t="n">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="Q367" t="n">
         <v>1</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>14000</v>
+        <v>76300</v>
       </c>
       <c r="K368" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L368" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M368" t="n">
-        <v>846</v>
+        <v>441</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>846</v>
+        <v>441</v>
       </c>
       <c r="Q368" t="n">
         <v>1</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -26925,16 +26925,16 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>5000</v>
+        <v>25400</v>
       </c>
       <c r="K369" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L369" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M369" t="n">
-        <v>600</v>
+        <v>357</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>600</v>
+        <v>357</v>
       </c>
       <c r="Q369" t="n">
         <v>1</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44377</v>
+        <v>44242</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -26997,16 +26997,16 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>19100</v>
+        <v>14000</v>
       </c>
       <c r="K370" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L370" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M370" t="n">
-        <v>443</v>
+        <v>846</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>443</v>
+        <v>846</v>
       </c>
       <c r="Q370" t="n">
         <v>1</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44377</v>
+        <v>44242</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -27069,16 +27069,16 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="K371" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L371" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M371" t="n">
-        <v>326</v>
+        <v>600</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>326</v>
+        <v>600</v>
       </c>
       <c r="Q371" t="n">
         <v>1</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -27141,7 +27141,7 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>22000</v>
+        <v>19100</v>
       </c>
       <c r="K372" t="n">
         <v>400</v>
@@ -27150,7 +27150,7 @@
         <v>500</v>
       </c>
       <c r="M372" t="n">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Q372" t="n">
         <v>1</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -27213,16 +27213,16 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>6600</v>
+        <v>5300</v>
       </c>
       <c r="K373" t="n">
         <v>300</v>
       </c>
       <c r="L373" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M373" t="n">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="Q373" t="n">
         <v>1</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -27285,16 +27285,16 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>20100</v>
+        <v>22000</v>
       </c>
       <c r="K374" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L374" t="n">
         <v>500</v>
       </c>
       <c r="M374" t="n">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="Q374" t="n">
         <v>1</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -27353,20 +27353,20 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J375" t="n">
-        <v>2300</v>
+        <v>6600</v>
       </c>
       <c r="K375" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L375" t="n">
         <v>400</v>
       </c>
       <c r="M375" t="n">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27375,11 +27375,11 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P375" t="n">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="Q375" t="n">
         <v>1</v>
@@ -27425,20 +27425,20 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J376" t="n">
-        <v>6300</v>
+        <v>20100</v>
       </c>
       <c r="K376" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="L376" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M376" t="n">
-        <v>251</v>
+        <v>430</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>251</v>
+        <v>430</v>
       </c>
       <c r="Q376" t="n">
         <v>1</v>
@@ -27497,20 +27497,20 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J377" t="n">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="K377" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L377" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M377" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q377" t="n">
         <v>1</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -27569,20 +27569,20 @@
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J378" t="n">
-        <v>17100</v>
+        <v>6300</v>
       </c>
       <c r="K378" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L378" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M378" t="n">
-        <v>597</v>
+        <v>251</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>597</v>
+        <v>251</v>
       </c>
       <c r="Q378" t="n">
         <v>1</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -27645,16 +27645,16 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>7400</v>
+        <v>1200</v>
       </c>
       <c r="K379" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L379" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M379" t="n">
-        <v>454</v>
+        <v>300</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27663,11 +27663,11 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P379" t="n">
-        <v>454</v>
+        <v>300</v>
       </c>
       <c r="Q379" t="n">
         <v>1</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -27717,16 +27717,16 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>20100</v>
+        <v>17100</v>
       </c>
       <c r="K380" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L380" t="n">
         <v>700</v>
       </c>
       <c r="M380" t="n">
-        <v>652</v>
+        <v>597</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>652</v>
+        <v>597</v>
       </c>
       <c r="Q380" t="n">
         <v>1</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -27789,16 +27789,16 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>7000</v>
+        <v>7400</v>
       </c>
       <c r="K381" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L381" t="n">
         <v>500</v>
       </c>
       <c r="M381" t="n">
-        <v>500</v>
+        <v>454</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>500</v>
+        <v>454</v>
       </c>
       <c r="Q381" t="n">
         <v>1</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -27861,16 +27861,16 @@
         </is>
       </c>
       <c r="J382" t="n">
-        <v>15300</v>
+        <v>20100</v>
       </c>
       <c r="K382" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L382" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M382" t="n">
-        <v>527</v>
+        <v>652</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>527</v>
+        <v>652</v>
       </c>
       <c r="Q382" t="n">
         <v>1</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -27929,11 +27929,11 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J383" t="n">
-        <v>4400</v>
+        <v>7000</v>
       </c>
       <c r="K383" t="n">
         <v>500</v>
@@ -27951,7 +27951,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P383" t="n">
@@ -28001,20 +28001,20 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J384" t="n">
-        <v>5900</v>
+        <v>15300</v>
       </c>
       <c r="K384" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L384" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M384" t="n">
-        <v>354</v>
+        <v>527</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>354</v>
+        <v>527</v>
       </c>
       <c r="Q384" t="n">
         <v>1</v>
@@ -28073,20 +28073,20 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J385" t="n">
-        <v>2800</v>
+        <v>4400</v>
       </c>
       <c r="K385" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L385" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M385" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q385" t="n">
         <v>1</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -28145,20 +28145,20 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J386" t="n">
-        <v>11600</v>
+        <v>5900</v>
       </c>
       <c r="K386" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L386" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M386" t="n">
-        <v>549</v>
+        <v>354</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>549</v>
+        <v>354</v>
       </c>
       <c r="Q386" t="n">
         <v>1</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -28217,20 +28217,20 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J387" t="n">
-        <v>7200</v>
+        <v>2800</v>
       </c>
       <c r="K387" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L387" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M387" t="n">
-        <v>653</v>
+        <v>400</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28239,11 +28239,11 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P387" t="n">
-        <v>653</v>
+        <v>400</v>
       </c>
       <c r="Q387" t="n">
         <v>1</v>
@@ -28289,20 +28289,20 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J388" t="n">
-        <v>2800</v>
+        <v>11600</v>
       </c>
       <c r="K388" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L388" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M388" t="n">
-        <v>300</v>
+        <v>549</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>300</v>
+        <v>549</v>
       </c>
       <c r="Q388" t="n">
         <v>1</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -28365,16 +28365,16 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>13700</v>
+        <v>7200</v>
       </c>
       <c r="K389" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L389" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M389" t="n">
-        <v>550</v>
+        <v>653</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28383,11 +28383,11 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P389" t="n">
-        <v>550</v>
+        <v>653</v>
       </c>
       <c r="Q389" t="n">
         <v>1</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -28437,16 +28437,16 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="K390" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L390" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M390" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q390" t="n">
         <v>1</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -28509,16 +28509,16 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>27300</v>
+        <v>13700</v>
       </c>
       <c r="K391" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L391" t="n">
         <v>600</v>
       </c>
       <c r="M391" t="n">
-        <v>508</v>
+        <v>550</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>508</v>
+        <v>550</v>
       </c>
       <c r="Q391" t="n">
         <v>1</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28581,16 +28581,16 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>9700</v>
+        <v>3200</v>
       </c>
       <c r="K392" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L392" t="n">
         <v>400</v>
       </c>
       <c r="M392" t="n">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="Q392" t="n">
         <v>1</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -28653,16 +28653,16 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>5500</v>
+        <v>27300</v>
       </c>
       <c r="K393" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L393" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M393" t="n">
-        <v>800</v>
+        <v>508</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>800</v>
+        <v>508</v>
       </c>
       <c r="Q393" t="n">
         <v>1</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -28725,16 +28725,16 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>2200</v>
+        <v>9700</v>
       </c>
       <c r="K394" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L394" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M394" t="n">
-        <v>600</v>
+        <v>354</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>600</v>
+        <v>354</v>
       </c>
       <c r="Q394" t="n">
         <v>1</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -28797,16 +28797,16 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>16700</v>
+        <v>5500</v>
       </c>
       <c r="K395" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L395" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M395" t="n">
-        <v>441</v>
+        <v>800</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>441</v>
+        <v>800</v>
       </c>
       <c r="Q395" t="n">
         <v>1</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28869,16 +28869,16 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>4800</v>
+        <v>2200</v>
       </c>
       <c r="K396" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L396" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M396" t="n">
-        <v>376</v>
+        <v>600</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>376</v>
+        <v>600</v>
       </c>
       <c r="Q396" t="n">
         <v>1</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28941,7 +28941,7 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>15600</v>
+        <v>16700</v>
       </c>
       <c r="K397" t="n">
         <v>400</v>
@@ -28950,7 +28950,7 @@
         <v>500</v>
       </c>
       <c r="M397" t="n">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="Q397" t="n">
         <v>1</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -29013,16 +29013,16 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>5200</v>
+        <v>4800</v>
       </c>
       <c r="K398" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L398" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M398" t="n">
-        <v>273</v>
+        <v>376</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>273</v>
+        <v>376</v>
       </c>
       <c r="Q398" t="n">
         <v>1</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -29085,16 +29085,16 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>28300</v>
+        <v>15600</v>
       </c>
       <c r="K399" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L399" t="n">
         <v>500</v>
       </c>
       <c r="M399" t="n">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="Q399" t="n">
         <v>1</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -29157,7 +29157,7 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="K400" t="n">
         <v>250</v>
@@ -29166,7 +29166,7 @@
         <v>300</v>
       </c>
       <c r="M400" t="n">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q400" t="n">
         <v>1</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -29229,16 +29229,16 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>16000</v>
+        <v>28300</v>
       </c>
       <c r="K401" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L401" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M401" t="n">
-        <v>741</v>
+        <v>423</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>741</v>
+        <v>423</v>
       </c>
       <c r="Q401" t="n">
         <v>1</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -29301,16 +29301,16 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="K402" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L402" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M402" t="n">
-        <v>500</v>
+        <v>275</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>500</v>
+        <v>275</v>
       </c>
       <c r="Q402" t="n">
         <v>1</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -29373,16 +29373,16 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>33300</v>
+        <v>16000</v>
       </c>
       <c r="K403" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L403" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M403" t="n">
-        <v>518</v>
+        <v>741</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>518</v>
+        <v>741</v>
       </c>
       <c r="Q403" t="n">
         <v>1</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -29445,16 +29445,16 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="K404" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L404" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M404" t="n">
-        <v>374</v>
+        <v>500</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>374</v>
+        <v>500</v>
       </c>
       <c r="Q404" t="n">
         <v>1</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29517,16 +29517,16 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>20400</v>
+        <v>33300</v>
       </c>
       <c r="K405" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L405" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M405" t="n">
-        <v>369</v>
+        <v>518</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>369</v>
+        <v>518</v>
       </c>
       <c r="Q405" t="n">
         <v>1</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29589,16 +29589,16 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="K406" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L406" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M406" t="n">
-        <v>277</v>
+        <v>374</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>277</v>
+        <v>374</v>
       </c>
       <c r="Q406" t="n">
         <v>1</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -29661,16 +29661,16 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>9100</v>
+        <v>20400</v>
       </c>
       <c r="K407" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L407" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M407" t="n">
-        <v>436</v>
+        <v>369</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>436</v>
+        <v>369</v>
       </c>
       <c r="Q407" t="n">
         <v>1</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29733,7 +29733,7 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>4700</v>
+        <v>6000</v>
       </c>
       <c r="K408" t="n">
         <v>250</v>
@@ -29742,7 +29742,7 @@
         <v>300</v>
       </c>
       <c r="M408" t="n">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Q408" t="n">
         <v>1</v>
@@ -29801,20 +29801,20 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J409" t="n">
-        <v>300</v>
+        <v>9100</v>
       </c>
       <c r="K409" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L409" t="n">
         <v>500</v>
       </c>
       <c r="M409" t="n">
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29823,11 +29823,11 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P409" t="n">
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="Q409" t="n">
         <v>1</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29873,20 +29873,20 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J410" t="n">
-        <v>8000</v>
+        <v>4700</v>
       </c>
       <c r="K410" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="L410" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M410" t="n">
-        <v>472</v>
+        <v>279</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>472</v>
+        <v>279</v>
       </c>
       <c r="Q410" t="n">
         <v>1</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29949,16 +29949,16 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>6500</v>
+        <v>300</v>
       </c>
       <c r="K411" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L411" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M411" t="n">
-        <v>373</v>
+        <v>500</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29967,11 +29967,11 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P411" t="n">
-        <v>373</v>
+        <v>500</v>
       </c>
       <c r="Q411" t="n">
         <v>1</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30021,16 +30021,16 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>10300</v>
+        <v>8000</v>
       </c>
       <c r="K412" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="L412" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="M412" t="n">
-        <v>1091</v>
+        <v>472</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>1091</v>
+        <v>472</v>
       </c>
       <c r="Q412" t="n">
         <v>1</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -30093,16 +30093,16 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="K413" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L413" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M413" t="n">
-        <v>741</v>
+        <v>373</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>741</v>
+        <v>373</v>
       </c>
       <c r="Q413" t="n">
         <v>1</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -30165,16 +30165,16 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>25200</v>
+        <v>10300</v>
       </c>
       <c r="K414" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L414" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="M414" t="n">
-        <v>549</v>
+        <v>1091</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>549</v>
+        <v>1091</v>
       </c>
       <c r="Q414" t="n">
         <v>1</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30237,16 +30237,16 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>8400</v>
+        <v>11000</v>
       </c>
       <c r="K415" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L415" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M415" t="n">
-        <v>377</v>
+        <v>741</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>377</v>
+        <v>741</v>
       </c>
       <c r="Q415" t="n">
         <v>1</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30309,7 +30309,7 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>13800</v>
+        <v>25200</v>
       </c>
       <c r="K416" t="n">
         <v>500</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -30377,20 +30377,20 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>2300</v>
+        <v>8400</v>
       </c>
       <c r="K417" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L417" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M417" t="n">
-        <v>700</v>
+        <v>377</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30399,11 +30399,11 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P417" t="n">
-        <v>700</v>
+        <v>377</v>
       </c>
       <c r="Q417" t="n">
         <v>1</v>
@@ -30449,20 +30449,20 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>3600</v>
+        <v>13800</v>
       </c>
       <c r="K418" t="n">
         <v>500</v>
       </c>
       <c r="L418" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M418" t="n">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="Q418" t="n">
         <v>1</v>
@@ -30521,20 +30521,20 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="K419" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L419" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M419" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q419" t="n">
         <v>1</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -30593,20 +30593,20 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>9000</v>
+        <v>3600</v>
       </c>
       <c r="K420" t="n">
         <v>500</v>
       </c>
       <c r="L420" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M420" t="n">
-        <v>536</v>
+        <v>500</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>536</v>
+        <v>500</v>
       </c>
       <c r="Q420" t="n">
         <v>1</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30665,11 +30665,11 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J421" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="K421" t="n">
         <v>500</v>
@@ -30737,20 +30737,20 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J422" t="n">
-        <v>3400</v>
+        <v>9000</v>
       </c>
       <c r="K422" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L422" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M422" t="n">
-        <v>400</v>
+        <v>536</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>400</v>
+        <v>536</v>
       </c>
       <c r="Q422" t="n">
         <v>1</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -30813,16 +30813,16 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>11300</v>
+        <v>2800</v>
       </c>
       <c r="K423" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L423" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M423" t="n">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30831,11 +30831,11 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P423" t="n">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="Q423" t="n">
         <v>1</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30885,16 +30885,16 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>3800</v>
+        <v>3400</v>
       </c>
       <c r="K424" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L424" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M424" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="Q424" t="n">
         <v>1</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -30957,16 +30957,16 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>19400</v>
+        <v>11300</v>
       </c>
       <c r="K425" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L425" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M425" t="n">
-        <v>609</v>
+        <v>379</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>609</v>
+        <v>379</v>
       </c>
       <c r="Q425" t="n">
         <v>1</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>5700</v>
+        <v>3800</v>
       </c>
       <c r="K426" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="L426" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M426" t="n">
-        <v>473</v>
+        <v>250</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>473</v>
+        <v>250</v>
       </c>
       <c r="Q426" t="n">
         <v>1</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -31101,16 +31101,16 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>14600</v>
+        <v>19400</v>
       </c>
       <c r="K427" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L427" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M427" t="n">
-        <v>542</v>
+        <v>609</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>542</v>
+        <v>609</v>
       </c>
       <c r="Q427" t="n">
         <v>1</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -31173,16 +31173,16 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>5400</v>
+        <v>5700</v>
       </c>
       <c r="K428" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L428" t="n">
         <v>500</v>
       </c>
       <c r="M428" t="n">
-        <v>500</v>
+        <v>473</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>500</v>
+        <v>473</v>
       </c>
       <c r="Q428" t="n">
         <v>1</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -31245,7 +31245,7 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>10200</v>
+        <v>14600</v>
       </c>
       <c r="K429" t="n">
         <v>500</v>
@@ -31254,7 +31254,7 @@
         <v>600</v>
       </c>
       <c r="M429" t="n">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="Q429" t="n">
         <v>1</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -31317,16 +31317,16 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>2900</v>
+        <v>5400</v>
       </c>
       <c r="K430" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L430" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M430" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q430" t="n">
         <v>1</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -31389,16 +31389,16 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>7000</v>
+        <v>10200</v>
       </c>
       <c r="K431" t="n">
+        <v>500</v>
+      </c>
+      <c r="L431" t="n">
         <v>600</v>
       </c>
-      <c r="L431" t="n">
-        <v>700</v>
-      </c>
       <c r="M431" t="n">
-        <v>650</v>
+        <v>566</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>650</v>
+        <v>566</v>
       </c>
       <c r="Q431" t="n">
         <v>1</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -31461,16 +31461,16 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="K432" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L432" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M432" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q432" t="n">
         <v>1</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -31533,16 +31533,16 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>8400</v>
+        <v>7000</v>
       </c>
       <c r="K433" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L433" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M433" t="n">
-        <v>473</v>
+        <v>650</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>473</v>
+        <v>650</v>
       </c>
       <c r="Q433" t="n">
         <v>1</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -31601,20 +31601,20 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J434" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="K434" t="n">
         <v>500</v>
       </c>
       <c r="L434" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M434" t="n">
-        <v>558</v>
+        <v>500</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31623,11 +31623,11 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P434" t="n">
-        <v>558</v>
+        <v>500</v>
       </c>
       <c r="Q434" t="n">
         <v>1</v>
@@ -31673,20 +31673,20 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J435" t="n">
-        <v>3300</v>
+        <v>8400</v>
       </c>
       <c r="K435" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L435" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M435" t="n">
-        <v>350</v>
+        <v>473</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>350</v>
+        <v>473</v>
       </c>
       <c r="Q435" t="n">
         <v>1</v>
@@ -31745,20 +31745,20 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J436" t="n">
-        <v>1500</v>
+        <v>6000</v>
       </c>
       <c r="K436" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L436" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M436" t="n">
-        <v>400</v>
+        <v>558</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>400</v>
+        <v>558</v>
       </c>
       <c r="Q436" t="n">
         <v>1</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -31817,20 +31817,20 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J437" t="n">
-        <v>12000</v>
+        <v>3300</v>
       </c>
       <c r="K437" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="L437" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="M437" t="n">
-        <v>759</v>
+        <v>350</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>759</v>
+        <v>350</v>
       </c>
       <c r="Q437" t="n">
         <v>1</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -31893,16 +31893,16 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>4700</v>
+        <v>1500</v>
       </c>
       <c r="K438" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L438" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M438" t="n">
-        <v>583</v>
+        <v>400</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31911,11 +31911,11 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P438" t="n">
-        <v>583</v>
+        <v>400</v>
       </c>
       <c r="Q438" t="n">
         <v>1</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -31965,16 +31965,16 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="K439" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="L439" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="M439" t="n">
-        <v>1049</v>
+        <v>759</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>1049</v>
+        <v>759</v>
       </c>
       <c r="Q439" t="n">
         <v>1</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -32037,16 +32037,16 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>2800</v>
+        <v>4700</v>
       </c>
       <c r="K440" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L440" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M440" t="n">
-        <v>800</v>
+        <v>583</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>800</v>
+        <v>583</v>
       </c>
       <c r="Q440" t="n">
         <v>1</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -32109,16 +32109,16 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>2700</v>
+        <v>6500</v>
       </c>
       <c r="K441" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L441" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="M441" t="n">
-        <v>600</v>
+        <v>1049</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32127,11 +32127,11 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P441" t="n">
-        <v>600</v>
+        <v>1049</v>
       </c>
       <c r="Q441" t="n">
         <v>1</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -32181,16 +32181,16 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="K442" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L442" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M442" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32199,11 +32199,11 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P442" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q442" t="n">
         <v>1</v>
@@ -32249,20 +32249,20 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J443" t="n">
-        <v>3300</v>
+        <v>2700</v>
       </c>
       <c r="K443" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L443" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M443" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="Q443" t="n">
         <v>1</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -32321,20 +32321,20 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>5200</v>
+        <v>2100</v>
       </c>
       <c r="K444" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L444" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M444" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32343,11 +32343,11 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P444" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="Q444" t="n">
         <v>1</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -32393,20 +32393,20 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="K445" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="L445" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M445" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32415,11 +32415,11 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P445" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="Q445" t="n">
         <v>1</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -32469,16 +32469,16 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>12500</v>
+        <v>5200</v>
       </c>
       <c r="K446" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L446" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M446" t="n">
-        <v>554</v>
+        <v>750</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>554</v>
+        <v>750</v>
       </c>
       <c r="Q446" t="n">
         <v>1</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -32541,16 +32541,16 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="K447" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L447" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M447" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q447" t="n">
         <v>1</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -32613,16 +32613,16 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>6100</v>
+        <v>12500</v>
       </c>
       <c r="K448" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L448" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M448" t="n">
-        <v>750</v>
+        <v>554</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>750</v>
+        <v>554</v>
       </c>
       <c r="Q448" t="n">
         <v>1</v>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -32685,16 +32685,16 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="K449" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L449" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M449" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q449" t="n">
         <v>1</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -32757,7 +32757,7 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>7900</v>
+        <v>6100</v>
       </c>
       <c r="K450" t="n">
         <v>700</v>
@@ -32766,7 +32766,7 @@
         <v>800</v>
       </c>
       <c r="M450" t="n">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="Q450" t="n">
         <v>1</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -32825,20 +32825,20 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J451" t="n">
-        <v>6800</v>
+        <v>2500</v>
       </c>
       <c r="K451" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L451" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M451" t="n">
-        <v>747</v>
+        <v>600</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32847,11 +32847,11 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P451" t="n">
-        <v>747</v>
+        <v>600</v>
       </c>
       <c r="Q451" t="n">
         <v>1</v>
@@ -32897,20 +32897,20 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J452" t="n">
-        <v>2500</v>
+        <v>7900</v>
       </c>
       <c r="K452" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L452" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M452" t="n">
-        <v>500</v>
+        <v>757</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>500</v>
+        <v>757</v>
       </c>
       <c r="Q452" t="n">
         <v>1</v>
@@ -32969,20 +32969,20 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J453" t="n">
-        <v>2300</v>
+        <v>6800</v>
       </c>
       <c r="K453" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L453" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M453" t="n">
-        <v>600</v>
+        <v>747</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>600</v>
+        <v>747</v>
       </c>
       <c r="Q453" t="n">
         <v>1</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -33041,20 +33041,20 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J454" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="K454" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L454" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M454" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q454" t="n">
         <v>1</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -33117,7 +33117,7 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="K455" t="n">
         <v>600</v>
@@ -33135,7 +33135,7 @@
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P455" t="n">
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33189,16 +33189,16 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>14800</v>
+        <v>3500</v>
       </c>
       <c r="K456" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L456" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M456" t="n">
-        <v>414</v>
+        <v>700</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>414</v>
+        <v>700</v>
       </c>
       <c r="Q456" t="n">
         <v>1</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33261,16 +33261,16 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>5200</v>
+        <v>2800</v>
       </c>
       <c r="K457" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="L457" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M457" t="n">
-        <v>277</v>
+        <v>600</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>277</v>
+        <v>600</v>
       </c>
       <c r="Q457" t="n">
         <v>1</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33333,16 +33333,16 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>8700</v>
+        <v>14800</v>
       </c>
       <c r="K458" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L458" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M458" t="n">
-        <v>511</v>
+        <v>414</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>511</v>
+        <v>414</v>
       </c>
       <c r="Q458" t="n">
         <v>1</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -33405,16 +33405,16 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>4000</v>
+        <v>5200</v>
       </c>
       <c r="K459" t="n">
         <v>250</v>
       </c>
       <c r="L459" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M459" t="n">
-        <v>355</v>
+        <v>277</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>355</v>
+        <v>277</v>
       </c>
       <c r="Q459" t="n">
         <v>1</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33477,16 +33477,16 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>16300</v>
+        <v>8700</v>
       </c>
       <c r="K460" t="n">
         <v>400</v>
       </c>
       <c r="L460" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M460" t="n">
-        <v>442</v>
+        <v>511</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>442</v>
+        <v>511</v>
       </c>
       <c r="Q460" t="n">
         <v>1</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -33549,34 +33549,178 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>6100</v>
+        <v>4000</v>
       </c>
       <c r="K461" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="L461" t="n">
         <v>400</v>
       </c>
       <c r="M461" t="n">
+        <v>355</v>
+      </c>
+      <c r="N461" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O461" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P461" t="n">
+        <v>355</v>
+      </c>
+      <c r="Q461" t="n">
+        <v>1</v>
+      </c>
+      <c r="R461" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>6</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D462" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E462" t="n">
+        <v>13</v>
+      </c>
+      <c r="F462" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J462" t="n">
+        <v>16300</v>
+      </c>
+      <c r="K462" t="n">
+        <v>400</v>
+      </c>
+      <c r="L462" t="n">
+        <v>500</v>
+      </c>
+      <c r="M462" t="n">
+        <v>442</v>
+      </c>
+      <c r="N462" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O462" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P462" t="n">
+        <v>442</v>
+      </c>
+      <c r="Q462" t="n">
+        <v>1</v>
+      </c>
+      <c r="R462" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>6</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D463" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E463" t="n">
+        <v>13</v>
+      </c>
+      <c r="F463" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J463" t="n">
+        <v>6100</v>
+      </c>
+      <c r="K463" t="n">
+        <v>350</v>
+      </c>
+      <c r="L463" t="n">
+        <v>400</v>
+      </c>
+      <c r="M463" t="n">
         <v>378</v>
       </c>
-      <c r="N461" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O461" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P461" t="n">
+      <c r="N463" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O463" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P463" t="n">
         <v>378</v>
       </c>
-      <c r="Q461" t="n">
-        <v>1</v>
-      </c>
-      <c r="R461" t="inlineStr">
+      <c r="Q463" t="n">
+        <v>1</v>
+      </c>
+      <c r="R463" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R467"/>
+  <dimension ref="A1:R471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -29661,16 +29661,16 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>16000</v>
+        <v>8400</v>
       </c>
       <c r="K407" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L407" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M407" t="n">
-        <v>741</v>
+        <v>543</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>741</v>
+        <v>543</v>
       </c>
       <c r="Q407" t="n">
         <v>1</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29729,20 +29729,20 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J408" t="n">
-        <v>4500</v>
+        <v>3600</v>
       </c>
       <c r="K408" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L408" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M408" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29751,11 +29751,11 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P408" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q408" t="n">
         <v>1</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29801,20 +29801,20 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J409" t="n">
-        <v>33300</v>
+        <v>2700</v>
       </c>
       <c r="K409" t="n">
         <v>400</v>
       </c>
       <c r="L409" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M409" t="n">
-        <v>518</v>
+        <v>400</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>518</v>
+        <v>400</v>
       </c>
       <c r="Q409" t="n">
         <v>1</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29877,16 +29877,16 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>9500</v>
+        <v>1800</v>
       </c>
       <c r="K410" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L410" t="n">
         <v>400</v>
       </c>
       <c r="M410" t="n">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29895,11 +29895,11 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P410" t="n">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="Q410" t="n">
         <v>1</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29949,16 +29949,16 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>20400</v>
+        <v>16000</v>
       </c>
       <c r="K411" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L411" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="M411" t="n">
-        <v>369</v>
+        <v>741</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>369</v>
+        <v>741</v>
       </c>
       <c r="Q411" t="n">
         <v>1</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30021,16 +30021,16 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="K412" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L412" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M412" t="n">
-        <v>277</v>
+        <v>500</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>277</v>
+        <v>500</v>
       </c>
       <c r="Q412" t="n">
         <v>1</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -30093,16 +30093,16 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>9100</v>
+        <v>33300</v>
       </c>
       <c r="K413" t="n">
         <v>400</v>
       </c>
       <c r="L413" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M413" t="n">
-        <v>436</v>
+        <v>518</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>436</v>
+        <v>518</v>
       </c>
       <c r="Q413" t="n">
         <v>1</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -30165,16 +30165,16 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>4700</v>
+        <v>9500</v>
       </c>
       <c r="K414" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L414" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M414" t="n">
-        <v>279</v>
+        <v>374</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>279</v>
+        <v>374</v>
       </c>
       <c r="Q414" t="n">
         <v>1</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30233,20 +30233,20 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J415" t="n">
+        <v>20400</v>
+      </c>
+      <c r="K415" t="n">
         <v>300</v>
       </c>
-      <c r="K415" t="n">
-        <v>500</v>
-      </c>
       <c r="L415" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M415" t="n">
-        <v>500</v>
+        <v>369</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30255,11 +30255,11 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P415" t="n">
-        <v>500</v>
+        <v>369</v>
       </c>
       <c r="Q415" t="n">
         <v>1</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30305,20 +30305,20 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J416" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="K416" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="L416" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M416" t="n">
-        <v>472</v>
+        <v>277</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>472</v>
+        <v>277</v>
       </c>
       <c r="Q416" t="n">
         <v>1</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -30377,20 +30377,20 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>6500</v>
+        <v>9100</v>
       </c>
       <c r="K417" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L417" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M417" t="n">
-        <v>373</v>
+        <v>436</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>373</v>
+        <v>436</v>
       </c>
       <c r="Q417" t="n">
         <v>1</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -30449,20 +30449,20 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>10300</v>
+        <v>4700</v>
       </c>
       <c r="K418" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="L418" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="M418" t="n">
-        <v>1091</v>
+        <v>279</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>1091</v>
+        <v>279</v>
       </c>
       <c r="Q418" t="n">
         <v>1</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -30525,16 +30525,16 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>11000</v>
+        <v>300</v>
       </c>
       <c r="K419" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L419" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M419" t="n">
-        <v>741</v>
+        <v>500</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30543,11 +30543,11 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P419" t="n">
-        <v>741</v>
+        <v>500</v>
       </c>
       <c r="Q419" t="n">
         <v>1</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -30597,16 +30597,16 @@
         </is>
       </c>
       <c r="J420" t="n">
-        <v>25200</v>
+        <v>8000</v>
       </c>
       <c r="K420" t="n">
+        <v>450</v>
+      </c>
+      <c r="L420" t="n">
         <v>500</v>
       </c>
-      <c r="L420" t="n">
-        <v>600</v>
-      </c>
       <c r="M420" t="n">
-        <v>549</v>
+        <v>472</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>549</v>
+        <v>472</v>
       </c>
       <c r="Q420" t="n">
         <v>1</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30669,7 +30669,7 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>8400</v>
+        <v>6500</v>
       </c>
       <c r="K421" t="n">
         <v>350</v>
@@ -30678,7 +30678,7 @@
         <v>400</v>
       </c>
       <c r="M421" t="n">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="Q421" t="n">
         <v>1</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -30741,16 +30741,16 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>13800</v>
+        <v>10300</v>
       </c>
       <c r="K422" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L422" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="M422" t="n">
-        <v>549</v>
+        <v>1091</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>549</v>
+        <v>1091</v>
       </c>
       <c r="Q422" t="n">
         <v>1</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -30809,20 +30809,20 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J423" t="n">
-        <v>2300</v>
+        <v>11000</v>
       </c>
       <c r="K423" t="n">
         <v>700</v>
       </c>
       <c r="L423" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M423" t="n">
-        <v>700</v>
+        <v>741</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30831,11 +30831,11 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P423" t="n">
-        <v>700</v>
+        <v>741</v>
       </c>
       <c r="Q423" t="n">
         <v>1</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30881,20 +30881,20 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J424" t="n">
-        <v>3600</v>
+        <v>25200</v>
       </c>
       <c r="K424" t="n">
         <v>500</v>
       </c>
       <c r="L424" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M424" t="n">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="Q424" t="n">
         <v>1</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -30957,16 +30957,16 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>1200</v>
+        <v>8400</v>
       </c>
       <c r="K425" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L425" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M425" t="n">
-        <v>500</v>
+        <v>377</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30975,11 +30975,11 @@
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P425" t="n">
-        <v>500</v>
+        <v>377</v>
       </c>
       <c r="Q425" t="n">
         <v>1</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -31029,7 +31029,7 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>9000</v>
+        <v>13800</v>
       </c>
       <c r="K426" t="n">
         <v>500</v>
@@ -31038,7 +31038,7 @@
         <v>600</v>
       </c>
       <c r="M426" t="n">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="Q426" t="n">
         <v>1</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -31101,16 +31101,16 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="K427" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L427" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M427" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q427" t="n">
         <v>1</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -31173,16 +31173,16 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="K428" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L428" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M428" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q428" t="n">
         <v>1</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44314</v>
+        <v>44397</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -31241,20 +31241,20 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J429" t="n">
-        <v>11300</v>
+        <v>1200</v>
       </c>
       <c r="K429" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L429" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M429" t="n">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31263,11 +31263,11 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P429" t="n">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="Q429" t="n">
         <v>1</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -31313,20 +31313,20 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J430" t="n">
-        <v>3800</v>
+        <v>9000</v>
       </c>
       <c r="K430" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L430" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="M430" t="n">
-        <v>250</v>
+        <v>536</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>250</v>
+        <v>536</v>
       </c>
       <c r="Q430" t="n">
         <v>1</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -31389,16 +31389,16 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>19400</v>
+        <v>2800</v>
       </c>
       <c r="K431" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L431" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M431" t="n">
-        <v>609</v>
+        <v>500</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31407,11 +31407,11 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P431" t="n">
-        <v>609</v>
+        <v>500</v>
       </c>
       <c r="Q431" t="n">
         <v>1</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -31461,16 +31461,16 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>5700</v>
+        <v>3400</v>
       </c>
       <c r="K432" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L432" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M432" t="n">
-        <v>473</v>
+        <v>400</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>473</v>
+        <v>400</v>
       </c>
       <c r="Q432" t="n">
         <v>1</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -31533,16 +31533,16 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>14600</v>
+        <v>11300</v>
       </c>
       <c r="K433" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L433" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M433" t="n">
-        <v>542</v>
+        <v>379</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>542</v>
+        <v>379</v>
       </c>
       <c r="Q433" t="n">
         <v>1</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -31605,16 +31605,16 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>5400</v>
+        <v>3800</v>
       </c>
       <c r="K434" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L434" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M434" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="Q434" t="n">
         <v>1</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -31677,16 +31677,16 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>10200</v>
+        <v>19400</v>
       </c>
       <c r="K435" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L435" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M435" t="n">
-        <v>566</v>
+        <v>609</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>566</v>
+        <v>609</v>
       </c>
       <c r="Q435" t="n">
         <v>1</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -31749,16 +31749,16 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>2900</v>
+        <v>5700</v>
       </c>
       <c r="K436" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L436" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M436" t="n">
-        <v>400</v>
+        <v>473</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>400</v>
+        <v>473</v>
       </c>
       <c r="Q436" t="n">
         <v>1</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -31821,16 +31821,16 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>7000</v>
+        <v>14600</v>
       </c>
       <c r="K437" t="n">
+        <v>500</v>
+      </c>
+      <c r="L437" t="n">
         <v>600</v>
       </c>
-      <c r="L437" t="n">
-        <v>700</v>
-      </c>
       <c r="M437" t="n">
-        <v>650</v>
+        <v>542</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>650</v>
+        <v>542</v>
       </c>
       <c r="Q437" t="n">
         <v>1</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -31893,7 +31893,7 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>2500</v>
+        <v>5400</v>
       </c>
       <c r="K438" t="n">
         <v>500</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -31965,16 +31965,16 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>8400</v>
+        <v>10200</v>
       </c>
       <c r="K439" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L439" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M439" t="n">
-        <v>473</v>
+        <v>566</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>473</v>
+        <v>566</v>
       </c>
       <c r="Q439" t="n">
         <v>1</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -32033,20 +32033,20 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J440" t="n">
-        <v>6000</v>
+        <v>2900</v>
       </c>
       <c r="K440" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L440" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M440" t="n">
-        <v>558</v>
+        <v>400</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32055,11 +32055,11 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P440" t="n">
-        <v>558</v>
+        <v>400</v>
       </c>
       <c r="Q440" t="n">
         <v>1</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -32105,20 +32105,20 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J441" t="n">
-        <v>3300</v>
+        <v>7000</v>
       </c>
       <c r="K441" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L441" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="M441" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="Q441" t="n">
         <v>1</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -32181,16 +32181,16 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="K442" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L442" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M442" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32199,11 +32199,11 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P442" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q442" t="n">
         <v>1</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -32253,16 +32253,16 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>12000</v>
+        <v>8400</v>
       </c>
       <c r="K443" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L443" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M443" t="n">
-        <v>759</v>
+        <v>473</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>759</v>
+        <v>473</v>
       </c>
       <c r="Q443" t="n">
         <v>1</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -32321,20 +32321,20 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>4700</v>
+        <v>6000</v>
       </c>
       <c r="K444" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L444" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M444" t="n">
-        <v>583</v>
+        <v>558</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32343,11 +32343,11 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P444" t="n">
-        <v>583</v>
+        <v>558</v>
       </c>
       <c r="Q444" t="n">
         <v>1</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -32393,20 +32393,20 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>6500</v>
+        <v>3300</v>
       </c>
       <c r="K445" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="L445" t="n">
-        <v>1100</v>
+        <v>350</v>
       </c>
       <c r="M445" t="n">
-        <v>1049</v>
+        <v>350</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>1049</v>
+        <v>350</v>
       </c>
       <c r="Q445" t="n">
         <v>1</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -32469,16 +32469,16 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="K446" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L446" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M446" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32487,11 +32487,11 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P446" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q446" t="n">
         <v>1</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -32541,16 +32541,16 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>2700</v>
+        <v>12000</v>
       </c>
       <c r="K447" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L447" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M447" t="n">
-        <v>600</v>
+        <v>759</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32559,11 +32559,11 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P447" t="n">
-        <v>600</v>
+        <v>759</v>
       </c>
       <c r="Q447" t="n">
         <v>1</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -32613,16 +32613,16 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>2100</v>
+        <v>4700</v>
       </c>
       <c r="K448" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L448" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M448" t="n">
-        <v>400</v>
+        <v>583</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32631,11 +32631,11 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P448" t="n">
-        <v>400</v>
+        <v>583</v>
       </c>
       <c r="Q448" t="n">
         <v>1</v>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -32681,20 +32681,20 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J449" t="n">
-        <v>3300</v>
+        <v>6500</v>
       </c>
       <c r="K449" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="L449" t="n">
-        <v>550</v>
+        <v>1100</v>
       </c>
       <c r="M449" t="n">
-        <v>550</v>
+        <v>1049</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32703,11 +32703,11 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P449" t="n">
-        <v>550</v>
+        <v>1049</v>
       </c>
       <c r="Q449" t="n">
         <v>1</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -32753,20 +32753,20 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J450" t="n">
-        <v>5200</v>
+        <v>2800</v>
       </c>
       <c r="K450" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L450" t="n">
         <v>800</v>
       </c>
       <c r="M450" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="Q450" t="n">
         <v>1</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -32825,11 +32825,11 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J451" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="K451" t="n">
         <v>600</v>
@@ -32847,7 +32847,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P451" t="n">
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -32897,20 +32897,20 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J452" t="n">
-        <v>12500</v>
+        <v>2100</v>
       </c>
       <c r="K452" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L452" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M452" t="n">
-        <v>554</v>
+        <v>400</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32919,11 +32919,11 @@
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P452" t="n">
-        <v>554</v>
+        <v>400</v>
       </c>
       <c r="Q452" t="n">
         <v>1</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -32969,20 +32969,20 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J453" t="n">
-        <v>2600</v>
+        <v>3300</v>
       </c>
       <c r="K453" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L453" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M453" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32991,11 +32991,11 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P453" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="Q453" t="n">
         <v>1</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -33045,7 +33045,7 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>6100</v>
+        <v>5200</v>
       </c>
       <c r="K454" t="n">
         <v>700</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33189,16 +33189,16 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>7900</v>
+        <v>12500</v>
       </c>
       <c r="K456" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L456" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M456" t="n">
-        <v>757</v>
+        <v>554</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>757</v>
+        <v>554</v>
       </c>
       <c r="Q456" t="n">
         <v>1</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33257,20 +33257,20 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J457" t="n">
-        <v>6800</v>
+        <v>2600</v>
       </c>
       <c r="K457" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L457" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M457" t="n">
-        <v>747</v>
+        <v>500</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33279,11 +33279,11 @@
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P457" t="n">
-        <v>747</v>
+        <v>500</v>
       </c>
       <c r="Q457" t="n">
         <v>1</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33329,20 +33329,20 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>2500</v>
+        <v>6100</v>
       </c>
       <c r="K458" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L458" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M458" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="Q458" t="n">
         <v>1</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -33405,7 +33405,7 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="K459" t="n">
         <v>600</v>
@@ -33423,7 +33423,7 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P459" t="n">
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33477,16 +33477,16 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>3500</v>
+        <v>7900</v>
       </c>
       <c r="K460" t="n">
         <v>700</v>
       </c>
       <c r="L460" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M460" t="n">
-        <v>700</v>
+        <v>757</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>700</v>
+        <v>757</v>
       </c>
       <c r="Q460" t="n">
         <v>1</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -33545,20 +33545,20 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J461" t="n">
-        <v>2800</v>
+        <v>6800</v>
       </c>
       <c r="K461" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L461" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M461" t="n">
-        <v>600</v>
+        <v>747</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33567,11 +33567,11 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P461" t="n">
-        <v>600</v>
+        <v>747</v>
       </c>
       <c r="Q461" t="n">
         <v>1</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -33617,20 +33617,20 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J462" t="n">
-        <v>14800</v>
+        <v>2500</v>
       </c>
       <c r="K462" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L462" t="n">
         <v>500</v>
       </c>
       <c r="M462" t="n">
-        <v>414</v>
+        <v>500</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>414</v>
+        <v>500</v>
       </c>
       <c r="Q462" t="n">
         <v>1</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -33693,16 +33693,16 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>5200</v>
+        <v>2300</v>
       </c>
       <c r="K463" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="L463" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M463" t="n">
-        <v>277</v>
+        <v>600</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33711,11 +33711,11 @@
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P463" t="n">
-        <v>277</v>
+        <v>600</v>
       </c>
       <c r="Q463" t="n">
         <v>1</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -33765,16 +33765,16 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>8700</v>
+        <v>3500</v>
       </c>
       <c r="K464" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L464" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M464" t="n">
-        <v>511</v>
+        <v>700</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>511</v>
+        <v>700</v>
       </c>
       <c r="Q464" t="n">
         <v>1</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -33837,16 +33837,16 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="K465" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="L465" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M465" t="n">
-        <v>355</v>
+        <v>600</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>355</v>
+        <v>600</v>
       </c>
       <c r="Q465" t="n">
         <v>1</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -33909,16 +33909,16 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>16300</v>
+        <v>14800</v>
       </c>
       <c r="K466" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L466" t="n">
         <v>500</v>
       </c>
       <c r="M466" t="n">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="Q466" t="n">
         <v>1</v>
@@ -33957,58 +33957,346 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E467" t="n">
+        <v>13</v>
+      </c>
+      <c r="F467" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J467" t="n">
+        <v>5200</v>
+      </c>
+      <c r="K467" t="n">
+        <v>250</v>
+      </c>
+      <c r="L467" t="n">
+        <v>300</v>
+      </c>
+      <c r="M467" t="n">
+        <v>277</v>
+      </c>
+      <c r="N467" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O467" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P467" t="n">
+        <v>277</v>
+      </c>
+      <c r="Q467" t="n">
+        <v>1</v>
+      </c>
+      <c r="R467" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>6</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D468" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E468" t="n">
+        <v>13</v>
+      </c>
+      <c r="F468" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J468" t="n">
+        <v>8700</v>
+      </c>
+      <c r="K468" t="n">
+        <v>400</v>
+      </c>
+      <c r="L468" t="n">
+        <v>600</v>
+      </c>
+      <c r="M468" t="n">
+        <v>511</v>
+      </c>
+      <c r="N468" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O468" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P468" t="n">
+        <v>511</v>
+      </c>
+      <c r="Q468" t="n">
+        <v>1</v>
+      </c>
+      <c r="R468" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>6</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D469" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E469" t="n">
+        <v>13</v>
+      </c>
+      <c r="F469" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I469" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J469" t="n">
+        <v>4000</v>
+      </c>
+      <c r="K469" t="n">
+        <v>250</v>
+      </c>
+      <c r="L469" t="n">
+        <v>400</v>
+      </c>
+      <c r="M469" t="n">
+        <v>355</v>
+      </c>
+      <c r="N469" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O469" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P469" t="n">
+        <v>355</v>
+      </c>
+      <c r="Q469" t="n">
+        <v>1</v>
+      </c>
+      <c r="R469" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>6</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D470" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E467" t="n">
-        <v>13</v>
-      </c>
-      <c r="F467" t="n">
-        <v>100112023</v>
-      </c>
-      <c r="G467" t="inlineStr">
-        <is>
-          <t>Brócoli</t>
-        </is>
-      </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I467" t="inlineStr">
+      <c r="E470" t="n">
+        <v>13</v>
+      </c>
+      <c r="F470" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I470" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J470" t="n">
+        <v>16300</v>
+      </c>
+      <c r="K470" t="n">
+        <v>400</v>
+      </c>
+      <c r="L470" t="n">
+        <v>500</v>
+      </c>
+      <c r="M470" t="n">
+        <v>442</v>
+      </c>
+      <c r="N470" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O470" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P470" t="n">
+        <v>442</v>
+      </c>
+      <c r="Q470" t="n">
+        <v>1</v>
+      </c>
+      <c r="R470" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>6</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D471" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E471" t="n">
+        <v>13</v>
+      </c>
+      <c r="F471" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I471" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J467" t="n">
+      <c r="J471" t="n">
         <v>6100</v>
       </c>
-      <c r="K467" t="n">
+      <c r="K471" t="n">
         <v>350</v>
       </c>
-      <c r="L467" t="n">
+      <c r="L471" t="n">
         <v>400</v>
       </c>
-      <c r="M467" t="n">
+      <c r="M471" t="n">
         <v>378</v>
       </c>
-      <c r="N467" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O467" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P467" t="n">
+      <c r="N471" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O471" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P471" t="n">
         <v>378</v>
       </c>
-      <c r="Q467" t="n">
-        <v>1</v>
-      </c>
-      <c r="R467" t="inlineStr">
+      <c r="Q471" t="n">
+        <v>1</v>
+      </c>
+      <c r="R471" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R487"/>
+  <dimension ref="A1:R491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30309,7 +30309,7 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>6700</v>
+        <v>18700</v>
       </c>
       <c r="K416" t="n">
         <v>500</v>
@@ -30318,7 +30318,7 @@
         <v>600</v>
       </c>
       <c r="M416" t="n">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="Q416" t="n">
         <v>1</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -30381,16 +30381,16 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>27300</v>
+        <v>4200</v>
       </c>
       <c r="K417" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L417" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M417" t="n">
-        <v>508</v>
+        <v>700</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30399,11 +30399,11 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P417" t="n">
-        <v>508</v>
+        <v>700</v>
       </c>
       <c r="Q417" t="n">
         <v>1</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -30453,7 +30453,7 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>9700</v>
+        <v>5000</v>
       </c>
       <c r="K418" t="n">
         <v>300</v>
@@ -30462,7 +30462,7 @@
         <v>400</v>
       </c>
       <c r="M418" t="n">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="Q418" t="n">
         <v>1</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -30521,20 +30521,20 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>6100</v>
+        <v>600</v>
       </c>
       <c r="K419" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L419" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M419" t="n">
-        <v>946</v>
+        <v>500</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30543,11 +30543,11 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P419" t="n">
-        <v>946</v>
+        <v>500</v>
       </c>
       <c r="Q419" t="n">
         <v>1</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44246</v>
+        <v>44481</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -30593,20 +30593,20 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>3400</v>
+        <v>6700</v>
       </c>
       <c r="K420" t="n">
+        <v>500</v>
+      </c>
+      <c r="L420" t="n">
         <v>600</v>
       </c>
-      <c r="L420" t="n">
-        <v>700</v>
-      </c>
       <c r="M420" t="n">
-        <v>656</v>
+        <v>549</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>656</v>
+        <v>549</v>
       </c>
       <c r="Q420" t="n">
         <v>1</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30669,16 +30669,16 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>16300</v>
+        <v>27300</v>
       </c>
       <c r="K421" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L421" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="M421" t="n">
-        <v>579</v>
+        <v>508</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>579</v>
+        <v>508</v>
       </c>
       <c r="Q421" t="n">
         <v>1</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -30741,16 +30741,16 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>7600</v>
+        <v>9700</v>
       </c>
       <c r="K422" t="n">
+        <v>300</v>
+      </c>
+      <c r="L422" t="n">
         <v>400</v>
       </c>
-      <c r="L422" t="n">
-        <v>450</v>
-      </c>
       <c r="M422" t="n">
-        <v>434</v>
+        <v>354</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>434</v>
+        <v>354</v>
       </c>
       <c r="Q422" t="n">
         <v>1</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44425</v>
+        <v>44246</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -30813,16 +30813,16 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>14600</v>
+        <v>6100</v>
       </c>
       <c r="K423" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L423" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M423" t="n">
-        <v>542</v>
+        <v>946</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>542</v>
+        <v>946</v>
       </c>
       <c r="Q423" t="n">
         <v>1</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44425</v>
+        <v>44246</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30885,16 +30885,16 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>5400</v>
+        <v>3400</v>
       </c>
       <c r="K424" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L424" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M424" t="n">
-        <v>500</v>
+        <v>656</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>500</v>
+        <v>656</v>
       </c>
       <c r="Q424" t="n">
         <v>1</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -30957,16 +30957,16 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>16500</v>
+        <v>16300</v>
       </c>
       <c r="K425" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L425" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M425" t="n">
-        <v>412</v>
+        <v>579</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>412</v>
+        <v>579</v>
       </c>
       <c r="Q425" t="n">
         <v>1</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>5900</v>
+        <v>7600</v>
       </c>
       <c r="K426" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L426" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M426" t="n">
-        <v>277</v>
+        <v>434</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>277</v>
+        <v>434</v>
       </c>
       <c r="Q426" t="n">
         <v>1</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -31101,16 +31101,16 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>18500</v>
+        <v>14600</v>
       </c>
       <c r="K427" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L427" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M427" t="n">
-        <v>391</v>
+        <v>542</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>391</v>
+        <v>542</v>
       </c>
       <c r="Q427" t="n">
         <v>1</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -31173,16 +31173,16 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="K428" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L428" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M428" t="n">
-        <v>275</v>
+        <v>500</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>275</v>
+        <v>500</v>
       </c>
       <c r="Q428" t="n">
         <v>1</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -31245,7 +31245,7 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>16900</v>
+        <v>16500</v>
       </c>
       <c r="K429" t="n">
         <v>350</v>
@@ -31254,7 +31254,7 @@
         <v>500</v>
       </c>
       <c r="M429" t="n">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="Q429" t="n">
         <v>1</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -31317,7 +31317,7 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="K430" t="n">
         <v>250</v>
@@ -31326,7 +31326,7 @@
         <v>300</v>
       </c>
       <c r="M430" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q430" t="n">
         <v>1</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -31389,16 +31389,16 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>24300</v>
+        <v>18500</v>
       </c>
       <c r="K431" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L431" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="M431" t="n">
-        <v>713</v>
+        <v>391</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>713</v>
+        <v>391</v>
       </c>
       <c r="Q431" t="n">
         <v>1</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -31461,16 +31461,16 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>9900</v>
+        <v>5300</v>
       </c>
       <c r="K432" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L432" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M432" t="n">
-        <v>566</v>
+        <v>275</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>566</v>
+        <v>275</v>
       </c>
       <c r="Q432" t="n">
         <v>1</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -31533,16 +31533,16 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>13100</v>
+        <v>16900</v>
       </c>
       <c r="K433" t="n">
+        <v>350</v>
+      </c>
+      <c r="L433" t="n">
         <v>500</v>
       </c>
-      <c r="L433" t="n">
-        <v>600</v>
-      </c>
       <c r="M433" t="n">
-        <v>563</v>
+        <v>430</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>563</v>
+        <v>430</v>
       </c>
       <c r="Q433" t="n">
         <v>1</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -31605,16 +31605,16 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="K434" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L434" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="M434" t="n">
-        <v>425</v>
+        <v>273</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>425</v>
+        <v>273</v>
       </c>
       <c r="Q434" t="n">
         <v>1</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -31677,16 +31677,16 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>19400</v>
+        <v>24300</v>
       </c>
       <c r="K435" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L435" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M435" t="n">
-        <v>609</v>
+        <v>713</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>609</v>
+        <v>713</v>
       </c>
       <c r="Q435" t="n">
         <v>1</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -31749,16 +31749,16 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>5700</v>
+        <v>9900</v>
       </c>
       <c r="K436" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L436" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M436" t="n">
-        <v>473</v>
+        <v>566</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>473</v>
+        <v>566</v>
       </c>
       <c r="Q436" t="n">
         <v>1</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -31821,16 +31821,16 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>7900</v>
+        <v>13100</v>
       </c>
       <c r="K437" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L437" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M437" t="n">
-        <v>757</v>
+        <v>563</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>757</v>
+        <v>563</v>
       </c>
       <c r="Q437" t="n">
         <v>1</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -31889,20 +31889,20 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J438" t="n">
-        <v>6800</v>
+        <v>5500</v>
       </c>
       <c r="K438" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L438" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="M438" t="n">
-        <v>747</v>
+        <v>425</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31911,11 +31911,11 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P438" t="n">
-        <v>747</v>
+        <v>425</v>
       </c>
       <c r="Q438" t="n">
         <v>1</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -31961,20 +31961,20 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J439" t="n">
-        <v>2500</v>
+        <v>19400</v>
       </c>
       <c r="K439" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L439" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M439" t="n">
-        <v>500</v>
+        <v>609</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>500</v>
+        <v>609</v>
       </c>
       <c r="Q439" t="n">
         <v>1</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -32037,16 +32037,16 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>2300</v>
+        <v>5700</v>
       </c>
       <c r="K440" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L440" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M440" t="n">
-        <v>600</v>
+        <v>473</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32055,11 +32055,11 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P440" t="n">
-        <v>600</v>
+        <v>473</v>
       </c>
       <c r="Q440" t="n">
         <v>1</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -32109,16 +32109,16 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="K441" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L441" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M441" t="n">
-        <v>559</v>
+        <v>757</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>559</v>
+        <v>757</v>
       </c>
       <c r="Q441" t="n">
         <v>1</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -32181,7 +32181,7 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="K442" t="n">
         <v>700</v>
@@ -32190,7 +32190,7 @@
         <v>800</v>
       </c>
       <c r="M442" t="n">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32199,11 +32199,11 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P442" t="n">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="Q442" t="n">
         <v>1</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -32253,16 +32253,16 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="K443" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L443" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M443" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q443" t="n">
         <v>1</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -32321,20 +32321,20 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>18100</v>
+        <v>2300</v>
       </c>
       <c r="K444" t="n">
         <v>600</v>
       </c>
       <c r="L444" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M444" t="n">
-        <v>647</v>
+        <v>600</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32343,11 +32343,11 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P444" t="n">
-        <v>647</v>
+        <v>600</v>
       </c>
       <c r="Q444" t="n">
         <v>1</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -32393,20 +32393,20 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>3800</v>
+        <v>8000</v>
       </c>
       <c r="K445" t="n">
         <v>500</v>
       </c>
       <c r="L445" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M445" t="n">
-        <v>500</v>
+        <v>559</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>500</v>
+        <v>559</v>
       </c>
       <c r="Q445" t="n">
         <v>1</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -32469,16 +32469,16 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>13500</v>
+        <v>6600</v>
       </c>
       <c r="K446" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L446" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M446" t="n">
-        <v>550</v>
+        <v>752</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32487,11 +32487,11 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P446" t="n">
-        <v>550</v>
+        <v>752</v>
       </c>
       <c r="Q446" t="n">
         <v>1</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -32541,16 +32541,16 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>4700</v>
+        <v>2800</v>
       </c>
       <c r="K447" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L447" t="n">
         <v>400</v>
       </c>
       <c r="M447" t="n">
-        <v>372</v>
+        <v>400</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>372</v>
+        <v>400</v>
       </c>
       <c r="Q447" t="n">
         <v>1</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -32613,7 +32613,7 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>7000</v>
+        <v>18100</v>
       </c>
       <c r="K448" t="n">
         <v>600</v>
@@ -32622,7 +32622,7 @@
         <v>700</v>
       </c>
       <c r="M448" t="n">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q448" t="n">
         <v>1</v>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -32685,7 +32685,7 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>3400</v>
+        <v>3800</v>
       </c>
       <c r="K449" t="n">
         <v>500</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -32757,17 +32757,17 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>70000</v>
+        <v>13500</v>
       </c>
       <c r="K450" t="n">
+        <v>500</v>
+      </c>
+      <c r="L450" t="n">
+        <v>600</v>
+      </c>
+      <c r="M450" t="n">
         <v>550</v>
       </c>
-      <c r="L450" t="n">
-        <v>700</v>
-      </c>
-      <c r="M450" t="n">
-        <v>665</v>
-      </c>
       <c r="N450" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>665</v>
+        <v>550</v>
       </c>
       <c r="Q450" t="n">
         <v>1</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -32829,16 +32829,16 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>28500</v>
+        <v>4700</v>
       </c>
       <c r="K451" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L451" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M451" t="n">
-        <v>500</v>
+        <v>372</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>500</v>
+        <v>372</v>
       </c>
       <c r="Q451" t="n">
         <v>1</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -32901,16 +32901,16 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>14900</v>
+        <v>7000</v>
       </c>
       <c r="K452" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L452" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M452" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="Q452" t="n">
         <v>1</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -32973,16 +32973,16 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>4500</v>
+        <v>3400</v>
       </c>
       <c r="K453" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L453" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M453" t="n">
-        <v>286</v>
+        <v>500</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>286</v>
+        <v>500</v>
       </c>
       <c r="Q453" t="n">
         <v>1</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -33045,16 +33045,16 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>6600</v>
+        <v>70000</v>
       </c>
       <c r="K454" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L454" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M454" t="n">
-        <v>441</v>
+        <v>665</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33063,11 +33063,11 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P454" t="n">
-        <v>441</v>
+        <v>665</v>
       </c>
       <c r="Q454" t="n">
         <v>1</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -33117,16 +33117,16 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>2200</v>
+        <v>28500</v>
       </c>
       <c r="K455" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L455" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M455" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33135,11 +33135,11 @@
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P455" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q455" t="n">
         <v>1</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33189,7 +33189,7 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>9100</v>
+        <v>14900</v>
       </c>
       <c r="K456" t="n">
         <v>400</v>
@@ -33198,7 +33198,7 @@
         <v>500</v>
       </c>
       <c r="M456" t="n">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="Q456" t="n">
         <v>1</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33261,7 +33261,7 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="K457" t="n">
         <v>250</v>
@@ -33270,7 +33270,7 @@
         <v>300</v>
       </c>
       <c r="M457" t="n">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="Q457" t="n">
         <v>1</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33329,20 +33329,20 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>300</v>
+        <v>6600</v>
       </c>
       <c r="K458" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L458" t="n">
         <v>500</v>
       </c>
       <c r="M458" t="n">
-        <v>500</v>
+        <v>441</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33351,11 +33351,11 @@
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P458" t="n">
-        <v>500</v>
+        <v>441</v>
       </c>
       <c r="Q458" t="n">
         <v>1</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -33401,20 +33401,20 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>33300</v>
+        <v>2200</v>
       </c>
       <c r="K459" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L459" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="M459" t="n">
-        <v>518</v>
+        <v>350</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33423,11 +33423,11 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P459" t="n">
-        <v>518</v>
+        <v>350</v>
       </c>
       <c r="Q459" t="n">
         <v>1</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33473,20 +33473,20 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J460" t="n">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="K460" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L460" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M460" t="n">
-        <v>374</v>
+        <v>436</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>374</v>
+        <v>436</v>
       </c>
       <c r="Q460" t="n">
         <v>1</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -33545,20 +33545,20 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J461" t="n">
-        <v>13100</v>
+        <v>4700</v>
       </c>
       <c r="K461" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L461" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M461" t="n">
-        <v>549</v>
+        <v>279</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>549</v>
+        <v>279</v>
       </c>
       <c r="Q461" t="n">
         <v>1</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -33621,16 +33621,16 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>4300</v>
+        <v>300</v>
       </c>
       <c r="K462" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L462" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M462" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33639,11 +33639,11 @@
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P462" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q462" t="n">
         <v>1</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -33693,16 +33693,16 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>12000</v>
+        <v>33300</v>
       </c>
       <c r="K463" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="L463" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M463" t="n">
-        <v>759</v>
+        <v>518</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>759</v>
+        <v>518</v>
       </c>
       <c r="Q463" t="n">
         <v>1</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -33765,16 +33765,16 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>4700</v>
+        <v>9500</v>
       </c>
       <c r="K464" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L464" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M464" t="n">
-        <v>583</v>
+        <v>374</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>583</v>
+        <v>374</v>
       </c>
       <c r="Q464" t="n">
         <v>1</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -33837,16 +33837,16 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>26600</v>
+        <v>13100</v>
       </c>
       <c r="K465" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L465" t="n">
         <v>600</v>
       </c>
       <c r="M465" t="n">
-        <v>473</v>
+        <v>549</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>473</v>
+        <v>549</v>
       </c>
       <c r="Q465" t="n">
         <v>1</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -33909,16 +33909,16 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>6000</v>
+        <v>4300</v>
       </c>
       <c r="K466" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L466" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M466" t="n">
-        <v>277</v>
+        <v>400</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>277</v>
+        <v>400</v>
       </c>
       <c r="Q466" t="n">
         <v>1</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44421</v>
+        <v>44270</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -33981,16 +33981,16 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>16500</v>
+        <v>12000</v>
       </c>
       <c r="K467" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L467" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M467" t="n">
-        <v>541</v>
+        <v>759</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>541</v>
+        <v>759</v>
       </c>
       <c r="Q467" t="n">
         <v>1</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44383</v>
+        <v>44270</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -34049,20 +34049,20 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>16600</v>
+        <v>4700</v>
       </c>
       <c r="K468" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L468" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M468" t="n">
-        <v>460</v>
+        <v>583</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>460</v>
+        <v>583</v>
       </c>
       <c r="Q468" t="n">
         <v>1</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44383</v>
+        <v>44295</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34121,20 +34121,20 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J469" t="n">
-        <v>7300</v>
+        <v>26600</v>
       </c>
       <c r="K469" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L469" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M469" t="n">
-        <v>381</v>
+        <v>473</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>381</v>
+        <v>473</v>
       </c>
       <c r="Q469" t="n">
         <v>1</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44244</v>
+        <v>44295</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -34193,20 +34193,20 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J470" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="K470" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="L470" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="M470" t="n">
-        <v>843</v>
+        <v>277</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>843</v>
+        <v>277</v>
       </c>
       <c r="Q470" t="n">
         <v>1</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34265,20 +34265,20 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>5600</v>
+        <v>16500</v>
       </c>
       <c r="K471" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L471" t="n">
         <v>600</v>
       </c>
       <c r="M471" t="n">
-        <v>600</v>
+        <v>541</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>600</v>
+        <v>541</v>
       </c>
       <c r="Q471" t="n">
         <v>1</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34341,16 +34341,16 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>20100</v>
+        <v>16600</v>
       </c>
       <c r="K472" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L472" t="n">
         <v>500</v>
       </c>
       <c r="M472" t="n">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="Q472" t="n">
         <v>1</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -34409,20 +34409,20 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J473" t="n">
-        <v>2300</v>
+        <v>7300</v>
       </c>
       <c r="K473" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L473" t="n">
         <v>400</v>
       </c>
       <c r="M473" t="n">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34431,11 +34431,11 @@
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P473" t="n">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="Q473" t="n">
         <v>1</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34481,20 +34481,20 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J474" t="n">
-        <v>6300</v>
+        <v>13000</v>
       </c>
       <c r="K474" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="L474" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="M474" t="n">
-        <v>251</v>
+        <v>843</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>251</v>
+        <v>843</v>
       </c>
       <c r="Q474" t="n">
         <v>1</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34557,16 +34557,16 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>1200</v>
+        <v>5600</v>
       </c>
       <c r="K475" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L475" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M475" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34575,11 +34575,11 @@
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P475" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="Q475" t="n">
         <v>1</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34629,16 +34629,16 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>10700</v>
+        <v>20100</v>
       </c>
       <c r="K476" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L476" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M476" t="n">
-        <v>738</v>
+        <v>430</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>738</v>
+        <v>430</v>
       </c>
       <c r="Q476" t="n">
         <v>1</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -34697,20 +34697,20 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>4000</v>
+        <v>2300</v>
       </c>
       <c r="K477" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L477" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M477" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34719,11 +34719,11 @@
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P477" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="Q477" t="n">
         <v>1</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -34769,20 +34769,20 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>22000</v>
+        <v>6300</v>
       </c>
       <c r="K478" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L478" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M478" t="n">
-        <v>444</v>
+        <v>251</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>444</v>
+        <v>251</v>
       </c>
       <c r="Q478" t="n">
         <v>1</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -34845,16 +34845,16 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>6600</v>
+        <v>1200</v>
       </c>
       <c r="K479" t="n">
         <v>300</v>
       </c>
       <c r="L479" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M479" t="n">
-        <v>352</v>
+        <v>300</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34863,11 +34863,11 @@
       </c>
       <c r="O479" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P479" t="n">
-        <v>352</v>
+        <v>300</v>
       </c>
       <c r="Q479" t="n">
         <v>1</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34917,16 +34917,16 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>21600</v>
+        <v>10700</v>
       </c>
       <c r="K480" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L480" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M480" t="n">
-        <v>452</v>
+        <v>738</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>452</v>
+        <v>738</v>
       </c>
       <c r="Q480" t="n">
         <v>1</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -34989,16 +34989,16 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>10500</v>
+        <v>4000</v>
       </c>
       <c r="K481" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="L481" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M481" t="n">
-        <v>326</v>
+        <v>480</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>326</v>
+        <v>480</v>
       </c>
       <c r="Q481" t="n">
         <v>1</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -35061,16 +35061,16 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="K482" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L482" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M482" t="n">
-        <v>750</v>
+        <v>444</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>750</v>
+        <v>444</v>
       </c>
       <c r="Q482" t="n">
         <v>1</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -35133,16 +35133,16 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>4300</v>
+        <v>6600</v>
       </c>
       <c r="K483" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L483" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M483" t="n">
-        <v>600</v>
+        <v>352</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>600</v>
+        <v>352</v>
       </c>
       <c r="Q483" t="n">
         <v>1</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -35205,16 +35205,16 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>8400</v>
+        <v>21600</v>
       </c>
       <c r="K484" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L484" t="n">
         <v>600</v>
       </c>
       <c r="M484" t="n">
-        <v>543</v>
+        <v>452</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>543</v>
+        <v>452</v>
       </c>
       <c r="Q484" t="n">
         <v>1</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -35273,20 +35273,20 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>3600</v>
+        <v>10500</v>
       </c>
       <c r="K485" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L485" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M485" t="n">
-        <v>600</v>
+        <v>326</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35295,11 +35295,11 @@
       </c>
       <c r="O485" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P485" t="n">
-        <v>600</v>
+        <v>326</v>
       </c>
       <c r="Q485" t="n">
         <v>1</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -35345,20 +35345,20 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>2700</v>
+        <v>16000</v>
       </c>
       <c r="K486" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L486" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M486" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="Q486" t="n">
         <v>1</v>
@@ -35397,58 +35397,346 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E487" t="n">
+        <v>13</v>
+      </c>
+      <c r="F487" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J487" t="n">
+        <v>4300</v>
+      </c>
+      <c r="K487" t="n">
+        <v>600</v>
+      </c>
+      <c r="L487" t="n">
+        <v>600</v>
+      </c>
+      <c r="M487" t="n">
+        <v>600</v>
+      </c>
+      <c r="N487" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O487" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P487" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q487" t="n">
+        <v>1</v>
+      </c>
+      <c r="R487" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>6</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D488" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E487" t="n">
-        <v>13</v>
-      </c>
-      <c r="F487" t="n">
-        <v>100112023</v>
-      </c>
-      <c r="G487" t="inlineStr">
-        <is>
-          <t>Brócoli</t>
-        </is>
-      </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I487" t="inlineStr">
+      <c r="E488" t="n">
+        <v>13</v>
+      </c>
+      <c r="F488" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I488" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J488" t="n">
+        <v>8400</v>
+      </c>
+      <c r="K488" t="n">
+        <v>500</v>
+      </c>
+      <c r="L488" t="n">
+        <v>600</v>
+      </c>
+      <c r="M488" t="n">
+        <v>543</v>
+      </c>
+      <c r="N488" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O488" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P488" t="n">
+        <v>543</v>
+      </c>
+      <c r="Q488" t="n">
+        <v>1</v>
+      </c>
+      <c r="R488" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>6</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D489" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E489" t="n">
+        <v>13</v>
+      </c>
+      <c r="F489" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I489" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J489" t="n">
+        <v>3600</v>
+      </c>
+      <c r="K489" t="n">
+        <v>600</v>
+      </c>
+      <c r="L489" t="n">
+        <v>600</v>
+      </c>
+      <c r="M489" t="n">
+        <v>600</v>
+      </c>
+      <c r="N489" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O489" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P489" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q489" t="n">
+        <v>1</v>
+      </c>
+      <c r="R489" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>6</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D490" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E490" t="n">
+        <v>13</v>
+      </c>
+      <c r="F490" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I490" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J487" t="n">
+      <c r="J490" t="n">
+        <v>2700</v>
+      </c>
+      <c r="K490" t="n">
+        <v>400</v>
+      </c>
+      <c r="L490" t="n">
+        <v>400</v>
+      </c>
+      <c r="M490" t="n">
+        <v>400</v>
+      </c>
+      <c r="N490" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O490" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P490" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q490" t="n">
+        <v>1</v>
+      </c>
+      <c r="R490" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>6</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D491" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E491" t="n">
+        <v>13</v>
+      </c>
+      <c r="F491" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I491" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J491" t="n">
         <v>1800</v>
       </c>
-      <c r="K487" t="n">
+      <c r="K491" t="n">
         <v>400</v>
       </c>
-      <c r="L487" t="n">
+      <c r="L491" t="n">
         <v>400</v>
       </c>
-      <c r="M487" t="n">
+      <c r="M491" t="n">
         <v>400</v>
       </c>
-      <c r="N487" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O487" t="inlineStr">
+      <c r="N491" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O491" t="inlineStr">
         <is>
           <t>Región de Coquimbo</t>
         </is>
       </c>
-      <c r="P487" t="n">
+      <c r="P491" t="n">
         <v>400</v>
       </c>
-      <c r="Q487" t="n">
-        <v>1</v>
-      </c>
-      <c r="R487" t="inlineStr">
+      <c r="Q491" t="n">
+        <v>1</v>
+      </c>
+      <c r="R491" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R491"/>
+  <dimension ref="A1:R493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -30957,16 +30957,16 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>16300</v>
+        <v>16100</v>
       </c>
       <c r="K425" t="n">
         <v>500</v>
       </c>
       <c r="L425" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="M425" t="n">
-        <v>579</v>
+        <v>552</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>579</v>
+        <v>552</v>
       </c>
       <c r="Q425" t="n">
         <v>1</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>7600</v>
+        <v>4900</v>
       </c>
       <c r="K426" t="n">
         <v>400</v>
       </c>
       <c r="L426" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="M426" t="n">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="Q426" t="n">
         <v>1</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -31101,16 +31101,16 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>14600</v>
+        <v>16300</v>
       </c>
       <c r="K427" t="n">
         <v>500</v>
       </c>
       <c r="L427" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M427" t="n">
-        <v>542</v>
+        <v>579</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>542</v>
+        <v>579</v>
       </c>
       <c r="Q427" t="n">
         <v>1</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -31173,16 +31173,16 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>5400</v>
+        <v>7600</v>
       </c>
       <c r="K428" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L428" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M428" t="n">
-        <v>500</v>
+        <v>434</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>500</v>
+        <v>434</v>
       </c>
       <c r="Q428" t="n">
         <v>1</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -31245,16 +31245,16 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>16500</v>
+        <v>14600</v>
       </c>
       <c r="K429" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L429" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M429" t="n">
-        <v>412</v>
+        <v>542</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>412</v>
+        <v>542</v>
       </c>
       <c r="Q429" t="n">
         <v>1</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -31317,16 +31317,16 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>5900</v>
+        <v>5400</v>
       </c>
       <c r="K430" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L430" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M430" t="n">
-        <v>277</v>
+        <v>500</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>277</v>
+        <v>500</v>
       </c>
       <c r="Q430" t="n">
         <v>1</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -31389,16 +31389,16 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>18500</v>
+        <v>16500</v>
       </c>
       <c r="K431" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L431" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M431" t="n">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="Q431" t="n">
         <v>1</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -31461,7 +31461,7 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>5300</v>
+        <v>5900</v>
       </c>
       <c r="K432" t="n">
         <v>250</v>
@@ -31470,7 +31470,7 @@
         <v>300</v>
       </c>
       <c r="M432" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q432" t="n">
         <v>1</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -31533,16 +31533,16 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>16900</v>
+        <v>18500</v>
       </c>
       <c r="K433" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L433" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M433" t="n">
-        <v>430</v>
+        <v>391</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>430</v>
+        <v>391</v>
       </c>
       <c r="Q433" t="n">
         <v>1</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -31605,7 +31605,7 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>6000</v>
+        <v>5300</v>
       </c>
       <c r="K434" t="n">
         <v>250</v>
@@ -31614,7 +31614,7 @@
         <v>300</v>
       </c>
       <c r="M434" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q434" t="n">
         <v>1</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -31677,16 +31677,16 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>24300</v>
+        <v>16900</v>
       </c>
       <c r="K435" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="L435" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M435" t="n">
-        <v>713</v>
+        <v>430</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>713</v>
+        <v>430</v>
       </c>
       <c r="Q435" t="n">
         <v>1</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -31749,16 +31749,16 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>9900</v>
+        <v>6000</v>
       </c>
       <c r="K436" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L436" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M436" t="n">
-        <v>566</v>
+        <v>273</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>566</v>
+        <v>273</v>
       </c>
       <c r="Q436" t="n">
         <v>1</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -31821,16 +31821,16 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>13100</v>
+        <v>24300</v>
       </c>
       <c r="K437" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L437" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M437" t="n">
-        <v>563</v>
+        <v>713</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>563</v>
+        <v>713</v>
       </c>
       <c r="Q437" t="n">
         <v>1</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -31893,16 +31893,16 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>5500</v>
+        <v>9900</v>
       </c>
       <c r="K438" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L438" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M438" t="n">
-        <v>425</v>
+        <v>566</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>425</v>
+        <v>566</v>
       </c>
       <c r="Q438" t="n">
         <v>1</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -31965,16 +31965,16 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>19400</v>
+        <v>13100</v>
       </c>
       <c r="K439" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L439" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M439" t="n">
-        <v>609</v>
+        <v>563</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>609</v>
+        <v>563</v>
       </c>
       <c r="Q439" t="n">
         <v>1</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -32037,16 +32037,16 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="K440" t="n">
+        <v>400</v>
+      </c>
+      <c r="L440" t="n">
         <v>450</v>
       </c>
-      <c r="L440" t="n">
-        <v>500</v>
-      </c>
       <c r="M440" t="n">
-        <v>473</v>
+        <v>425</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>473</v>
+        <v>425</v>
       </c>
       <c r="Q440" t="n">
         <v>1</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -32109,16 +32109,16 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>7900</v>
+        <v>19400</v>
       </c>
       <c r="K441" t="n">
+        <v>550</v>
+      </c>
+      <c r="L441" t="n">
         <v>700</v>
       </c>
-      <c r="L441" t="n">
-        <v>800</v>
-      </c>
       <c r="M441" t="n">
-        <v>757</v>
+        <v>609</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>757</v>
+        <v>609</v>
       </c>
       <c r="Q441" t="n">
         <v>1</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -32177,20 +32177,20 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J442" t="n">
-        <v>6800</v>
+        <v>5700</v>
       </c>
       <c r="K442" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L442" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M442" t="n">
-        <v>747</v>
+        <v>473</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32199,11 +32199,11 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P442" t="n">
-        <v>747</v>
+        <v>473</v>
       </c>
       <c r="Q442" t="n">
         <v>1</v>
@@ -32249,20 +32249,20 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J443" t="n">
-        <v>2500</v>
+        <v>7900</v>
       </c>
       <c r="K443" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L443" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M443" t="n">
-        <v>500</v>
+        <v>757</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>500</v>
+        <v>757</v>
       </c>
       <c r="Q443" t="n">
         <v>1</v>
@@ -32321,20 +32321,20 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>2300</v>
+        <v>6800</v>
       </c>
       <c r="K444" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L444" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M444" t="n">
-        <v>600</v>
+        <v>747</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>600</v>
+        <v>747</v>
       </c>
       <c r="Q444" t="n">
         <v>1</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -32393,20 +32393,20 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="K445" t="n">
         <v>500</v>
       </c>
       <c r="L445" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M445" t="n">
-        <v>559</v>
+        <v>500</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>559</v>
+        <v>500</v>
       </c>
       <c r="Q445" t="n">
         <v>1</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -32465,20 +32465,20 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J446" t="n">
-        <v>6600</v>
+        <v>2300</v>
       </c>
       <c r="K446" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L446" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M446" t="n">
-        <v>752</v>
+        <v>600</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32487,11 +32487,11 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P446" t="n">
-        <v>752</v>
+        <v>600</v>
       </c>
       <c r="Q446" t="n">
         <v>1</v>
@@ -32537,20 +32537,20 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>2800</v>
+        <v>8000</v>
       </c>
       <c r="K447" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L447" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M447" t="n">
-        <v>400</v>
+        <v>559</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>400</v>
+        <v>559</v>
       </c>
       <c r="Q447" t="n">
         <v>1</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -32613,16 +32613,16 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>18100</v>
+        <v>6600</v>
       </c>
       <c r="K448" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L448" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M448" t="n">
-        <v>647</v>
+        <v>752</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32631,11 +32631,11 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P448" t="n">
-        <v>647</v>
+        <v>752</v>
       </c>
       <c r="Q448" t="n">
         <v>1</v>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -32685,16 +32685,16 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="K449" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L449" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M449" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q449" t="n">
         <v>1</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -32757,16 +32757,16 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>13500</v>
+        <v>18100</v>
       </c>
       <c r="K450" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L450" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M450" t="n">
-        <v>550</v>
+        <v>647</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>550</v>
+        <v>647</v>
       </c>
       <c r="Q450" t="n">
         <v>1</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -32829,16 +32829,16 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>4700</v>
+        <v>3800</v>
       </c>
       <c r="K451" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L451" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M451" t="n">
-        <v>372</v>
+        <v>500</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>372</v>
+        <v>500</v>
       </c>
       <c r="Q451" t="n">
         <v>1</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -32901,16 +32901,16 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>7000</v>
+        <v>13500</v>
       </c>
       <c r="K452" t="n">
+        <v>500</v>
+      </c>
+      <c r="L452" t="n">
         <v>600</v>
       </c>
-      <c r="L452" t="n">
-        <v>700</v>
-      </c>
       <c r="M452" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q452" t="n">
         <v>1</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -32973,16 +32973,16 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>3400</v>
+        <v>4700</v>
       </c>
       <c r="K453" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L453" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M453" t="n">
-        <v>500</v>
+        <v>372</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>500</v>
+        <v>372</v>
       </c>
       <c r="Q453" t="n">
         <v>1</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -33045,16 +33045,16 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>70000</v>
+        <v>7000</v>
       </c>
       <c r="K454" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L454" t="n">
         <v>700</v>
       </c>
       <c r="M454" t="n">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="Q454" t="n">
         <v>1</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -33117,7 +33117,7 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>28500</v>
+        <v>3400</v>
       </c>
       <c r="K455" t="n">
         <v>500</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33189,16 +33189,16 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>14900</v>
+        <v>70000</v>
       </c>
       <c r="K456" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L456" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M456" t="n">
-        <v>450</v>
+        <v>665</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>450</v>
+        <v>665</v>
       </c>
       <c r="Q456" t="n">
         <v>1</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33261,16 +33261,16 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>4500</v>
+        <v>28500</v>
       </c>
       <c r="K457" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L457" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M457" t="n">
-        <v>286</v>
+        <v>500</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>286</v>
+        <v>500</v>
       </c>
       <c r="Q457" t="n">
         <v>1</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33333,7 +33333,7 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>6600</v>
+        <v>14900</v>
       </c>
       <c r="K458" t="n">
         <v>400</v>
@@ -33342,7 +33342,7 @@
         <v>500</v>
       </c>
       <c r="M458" t="n">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33351,11 +33351,11 @@
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P458" t="n">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="Q458" t="n">
         <v>1</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -33405,16 +33405,16 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>2200</v>
+        <v>4500</v>
       </c>
       <c r="K459" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="L459" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M459" t="n">
-        <v>350</v>
+        <v>286</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33423,11 +33423,11 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P459" t="n">
-        <v>350</v>
+        <v>286</v>
       </c>
       <c r="Q459" t="n">
         <v>1</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33477,7 +33477,7 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>9100</v>
+        <v>6600</v>
       </c>
       <c r="K460" t="n">
         <v>400</v>
@@ -33486,7 +33486,7 @@
         <v>500</v>
       </c>
       <c r="M460" t="n">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33495,11 +33495,11 @@
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P460" t="n">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="Q460" t="n">
         <v>1</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -33549,16 +33549,16 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>4700</v>
+        <v>2200</v>
       </c>
       <c r="K461" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L461" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M461" t="n">
-        <v>279</v>
+        <v>350</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33567,11 +33567,11 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P461" t="n">
-        <v>279</v>
+        <v>350</v>
       </c>
       <c r="Q461" t="n">
         <v>1</v>
@@ -33617,20 +33617,20 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J462" t="n">
-        <v>300</v>
+        <v>9100</v>
       </c>
       <c r="K462" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L462" t="n">
         <v>500</v>
       </c>
       <c r="M462" t="n">
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33639,11 +33639,11 @@
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P462" t="n">
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="Q462" t="n">
         <v>1</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -33689,20 +33689,20 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J463" t="n">
-        <v>33300</v>
+        <v>4700</v>
       </c>
       <c r="K463" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L463" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M463" t="n">
-        <v>518</v>
+        <v>279</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>518</v>
+        <v>279</v>
       </c>
       <c r="Q463" t="n">
         <v>1</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -33765,16 +33765,16 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>9500</v>
+        <v>300</v>
       </c>
       <c r="K464" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L464" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M464" t="n">
-        <v>374</v>
+        <v>500</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33783,11 +33783,11 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P464" t="n">
-        <v>374</v>
+        <v>500</v>
       </c>
       <c r="Q464" t="n">
         <v>1</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -33837,16 +33837,16 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>13100</v>
+        <v>33300</v>
       </c>
       <c r="K465" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L465" t="n">
         <v>600</v>
       </c>
       <c r="M465" t="n">
-        <v>549</v>
+        <v>518</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>549</v>
+        <v>518</v>
       </c>
       <c r="Q465" t="n">
         <v>1</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -33909,16 +33909,16 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>4300</v>
+        <v>9500</v>
       </c>
       <c r="K466" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L466" t="n">
         <v>400</v>
       </c>
       <c r="M466" t="n">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="Q466" t="n">
         <v>1</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -33981,16 +33981,16 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>12000</v>
+        <v>13100</v>
       </c>
       <c r="K467" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L467" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M467" t="n">
-        <v>759</v>
+        <v>549</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>759</v>
+        <v>549</v>
       </c>
       <c r="Q467" t="n">
         <v>1</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -34053,16 +34053,16 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>4700</v>
+        <v>4300</v>
       </c>
       <c r="K468" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L468" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M468" t="n">
-        <v>583</v>
+        <v>400</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>583</v>
+        <v>400</v>
       </c>
       <c r="Q468" t="n">
         <v>1</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34125,16 +34125,16 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>26600</v>
+        <v>12000</v>
       </c>
       <c r="K469" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="L469" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M469" t="n">
-        <v>473</v>
+        <v>759</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>473</v>
+        <v>759</v>
       </c>
       <c r="Q469" t="n">
         <v>1</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -34197,16 +34197,16 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>6000</v>
+        <v>4700</v>
       </c>
       <c r="K470" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="L470" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M470" t="n">
-        <v>277</v>
+        <v>583</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>277</v>
+        <v>583</v>
       </c>
       <c r="Q470" t="n">
         <v>1</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34269,16 +34269,16 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>16500</v>
+        <v>26600</v>
       </c>
       <c r="K471" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L471" t="n">
         <v>600</v>
       </c>
       <c r="M471" t="n">
-        <v>541</v>
+        <v>473</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>541</v>
+        <v>473</v>
       </c>
       <c r="Q471" t="n">
         <v>1</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44383</v>
+        <v>44295</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34337,20 +34337,20 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>16600</v>
+        <v>6000</v>
       </c>
       <c r="K472" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L472" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M472" t="n">
-        <v>460</v>
+        <v>277</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>460</v>
+        <v>277</v>
       </c>
       <c r="Q472" t="n">
         <v>1</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -34409,20 +34409,20 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J473" t="n">
-        <v>7300</v>
+        <v>16500</v>
       </c>
       <c r="K473" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L473" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M473" t="n">
-        <v>381</v>
+        <v>541</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>381</v>
+        <v>541</v>
       </c>
       <c r="Q473" t="n">
         <v>1</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34485,16 +34485,16 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>13000</v>
+        <v>16600</v>
       </c>
       <c r="K474" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L474" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M474" t="n">
-        <v>843</v>
+        <v>460</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>843</v>
+        <v>460</v>
       </c>
       <c r="Q474" t="n">
         <v>1</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34557,16 +34557,16 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>5600</v>
+        <v>7300</v>
       </c>
       <c r="K475" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="L475" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M475" t="n">
-        <v>600</v>
+        <v>381</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>600</v>
+        <v>381</v>
       </c>
       <c r="Q475" t="n">
         <v>1</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34629,16 +34629,16 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>20100</v>
+        <v>13000</v>
       </c>
       <c r="K476" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="L476" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M476" t="n">
-        <v>430</v>
+        <v>843</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>430</v>
+        <v>843</v>
       </c>
       <c r="Q476" t="n">
         <v>1</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -34697,20 +34697,20 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>2300</v>
+        <v>5600</v>
       </c>
       <c r="K477" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L477" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M477" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34719,11 +34719,11 @@
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P477" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q477" t="n">
         <v>1</v>
@@ -34769,20 +34769,20 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>6300</v>
+        <v>20100</v>
       </c>
       <c r="K478" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="L478" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M478" t="n">
-        <v>251</v>
+        <v>430</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>251</v>
+        <v>430</v>
       </c>
       <c r="Q478" t="n">
         <v>1</v>
@@ -34841,20 +34841,20 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J479" t="n">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="K479" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L479" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M479" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q479" t="n">
         <v>1</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34913,20 +34913,20 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J480" t="n">
-        <v>10700</v>
+        <v>6300</v>
       </c>
       <c r="K480" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L480" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M480" t="n">
-        <v>738</v>
+        <v>251</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>738</v>
+        <v>251</v>
       </c>
       <c r="Q480" t="n">
         <v>1</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -34989,16 +34989,16 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="K481" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L481" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M481" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35007,11 +35007,11 @@
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P481" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="Q481" t="n">
         <v>1</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -35061,16 +35061,16 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>22000</v>
+        <v>10700</v>
       </c>
       <c r="K482" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L482" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M482" t="n">
-        <v>444</v>
+        <v>738</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>444</v>
+        <v>738</v>
       </c>
       <c r="Q482" t="n">
         <v>1</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -35133,16 +35133,16 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>6600</v>
+        <v>4000</v>
       </c>
       <c r="K483" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L483" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M483" t="n">
-        <v>352</v>
+        <v>480</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>352</v>
+        <v>480</v>
       </c>
       <c r="Q483" t="n">
         <v>1</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -35205,16 +35205,16 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>21600</v>
+        <v>22000</v>
       </c>
       <c r="K484" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L484" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M484" t="n">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="Q484" t="n">
         <v>1</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -35277,16 +35277,16 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>10500</v>
+        <v>6600</v>
       </c>
       <c r="K485" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L485" t="n">
         <v>400</v>
       </c>
       <c r="M485" t="n">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="Q485" t="n">
         <v>1</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -35349,16 +35349,16 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>16000</v>
+        <v>21600</v>
       </c>
       <c r="K486" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L486" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M486" t="n">
-        <v>750</v>
+        <v>452</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>750</v>
+        <v>452</v>
       </c>
       <c r="Q486" t="n">
         <v>1</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -35421,16 +35421,16 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>4300</v>
+        <v>10500</v>
       </c>
       <c r="K487" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L487" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M487" t="n">
-        <v>600</v>
+        <v>326</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>600</v>
+        <v>326</v>
       </c>
       <c r="Q487" t="n">
         <v>1</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -35493,16 +35493,16 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>8400</v>
+        <v>16000</v>
       </c>
       <c r="K488" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L488" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M488" t="n">
-        <v>543</v>
+        <v>750</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>543</v>
+        <v>750</v>
       </c>
       <c r="Q488" t="n">
         <v>1</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -35561,11 +35561,11 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>3600</v>
+        <v>4300</v>
       </c>
       <c r="K489" t="n">
         <v>600</v>
@@ -35583,7 +35583,7 @@
       </c>
       <c r="O489" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P489" t="n">
@@ -35633,20 +35633,20 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J490" t="n">
-        <v>2700</v>
+        <v>8400</v>
       </c>
       <c r="K490" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L490" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M490" t="n">
-        <v>400</v>
+        <v>543</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>400</v>
+        <v>543</v>
       </c>
       <c r="Q490" t="n">
         <v>1</v>
@@ -35705,38 +35705,182 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J491" t="n">
+        <v>3600</v>
+      </c>
+      <c r="K491" t="n">
+        <v>600</v>
+      </c>
+      <c r="L491" t="n">
+        <v>600</v>
+      </c>
+      <c r="M491" t="n">
+        <v>600</v>
+      </c>
+      <c r="N491" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O491" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P491" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q491" t="n">
+        <v>1</v>
+      </c>
+      <c r="R491" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>6</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D492" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E492" t="n">
+        <v>13</v>
+      </c>
+      <c r="F492" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I492" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J491" t="n">
+      <c r="J492" t="n">
+        <v>2700</v>
+      </c>
+      <c r="K492" t="n">
+        <v>400</v>
+      </c>
+      <c r="L492" t="n">
+        <v>400</v>
+      </c>
+      <c r="M492" t="n">
+        <v>400</v>
+      </c>
+      <c r="N492" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O492" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P492" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q492" t="n">
+        <v>1</v>
+      </c>
+      <c r="R492" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>6</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D493" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E493" t="n">
+        <v>13</v>
+      </c>
+      <c r="F493" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I493" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J493" t="n">
         <v>1800</v>
       </c>
-      <c r="K491" t="n">
+      <c r="K493" t="n">
         <v>400</v>
       </c>
-      <c r="L491" t="n">
+      <c r="L493" t="n">
         <v>400</v>
       </c>
-      <c r="M491" t="n">
+      <c r="M493" t="n">
         <v>400</v>
       </c>
-      <c r="N491" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O491" t="inlineStr">
+      <c r="N493" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O493" t="inlineStr">
         <is>
           <t>Región de Coquimbo</t>
         </is>
       </c>
-      <c r="P491" t="n">
+      <c r="P493" t="n">
         <v>400</v>
       </c>
-      <c r="Q491" t="n">
-        <v>1</v>
-      </c>
-      <c r="R491" t="inlineStr">
+      <c r="Q493" t="n">
+        <v>1</v>
+      </c>
+      <c r="R493" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R493"/>
+  <dimension ref="A1:R495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28869,16 +28869,16 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>9000</v>
+        <v>74400</v>
       </c>
       <c r="K396" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L396" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M396" t="n">
-        <v>536</v>
+        <v>584</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>536</v>
+        <v>584</v>
       </c>
       <c r="Q396" t="n">
         <v>1</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28937,20 +28937,20 @@
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J397" t="n">
-        <v>2800</v>
+        <v>1900</v>
       </c>
       <c r="K397" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L397" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M397" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28959,11 +28959,11 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P397" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q397" t="n">
         <v>1</v>
@@ -29009,20 +29009,20 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J398" t="n">
-        <v>3400</v>
+        <v>9000</v>
       </c>
       <c r="K398" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L398" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M398" t="n">
-        <v>400</v>
+        <v>536</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>400</v>
+        <v>536</v>
       </c>
       <c r="Q398" t="n">
         <v>1</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -29085,16 +29085,16 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>16200</v>
+        <v>2800</v>
       </c>
       <c r="K399" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L399" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M399" t="n">
-        <v>353</v>
+        <v>500</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29103,11 +29103,11 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P399" t="n">
-        <v>353</v>
+        <v>500</v>
       </c>
       <c r="Q399" t="n">
         <v>1</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -29157,16 +29157,16 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>5600</v>
+        <v>3400</v>
       </c>
       <c r="K400" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L400" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M400" t="n">
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="Q400" t="n">
         <v>1</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -29229,16 +29229,16 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>9100</v>
+        <v>16200</v>
       </c>
       <c r="K401" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L401" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M401" t="n">
-        <v>486</v>
+        <v>353</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>486</v>
+        <v>353</v>
       </c>
       <c r="Q401" t="n">
         <v>1</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -29301,16 +29301,16 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>4000</v>
+        <v>5600</v>
       </c>
       <c r="K402" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="L402" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M402" t="n">
-        <v>350</v>
+        <v>275</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>350</v>
+        <v>275</v>
       </c>
       <c r="Q402" t="n">
         <v>1</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -29373,16 +29373,16 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>15600</v>
+        <v>9100</v>
       </c>
       <c r="K403" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L403" t="n">
         <v>500</v>
       </c>
       <c r="M403" t="n">
-        <v>430</v>
+        <v>486</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>430</v>
+        <v>486</v>
       </c>
       <c r="Q403" t="n">
         <v>1</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -29445,16 +29445,16 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>5200</v>
+        <v>4000</v>
       </c>
       <c r="K404" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L404" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M404" t="n">
-        <v>273</v>
+        <v>350</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>273</v>
+        <v>350</v>
       </c>
       <c r="Q404" t="n">
         <v>1</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29517,16 +29517,16 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>7200</v>
+        <v>15600</v>
       </c>
       <c r="K405" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L405" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M405" t="n">
-        <v>739</v>
+        <v>430</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29535,11 +29535,11 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P405" t="n">
-        <v>739</v>
+        <v>430</v>
       </c>
       <c r="Q405" t="n">
         <v>1</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29589,16 +29589,16 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>2300</v>
+        <v>5200</v>
       </c>
       <c r="K406" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L406" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M406" t="n">
-        <v>500</v>
+        <v>273</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29607,11 +29607,11 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P406" t="n">
-        <v>500</v>
+        <v>273</v>
       </c>
       <c r="Q406" t="n">
         <v>1</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -29661,16 +29661,16 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>10200</v>
+        <v>7200</v>
       </c>
       <c r="K407" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L407" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M407" t="n">
-        <v>567</v>
+        <v>739</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29679,11 +29679,11 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P407" t="n">
-        <v>567</v>
+        <v>739</v>
       </c>
       <c r="Q407" t="n">
         <v>1</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29729,20 +29729,20 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J408" t="n">
-        <v>6700</v>
+        <v>2300</v>
       </c>
       <c r="K408" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L408" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M408" t="n">
-        <v>749</v>
+        <v>500</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29751,11 +29751,11 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P408" t="n">
-        <v>749</v>
+        <v>500</v>
       </c>
       <c r="Q408" t="n">
         <v>1</v>
@@ -29801,20 +29801,20 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J409" t="n">
-        <v>3200</v>
+        <v>10200</v>
       </c>
       <c r="K409" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L409" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M409" t="n">
-        <v>400</v>
+        <v>567</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>400</v>
+        <v>567</v>
       </c>
       <c r="Q409" t="n">
         <v>1</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29877,7 +29877,7 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>7900</v>
+        <v>6700</v>
       </c>
       <c r="K410" t="n">
         <v>700</v>
@@ -29886,7 +29886,7 @@
         <v>800</v>
       </c>
       <c r="M410" t="n">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29895,11 +29895,11 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P410" t="n">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="Q410" t="n">
         <v>1</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29949,16 +29949,16 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K411" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L411" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M411" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q411" t="n">
         <v>1</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30021,16 +30021,16 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>13300</v>
+        <v>7900</v>
       </c>
       <c r="K412" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L412" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M412" t="n">
-        <v>549</v>
+        <v>750</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>549</v>
+        <v>750</v>
       </c>
       <c r="Q412" t="n">
         <v>1</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -30093,16 +30093,16 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>4400</v>
+        <v>3400</v>
       </c>
       <c r="K413" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L413" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M413" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q413" t="n">
         <v>1</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -30165,16 +30165,16 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>6100</v>
+        <v>13300</v>
       </c>
       <c r="K414" t="n">
+        <v>500</v>
+      </c>
+      <c r="L414" t="n">
         <v>600</v>
       </c>
-      <c r="L414" t="n">
-        <v>700</v>
-      </c>
       <c r="M414" t="n">
-        <v>650</v>
+        <v>549</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>650</v>
+        <v>549</v>
       </c>
       <c r="Q414" t="n">
         <v>1</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30237,16 +30237,16 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>3400</v>
+        <v>4400</v>
       </c>
       <c r="K415" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L415" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M415" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q415" t="n">
         <v>1</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30309,16 +30309,16 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>18700</v>
+        <v>6100</v>
       </c>
       <c r="K416" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L416" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M416" t="n">
-        <v>543</v>
+        <v>650</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>543</v>
+        <v>650</v>
       </c>
       <c r="Q416" t="n">
         <v>1</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -30377,20 +30377,20 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>4200</v>
+        <v>3400</v>
       </c>
       <c r="K417" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L417" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M417" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30399,11 +30399,11 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P417" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q417" t="n">
         <v>1</v>
@@ -30449,20 +30449,20 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>5000</v>
+        <v>18700</v>
       </c>
       <c r="K418" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L418" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M418" t="n">
-        <v>364</v>
+        <v>543</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>364</v>
+        <v>543</v>
       </c>
       <c r="Q418" t="n">
         <v>1</v>
@@ -30521,20 +30521,20 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>600</v>
+        <v>4200</v>
       </c>
       <c r="K419" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L419" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M419" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q419" t="n">
         <v>1</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -30593,20 +30593,20 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>6700</v>
+        <v>5000</v>
       </c>
       <c r="K420" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L420" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M420" t="n">
-        <v>549</v>
+        <v>364</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>549</v>
+        <v>364</v>
       </c>
       <c r="Q420" t="n">
         <v>1</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30665,20 +30665,20 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J421" t="n">
-        <v>27300</v>
+        <v>600</v>
       </c>
       <c r="K421" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L421" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M421" t="n">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30687,11 +30687,11 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P421" t="n">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="Q421" t="n">
         <v>1</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -30737,20 +30737,20 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J422" t="n">
-        <v>9700</v>
+        <v>6700</v>
       </c>
       <c r="K422" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L422" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M422" t="n">
-        <v>354</v>
+        <v>549</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>354</v>
+        <v>549</v>
       </c>
       <c r="Q422" t="n">
         <v>1</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -30813,16 +30813,16 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>6100</v>
+        <v>27300</v>
       </c>
       <c r="K423" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="L423" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M423" t="n">
-        <v>946</v>
+        <v>508</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>946</v>
+        <v>508</v>
       </c>
       <c r="Q423" t="n">
         <v>1</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30885,16 +30885,16 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>3400</v>
+        <v>9700</v>
       </c>
       <c r="K424" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L424" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M424" t="n">
-        <v>656</v>
+        <v>354</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>656</v>
+        <v>354</v>
       </c>
       <c r="Q424" t="n">
         <v>1</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -30957,16 +30957,16 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>16100</v>
+        <v>6100</v>
       </c>
       <c r="K425" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L425" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M425" t="n">
-        <v>552</v>
+        <v>946</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>552</v>
+        <v>946</v>
       </c>
       <c r="Q425" t="n">
         <v>1</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>4900</v>
+        <v>3400</v>
       </c>
       <c r="K426" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L426" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M426" t="n">
-        <v>400</v>
+        <v>656</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>400</v>
+        <v>656</v>
       </c>
       <c r="Q426" t="n">
         <v>1</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -31101,16 +31101,16 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>16300</v>
+        <v>16100</v>
       </c>
       <c r="K427" t="n">
         <v>500</v>
       </c>
       <c r="L427" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="M427" t="n">
-        <v>579</v>
+        <v>552</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>579</v>
+        <v>552</v>
       </c>
       <c r="Q427" t="n">
         <v>1</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -31173,16 +31173,16 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>7600</v>
+        <v>4900</v>
       </c>
       <c r="K428" t="n">
         <v>400</v>
       </c>
       <c r="L428" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="M428" t="n">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="Q428" t="n">
         <v>1</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -31245,16 +31245,16 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>14600</v>
+        <v>16300</v>
       </c>
       <c r="K429" t="n">
         <v>500</v>
       </c>
       <c r="L429" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M429" t="n">
-        <v>542</v>
+        <v>579</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>542</v>
+        <v>579</v>
       </c>
       <c r="Q429" t="n">
         <v>1</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -31317,16 +31317,16 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>5400</v>
+        <v>7600</v>
       </c>
       <c r="K430" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L430" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M430" t="n">
-        <v>500</v>
+        <v>434</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>500</v>
+        <v>434</v>
       </c>
       <c r="Q430" t="n">
         <v>1</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -31389,16 +31389,16 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>16500</v>
+        <v>14600</v>
       </c>
       <c r="K431" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L431" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M431" t="n">
-        <v>412</v>
+        <v>542</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>412</v>
+        <v>542</v>
       </c>
       <c r="Q431" t="n">
         <v>1</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -31461,16 +31461,16 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>5900</v>
+        <v>5400</v>
       </c>
       <c r="K432" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L432" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M432" t="n">
-        <v>277</v>
+        <v>500</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>277</v>
+        <v>500</v>
       </c>
       <c r="Q432" t="n">
         <v>1</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -31533,16 +31533,16 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>18500</v>
+        <v>16500</v>
       </c>
       <c r="K433" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L433" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M433" t="n">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="Q433" t="n">
         <v>1</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -31605,7 +31605,7 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>5300</v>
+        <v>5900</v>
       </c>
       <c r="K434" t="n">
         <v>250</v>
@@ -31614,7 +31614,7 @@
         <v>300</v>
       </c>
       <c r="M434" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q434" t="n">
         <v>1</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -31677,16 +31677,16 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>16900</v>
+        <v>18500</v>
       </c>
       <c r="K435" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L435" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M435" t="n">
-        <v>430</v>
+        <v>391</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>430</v>
+        <v>391</v>
       </c>
       <c r="Q435" t="n">
         <v>1</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -31749,7 +31749,7 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>6000</v>
+        <v>5300</v>
       </c>
       <c r="K436" t="n">
         <v>250</v>
@@ -31758,7 +31758,7 @@
         <v>300</v>
       </c>
       <c r="M436" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q436" t="n">
         <v>1</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -31821,16 +31821,16 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>24300</v>
+        <v>16900</v>
       </c>
       <c r="K437" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="L437" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M437" t="n">
-        <v>713</v>
+        <v>430</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>713</v>
+        <v>430</v>
       </c>
       <c r="Q437" t="n">
         <v>1</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -31893,16 +31893,16 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>9900</v>
+        <v>6000</v>
       </c>
       <c r="K438" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L438" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M438" t="n">
-        <v>566</v>
+        <v>273</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>566</v>
+        <v>273</v>
       </c>
       <c r="Q438" t="n">
         <v>1</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -31965,16 +31965,16 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>13100</v>
+        <v>24300</v>
       </c>
       <c r="K439" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L439" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M439" t="n">
-        <v>563</v>
+        <v>713</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>563</v>
+        <v>713</v>
       </c>
       <c r="Q439" t="n">
         <v>1</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -32037,16 +32037,16 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>5500</v>
+        <v>9900</v>
       </c>
       <c r="K440" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L440" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M440" t="n">
-        <v>425</v>
+        <v>566</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>425</v>
+        <v>566</v>
       </c>
       <c r="Q440" t="n">
         <v>1</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -32109,16 +32109,16 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>19400</v>
+        <v>13100</v>
       </c>
       <c r="K441" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L441" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M441" t="n">
-        <v>609</v>
+        <v>563</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>609</v>
+        <v>563</v>
       </c>
       <c r="Q441" t="n">
         <v>1</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -32181,16 +32181,16 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="K442" t="n">
+        <v>400</v>
+      </c>
+      <c r="L442" t="n">
         <v>450</v>
       </c>
-      <c r="L442" t="n">
-        <v>500</v>
-      </c>
       <c r="M442" t="n">
-        <v>473</v>
+        <v>425</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>473</v>
+        <v>425</v>
       </c>
       <c r="Q442" t="n">
         <v>1</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -32253,16 +32253,16 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>7900</v>
+        <v>19400</v>
       </c>
       <c r="K443" t="n">
+        <v>550</v>
+      </c>
+      <c r="L443" t="n">
         <v>700</v>
       </c>
-      <c r="L443" t="n">
-        <v>800</v>
-      </c>
       <c r="M443" t="n">
-        <v>757</v>
+        <v>609</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>757</v>
+        <v>609</v>
       </c>
       <c r="Q443" t="n">
         <v>1</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -32321,20 +32321,20 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>6800</v>
+        <v>5700</v>
       </c>
       <c r="K444" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L444" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M444" t="n">
-        <v>747</v>
+        <v>473</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32343,11 +32343,11 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P444" t="n">
-        <v>747</v>
+        <v>473</v>
       </c>
       <c r="Q444" t="n">
         <v>1</v>
@@ -32393,20 +32393,20 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>2500</v>
+        <v>7900</v>
       </c>
       <c r="K445" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L445" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M445" t="n">
-        <v>500</v>
+        <v>757</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>500</v>
+        <v>757</v>
       </c>
       <c r="Q445" t="n">
         <v>1</v>
@@ -32465,20 +32465,20 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J446" t="n">
-        <v>2300</v>
+        <v>6800</v>
       </c>
       <c r="K446" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L446" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M446" t="n">
-        <v>600</v>
+        <v>747</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>600</v>
+        <v>747</v>
       </c>
       <c r="Q446" t="n">
         <v>1</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -32537,20 +32537,20 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="K447" t="n">
         <v>500</v>
       </c>
       <c r="L447" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M447" t="n">
-        <v>559</v>
+        <v>500</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>559</v>
+        <v>500</v>
       </c>
       <c r="Q447" t="n">
         <v>1</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -32609,20 +32609,20 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J448" t="n">
-        <v>6600</v>
+        <v>2300</v>
       </c>
       <c r="K448" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L448" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M448" t="n">
-        <v>752</v>
+        <v>600</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32631,11 +32631,11 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P448" t="n">
-        <v>752</v>
+        <v>600</v>
       </c>
       <c r="Q448" t="n">
         <v>1</v>
@@ -32681,20 +32681,20 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J449" t="n">
-        <v>2800</v>
+        <v>8000</v>
       </c>
       <c r="K449" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L449" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M449" t="n">
-        <v>400</v>
+        <v>559</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>400</v>
+        <v>559</v>
       </c>
       <c r="Q449" t="n">
         <v>1</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -32757,16 +32757,16 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>18100</v>
+        <v>6600</v>
       </c>
       <c r="K450" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L450" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M450" t="n">
-        <v>647</v>
+        <v>752</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32775,11 +32775,11 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P450" t="n">
-        <v>647</v>
+        <v>752</v>
       </c>
       <c r="Q450" t="n">
         <v>1</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -32829,16 +32829,16 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="K451" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L451" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M451" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q451" t="n">
         <v>1</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -32901,16 +32901,16 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>13500</v>
+        <v>18100</v>
       </c>
       <c r="K452" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L452" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M452" t="n">
-        <v>550</v>
+        <v>647</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>550</v>
+        <v>647</v>
       </c>
       <c r="Q452" t="n">
         <v>1</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -32973,16 +32973,16 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>4700</v>
+        <v>3800</v>
       </c>
       <c r="K453" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L453" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M453" t="n">
-        <v>372</v>
+        <v>500</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>372</v>
+        <v>500</v>
       </c>
       <c r="Q453" t="n">
         <v>1</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -33045,16 +33045,16 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>7000</v>
+        <v>13500</v>
       </c>
       <c r="K454" t="n">
+        <v>500</v>
+      </c>
+      <c r="L454" t="n">
         <v>600</v>
       </c>
-      <c r="L454" t="n">
-        <v>700</v>
-      </c>
       <c r="M454" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="Q454" t="n">
         <v>1</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -33117,16 +33117,16 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>3400</v>
+        <v>4700</v>
       </c>
       <c r="K455" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L455" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M455" t="n">
-        <v>500</v>
+        <v>372</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>500</v>
+        <v>372</v>
       </c>
       <c r="Q455" t="n">
         <v>1</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33189,16 +33189,16 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>70000</v>
+        <v>7000</v>
       </c>
       <c r="K456" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L456" t="n">
         <v>700</v>
       </c>
       <c r="M456" t="n">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="Q456" t="n">
         <v>1</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33261,7 +33261,7 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>28500</v>
+        <v>3400</v>
       </c>
       <c r="K457" t="n">
         <v>500</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33333,16 +33333,16 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>14900</v>
+        <v>70000</v>
       </c>
       <c r="K458" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L458" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M458" t="n">
-        <v>450</v>
+        <v>665</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>450</v>
+        <v>665</v>
       </c>
       <c r="Q458" t="n">
         <v>1</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -33405,16 +33405,16 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>4500</v>
+        <v>28500</v>
       </c>
       <c r="K459" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L459" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M459" t="n">
-        <v>286</v>
+        <v>500</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>286</v>
+        <v>500</v>
       </c>
       <c r="Q459" t="n">
         <v>1</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33477,7 +33477,7 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>6600</v>
+        <v>14900</v>
       </c>
       <c r="K460" t="n">
         <v>400</v>
@@ -33486,7 +33486,7 @@
         <v>500</v>
       </c>
       <c r="M460" t="n">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33495,11 +33495,11 @@
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P460" t="n">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="Q460" t="n">
         <v>1</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -33549,16 +33549,16 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>2200</v>
+        <v>4500</v>
       </c>
       <c r="K461" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="L461" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M461" t="n">
-        <v>350</v>
+        <v>286</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33567,11 +33567,11 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P461" t="n">
-        <v>350</v>
+        <v>286</v>
       </c>
       <c r="Q461" t="n">
         <v>1</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -33621,7 +33621,7 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>9100</v>
+        <v>6600</v>
       </c>
       <c r="K462" t="n">
         <v>400</v>
@@ -33630,7 +33630,7 @@
         <v>500</v>
       </c>
       <c r="M462" t="n">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33639,11 +33639,11 @@
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P462" t="n">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="Q462" t="n">
         <v>1</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -33693,16 +33693,16 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>4700</v>
+        <v>2200</v>
       </c>
       <c r="K463" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L463" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M463" t="n">
-        <v>279</v>
+        <v>350</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33711,11 +33711,11 @@
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P463" t="n">
-        <v>279</v>
+        <v>350</v>
       </c>
       <c r="Q463" t="n">
         <v>1</v>
@@ -33761,20 +33761,20 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J464" t="n">
-        <v>300</v>
+        <v>9100</v>
       </c>
       <c r="K464" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L464" t="n">
         <v>500</v>
       </c>
       <c r="M464" t="n">
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33783,11 +33783,11 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P464" t="n">
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="Q464" t="n">
         <v>1</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -33833,20 +33833,20 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J465" t="n">
-        <v>33300</v>
+        <v>4700</v>
       </c>
       <c r="K465" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L465" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M465" t="n">
-        <v>518</v>
+        <v>279</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>518</v>
+        <v>279</v>
       </c>
       <c r="Q465" t="n">
         <v>1</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -33909,16 +33909,16 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>9500</v>
+        <v>300</v>
       </c>
       <c r="K466" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L466" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M466" t="n">
-        <v>374</v>
+        <v>500</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33927,11 +33927,11 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P466" t="n">
-        <v>374</v>
+        <v>500</v>
       </c>
       <c r="Q466" t="n">
         <v>1</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -33981,16 +33981,16 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>13100</v>
+        <v>33300</v>
       </c>
       <c r="K467" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L467" t="n">
         <v>600</v>
       </c>
       <c r="M467" t="n">
-        <v>549</v>
+        <v>518</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>549</v>
+        <v>518</v>
       </c>
       <c r="Q467" t="n">
         <v>1</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -34053,16 +34053,16 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>4300</v>
+        <v>9500</v>
       </c>
       <c r="K468" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L468" t="n">
         <v>400</v>
       </c>
       <c r="M468" t="n">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="Q468" t="n">
         <v>1</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34125,16 +34125,16 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>12000</v>
+        <v>13100</v>
       </c>
       <c r="K469" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L469" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M469" t="n">
-        <v>759</v>
+        <v>549</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>759</v>
+        <v>549</v>
       </c>
       <c r="Q469" t="n">
         <v>1</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -34197,16 +34197,16 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>4700</v>
+        <v>4300</v>
       </c>
       <c r="K470" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L470" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M470" t="n">
-        <v>583</v>
+        <v>400</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>583</v>
+        <v>400</v>
       </c>
       <c r="Q470" t="n">
         <v>1</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34269,16 +34269,16 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>26600</v>
+        <v>12000</v>
       </c>
       <c r="K471" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="L471" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M471" t="n">
-        <v>473</v>
+        <v>759</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>473</v>
+        <v>759</v>
       </c>
       <c r="Q471" t="n">
         <v>1</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34341,16 +34341,16 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>6000</v>
+        <v>4700</v>
       </c>
       <c r="K472" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="L472" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M472" t="n">
-        <v>277</v>
+        <v>583</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>277</v>
+        <v>583</v>
       </c>
       <c r="Q472" t="n">
         <v>1</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -34413,16 +34413,16 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>16500</v>
+        <v>26600</v>
       </c>
       <c r="K473" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L473" t="n">
         <v>600</v>
       </c>
       <c r="M473" t="n">
-        <v>541</v>
+        <v>473</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>541</v>
+        <v>473</v>
       </c>
       <c r="Q473" t="n">
         <v>1</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44383</v>
+        <v>44295</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34481,20 +34481,20 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J474" t="n">
-        <v>16600</v>
+        <v>6000</v>
       </c>
       <c r="K474" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L474" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M474" t="n">
-        <v>460</v>
+        <v>277</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>460</v>
+        <v>277</v>
       </c>
       <c r="Q474" t="n">
         <v>1</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34553,20 +34553,20 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J475" t="n">
-        <v>7300</v>
+        <v>16500</v>
       </c>
       <c r="K475" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L475" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M475" t="n">
-        <v>381</v>
+        <v>541</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>381</v>
+        <v>541</v>
       </c>
       <c r="Q475" t="n">
         <v>1</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34629,16 +34629,16 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>13000</v>
+        <v>16600</v>
       </c>
       <c r="K476" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L476" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M476" t="n">
-        <v>843</v>
+        <v>460</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>843</v>
+        <v>460</v>
       </c>
       <c r="Q476" t="n">
         <v>1</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -34701,16 +34701,16 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>5600</v>
+        <v>7300</v>
       </c>
       <c r="K477" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="L477" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M477" t="n">
-        <v>600</v>
+        <v>381</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>600</v>
+        <v>381</v>
       </c>
       <c r="Q477" t="n">
         <v>1</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -34773,16 +34773,16 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>20100</v>
+        <v>13000</v>
       </c>
       <c r="K478" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="L478" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M478" t="n">
-        <v>430</v>
+        <v>843</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>430</v>
+        <v>843</v>
       </c>
       <c r="Q478" t="n">
         <v>1</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -34841,20 +34841,20 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J479" t="n">
-        <v>2300</v>
+        <v>5600</v>
       </c>
       <c r="K479" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L479" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M479" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34863,11 +34863,11 @@
       </c>
       <c r="O479" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P479" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q479" t="n">
         <v>1</v>
@@ -34913,20 +34913,20 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J480" t="n">
-        <v>6300</v>
+        <v>20100</v>
       </c>
       <c r="K480" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="L480" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M480" t="n">
-        <v>251</v>
+        <v>430</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>251</v>
+        <v>430</v>
       </c>
       <c r="Q480" t="n">
         <v>1</v>
@@ -34985,20 +34985,20 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J481" t="n">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="K481" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L481" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M481" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q481" t="n">
         <v>1</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -35057,20 +35057,20 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J482" t="n">
-        <v>10700</v>
+        <v>6300</v>
       </c>
       <c r="K482" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L482" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M482" t="n">
-        <v>738</v>
+        <v>251</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>738</v>
+        <v>251</v>
       </c>
       <c r="Q482" t="n">
         <v>1</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -35133,16 +35133,16 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="K483" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L483" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M483" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35151,11 +35151,11 @@
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P483" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="Q483" t="n">
         <v>1</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -35205,16 +35205,16 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>22000</v>
+        <v>10700</v>
       </c>
       <c r="K484" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L484" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M484" t="n">
-        <v>444</v>
+        <v>738</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>444</v>
+        <v>738</v>
       </c>
       <c r="Q484" t="n">
         <v>1</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -35277,16 +35277,16 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>6600</v>
+        <v>4000</v>
       </c>
       <c r="K485" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L485" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M485" t="n">
-        <v>352</v>
+        <v>480</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>352</v>
+        <v>480</v>
       </c>
       <c r="Q485" t="n">
         <v>1</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -35349,16 +35349,16 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>21600</v>
+        <v>22000</v>
       </c>
       <c r="K486" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L486" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M486" t="n">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="Q486" t="n">
         <v>1</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -35421,16 +35421,16 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>10500</v>
+        <v>6600</v>
       </c>
       <c r="K487" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L487" t="n">
         <v>400</v>
       </c>
       <c r="M487" t="n">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="Q487" t="n">
         <v>1</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -35493,16 +35493,16 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>16000</v>
+        <v>21600</v>
       </c>
       <c r="K488" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L488" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M488" t="n">
-        <v>750</v>
+        <v>452</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>750</v>
+        <v>452</v>
       </c>
       <c r="Q488" t="n">
         <v>1</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -35565,16 +35565,16 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>4300</v>
+        <v>10500</v>
       </c>
       <c r="K489" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L489" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M489" t="n">
-        <v>600</v>
+        <v>326</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>600</v>
+        <v>326</v>
       </c>
       <c r="Q489" t="n">
         <v>1</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -35637,16 +35637,16 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>8400</v>
+        <v>16000</v>
       </c>
       <c r="K490" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L490" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M490" t="n">
-        <v>543</v>
+        <v>750</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>543</v>
+        <v>750</v>
       </c>
       <c r="Q490" t="n">
         <v>1</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -35705,11 +35705,11 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J491" t="n">
-        <v>3600</v>
+        <v>4300</v>
       </c>
       <c r="K491" t="n">
         <v>600</v>
@@ -35727,7 +35727,7 @@
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P491" t="n">
@@ -35777,20 +35777,20 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J492" t="n">
-        <v>2700</v>
+        <v>8400</v>
       </c>
       <c r="K492" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L492" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M492" t="n">
-        <v>400</v>
+        <v>543</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>400</v>
+        <v>543</v>
       </c>
       <c r="Q492" t="n">
         <v>1</v>
@@ -35849,38 +35849,182 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J493" t="n">
+        <v>3600</v>
+      </c>
+      <c r="K493" t="n">
+        <v>600</v>
+      </c>
+      <c r="L493" t="n">
+        <v>600</v>
+      </c>
+      <c r="M493" t="n">
+        <v>600</v>
+      </c>
+      <c r="N493" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O493" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P493" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q493" t="n">
+        <v>1</v>
+      </c>
+      <c r="R493" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>6</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D494" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E494" t="n">
+        <v>13</v>
+      </c>
+      <c r="F494" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I494" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J493" t="n">
+      <c r="J494" t="n">
+        <v>2700</v>
+      </c>
+      <c r="K494" t="n">
+        <v>400</v>
+      </c>
+      <c r="L494" t="n">
+        <v>400</v>
+      </c>
+      <c r="M494" t="n">
+        <v>400</v>
+      </c>
+      <c r="N494" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O494" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P494" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q494" t="n">
+        <v>1</v>
+      </c>
+      <c r="R494" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>6</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D495" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E495" t="n">
+        <v>13</v>
+      </c>
+      <c r="F495" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I495" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J495" t="n">
         <v>1800</v>
       </c>
-      <c r="K493" t="n">
+      <c r="K495" t="n">
         <v>400</v>
       </c>
-      <c r="L493" t="n">
+      <c r="L495" t="n">
         <v>400</v>
       </c>
-      <c r="M493" t="n">
+      <c r="M495" t="n">
         <v>400</v>
       </c>
-      <c r="N493" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O493" t="inlineStr">
+      <c r="N495" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O495" t="inlineStr">
         <is>
           <t>Región de Coquimbo</t>
         </is>
       </c>
-      <c r="P493" t="n">
+      <c r="P495" t="n">
         <v>400</v>
       </c>
-      <c r="Q493" t="n">
-        <v>1</v>
-      </c>
-      <c r="R493" t="inlineStr">
+      <c r="Q495" t="n">
+        <v>1</v>
+      </c>
+      <c r="R495" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R495"/>
+  <dimension ref="A1:R497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34557,16 +34557,16 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>16500</v>
+        <v>20400</v>
       </c>
       <c r="K475" t="n">
+        <v>400</v>
+      </c>
+      <c r="L475" t="n">
         <v>500</v>
       </c>
-      <c r="L475" t="n">
-        <v>600</v>
-      </c>
       <c r="M475" t="n">
-        <v>541</v>
+        <v>443</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>541</v>
+        <v>443</v>
       </c>
       <c r="Q475" t="n">
         <v>1</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34625,20 +34625,20 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J476" t="n">
-        <v>16600</v>
+        <v>6800</v>
       </c>
       <c r="K476" t="n">
+        <v>300</v>
+      </c>
+      <c r="L476" t="n">
         <v>400</v>
       </c>
-      <c r="L476" t="n">
-        <v>500</v>
-      </c>
       <c r="M476" t="n">
-        <v>460</v>
+        <v>351</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>460</v>
+        <v>351</v>
       </c>
       <c r="Q476" t="n">
         <v>1</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -34697,20 +34697,20 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>7300</v>
+        <v>16500</v>
       </c>
       <c r="K477" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L477" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M477" t="n">
-        <v>381</v>
+        <v>541</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>381</v>
+        <v>541</v>
       </c>
       <c r="Q477" t="n">
         <v>1</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -34773,16 +34773,16 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>13000</v>
+        <v>16600</v>
       </c>
       <c r="K478" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L478" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M478" t="n">
-        <v>843</v>
+        <v>460</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>843</v>
+        <v>460</v>
       </c>
       <c r="Q478" t="n">
         <v>1</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -34845,16 +34845,16 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>5600</v>
+        <v>7300</v>
       </c>
       <c r="K479" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="L479" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M479" t="n">
-        <v>600</v>
+        <v>381</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>600</v>
+        <v>381</v>
       </c>
       <c r="Q479" t="n">
         <v>1</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34917,16 +34917,16 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>20100</v>
+        <v>13000</v>
       </c>
       <c r="K480" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="L480" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M480" t="n">
-        <v>430</v>
+        <v>843</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>430</v>
+        <v>843</v>
       </c>
       <c r="Q480" t="n">
         <v>1</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -34985,20 +34985,20 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J481" t="n">
-        <v>2300</v>
+        <v>5600</v>
       </c>
       <c r="K481" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L481" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M481" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35007,11 +35007,11 @@
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P481" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q481" t="n">
         <v>1</v>
@@ -35057,20 +35057,20 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J482" t="n">
-        <v>6300</v>
+        <v>20100</v>
       </c>
       <c r="K482" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="L482" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M482" t="n">
-        <v>251</v>
+        <v>430</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>251</v>
+        <v>430</v>
       </c>
       <c r="Q482" t="n">
         <v>1</v>
@@ -35129,20 +35129,20 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J483" t="n">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="K483" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L483" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M483" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q483" t="n">
         <v>1</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -35201,20 +35201,20 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>10700</v>
+        <v>6300</v>
       </c>
       <c r="K484" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L484" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M484" t="n">
-        <v>738</v>
+        <v>251</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>738</v>
+        <v>251</v>
       </c>
       <c r="Q484" t="n">
         <v>1</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -35277,16 +35277,16 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="K485" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L485" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M485" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35295,11 +35295,11 @@
       </c>
       <c r="O485" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P485" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="Q485" t="n">
         <v>1</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -35349,16 +35349,16 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>22000</v>
+        <v>10700</v>
       </c>
       <c r="K486" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L486" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M486" t="n">
-        <v>444</v>
+        <v>738</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>444</v>
+        <v>738</v>
       </c>
       <c r="Q486" t="n">
         <v>1</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -35421,16 +35421,16 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>6600</v>
+        <v>4000</v>
       </c>
       <c r="K487" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L487" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M487" t="n">
-        <v>352</v>
+        <v>480</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>352</v>
+        <v>480</v>
       </c>
       <c r="Q487" t="n">
         <v>1</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -35493,16 +35493,16 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>21600</v>
+        <v>22000</v>
       </c>
       <c r="K488" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L488" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M488" t="n">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="Q488" t="n">
         <v>1</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -35565,16 +35565,16 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>10500</v>
+        <v>6600</v>
       </c>
       <c r="K489" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L489" t="n">
         <v>400</v>
       </c>
       <c r="M489" t="n">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="Q489" t="n">
         <v>1</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -35637,16 +35637,16 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>16000</v>
+        <v>21600</v>
       </c>
       <c r="K490" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L490" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M490" t="n">
-        <v>750</v>
+        <v>452</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>750</v>
+        <v>452</v>
       </c>
       <c r="Q490" t="n">
         <v>1</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -35709,16 +35709,16 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>4300</v>
+        <v>10500</v>
       </c>
       <c r="K491" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L491" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M491" t="n">
-        <v>600</v>
+        <v>326</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>600</v>
+        <v>326</v>
       </c>
       <c r="Q491" t="n">
         <v>1</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -35781,16 +35781,16 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>8400</v>
+        <v>16000</v>
       </c>
       <c r="K492" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L492" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M492" t="n">
-        <v>543</v>
+        <v>750</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>543</v>
+        <v>750</v>
       </c>
       <c r="Q492" t="n">
         <v>1</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -35849,11 +35849,11 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J493" t="n">
-        <v>3600</v>
+        <v>4300</v>
       </c>
       <c r="K493" t="n">
         <v>600</v>
@@ -35871,7 +35871,7 @@
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P493" t="n">
@@ -35921,20 +35921,20 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J494" t="n">
-        <v>2700</v>
+        <v>8400</v>
       </c>
       <c r="K494" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L494" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M494" t="n">
-        <v>400</v>
+        <v>543</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>400</v>
+        <v>543</v>
       </c>
       <c r="Q494" t="n">
         <v>1</v>
@@ -35993,38 +35993,182 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J495" t="n">
+        <v>3600</v>
+      </c>
+      <c r="K495" t="n">
+        <v>600</v>
+      </c>
+      <c r="L495" t="n">
+        <v>600</v>
+      </c>
+      <c r="M495" t="n">
+        <v>600</v>
+      </c>
+      <c r="N495" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O495" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P495" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q495" t="n">
+        <v>1</v>
+      </c>
+      <c r="R495" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>6</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D496" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E496" t="n">
+        <v>13</v>
+      </c>
+      <c r="F496" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I496" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J495" t="n">
+      <c r="J496" t="n">
+        <v>2700</v>
+      </c>
+      <c r="K496" t="n">
+        <v>400</v>
+      </c>
+      <c r="L496" t="n">
+        <v>400</v>
+      </c>
+      <c r="M496" t="n">
+        <v>400</v>
+      </c>
+      <c r="N496" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O496" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P496" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q496" t="n">
+        <v>1</v>
+      </c>
+      <c r="R496" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>6</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D497" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E497" t="n">
+        <v>13</v>
+      </c>
+      <c r="F497" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I497" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J497" t="n">
         <v>1800</v>
       </c>
-      <c r="K495" t="n">
+      <c r="K497" t="n">
         <v>400</v>
       </c>
-      <c r="L495" t="n">
+      <c r="L497" t="n">
         <v>400</v>
       </c>
-      <c r="M495" t="n">
+      <c r="M497" t="n">
         <v>400</v>
       </c>
-      <c r="N495" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O495" t="inlineStr">
+      <c r="N497" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O497" t="inlineStr">
         <is>
           <t>Región de Coquimbo</t>
         </is>
       </c>
-      <c r="P495" t="n">
+      <c r="P497" t="n">
         <v>400</v>
       </c>
-      <c r="Q495" t="n">
-        <v>1</v>
-      </c>
-      <c r="R495" t="inlineStr">
+      <c r="Q497" t="n">
+        <v>1</v>
+      </c>
+      <c r="R497" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R497"/>
+  <dimension ref="A1:R499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44329</v>
+        <v>44510</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -25053,16 +25053,16 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>14300</v>
+        <v>21200</v>
       </c>
       <c r="K343" t="n">
         <v>400</v>
       </c>
       <c r="L343" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M343" t="n">
-        <v>499</v>
+        <v>434</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>499</v>
+        <v>434</v>
       </c>
       <c r="Q343" t="n">
         <v>1</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44329</v>
+        <v>44510</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -25121,20 +25121,20 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J344" t="n">
-        <v>3200</v>
+        <v>5200</v>
       </c>
       <c r="K344" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L344" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M344" t="n">
-        <v>500</v>
+        <v>327</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25143,11 +25143,11 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P344" t="n">
-        <v>500</v>
+        <v>327</v>
       </c>
       <c r="Q344" t="n">
         <v>1</v>
@@ -25193,20 +25193,20 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J345" t="n">
-        <v>5500</v>
+        <v>14300</v>
       </c>
       <c r="K345" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L345" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M345" t="n">
-        <v>358</v>
+        <v>499</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>358</v>
+        <v>499</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -25265,20 +25265,20 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J346" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="K346" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L346" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M346" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44229</v>
+        <v>44329</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -25337,20 +25337,20 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J347" t="n">
-        <v>6100</v>
+        <v>5500</v>
       </c>
       <c r="K347" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L347" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M347" t="n">
-        <v>850</v>
+        <v>358</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>850</v>
+        <v>358</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44229</v>
+        <v>44329</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -25413,16 +25413,16 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="K348" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L348" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M348" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25431,11 +25431,11 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P348" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="Q348" t="n">
         <v>1</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44376</v>
+        <v>44229</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -25485,16 +25485,16 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>26200</v>
+        <v>6100</v>
       </c>
       <c r="K349" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="L349" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M349" t="n">
-        <v>427</v>
+        <v>850</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>427</v>
+        <v>850</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44376</v>
+        <v>44229</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -25557,16 +25557,16 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>7800</v>
+        <v>2500</v>
       </c>
       <c r="K350" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L350" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="M350" t="n">
-        <v>329</v>
+        <v>700</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>329</v>
+        <v>700</v>
       </c>
       <c r="Q350" t="n">
         <v>1</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44316</v>
+        <v>44376</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>14300</v>
+        <v>26200</v>
       </c>
       <c r="K351" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L351" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M351" t="n">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44316</v>
+        <v>44376</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -25701,16 +25701,16 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>4400</v>
+        <v>7800</v>
       </c>
       <c r="K352" t="n">
         <v>300</v>
       </c>
       <c r="L352" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M352" t="n">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44453</v>
+        <v>44316</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -25773,16 +25773,16 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>15900</v>
+        <v>14300</v>
       </c>
       <c r="K353" t="n">
+        <v>400</v>
+      </c>
+      <c r="L353" t="n">
         <v>450</v>
       </c>
-      <c r="L353" t="n">
-        <v>600</v>
-      </c>
       <c r="M353" t="n">
-        <v>531</v>
+        <v>423</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>531</v>
+        <v>423</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44453</v>
+        <v>44316</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -25841,20 +25841,20 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J354" t="n">
-        <v>3300</v>
+        <v>4400</v>
       </c>
       <c r="K354" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L354" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M354" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25863,11 +25863,11 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P354" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25913,20 +25913,20 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J355" t="n">
-        <v>6300</v>
+        <v>15900</v>
       </c>
       <c r="K355" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L355" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M355" t="n">
-        <v>360</v>
+        <v>531</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>360</v>
+        <v>531</v>
       </c>
       <c r="Q355" t="n">
         <v>1</v>
@@ -25985,20 +25985,20 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J356" t="n">
-        <v>1800</v>
+        <v>3300</v>
       </c>
       <c r="K356" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L356" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M356" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q356" t="n">
         <v>1</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44466</v>
+        <v>44453</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -26057,20 +26057,20 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J357" t="n">
-        <v>8400</v>
+        <v>6300</v>
       </c>
       <c r="K357" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L357" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M357" t="n">
-        <v>473</v>
+        <v>360</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>473</v>
+        <v>360</v>
       </c>
       <c r="Q357" t="n">
         <v>1</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44466</v>
+        <v>44453</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -26129,20 +26129,20 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J358" t="n">
-        <v>6000</v>
+        <v>1800</v>
       </c>
       <c r="K358" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L358" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M358" t="n">
-        <v>558</v>
+        <v>400</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>558</v>
+        <v>400</v>
       </c>
       <c r="Q358" t="n">
         <v>1</v>
@@ -26201,20 +26201,20 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J359" t="n">
-        <v>3300</v>
+        <v>8400</v>
       </c>
       <c r="K359" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L359" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M359" t="n">
-        <v>350</v>
+        <v>473</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>350</v>
+        <v>473</v>
       </c>
       <c r="Q359" t="n">
         <v>1</v>
@@ -26273,20 +26273,20 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J360" t="n">
-        <v>1500</v>
+        <v>6000</v>
       </c>
       <c r="K360" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L360" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M360" t="n">
-        <v>400</v>
+        <v>558</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>400</v>
+        <v>558</v>
       </c>
       <c r="Q360" t="n">
         <v>1</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44242</v>
+        <v>44466</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -26345,20 +26345,20 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J361" t="n">
-        <v>14000</v>
+        <v>3300</v>
       </c>
       <c r="K361" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="L361" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="M361" t="n">
-        <v>846</v>
+        <v>350</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>846</v>
+        <v>350</v>
       </c>
       <c r="Q361" t="n">
         <v>1</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44242</v>
+        <v>44466</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -26421,16 +26421,16 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="K362" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L362" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M362" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26439,11 +26439,11 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P362" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q362" t="n">
         <v>1</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44351</v>
+        <v>44242</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -26493,16 +26493,16 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="K363" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L363" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M363" t="n">
-        <v>442</v>
+        <v>846</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>442</v>
+        <v>846</v>
       </c>
       <c r="Q363" t="n">
         <v>1</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44351</v>
+        <v>44242</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -26568,13 +26568,13 @@
         <v>5000</v>
       </c>
       <c r="K364" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L364" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M364" t="n">
-        <v>324</v>
+        <v>600</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>324</v>
+        <v>600</v>
       </c>
       <c r="Q364" t="n">
         <v>1</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44279</v>
+        <v>44351</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -26637,16 +26637,16 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>9200</v>
+        <v>19000</v>
       </c>
       <c r="K365" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L365" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M365" t="n">
-        <v>740</v>
+        <v>442</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>740</v>
+        <v>442</v>
       </c>
       <c r="Q365" t="n">
         <v>1</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44279</v>
+        <v>44351</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -26709,16 +26709,16 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="K366" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L366" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="M366" t="n">
-        <v>497</v>
+        <v>324</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>497</v>
+        <v>324</v>
       </c>
       <c r="Q366" t="n">
         <v>1</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -26781,7 +26781,7 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>12000</v>
+        <v>9200</v>
       </c>
       <c r="K367" t="n">
         <v>700</v>
@@ -26790,7 +26790,7 @@
         <v>800</v>
       </c>
       <c r="M367" t="n">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="Q367" t="n">
         <v>1</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>2600</v>
+        <v>4500</v>
       </c>
       <c r="K368" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L368" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M368" t="n">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="Q368" t="n">
         <v>1</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44389</v>
+        <v>44280</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -26925,16 +26925,16 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="K369" t="n">
         <v>700</v>
       </c>
       <c r="L369" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M369" t="n">
-        <v>700</v>
+        <v>748</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>700</v>
+        <v>748</v>
       </c>
       <c r="Q369" t="n">
         <v>1</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44389</v>
+        <v>44280</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -26997,16 +26997,16 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="K370" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L370" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M370" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q370" t="n">
         <v>1</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44442</v>
+        <v>44389</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -27069,16 +27069,16 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>28500</v>
+        <v>3500</v>
       </c>
       <c r="K371" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L371" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M371" t="n">
-        <v>333</v>
+        <v>700</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>333</v>
+        <v>700</v>
       </c>
       <c r="Q371" t="n">
         <v>1</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44442</v>
+        <v>44389</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -27141,16 +27141,16 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>7900</v>
+        <v>2800</v>
       </c>
       <c r="K372" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="L372" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="M372" t="n">
-        <v>221</v>
+        <v>600</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>221</v>
+        <v>600</v>
       </c>
       <c r="Q372" t="n">
         <v>1</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44476</v>
+        <v>44442</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -27213,16 +27213,16 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>11600</v>
+        <v>28500</v>
       </c>
       <c r="K373" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L373" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M373" t="n">
-        <v>549</v>
+        <v>333</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>549</v>
+        <v>333</v>
       </c>
       <c r="Q373" t="n">
         <v>1</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44476</v>
+        <v>44442</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -27281,20 +27281,20 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J374" t="n">
-        <v>7200</v>
+        <v>7900</v>
       </c>
       <c r="K374" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="L374" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="M374" t="n">
-        <v>653</v>
+        <v>221</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27303,11 +27303,11 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P374" t="n">
-        <v>653</v>
+        <v>221</v>
       </c>
       <c r="Q374" t="n">
         <v>1</v>
@@ -27353,20 +27353,20 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J375" t="n">
-        <v>2800</v>
+        <v>11600</v>
       </c>
       <c r="K375" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L375" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M375" t="n">
-        <v>300</v>
+        <v>549</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>300</v>
+        <v>549</v>
       </c>
       <c r="Q375" t="n">
         <v>1</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44372</v>
+        <v>44476</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -27429,16 +27429,16 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>14700</v>
+        <v>7200</v>
       </c>
       <c r="K376" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L376" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M376" t="n">
-        <v>372</v>
+        <v>653</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27447,11 +27447,11 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P376" t="n">
-        <v>372</v>
+        <v>653</v>
       </c>
       <c r="Q376" t="n">
         <v>1</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44372</v>
+        <v>44476</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27501,16 +27501,16 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>4400</v>
+        <v>2800</v>
       </c>
       <c r="K377" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L377" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M377" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q377" t="n">
         <v>1</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44201</v>
+        <v>44372</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -27573,16 +27573,16 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>5200</v>
+        <v>14700</v>
       </c>
       <c r="K378" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L378" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M378" t="n">
-        <v>750</v>
+        <v>372</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>750</v>
+        <v>372</v>
       </c>
       <c r="Q378" t="n">
         <v>1</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44201</v>
+        <v>44372</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -27645,16 +27645,16 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>2500</v>
+        <v>4400</v>
       </c>
       <c r="K379" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L379" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="M379" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="Q379" t="n">
         <v>1</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44482</v>
+        <v>44201</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -27717,16 +27717,16 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>10300</v>
+        <v>5200</v>
       </c>
       <c r="K380" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L380" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M380" t="n">
-        <v>534</v>
+        <v>750</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>534</v>
+        <v>750</v>
       </c>
       <c r="Q380" t="n">
         <v>1</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44482</v>
+        <v>44201</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -27785,20 +27785,20 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J381" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="K381" t="n">
         <v>600</v>
       </c>
       <c r="L381" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M381" t="n">
-        <v>658</v>
+        <v>600</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27807,11 +27807,11 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P381" t="n">
-        <v>658</v>
+        <v>600</v>
       </c>
       <c r="Q381" t="n">
         <v>1</v>
@@ -27857,20 +27857,20 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>3400</v>
+        <v>10300</v>
       </c>
       <c r="K382" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L382" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M382" t="n">
-        <v>400</v>
+        <v>534</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>400</v>
+        <v>534</v>
       </c>
       <c r="Q382" t="n">
         <v>1</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44293</v>
+        <v>44482</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -27933,16 +27933,16 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>22800</v>
+        <v>6500</v>
       </c>
       <c r="K383" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L383" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M383" t="n">
-        <v>437</v>
+        <v>658</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27951,11 +27951,11 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P383" t="n">
-        <v>437</v>
+        <v>658</v>
       </c>
       <c r="Q383" t="n">
         <v>1</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44293</v>
+        <v>44482</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -28005,16 +28005,16 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>4600</v>
+        <v>3400</v>
       </c>
       <c r="K384" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L384" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M384" t="n">
-        <v>239</v>
+        <v>400</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>239</v>
+        <v>400</v>
       </c>
       <c r="Q384" t="n">
         <v>1</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44204</v>
+        <v>44293</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -28077,16 +28077,16 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>7900</v>
+        <v>22800</v>
       </c>
       <c r="K385" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L385" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M385" t="n">
-        <v>750</v>
+        <v>437</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>750</v>
+        <v>437</v>
       </c>
       <c r="Q385" t="n">
         <v>1</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44204</v>
+        <v>44293</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -28149,16 +28149,16 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>3400</v>
+        <v>4600</v>
       </c>
       <c r="K386" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="L386" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M386" t="n">
-        <v>600</v>
+        <v>239</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>600</v>
+        <v>239</v>
       </c>
       <c r="Q386" t="n">
         <v>1</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44277</v>
+        <v>44204</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -28221,16 +28221,16 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>12000</v>
+        <v>7900</v>
       </c>
       <c r="K387" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L387" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M387" t="n">
-        <v>662</v>
+        <v>750</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>662</v>
+        <v>750</v>
       </c>
       <c r="Q387" t="n">
         <v>1</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44277</v>
+        <v>44204</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -28293,16 +28293,16 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>4500</v>
+        <v>3400</v>
       </c>
       <c r="K388" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L388" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M388" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q388" t="n">
         <v>1</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44218</v>
+        <v>44277</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -28361,11 +28361,11 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J389" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="K389" t="n">
         <v>600</v>
@@ -28374,7 +28374,7 @@
         <v>700</v>
       </c>
       <c r="M389" t="n">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="Q389" t="n">
         <v>1</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44166</v>
+        <v>44277</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -28433,20 +28433,20 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J390" t="n">
-        <v>20100</v>
+        <v>4500</v>
       </c>
       <c r="K390" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L390" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M390" t="n">
-        <v>652</v>
+        <v>500</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>652</v>
+        <v>500</v>
       </c>
       <c r="Q390" t="n">
         <v>1</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44166</v>
+        <v>44218</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -28509,16 +28509,16 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="K391" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L391" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M391" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="Q391" t="n">
         <v>1</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44477</v>
+        <v>44166</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28581,16 +28581,16 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>12800</v>
+        <v>20100</v>
       </c>
       <c r="K392" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L392" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M392" t="n">
-        <v>559</v>
+        <v>652</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>559</v>
+        <v>652</v>
       </c>
       <c r="Q392" t="n">
         <v>1</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44477</v>
+        <v>44166</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -28653,16 +28653,16 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>5900</v>
+        <v>7000</v>
       </c>
       <c r="K393" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L393" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M393" t="n">
-        <v>374</v>
+        <v>500</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>374</v>
+        <v>500</v>
       </c>
       <c r="Q393" t="n">
         <v>1</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44292</v>
+        <v>44477</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -28725,16 +28725,16 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>16600</v>
+        <v>12800</v>
       </c>
       <c r="K394" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L394" t="n">
         <v>600</v>
       </c>
       <c r="M394" t="n">
-        <v>497</v>
+        <v>559</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>497</v>
+        <v>559</v>
       </c>
       <c r="Q394" t="n">
         <v>1</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44292</v>
+        <v>44477</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -28797,16 +28797,16 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>7000</v>
+        <v>5900</v>
       </c>
       <c r="K395" t="n">
+        <v>350</v>
+      </c>
+      <c r="L395" t="n">
         <v>400</v>
       </c>
-      <c r="L395" t="n">
-        <v>450</v>
-      </c>
       <c r="M395" t="n">
-        <v>427</v>
+        <v>374</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>427</v>
+        <v>374</v>
       </c>
       <c r="Q395" t="n">
         <v>1</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44508</v>
+        <v>44292</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28869,16 +28869,16 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>74400</v>
+        <v>16600</v>
       </c>
       <c r="K396" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L396" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="M396" t="n">
-        <v>584</v>
+        <v>497</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>584</v>
+        <v>497</v>
       </c>
       <c r="Q396" t="n">
         <v>1</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44508</v>
+        <v>44292</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28941,16 +28941,16 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>1900</v>
+        <v>7000</v>
       </c>
       <c r="K397" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L397" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="M397" t="n">
-        <v>600</v>
+        <v>427</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>600</v>
+        <v>427</v>
       </c>
       <c r="Q397" t="n">
         <v>1</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -29013,16 +29013,16 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>9000</v>
+        <v>74400</v>
       </c>
       <c r="K398" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L398" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M398" t="n">
-        <v>536</v>
+        <v>584</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>536</v>
+        <v>584</v>
       </c>
       <c r="Q398" t="n">
         <v>1</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -29081,20 +29081,20 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J399" t="n">
-        <v>2800</v>
+        <v>1900</v>
       </c>
       <c r="K399" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L399" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M399" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29103,11 +29103,11 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P399" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q399" t="n">
         <v>1</v>
@@ -29153,20 +29153,20 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J400" t="n">
-        <v>3400</v>
+        <v>9000</v>
       </c>
       <c r="K400" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L400" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M400" t="n">
-        <v>400</v>
+        <v>536</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>400</v>
+        <v>536</v>
       </c>
       <c r="Q400" t="n">
         <v>1</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -29229,16 +29229,16 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>16200</v>
+        <v>2800</v>
       </c>
       <c r="K401" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L401" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M401" t="n">
-        <v>353</v>
+        <v>500</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29247,11 +29247,11 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P401" t="n">
-        <v>353</v>
+        <v>500</v>
       </c>
       <c r="Q401" t="n">
         <v>1</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -29301,16 +29301,16 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>5600</v>
+        <v>3400</v>
       </c>
       <c r="K402" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L402" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M402" t="n">
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="Q402" t="n">
         <v>1</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -29373,16 +29373,16 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>9100</v>
+        <v>16200</v>
       </c>
       <c r="K403" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L403" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M403" t="n">
-        <v>486</v>
+        <v>353</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>486</v>
+        <v>353</v>
       </c>
       <c r="Q403" t="n">
         <v>1</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -29445,16 +29445,16 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>4000</v>
+        <v>5600</v>
       </c>
       <c r="K404" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="L404" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M404" t="n">
-        <v>350</v>
+        <v>275</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>350</v>
+        <v>275</v>
       </c>
       <c r="Q404" t="n">
         <v>1</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29517,16 +29517,16 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>15600</v>
+        <v>9100</v>
       </c>
       <c r="K405" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L405" t="n">
         <v>500</v>
       </c>
       <c r="M405" t="n">
-        <v>430</v>
+        <v>486</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>430</v>
+        <v>486</v>
       </c>
       <c r="Q405" t="n">
         <v>1</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29589,16 +29589,16 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>5200</v>
+        <v>4000</v>
       </c>
       <c r="K406" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L406" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M406" t="n">
-        <v>273</v>
+        <v>350</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>273</v>
+        <v>350</v>
       </c>
       <c r="Q406" t="n">
         <v>1</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -29661,16 +29661,16 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>7200</v>
+        <v>15600</v>
       </c>
       <c r="K407" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L407" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M407" t="n">
-        <v>739</v>
+        <v>430</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29679,11 +29679,11 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P407" t="n">
-        <v>739</v>
+        <v>430</v>
       </c>
       <c r="Q407" t="n">
         <v>1</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29733,16 +29733,16 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>2300</v>
+        <v>5200</v>
       </c>
       <c r="K408" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L408" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M408" t="n">
-        <v>500</v>
+        <v>273</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29751,11 +29751,11 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P408" t="n">
-        <v>500</v>
+        <v>273</v>
       </c>
       <c r="Q408" t="n">
         <v>1</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29805,16 +29805,16 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>10200</v>
+        <v>7200</v>
       </c>
       <c r="K409" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L409" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M409" t="n">
-        <v>567</v>
+        <v>739</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29823,11 +29823,11 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P409" t="n">
-        <v>567</v>
+        <v>739</v>
       </c>
       <c r="Q409" t="n">
         <v>1</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29873,20 +29873,20 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J410" t="n">
-        <v>6700</v>
+        <v>2300</v>
       </c>
       <c r="K410" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L410" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M410" t="n">
-        <v>749</v>
+        <v>500</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29895,11 +29895,11 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P410" t="n">
-        <v>749</v>
+        <v>500</v>
       </c>
       <c r="Q410" t="n">
         <v>1</v>
@@ -29945,20 +29945,20 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J411" t="n">
-        <v>3200</v>
+        <v>10200</v>
       </c>
       <c r="K411" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L411" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M411" t="n">
-        <v>400</v>
+        <v>567</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>400</v>
+        <v>567</v>
       </c>
       <c r="Q411" t="n">
         <v>1</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30021,7 +30021,7 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>7900</v>
+        <v>6700</v>
       </c>
       <c r="K412" t="n">
         <v>700</v>
@@ -30030,7 +30030,7 @@
         <v>800</v>
       </c>
       <c r="M412" t="n">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30039,11 +30039,11 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P412" t="n">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="Q412" t="n">
         <v>1</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -30093,16 +30093,16 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K413" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L413" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M413" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q413" t="n">
         <v>1</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -30165,16 +30165,16 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>13300</v>
+        <v>7900</v>
       </c>
       <c r="K414" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L414" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M414" t="n">
-        <v>549</v>
+        <v>750</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>549</v>
+        <v>750</v>
       </c>
       <c r="Q414" t="n">
         <v>1</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30237,16 +30237,16 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>4400</v>
+        <v>3400</v>
       </c>
       <c r="K415" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L415" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M415" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q415" t="n">
         <v>1</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30309,16 +30309,16 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>6100</v>
+        <v>13300</v>
       </c>
       <c r="K416" t="n">
+        <v>500</v>
+      </c>
+      <c r="L416" t="n">
         <v>600</v>
       </c>
-      <c r="L416" t="n">
-        <v>700</v>
-      </c>
       <c r="M416" t="n">
-        <v>650</v>
+        <v>549</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>650</v>
+        <v>549</v>
       </c>
       <c r="Q416" t="n">
         <v>1</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -30381,16 +30381,16 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>3400</v>
+        <v>4400</v>
       </c>
       <c r="K417" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L417" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M417" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q417" t="n">
         <v>1</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -30453,16 +30453,16 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>18700</v>
+        <v>6100</v>
       </c>
       <c r="K418" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L418" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M418" t="n">
-        <v>543</v>
+        <v>650</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>543</v>
+        <v>650</v>
       </c>
       <c r="Q418" t="n">
         <v>1</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -30521,20 +30521,20 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>4200</v>
+        <v>3400</v>
       </c>
       <c r="K419" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L419" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M419" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30543,11 +30543,11 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P419" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q419" t="n">
         <v>1</v>
@@ -30593,20 +30593,20 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>5000</v>
+        <v>18700</v>
       </c>
       <c r="K420" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L420" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M420" t="n">
-        <v>364</v>
+        <v>543</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>364</v>
+        <v>543</v>
       </c>
       <c r="Q420" t="n">
         <v>1</v>
@@ -30665,20 +30665,20 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J421" t="n">
-        <v>600</v>
+        <v>4200</v>
       </c>
       <c r="K421" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L421" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M421" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q421" t="n">
         <v>1</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -30737,20 +30737,20 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J422" t="n">
-        <v>6700</v>
+        <v>5000</v>
       </c>
       <c r="K422" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L422" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M422" t="n">
-        <v>549</v>
+        <v>364</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>549</v>
+        <v>364</v>
       </c>
       <c r="Q422" t="n">
         <v>1</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -30809,20 +30809,20 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J423" t="n">
-        <v>27300</v>
+        <v>600</v>
       </c>
       <c r="K423" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L423" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M423" t="n">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30831,11 +30831,11 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P423" t="n">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="Q423" t="n">
         <v>1</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30881,20 +30881,20 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J424" t="n">
-        <v>9700</v>
+        <v>6700</v>
       </c>
       <c r="K424" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L424" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M424" t="n">
-        <v>354</v>
+        <v>549</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>354</v>
+        <v>549</v>
       </c>
       <c r="Q424" t="n">
         <v>1</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -30957,16 +30957,16 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>6100</v>
+        <v>27300</v>
       </c